--- a/AAII_Financials/Yearly/CNI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CNI_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11229400</v>
+        <v>10840000</v>
       </c>
       <c r="E8" s="3">
-        <v>10780700</v>
+        <v>10406900</v>
       </c>
       <c r="F8" s="3">
-        <v>9817100</v>
+        <v>9476800</v>
       </c>
       <c r="G8" s="3">
-        <v>9061300</v>
+        <v>8747200</v>
       </c>
       <c r="H8" s="3">
-        <v>9493400</v>
+        <v>9164300</v>
       </c>
       <c r="I8" s="3">
-        <v>9134400</v>
+        <v>8817700</v>
       </c>
       <c r="J8" s="3">
-        <v>7960800</v>
+        <v>7684700</v>
       </c>
       <c r="K8" s="3">
         <v>7382600</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2938900</v>
+        <v>2837000</v>
       </c>
       <c r="E9" s="3">
-        <v>2787600</v>
+        <v>2690900</v>
       </c>
       <c r="F9" s="3">
-        <v>2357000</v>
+        <v>2275300</v>
       </c>
       <c r="G9" s="3">
-        <v>1989600</v>
+        <v>1920600</v>
       </c>
       <c r="H9" s="3">
-        <v>2268900</v>
+        <v>2190200</v>
       </c>
       <c r="I9" s="3">
-        <v>2592600</v>
+        <v>2502700</v>
       </c>
       <c r="J9" s="3">
-        <v>2235800</v>
+        <v>2158300</v>
       </c>
       <c r="K9" s="3">
         <v>2063000</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8290500</v>
+        <v>8003000</v>
       </c>
       <c r="E10" s="3">
-        <v>7993100</v>
+        <v>7716000</v>
       </c>
       <c r="F10" s="3">
-        <v>7460100</v>
+        <v>7201500</v>
       </c>
       <c r="G10" s="3">
-        <v>7071700</v>
+        <v>6826500</v>
       </c>
       <c r="H10" s="3">
-        <v>7224500</v>
+        <v>6974000</v>
       </c>
       <c r="I10" s="3">
-        <v>6541700</v>
+        <v>6314900</v>
       </c>
       <c r="J10" s="3">
-        <v>5725000</v>
+        <v>5526500</v>
       </c>
       <c r="K10" s="3">
         <v>5319600</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1175900</v>
+        <v>1135100</v>
       </c>
       <c r="E15" s="3">
-        <v>1000500</v>
+        <v>965800</v>
       </c>
       <c r="F15" s="3">
-        <v>964300</v>
+        <v>930900</v>
       </c>
       <c r="G15" s="3">
-        <v>922200</v>
+        <v>890200</v>
       </c>
       <c r="H15" s="3">
-        <v>871700</v>
+        <v>841500</v>
       </c>
       <c r="I15" s="3">
-        <v>790400</v>
+        <v>763000</v>
       </c>
       <c r="J15" s="3">
-        <v>737700</v>
+        <v>712200</v>
       </c>
       <c r="K15" s="3">
         <v>687700</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7019000</v>
+        <v>6775700</v>
       </c>
       <c r="E17" s="3">
-        <v>6645600</v>
+        <v>6415200</v>
       </c>
       <c r="F17" s="3">
-        <v>5870300</v>
+        <v>5666700</v>
       </c>
       <c r="G17" s="3">
-        <v>5273300</v>
+        <v>5090500</v>
       </c>
       <c r="H17" s="3">
-        <v>5529200</v>
+        <v>5337500</v>
       </c>
       <c r="I17" s="3">
-        <v>5653500</v>
+        <v>5457400</v>
       </c>
       <c r="J17" s="3">
-        <v>5045200</v>
+        <v>4870300</v>
       </c>
       <c r="K17" s="3">
         <v>4640100</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4210400</v>
+        <v>4064400</v>
       </c>
       <c r="E18" s="3">
-        <v>4135100</v>
+        <v>3991700</v>
       </c>
       <c r="F18" s="3">
-        <v>3946900</v>
+        <v>3810000</v>
       </c>
       <c r="G18" s="3">
-        <v>3788000</v>
+        <v>3656700</v>
       </c>
       <c r="H18" s="3">
-        <v>3964200</v>
+        <v>3826700</v>
       </c>
       <c r="I18" s="3">
-        <v>3480900</v>
+        <v>3360200</v>
       </c>
       <c r="J18" s="3">
-        <v>2915600</v>
+        <v>2814500</v>
       </c>
       <c r="K18" s="3">
         <v>2742400</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>281500</v>
+        <v>271800</v>
       </c>
       <c r="E20" s="3">
-        <v>510400</v>
+        <v>492700</v>
       </c>
       <c r="F20" s="3">
-        <v>246200</v>
+        <v>237600</v>
       </c>
       <c r="G20" s="3">
-        <v>282300</v>
+        <v>272500</v>
       </c>
       <c r="H20" s="3">
-        <v>35400</v>
+        <v>34200</v>
       </c>
       <c r="I20" s="3">
-        <v>80500</v>
+        <v>77800</v>
       </c>
       <c r="J20" s="3">
-        <v>55000</v>
+        <v>53000</v>
       </c>
       <c r="K20" s="3">
         <v>234400</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5668300</v>
+        <v>5472200</v>
       </c>
       <c r="E21" s="3">
-        <v>5646400</v>
+        <v>5450900</v>
       </c>
       <c r="F21" s="3">
-        <v>5157800</v>
+        <v>4979300</v>
       </c>
       <c r="G21" s="3">
-        <v>4992900</v>
+        <v>4820100</v>
       </c>
       <c r="H21" s="3">
-        <v>4871700</v>
+        <v>4703100</v>
       </c>
       <c r="I21" s="3">
-        <v>4352200</v>
+        <v>4201600</v>
       </c>
       <c r="J21" s="3">
-        <v>3708600</v>
+        <v>3580200</v>
       </c>
       <c r="K21" s="3">
         <v>3665900</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>405000</v>
+        <v>391000</v>
       </c>
       <c r="E22" s="3">
-        <v>368100</v>
+        <v>355400</v>
       </c>
       <c r="F22" s="3">
-        <v>362100</v>
+        <v>349500</v>
       </c>
       <c r="G22" s="3">
-        <v>361300</v>
+        <v>348800</v>
       </c>
       <c r="H22" s="3">
-        <v>330500</v>
+        <v>319000</v>
       </c>
       <c r="I22" s="3">
-        <v>279300</v>
+        <v>269600</v>
       </c>
       <c r="J22" s="3">
-        <v>268700</v>
+        <v>259400</v>
       </c>
       <c r="K22" s="3">
         <v>254500</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4086900</v>
+        <v>3945200</v>
       </c>
       <c r="E23" s="3">
-        <v>4277400</v>
+        <v>4129100</v>
       </c>
       <c r="F23" s="3">
-        <v>3830900</v>
+        <v>3698100</v>
       </c>
       <c r="G23" s="3">
-        <v>3709000</v>
+        <v>3580400</v>
       </c>
       <c r="H23" s="3">
-        <v>3669100</v>
+        <v>3541900</v>
       </c>
       <c r="I23" s="3">
-        <v>3282200</v>
+        <v>3168400</v>
       </c>
       <c r="J23" s="3">
-        <v>2701800</v>
+        <v>2608100</v>
       </c>
       <c r="K23" s="3">
         <v>2722300</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>913100</v>
+        <v>881500</v>
       </c>
       <c r="E24" s="3">
-        <v>1019300</v>
+        <v>983900</v>
       </c>
       <c r="F24" s="3">
-        <v>-1625300</v>
+        <v>-1568900</v>
       </c>
       <c r="G24" s="3">
-        <v>968800</v>
+        <v>935300</v>
       </c>
       <c r="H24" s="3">
-        <v>1005700</v>
+        <v>970900</v>
       </c>
       <c r="I24" s="3">
-        <v>898100</v>
+        <v>866900</v>
       </c>
       <c r="J24" s="3">
-        <v>735500</v>
+        <v>710000</v>
       </c>
       <c r="K24" s="3">
         <v>727800</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3173800</v>
+        <v>3063700</v>
       </c>
       <c r="E26" s="3">
-        <v>3258100</v>
+        <v>3145100</v>
       </c>
       <c r="F26" s="3">
-        <v>5456200</v>
+        <v>5267000</v>
       </c>
       <c r="G26" s="3">
-        <v>2740200</v>
+        <v>2645200</v>
       </c>
       <c r="H26" s="3">
-        <v>2663400</v>
+        <v>2571000</v>
       </c>
       <c r="I26" s="3">
-        <v>2384100</v>
+        <v>2301400</v>
       </c>
       <c r="J26" s="3">
-        <v>1966300</v>
+        <v>1898100</v>
       </c>
       <c r="K26" s="3">
         <v>1994500</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3173800</v>
+        <v>3063700</v>
       </c>
       <c r="E27" s="3">
-        <v>3258100</v>
+        <v>3145100</v>
       </c>
       <c r="F27" s="3">
-        <v>5456200</v>
+        <v>5267000</v>
       </c>
       <c r="G27" s="3">
-        <v>2740200</v>
+        <v>2645200</v>
       </c>
       <c r="H27" s="3">
-        <v>2663400</v>
+        <v>2571000</v>
       </c>
       <c r="I27" s="3">
-        <v>2384100</v>
+        <v>2301400</v>
       </c>
       <c r="J27" s="3">
-        <v>1966300</v>
+        <v>1898100</v>
       </c>
       <c r="K27" s="3">
         <v>1994500</v>
@@ -1359,7 +1359,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="3">
-        <v>-1327900</v>
+        <v>-1281900</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-281500</v>
+        <v>-271800</v>
       </c>
       <c r="E32" s="3">
-        <v>-510400</v>
+        <v>-492700</v>
       </c>
       <c r="F32" s="3">
-        <v>-246200</v>
+        <v>-237600</v>
       </c>
       <c r="G32" s="3">
-        <v>-282300</v>
+        <v>-272500</v>
       </c>
       <c r="H32" s="3">
-        <v>-35400</v>
+        <v>-34200</v>
       </c>
       <c r="I32" s="3">
-        <v>-80500</v>
+        <v>-77800</v>
       </c>
       <c r="J32" s="3">
-        <v>-55000</v>
+        <v>-53000</v>
       </c>
       <c r="K32" s="3">
         <v>-234400</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3173800</v>
+        <v>3063700</v>
       </c>
       <c r="E33" s="3">
-        <v>3258100</v>
+        <v>3145100</v>
       </c>
       <c r="F33" s="3">
-        <v>4128300</v>
+        <v>3985200</v>
       </c>
       <c r="G33" s="3">
-        <v>2740200</v>
+        <v>2645200</v>
       </c>
       <c r="H33" s="3">
-        <v>2663400</v>
+        <v>2571000</v>
       </c>
       <c r="I33" s="3">
-        <v>2384100</v>
+        <v>2301400</v>
       </c>
       <c r="J33" s="3">
-        <v>1966300</v>
+        <v>1898100</v>
       </c>
       <c r="K33" s="3">
         <v>1994500</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3173800</v>
+        <v>3063700</v>
       </c>
       <c r="E35" s="3">
-        <v>3258100</v>
+        <v>3145100</v>
       </c>
       <c r="F35" s="3">
-        <v>4128300</v>
+        <v>3985200</v>
       </c>
       <c r="G35" s="3">
-        <v>2740200</v>
+        <v>2645200</v>
       </c>
       <c r="H35" s="3">
-        <v>2663400</v>
+        <v>2571000</v>
       </c>
       <c r="I35" s="3">
-        <v>2384100</v>
+        <v>2301400</v>
       </c>
       <c r="J35" s="3">
-        <v>1966300</v>
+        <v>1898100</v>
       </c>
       <c r="K35" s="3">
         <v>1994500</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>48200</v>
+        <v>46500</v>
       </c>
       <c r="E41" s="3">
-        <v>200200</v>
+        <v>193200</v>
       </c>
       <c r="F41" s="3">
-        <v>52700</v>
+        <v>50800</v>
       </c>
       <c r="G41" s="3">
-        <v>132500</v>
+        <v>127800</v>
       </c>
       <c r="H41" s="3">
-        <v>115200</v>
+        <v>111100</v>
       </c>
       <c r="I41" s="3">
-        <v>39100</v>
+        <v>37800</v>
       </c>
       <c r="J41" s="3">
-        <v>161100</v>
+        <v>155400</v>
       </c>
       <c r="K41" s="3">
         <v>115400</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>913100</v>
+        <v>881000</v>
       </c>
       <c r="E43" s="3">
-        <v>880000</v>
+        <v>849000</v>
       </c>
       <c r="F43" s="3">
-        <v>740700</v>
+        <v>714600</v>
       </c>
       <c r="G43" s="3">
-        <v>658700</v>
+        <v>635500</v>
       </c>
       <c r="H43" s="3">
-        <v>660900</v>
+        <v>637700</v>
       </c>
       <c r="I43" s="3">
-        <v>698600</v>
+        <v>674000</v>
       </c>
       <c r="J43" s="3">
-        <v>613500</v>
+        <v>591900</v>
       </c>
       <c r="K43" s="3">
         <v>618400</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>460000</v>
+        <v>443800</v>
       </c>
       <c r="E44" s="3">
-        <v>419300</v>
+        <v>404500</v>
       </c>
       <c r="F44" s="3">
-        <v>319200</v>
+        <v>307900</v>
       </c>
       <c r="G44" s="3">
-        <v>267200</v>
+        <v>257800</v>
       </c>
       <c r="H44" s="3">
-        <v>267200</v>
+        <v>257800</v>
       </c>
       <c r="I44" s="3">
-        <v>252200</v>
+        <v>243300</v>
       </c>
       <c r="J44" s="3">
-        <v>206300</v>
+        <v>199000</v>
       </c>
       <c r="K44" s="3">
         <v>171200</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>709100</v>
+        <v>684100</v>
       </c>
       <c r="E45" s="3">
-        <v>554100</v>
+        <v>534500</v>
       </c>
       <c r="F45" s="3">
-        <v>536000</v>
+        <v>517100</v>
       </c>
       <c r="G45" s="3">
-        <v>527700</v>
+        <v>509100</v>
       </c>
       <c r="H45" s="3">
-        <v>577400</v>
+        <v>557000</v>
       </c>
       <c r="I45" s="3">
-        <v>633100</v>
+        <v>610800</v>
       </c>
       <c r="J45" s="3">
-        <v>507400</v>
+        <v>489500</v>
       </c>
       <c r="K45" s="3">
         <v>486000</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2130400</v>
+        <v>2055300</v>
       </c>
       <c r="E46" s="3">
-        <v>2053600</v>
+        <v>1981300</v>
       </c>
       <c r="F46" s="3">
-        <v>1648600</v>
+        <v>1590500</v>
       </c>
       <c r="G46" s="3">
-        <v>1586100</v>
+        <v>1530300</v>
       </c>
       <c r="H46" s="3">
-        <v>1620800</v>
+        <v>1563700</v>
       </c>
       <c r="I46" s="3">
-        <v>1500300</v>
+        <v>1447500</v>
       </c>
       <c r="J46" s="3">
-        <v>1488300</v>
+        <v>1435800</v>
       </c>
       <c r="K46" s="3">
         <v>1390900</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>86600</v>
+        <v>83500</v>
       </c>
       <c r="E47" s="3">
-        <v>72300</v>
+        <v>69700</v>
       </c>
       <c r="F47" s="3">
-        <v>74500</v>
+        <v>71900</v>
       </c>
       <c r="G47" s="3">
-        <v>76000</v>
+        <v>73400</v>
       </c>
       <c r="H47" s="3">
-        <v>160300</v>
+        <v>154700</v>
       </c>
       <c r="I47" s="3">
-        <v>149800</v>
+        <v>144500</v>
       </c>
       <c r="J47" s="3">
-        <v>133200</v>
+        <v>128500</v>
       </c>
       <c r="K47" s="3">
         <v>87100</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>30253900</v>
+        <v>29188100</v>
       </c>
       <c r="E48" s="3">
-        <v>28435100</v>
+        <v>27433400</v>
       </c>
       <c r="F48" s="3">
-        <v>25737100</v>
+        <v>24830400</v>
       </c>
       <c r="G48" s="3">
-        <v>25410400</v>
+        <v>24515200</v>
       </c>
       <c r="H48" s="3">
-        <v>24559000</v>
+        <v>23693800</v>
       </c>
       <c r="I48" s="3">
-        <v>21465100</v>
+        <v>20708900</v>
       </c>
       <c r="J48" s="3">
-        <v>19743400</v>
+        <v>19047900</v>
       </c>
       <c r="K48" s="3">
         <v>18263700</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>172400</v>
+        <v>166300</v>
       </c>
       <c r="E49" s="3">
-        <v>55000</v>
+        <v>53000</v>
       </c>
       <c r="F49" s="3">
-        <v>46700</v>
+        <v>45000</v>
       </c>
       <c r="G49" s="3">
-        <v>50400</v>
+        <v>48700</v>
       </c>
       <c r="H49" s="3">
-        <v>53400</v>
+        <v>51600</v>
       </c>
       <c r="I49" s="3">
-        <v>46700</v>
+        <v>45000</v>
       </c>
       <c r="J49" s="3">
-        <v>44400</v>
+        <v>42800</v>
       </c>
       <c r="K49" s="3">
         <v>42400</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>316900</v>
+        <v>305800</v>
       </c>
       <c r="E52" s="3">
-        <v>409500</v>
+        <v>395100</v>
       </c>
       <c r="F52" s="3">
-        <v>819800</v>
+        <v>790900</v>
       </c>
       <c r="G52" s="3">
-        <v>773100</v>
+        <v>745900</v>
       </c>
       <c r="H52" s="3">
-        <v>1009500</v>
+        <v>973900</v>
       </c>
       <c r="I52" s="3">
-        <v>691800</v>
+        <v>667400</v>
       </c>
       <c r="J52" s="3">
-        <v>2556500</v>
+        <v>2466400</v>
       </c>
       <c r="K52" s="3">
         <v>55800</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>32960200</v>
+        <v>31799000</v>
       </c>
       <c r="E54" s="3">
-        <v>31025500</v>
+        <v>29932500</v>
       </c>
       <c r="F54" s="3">
-        <v>28326700</v>
+        <v>27328800</v>
       </c>
       <c r="G54" s="3">
-        <v>27896100</v>
+        <v>26913400</v>
       </c>
       <c r="H54" s="3">
-        <v>27403100</v>
+        <v>26437700</v>
       </c>
       <c r="I54" s="3">
-        <v>23853700</v>
+        <v>23013300</v>
       </c>
       <c r="J54" s="3">
-        <v>22706400</v>
+        <v>21906500</v>
       </c>
       <c r="K54" s="3">
         <v>19839900</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>651900</v>
+        <v>628900</v>
       </c>
       <c r="E57" s="3">
-        <v>739200</v>
+        <v>713200</v>
       </c>
       <c r="F57" s="3">
-        <v>1418300</v>
+        <v>1368300</v>
       </c>
       <c r="G57" s="3">
-        <v>1142700</v>
+        <v>1102500</v>
       </c>
       <c r="H57" s="3">
-        <v>1169800</v>
+        <v>1128600</v>
       </c>
       <c r="I57" s="3">
-        <v>1247400</v>
+        <v>1203400</v>
       </c>
       <c r="J57" s="3">
-        <v>1419000</v>
+        <v>1369000</v>
       </c>
       <c r="K57" s="3">
         <v>287300</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1452900</v>
+        <v>1401700</v>
       </c>
       <c r="E58" s="3">
-        <v>891300</v>
+        <v>859900</v>
       </c>
       <c r="F58" s="3">
-        <v>1565800</v>
+        <v>1510600</v>
       </c>
       <c r="G58" s="3">
-        <v>1120900</v>
+        <v>1081400</v>
       </c>
       <c r="H58" s="3">
-        <v>1085500</v>
+        <v>1047300</v>
       </c>
       <c r="I58" s="3">
-        <v>409500</v>
+        <v>395100</v>
       </c>
       <c r="J58" s="3">
-        <v>768600</v>
+        <v>741500</v>
       </c>
       <c r="K58" s="3">
         <v>429400</v>
@@ -2210,16 +2210,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1122400</v>
+        <v>1082900</v>
       </c>
       <c r="E59" s="3">
-        <v>1004200</v>
+        <v>968800</v>
       </c>
       <c r="F59" s="3">
-        <v>14300</v>
+        <v>13800</v>
       </c>
       <c r="G59" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H59" s="3">
         <v>1500</v>
@@ -2228,7 +2228,7 @@
         <v>8</v>
       </c>
       <c r="J59" s="3">
-        <v>804700</v>
+        <v>776400</v>
       </c>
       <c r="K59" s="3">
         <v>922800</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3227200</v>
+        <v>3113500</v>
       </c>
       <c r="E60" s="3">
-        <v>2634800</v>
+        <v>2541900</v>
       </c>
       <c r="F60" s="3">
-        <v>2998400</v>
+        <v>2892700</v>
       </c>
       <c r="G60" s="3">
-        <v>2264400</v>
+        <v>2184600</v>
       </c>
       <c r="H60" s="3">
-        <v>2256900</v>
+        <v>2177400</v>
       </c>
       <c r="I60" s="3">
-        <v>1656900</v>
+        <v>1598500</v>
       </c>
       <c r="J60" s="3">
-        <v>1880500</v>
+        <v>1814200</v>
       </c>
       <c r="K60" s="3">
         <v>1639500</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8932600</v>
+        <v>8617900</v>
       </c>
       <c r="E61" s="3">
-        <v>8570500</v>
+        <v>8268600</v>
       </c>
       <c r="F61" s="3">
-        <v>6585400</v>
+        <v>6353400</v>
       </c>
       <c r="G61" s="3">
-        <v>7112400</v>
+        <v>6861800</v>
       </c>
       <c r="H61" s="3">
-        <v>6763800</v>
+        <v>6525500</v>
       </c>
       <c r="I61" s="3">
-        <v>5892800</v>
+        <v>5685200</v>
       </c>
       <c r="J61" s="3">
-        <v>5133300</v>
+        <v>4952400</v>
       </c>
       <c r="K61" s="3">
         <v>4705600</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7219300</v>
+        <v>6964900</v>
       </c>
       <c r="E62" s="3">
-        <v>6540200</v>
+        <v>6309800</v>
       </c>
       <c r="F62" s="3">
-        <v>6204500</v>
+        <v>5985900</v>
       </c>
       <c r="G62" s="3">
-        <v>7347200</v>
+        <v>7088400</v>
       </c>
       <c r="H62" s="3">
-        <v>7128200</v>
+        <v>6877100</v>
       </c>
       <c r="I62" s="3">
-        <v>6163800</v>
+        <v>5946700</v>
       </c>
       <c r="J62" s="3">
-        <v>6733700</v>
+        <v>6496500</v>
       </c>
       <c r="K62" s="3">
         <v>5295100</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19379100</v>
+        <v>18696400</v>
       </c>
       <c r="E66" s="3">
-        <v>17745500</v>
+        <v>17120400</v>
       </c>
       <c r="F66" s="3">
-        <v>15788300</v>
+        <v>15232100</v>
       </c>
       <c r="G66" s="3">
-        <v>16724000</v>
+        <v>16134800</v>
       </c>
       <c r="H66" s="3">
-        <v>16148900</v>
+        <v>15579900</v>
       </c>
       <c r="I66" s="3">
-        <v>13713600</v>
+        <v>13230500</v>
       </c>
       <c r="J66" s="3">
-        <v>12955500</v>
+        <v>12499100</v>
       </c>
       <c r="K66" s="3">
         <v>11640200</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>13274700</v>
+        <v>12807000</v>
       </c>
       <c r="E72" s="3">
-        <v>12513600</v>
+        <v>12072800</v>
       </c>
       <c r="F72" s="3">
-        <v>11733000</v>
+        <v>11319600</v>
       </c>
       <c r="G72" s="3">
-        <v>9968400</v>
+        <v>9617300</v>
       </c>
       <c r="H72" s="3">
-        <v>9513000</v>
+        <v>9177900</v>
       </c>
       <c r="I72" s="3">
-        <v>8837800</v>
+        <v>8526400</v>
       </c>
       <c r="J72" s="3">
-        <v>8121100</v>
+        <v>7835000</v>
       </c>
       <c r="K72" s="3">
         <v>7566400</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13581100</v>
+        <v>13102600</v>
       </c>
       <c r="E76" s="3">
-        <v>13280000</v>
+        <v>12812100</v>
       </c>
       <c r="F76" s="3">
-        <v>12538500</v>
+        <v>12096800</v>
       </c>
       <c r="G76" s="3">
-        <v>11172200</v>
+        <v>10778600</v>
       </c>
       <c r="H76" s="3">
-        <v>11254200</v>
+        <v>10857700</v>
       </c>
       <c r="I76" s="3">
-        <v>10140100</v>
+        <v>9782900</v>
       </c>
       <c r="J76" s="3">
-        <v>9750900</v>
+        <v>9407400</v>
       </c>
       <c r="K76" s="3">
         <v>8199700</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3173800</v>
+        <v>3063700</v>
       </c>
       <c r="E81" s="3">
-        <v>3258100</v>
+        <v>3145100</v>
       </c>
       <c r="F81" s="3">
-        <v>4128300</v>
+        <v>3985200</v>
       </c>
       <c r="G81" s="3">
-        <v>2740200</v>
+        <v>2645200</v>
       </c>
       <c r="H81" s="3">
-        <v>2663400</v>
+        <v>2571000</v>
       </c>
       <c r="I81" s="3">
-        <v>2384100</v>
+        <v>2301400</v>
       </c>
       <c r="J81" s="3">
-        <v>1966300</v>
+        <v>1898100</v>
       </c>
       <c r="K81" s="3">
         <v>1994500</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1175900</v>
+        <v>1135100</v>
       </c>
       <c r="E83" s="3">
-        <v>1000500</v>
+        <v>965800</v>
       </c>
       <c r="F83" s="3">
-        <v>964300</v>
+        <v>930900</v>
       </c>
       <c r="G83" s="3">
-        <v>922200</v>
+        <v>890200</v>
       </c>
       <c r="H83" s="3">
-        <v>871700</v>
+        <v>841500</v>
       </c>
       <c r="I83" s="3">
-        <v>790400</v>
+        <v>763000</v>
       </c>
       <c r="J83" s="3">
-        <v>737700</v>
+        <v>712200</v>
       </c>
       <c r="K83" s="3">
         <v>687700</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4458800</v>
+        <v>4304200</v>
       </c>
       <c r="E89" s="3">
-        <v>4455000</v>
+        <v>4300600</v>
       </c>
       <c r="F89" s="3">
-        <v>4152400</v>
+        <v>4008400</v>
       </c>
       <c r="G89" s="3">
-        <v>3916000</v>
+        <v>3780200</v>
       </c>
       <c r="H89" s="3">
-        <v>3869300</v>
+        <v>3735200</v>
       </c>
       <c r="I89" s="3">
-        <v>3298000</v>
+        <v>3183600</v>
       </c>
       <c r="J89" s="3">
-        <v>2670900</v>
+        <v>2578300</v>
       </c>
       <c r="K89" s="3">
         <v>2277300</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2909500</v>
+        <v>-2808700</v>
       </c>
       <c r="E91" s="3">
-        <v>-2658100</v>
+        <v>-2565900</v>
       </c>
       <c r="F91" s="3">
-        <v>-2012200</v>
+        <v>-1942400</v>
       </c>
       <c r="G91" s="3">
-        <v>-2028800</v>
+        <v>-1958400</v>
       </c>
       <c r="H91" s="3">
-        <v>-2037000</v>
+        <v>-1966400</v>
       </c>
       <c r="I91" s="3">
-        <v>-1729200</v>
+        <v>-1669200</v>
       </c>
       <c r="J91" s="3">
-        <v>-1485300</v>
+        <v>-1433800</v>
       </c>
       <c r="K91" s="3">
         <v>-1288200</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3154200</v>
+        <v>-3044800</v>
       </c>
       <c r="E94" s="3">
-        <v>-2562500</v>
+        <v>-2473700</v>
       </c>
       <c r="F94" s="3">
-        <v>-2061100</v>
+        <v>-1989700</v>
       </c>
       <c r="G94" s="3">
-        <v>-2019000</v>
+        <v>-1949000</v>
       </c>
       <c r="H94" s="3">
-        <v>-2128100</v>
+        <v>-2054400</v>
       </c>
       <c r="I94" s="3">
-        <v>-1638100</v>
+        <v>-1581300</v>
       </c>
       <c r="J94" s="3">
-        <v>-1394200</v>
+        <v>-1345800</v>
       </c>
       <c r="K94" s="3">
         <v>-1057500</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1162300</v>
+        <v>-1122000</v>
       </c>
       <c r="E96" s="3">
-        <v>-1003500</v>
+        <v>-968700</v>
       </c>
       <c r="F96" s="3">
-        <v>-932700</v>
+        <v>-900400</v>
       </c>
       <c r="G96" s="3">
-        <v>-872500</v>
+        <v>-842200</v>
       </c>
       <c r="H96" s="3">
-        <v>-749800</v>
+        <v>-723800</v>
       </c>
       <c r="I96" s="3">
-        <v>-615800</v>
+        <v>-594400</v>
       </c>
       <c r="J96" s="3">
-        <v>-545000</v>
+        <v>-526100</v>
       </c>
       <c r="K96" s="3">
         <v>-485200</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1432600</v>
+        <v>-1382900</v>
       </c>
       <c r="E100" s="3">
-        <v>-1737400</v>
+        <v>-1677200</v>
       </c>
       <c r="F100" s="3">
-        <v>-2179300</v>
+        <v>-2103800</v>
       </c>
       <c r="G100" s="3">
-        <v>-1911300</v>
+        <v>-1845100</v>
       </c>
       <c r="H100" s="3">
-        <v>-1673500</v>
+        <v>-1615400</v>
       </c>
       <c r="I100" s="3">
-        <v>-1784100</v>
+        <v>-1722300</v>
       </c>
       <c r="J100" s="3">
-        <v>-1246600</v>
+        <v>-1203400</v>
       </c>
       <c r="K100" s="3">
         <v>-1177300</v>
@@ -3463,7 +3463,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -3472,16 +3472,16 @@
         <v>-1500</v>
       </c>
       <c r="G101" s="3">
-        <v>11300</v>
+        <v>10900</v>
       </c>
       <c r="H101" s="3">
-        <v>8300</v>
+        <v>8000</v>
       </c>
       <c r="I101" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="J101" s="3">
-        <v>14300</v>
+        <v>13800</v>
       </c>
       <c r="K101" s="3">
         <v>-2200</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-128700</v>
+        <v>-124300</v>
       </c>
       <c r="E102" s="3">
-        <v>155100</v>
+        <v>149700</v>
       </c>
       <c r="F102" s="3">
-        <v>-89600</v>
+        <v>-86500</v>
       </c>
       <c r="G102" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="H102" s="3">
-        <v>76000</v>
+        <v>73400</v>
       </c>
       <c r="I102" s="3">
-        <v>-122000</v>
+        <v>-117700</v>
       </c>
       <c r="J102" s="3">
-        <v>44400</v>
+        <v>42900</v>
       </c>
       <c r="K102" s="3">
         <v>40200</v>

--- a/AAII_Financials/Yearly/CNI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CNI_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10840000</v>
+        <v>11353200</v>
       </c>
       <c r="E8" s="3">
-        <v>10406900</v>
+        <v>10899600</v>
       </c>
       <c r="F8" s="3">
-        <v>9476800</v>
+        <v>9925400</v>
       </c>
       <c r="G8" s="3">
-        <v>8747200</v>
+        <v>9161200</v>
       </c>
       <c r="H8" s="3">
-        <v>9164300</v>
+        <v>9598100</v>
       </c>
       <c r="I8" s="3">
-        <v>8817700</v>
+        <v>9235100</v>
       </c>
       <c r="J8" s="3">
-        <v>7684700</v>
+        <v>8048500</v>
       </c>
       <c r="K8" s="3">
         <v>7382600</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2837000</v>
+        <v>2971300</v>
       </c>
       <c r="E9" s="3">
-        <v>2690900</v>
+        <v>2818300</v>
       </c>
       <c r="F9" s="3">
-        <v>2275300</v>
+        <v>2383000</v>
       </c>
       <c r="G9" s="3">
-        <v>1920600</v>
+        <v>2011600</v>
       </c>
       <c r="H9" s="3">
-        <v>2190200</v>
+        <v>2293900</v>
       </c>
       <c r="I9" s="3">
-        <v>2502700</v>
+        <v>2621200</v>
       </c>
       <c r="J9" s="3">
-        <v>2158300</v>
+        <v>2260400</v>
       </c>
       <c r="K9" s="3">
         <v>2063000</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8003000</v>
+        <v>8381900</v>
       </c>
       <c r="E10" s="3">
-        <v>7716000</v>
+        <v>8081300</v>
       </c>
       <c r="F10" s="3">
-        <v>7201500</v>
+        <v>7542400</v>
       </c>
       <c r="G10" s="3">
-        <v>6826500</v>
+        <v>7149700</v>
       </c>
       <c r="H10" s="3">
-        <v>6974000</v>
+        <v>7304200</v>
       </c>
       <c r="I10" s="3">
-        <v>6314900</v>
+        <v>6613900</v>
       </c>
       <c r="J10" s="3">
-        <v>5526500</v>
+        <v>5788100</v>
       </c>
       <c r="K10" s="3">
         <v>5319600</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1135100</v>
+        <v>1188800</v>
       </c>
       <c r="E15" s="3">
-        <v>965800</v>
+        <v>1011500</v>
       </c>
       <c r="F15" s="3">
-        <v>930900</v>
+        <v>975000</v>
       </c>
       <c r="G15" s="3">
-        <v>890200</v>
+        <v>932300</v>
       </c>
       <c r="H15" s="3">
-        <v>841500</v>
+        <v>881300</v>
       </c>
       <c r="I15" s="3">
-        <v>763000</v>
+        <v>799100</v>
       </c>
       <c r="J15" s="3">
-        <v>712200</v>
+        <v>745900</v>
       </c>
       <c r="K15" s="3">
         <v>687700</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6775700</v>
+        <v>7096400</v>
       </c>
       <c r="E17" s="3">
-        <v>6415200</v>
+        <v>6718900</v>
       </c>
       <c r="F17" s="3">
-        <v>5666700</v>
+        <v>5935000</v>
       </c>
       <c r="G17" s="3">
-        <v>5090500</v>
+        <v>5331400</v>
       </c>
       <c r="H17" s="3">
-        <v>5337500</v>
+        <v>5590200</v>
       </c>
       <c r="I17" s="3">
-        <v>5457400</v>
+        <v>5715800</v>
       </c>
       <c r="J17" s="3">
-        <v>4870300</v>
+        <v>5100800</v>
       </c>
       <c r="K17" s="3">
         <v>4640100</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4064400</v>
+        <v>4256800</v>
       </c>
       <c r="E18" s="3">
-        <v>3991700</v>
+        <v>4180700</v>
       </c>
       <c r="F18" s="3">
-        <v>3810000</v>
+        <v>3990400</v>
       </c>
       <c r="G18" s="3">
-        <v>3656700</v>
+        <v>3829800</v>
       </c>
       <c r="H18" s="3">
-        <v>3826700</v>
+        <v>4007900</v>
       </c>
       <c r="I18" s="3">
-        <v>3360200</v>
+        <v>3519300</v>
       </c>
       <c r="J18" s="3">
-        <v>2814500</v>
+        <v>2947700</v>
       </c>
       <c r="K18" s="3">
         <v>2742400</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>271800</v>
+        <v>284600</v>
       </c>
       <c r="E20" s="3">
-        <v>492700</v>
+        <v>516000</v>
       </c>
       <c r="F20" s="3">
-        <v>237600</v>
+        <v>248900</v>
       </c>
       <c r="G20" s="3">
-        <v>272500</v>
+        <v>285400</v>
       </c>
       <c r="H20" s="3">
-        <v>34200</v>
+        <v>35800</v>
       </c>
       <c r="I20" s="3">
-        <v>77800</v>
+        <v>81400</v>
       </c>
       <c r="J20" s="3">
-        <v>53000</v>
+        <v>55600</v>
       </c>
       <c r="K20" s="3">
         <v>234400</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5472200</v>
+        <v>5727600</v>
       </c>
       <c r="E21" s="3">
-        <v>5450900</v>
+        <v>5706000</v>
       </c>
       <c r="F21" s="3">
-        <v>4979300</v>
+        <v>5212100</v>
       </c>
       <c r="G21" s="3">
-        <v>4820100</v>
+        <v>5045500</v>
       </c>
       <c r="H21" s="3">
-        <v>4703100</v>
+        <v>4923100</v>
       </c>
       <c r="I21" s="3">
-        <v>4201600</v>
+        <v>4398100</v>
       </c>
       <c r="J21" s="3">
-        <v>3580200</v>
+        <v>3747500</v>
       </c>
       <c r="K21" s="3">
         <v>3665900</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>391000</v>
+        <v>409500</v>
       </c>
       <c r="E22" s="3">
-        <v>355400</v>
+        <v>372200</v>
       </c>
       <c r="F22" s="3">
-        <v>349500</v>
+        <v>366100</v>
       </c>
       <c r="G22" s="3">
-        <v>348800</v>
+        <v>365300</v>
       </c>
       <c r="H22" s="3">
-        <v>319000</v>
+        <v>334100</v>
       </c>
       <c r="I22" s="3">
-        <v>269600</v>
+        <v>282400</v>
       </c>
       <c r="J22" s="3">
-        <v>259400</v>
+        <v>271700</v>
       </c>
       <c r="K22" s="3">
         <v>254500</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3945200</v>
+        <v>4132000</v>
       </c>
       <c r="E23" s="3">
-        <v>4129100</v>
+        <v>4324500</v>
       </c>
       <c r="F23" s="3">
-        <v>3698100</v>
+        <v>3873200</v>
       </c>
       <c r="G23" s="3">
-        <v>3580400</v>
+        <v>3749900</v>
       </c>
       <c r="H23" s="3">
-        <v>3541900</v>
+        <v>3709600</v>
       </c>
       <c r="I23" s="3">
-        <v>3168400</v>
+        <v>3318400</v>
       </c>
       <c r="J23" s="3">
-        <v>2608100</v>
+        <v>2731600</v>
       </c>
       <c r="K23" s="3">
         <v>2722300</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>881500</v>
+        <v>923200</v>
       </c>
       <c r="E24" s="3">
-        <v>983900</v>
+        <v>1030500</v>
       </c>
       <c r="F24" s="3">
-        <v>-1568900</v>
+        <v>-1643200</v>
       </c>
       <c r="G24" s="3">
-        <v>935300</v>
+        <v>979500</v>
       </c>
       <c r="H24" s="3">
-        <v>970900</v>
+        <v>1016800</v>
       </c>
       <c r="I24" s="3">
-        <v>866900</v>
+        <v>908000</v>
       </c>
       <c r="J24" s="3">
-        <v>710000</v>
+        <v>743600</v>
       </c>
       <c r="K24" s="3">
         <v>727800</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3063700</v>
+        <v>3208800</v>
       </c>
       <c r="E26" s="3">
-        <v>3145100</v>
+        <v>3294000</v>
       </c>
       <c r="F26" s="3">
-        <v>5267000</v>
+        <v>5516400</v>
       </c>
       <c r="G26" s="3">
-        <v>2645200</v>
+        <v>2770400</v>
       </c>
       <c r="H26" s="3">
-        <v>2571000</v>
+        <v>2692700</v>
       </c>
       <c r="I26" s="3">
-        <v>2301400</v>
+        <v>2410400</v>
       </c>
       <c r="J26" s="3">
-        <v>1898100</v>
+        <v>1988000</v>
       </c>
       <c r="K26" s="3">
         <v>1994500</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3063700</v>
+        <v>3208800</v>
       </c>
       <c r="E27" s="3">
-        <v>3145100</v>
+        <v>3294000</v>
       </c>
       <c r="F27" s="3">
-        <v>5267000</v>
+        <v>5516400</v>
       </c>
       <c r="G27" s="3">
-        <v>2645200</v>
+        <v>2770400</v>
       </c>
       <c r="H27" s="3">
-        <v>2571000</v>
+        <v>2692700</v>
       </c>
       <c r="I27" s="3">
-        <v>2301400</v>
+        <v>2410400</v>
       </c>
       <c r="J27" s="3">
-        <v>1898100</v>
+        <v>1988000</v>
       </c>
       <c r="K27" s="3">
         <v>1994500</v>
@@ -1359,7 +1359,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="3">
-        <v>-1281900</v>
+        <v>-1342600</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-271800</v>
+        <v>-284600</v>
       </c>
       <c r="E32" s="3">
-        <v>-492700</v>
+        <v>-516000</v>
       </c>
       <c r="F32" s="3">
-        <v>-237600</v>
+        <v>-248900</v>
       </c>
       <c r="G32" s="3">
-        <v>-272500</v>
+        <v>-285400</v>
       </c>
       <c r="H32" s="3">
-        <v>-34200</v>
+        <v>-35800</v>
       </c>
       <c r="I32" s="3">
-        <v>-77800</v>
+        <v>-81400</v>
       </c>
       <c r="J32" s="3">
-        <v>-53000</v>
+        <v>-55600</v>
       </c>
       <c r="K32" s="3">
         <v>-234400</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3063700</v>
+        <v>3208800</v>
       </c>
       <c r="E33" s="3">
-        <v>3145100</v>
+        <v>3294000</v>
       </c>
       <c r="F33" s="3">
-        <v>3985200</v>
+        <v>4173800</v>
       </c>
       <c r="G33" s="3">
-        <v>2645200</v>
+        <v>2770400</v>
       </c>
       <c r="H33" s="3">
-        <v>2571000</v>
+        <v>2692700</v>
       </c>
       <c r="I33" s="3">
-        <v>2301400</v>
+        <v>2410400</v>
       </c>
       <c r="J33" s="3">
-        <v>1898100</v>
+        <v>1988000</v>
       </c>
       <c r="K33" s="3">
         <v>1994500</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3063700</v>
+        <v>3208800</v>
       </c>
       <c r="E35" s="3">
-        <v>3145100</v>
+        <v>3294000</v>
       </c>
       <c r="F35" s="3">
-        <v>3985200</v>
+        <v>4173800</v>
       </c>
       <c r="G35" s="3">
-        <v>2645200</v>
+        <v>2770400</v>
       </c>
       <c r="H35" s="3">
-        <v>2571000</v>
+        <v>2692700</v>
       </c>
       <c r="I35" s="3">
-        <v>2301400</v>
+        <v>2410400</v>
       </c>
       <c r="J35" s="3">
-        <v>1898100</v>
+        <v>1988000</v>
       </c>
       <c r="K35" s="3">
         <v>1994500</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>46500</v>
+        <v>48700</v>
       </c>
       <c r="E41" s="3">
-        <v>193200</v>
+        <v>202400</v>
       </c>
       <c r="F41" s="3">
-        <v>50800</v>
+        <v>53300</v>
       </c>
       <c r="G41" s="3">
-        <v>127800</v>
+        <v>134000</v>
       </c>
       <c r="H41" s="3">
-        <v>111100</v>
+        <v>116400</v>
       </c>
       <c r="I41" s="3">
-        <v>37800</v>
+        <v>39600</v>
       </c>
       <c r="J41" s="3">
-        <v>155400</v>
+        <v>162900</v>
       </c>
       <c r="K41" s="3">
         <v>115400</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>881000</v>
+        <v>923200</v>
       </c>
       <c r="E43" s="3">
-        <v>849000</v>
+        <v>889700</v>
       </c>
       <c r="F43" s="3">
-        <v>714600</v>
+        <v>748900</v>
       </c>
       <c r="G43" s="3">
-        <v>635500</v>
+        <v>666000</v>
       </c>
       <c r="H43" s="3">
-        <v>637700</v>
+        <v>668200</v>
       </c>
       <c r="I43" s="3">
-        <v>674000</v>
+        <v>706300</v>
       </c>
       <c r="J43" s="3">
-        <v>591900</v>
+        <v>620300</v>
       </c>
       <c r="K43" s="3">
         <v>618400</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>443800</v>
+        <v>465000</v>
       </c>
       <c r="E44" s="3">
-        <v>404500</v>
+        <v>423900</v>
       </c>
       <c r="F44" s="3">
-        <v>307900</v>
+        <v>322700</v>
       </c>
       <c r="G44" s="3">
-        <v>257800</v>
+        <v>270200</v>
       </c>
       <c r="H44" s="3">
-        <v>257800</v>
+        <v>270200</v>
       </c>
       <c r="I44" s="3">
-        <v>243300</v>
+        <v>255000</v>
       </c>
       <c r="J44" s="3">
-        <v>199000</v>
+        <v>208500</v>
       </c>
       <c r="K44" s="3">
         <v>171200</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>684100</v>
+        <v>716900</v>
       </c>
       <c r="E45" s="3">
-        <v>534500</v>
+        <v>560200</v>
       </c>
       <c r="F45" s="3">
-        <v>517100</v>
+        <v>541900</v>
       </c>
       <c r="G45" s="3">
-        <v>509100</v>
+        <v>533500</v>
       </c>
       <c r="H45" s="3">
-        <v>557000</v>
+        <v>583800</v>
       </c>
       <c r="I45" s="3">
-        <v>610800</v>
+        <v>640100</v>
       </c>
       <c r="J45" s="3">
-        <v>489500</v>
+        <v>513000</v>
       </c>
       <c r="K45" s="3">
         <v>486000</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2055300</v>
+        <v>2153900</v>
       </c>
       <c r="E46" s="3">
-        <v>1981300</v>
+        <v>2076300</v>
       </c>
       <c r="F46" s="3">
-        <v>1590500</v>
+        <v>1666800</v>
       </c>
       <c r="G46" s="3">
-        <v>1530300</v>
+        <v>1603600</v>
       </c>
       <c r="H46" s="3">
-        <v>1563700</v>
+        <v>1638600</v>
       </c>
       <c r="I46" s="3">
-        <v>1447500</v>
+        <v>1516900</v>
       </c>
       <c r="J46" s="3">
-        <v>1435800</v>
+        <v>1504700</v>
       </c>
       <c r="K46" s="3">
         <v>1390900</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>83500</v>
+        <v>87500</v>
       </c>
       <c r="E47" s="3">
-        <v>69700</v>
+        <v>73100</v>
       </c>
       <c r="F47" s="3">
-        <v>71900</v>
+        <v>75300</v>
       </c>
       <c r="G47" s="3">
-        <v>73400</v>
+        <v>76900</v>
       </c>
       <c r="H47" s="3">
-        <v>154700</v>
+        <v>162100</v>
       </c>
       <c r="I47" s="3">
-        <v>144500</v>
+        <v>151500</v>
       </c>
       <c r="J47" s="3">
-        <v>128500</v>
+        <v>134700</v>
       </c>
       <c r="K47" s="3">
         <v>87100</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>29188100</v>
+        <v>30587400</v>
       </c>
       <c r="E48" s="3">
-        <v>27433400</v>
+        <v>28748700</v>
       </c>
       <c r="F48" s="3">
-        <v>24830400</v>
+        <v>26020900</v>
       </c>
       <c r="G48" s="3">
-        <v>24515200</v>
+        <v>25690600</v>
       </c>
       <c r="H48" s="3">
-        <v>23693800</v>
+        <v>24829800</v>
       </c>
       <c r="I48" s="3">
-        <v>20708900</v>
+        <v>21701700</v>
       </c>
       <c r="J48" s="3">
-        <v>19047900</v>
+        <v>19961100</v>
       </c>
       <c r="K48" s="3">
         <v>18263700</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>166300</v>
+        <v>174300</v>
       </c>
       <c r="E49" s="3">
-        <v>53000</v>
+        <v>55600</v>
       </c>
       <c r="F49" s="3">
-        <v>45000</v>
+        <v>47200</v>
       </c>
       <c r="G49" s="3">
-        <v>48700</v>
+        <v>51000</v>
       </c>
       <c r="H49" s="3">
-        <v>51600</v>
+        <v>54000</v>
       </c>
       <c r="I49" s="3">
-        <v>45000</v>
+        <v>47200</v>
       </c>
       <c r="J49" s="3">
-        <v>42800</v>
+        <v>44900</v>
       </c>
       <c r="K49" s="3">
         <v>42400</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>305800</v>
+        <v>320400</v>
       </c>
       <c r="E52" s="3">
-        <v>395100</v>
+        <v>414000</v>
       </c>
       <c r="F52" s="3">
-        <v>790900</v>
+        <v>828800</v>
       </c>
       <c r="G52" s="3">
-        <v>745900</v>
+        <v>781600</v>
       </c>
       <c r="H52" s="3">
-        <v>973900</v>
+        <v>1020600</v>
       </c>
       <c r="I52" s="3">
-        <v>667400</v>
+        <v>699400</v>
       </c>
       <c r="J52" s="3">
-        <v>2466400</v>
+        <v>2584700</v>
       </c>
       <c r="K52" s="3">
         <v>55800</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>31799000</v>
+        <v>33323600</v>
       </c>
       <c r="E54" s="3">
-        <v>29932500</v>
+        <v>31367600</v>
       </c>
       <c r="F54" s="3">
-        <v>27328800</v>
+        <v>28639100</v>
       </c>
       <c r="G54" s="3">
-        <v>26913400</v>
+        <v>28203700</v>
       </c>
       <c r="H54" s="3">
-        <v>26437700</v>
+        <v>27705200</v>
       </c>
       <c r="I54" s="3">
-        <v>23013300</v>
+        <v>24116700</v>
       </c>
       <c r="J54" s="3">
-        <v>21906500</v>
+        <v>22956800</v>
       </c>
       <c r="K54" s="3">
         <v>19839900</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>628900</v>
+        <v>659100</v>
       </c>
       <c r="E57" s="3">
-        <v>713200</v>
+        <v>747400</v>
       </c>
       <c r="F57" s="3">
-        <v>1368300</v>
+        <v>1433900</v>
       </c>
       <c r="G57" s="3">
-        <v>1102500</v>
+        <v>1155300</v>
       </c>
       <c r="H57" s="3">
-        <v>1128600</v>
+        <v>1182700</v>
       </c>
       <c r="I57" s="3">
-        <v>1203400</v>
+        <v>1261100</v>
       </c>
       <c r="J57" s="3">
-        <v>1369000</v>
+        <v>1434700</v>
       </c>
       <c r="K57" s="3">
         <v>287300</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1401700</v>
+        <v>1468900</v>
       </c>
       <c r="E58" s="3">
-        <v>859900</v>
+        <v>901100</v>
       </c>
       <c r="F58" s="3">
-        <v>1510600</v>
+        <v>1583100</v>
       </c>
       <c r="G58" s="3">
-        <v>1081400</v>
+        <v>1133300</v>
       </c>
       <c r="H58" s="3">
-        <v>1047300</v>
+        <v>1097500</v>
       </c>
       <c r="I58" s="3">
-        <v>395100</v>
+        <v>414000</v>
       </c>
       <c r="J58" s="3">
-        <v>741500</v>
+        <v>777100</v>
       </c>
       <c r="K58" s="3">
         <v>429400</v>
@@ -2210,16 +2210,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1082900</v>
+        <v>1134800</v>
       </c>
       <c r="E59" s="3">
-        <v>968800</v>
+        <v>1015300</v>
       </c>
       <c r="F59" s="3">
-        <v>13800</v>
+        <v>14500</v>
       </c>
       <c r="G59" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H59" s="3">
         <v>1500</v>
@@ -2228,7 +2228,7 @@
         <v>8</v>
       </c>
       <c r="J59" s="3">
-        <v>776400</v>
+        <v>813600</v>
       </c>
       <c r="K59" s="3">
         <v>922800</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3113500</v>
+        <v>3262800</v>
       </c>
       <c r="E60" s="3">
-        <v>2541900</v>
+        <v>2663800</v>
       </c>
       <c r="F60" s="3">
-        <v>2892700</v>
+        <v>3031400</v>
       </c>
       <c r="G60" s="3">
-        <v>2184600</v>
+        <v>2289400</v>
       </c>
       <c r="H60" s="3">
-        <v>2177400</v>
+        <v>2281700</v>
       </c>
       <c r="I60" s="3">
-        <v>1598500</v>
+        <v>1675200</v>
       </c>
       <c r="J60" s="3">
-        <v>1814200</v>
+        <v>1901200</v>
       </c>
       <c r="K60" s="3">
         <v>1639500</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8617900</v>
+        <v>9031100</v>
       </c>
       <c r="E61" s="3">
-        <v>8268600</v>
+        <v>8665000</v>
       </c>
       <c r="F61" s="3">
-        <v>6353400</v>
+        <v>6658000</v>
       </c>
       <c r="G61" s="3">
-        <v>6861800</v>
+        <v>7190800</v>
       </c>
       <c r="H61" s="3">
-        <v>6525500</v>
+        <v>6838400</v>
       </c>
       <c r="I61" s="3">
-        <v>5685200</v>
+        <v>5957800</v>
       </c>
       <c r="J61" s="3">
-        <v>4952400</v>
+        <v>5189900</v>
       </c>
       <c r="K61" s="3">
         <v>4705600</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6964900</v>
+        <v>7298900</v>
       </c>
       <c r="E62" s="3">
-        <v>6309800</v>
+        <v>6612300</v>
       </c>
       <c r="F62" s="3">
-        <v>5985900</v>
+        <v>6272900</v>
       </c>
       <c r="G62" s="3">
-        <v>7088400</v>
+        <v>7428200</v>
       </c>
       <c r="H62" s="3">
-        <v>6877100</v>
+        <v>7206800</v>
       </c>
       <c r="I62" s="3">
-        <v>5946700</v>
+        <v>6231800</v>
       </c>
       <c r="J62" s="3">
-        <v>6496500</v>
+        <v>6808000</v>
       </c>
       <c r="K62" s="3">
         <v>5295100</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>18696400</v>
+        <v>19592700</v>
       </c>
       <c r="E66" s="3">
-        <v>17120400</v>
+        <v>17941200</v>
       </c>
       <c r="F66" s="3">
-        <v>15232100</v>
+        <v>15962300</v>
       </c>
       <c r="G66" s="3">
-        <v>16134800</v>
+        <v>16908400</v>
       </c>
       <c r="H66" s="3">
-        <v>15579900</v>
+        <v>16326900</v>
       </c>
       <c r="I66" s="3">
-        <v>13230500</v>
+        <v>13864800</v>
       </c>
       <c r="J66" s="3">
-        <v>12499100</v>
+        <v>13098400</v>
       </c>
       <c r="K66" s="3">
         <v>11640200</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>12807000</v>
+        <v>13421100</v>
       </c>
       <c r="E72" s="3">
-        <v>12072800</v>
+        <v>12651600</v>
       </c>
       <c r="F72" s="3">
-        <v>11319600</v>
+        <v>11862300</v>
       </c>
       <c r="G72" s="3">
-        <v>9617300</v>
+        <v>10078400</v>
       </c>
       <c r="H72" s="3">
-        <v>9177900</v>
+        <v>9617900</v>
       </c>
       <c r="I72" s="3">
-        <v>8526400</v>
+        <v>8935200</v>
       </c>
       <c r="J72" s="3">
-        <v>7835000</v>
+        <v>8210600</v>
       </c>
       <c r="K72" s="3">
         <v>7566400</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13102600</v>
+        <v>13730800</v>
       </c>
       <c r="E76" s="3">
-        <v>12812100</v>
+        <v>13426400</v>
       </c>
       <c r="F76" s="3">
-        <v>12096800</v>
+        <v>12676700</v>
       </c>
       <c r="G76" s="3">
-        <v>10778600</v>
+        <v>11295300</v>
       </c>
       <c r="H76" s="3">
-        <v>10857700</v>
+        <v>11378300</v>
       </c>
       <c r="I76" s="3">
-        <v>9782900</v>
+        <v>10251900</v>
       </c>
       <c r="J76" s="3">
-        <v>9407400</v>
+        <v>9858400</v>
       </c>
       <c r="K76" s="3">
         <v>8199700</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3063700</v>
+        <v>3208800</v>
       </c>
       <c r="E81" s="3">
-        <v>3145100</v>
+        <v>3294000</v>
       </c>
       <c r="F81" s="3">
-        <v>3985200</v>
+        <v>4173800</v>
       </c>
       <c r="G81" s="3">
-        <v>2645200</v>
+        <v>2770400</v>
       </c>
       <c r="H81" s="3">
-        <v>2571000</v>
+        <v>2692700</v>
       </c>
       <c r="I81" s="3">
-        <v>2301400</v>
+        <v>2410400</v>
       </c>
       <c r="J81" s="3">
-        <v>1898100</v>
+        <v>1988000</v>
       </c>
       <c r="K81" s="3">
         <v>1994500</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1135100</v>
+        <v>1188800</v>
       </c>
       <c r="E83" s="3">
-        <v>965800</v>
+        <v>1011500</v>
       </c>
       <c r="F83" s="3">
-        <v>930900</v>
+        <v>975000</v>
       </c>
       <c r="G83" s="3">
-        <v>890200</v>
+        <v>932300</v>
       </c>
       <c r="H83" s="3">
-        <v>841500</v>
+        <v>881300</v>
       </c>
       <c r="I83" s="3">
-        <v>763000</v>
+        <v>799100</v>
       </c>
       <c r="J83" s="3">
-        <v>712200</v>
+        <v>745900</v>
       </c>
       <c r="K83" s="3">
         <v>687700</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4304200</v>
+        <v>4507900</v>
       </c>
       <c r="E89" s="3">
-        <v>4300600</v>
+        <v>4504100</v>
       </c>
       <c r="F89" s="3">
-        <v>4008400</v>
+        <v>4198200</v>
       </c>
       <c r="G89" s="3">
-        <v>3780200</v>
+        <v>3959200</v>
       </c>
       <c r="H89" s="3">
-        <v>3735200</v>
+        <v>3912000</v>
       </c>
       <c r="I89" s="3">
-        <v>3183600</v>
+        <v>3334300</v>
       </c>
       <c r="J89" s="3">
-        <v>2578300</v>
+        <v>2700300</v>
       </c>
       <c r="K89" s="3">
         <v>2277300</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2808700</v>
+        <v>-2941600</v>
       </c>
       <c r="E91" s="3">
-        <v>-2565900</v>
+        <v>-2687400</v>
       </c>
       <c r="F91" s="3">
-        <v>-1942400</v>
+        <v>-2034400</v>
       </c>
       <c r="G91" s="3">
-        <v>-1958400</v>
+        <v>-2051100</v>
       </c>
       <c r="H91" s="3">
-        <v>-1966400</v>
+        <v>-2059500</v>
       </c>
       <c r="I91" s="3">
-        <v>-1669200</v>
+        <v>-1748200</v>
       </c>
       <c r="J91" s="3">
-        <v>-1433800</v>
+        <v>-1501600</v>
       </c>
       <c r="K91" s="3">
         <v>-1288200</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3044800</v>
+        <v>-3189000</v>
       </c>
       <c r="E94" s="3">
-        <v>-2473700</v>
+        <v>-2590800</v>
       </c>
       <c r="F94" s="3">
-        <v>-1989700</v>
+        <v>-2083900</v>
       </c>
       <c r="G94" s="3">
-        <v>-1949000</v>
+        <v>-2041200</v>
       </c>
       <c r="H94" s="3">
-        <v>-2054400</v>
+        <v>-2151600</v>
       </c>
       <c r="I94" s="3">
-        <v>-1581300</v>
+        <v>-1656100</v>
       </c>
       <c r="J94" s="3">
-        <v>-1345800</v>
+        <v>-1409500</v>
       </c>
       <c r="K94" s="3">
         <v>-1057500</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1122000</v>
+        <v>-1175100</v>
       </c>
       <c r="E96" s="3">
-        <v>-968700</v>
+        <v>-1014500</v>
       </c>
       <c r="F96" s="3">
-        <v>-900400</v>
+        <v>-943000</v>
       </c>
       <c r="G96" s="3">
-        <v>-842200</v>
+        <v>-882100</v>
       </c>
       <c r="H96" s="3">
-        <v>-723800</v>
+        <v>-758000</v>
       </c>
       <c r="I96" s="3">
-        <v>-594400</v>
+        <v>-622600</v>
       </c>
       <c r="J96" s="3">
-        <v>-526100</v>
+        <v>-551000</v>
       </c>
       <c r="K96" s="3">
         <v>-485200</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1382900</v>
+        <v>-1448400</v>
       </c>
       <c r="E100" s="3">
-        <v>-1677200</v>
+        <v>-1756600</v>
       </c>
       <c r="F100" s="3">
-        <v>-2103800</v>
+        <v>-2203400</v>
       </c>
       <c r="G100" s="3">
-        <v>-1845100</v>
+        <v>-1932400</v>
       </c>
       <c r="H100" s="3">
-        <v>-1615400</v>
+        <v>-1691900</v>
       </c>
       <c r="I100" s="3">
-        <v>-1722300</v>
+        <v>-1803800</v>
       </c>
       <c r="J100" s="3">
-        <v>-1203400</v>
+        <v>-1260400</v>
       </c>
       <c r="K100" s="3">
         <v>-1177300</v>
@@ -3463,7 +3463,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -3472,16 +3472,16 @@
         <v>-1500</v>
       </c>
       <c r="G101" s="3">
-        <v>10900</v>
+        <v>11400</v>
       </c>
       <c r="H101" s="3">
-        <v>8000</v>
+        <v>8400</v>
       </c>
       <c r="I101" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="J101" s="3">
-        <v>13800</v>
+        <v>14500</v>
       </c>
       <c r="K101" s="3">
         <v>-2200</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-124300</v>
+        <v>-130100</v>
       </c>
       <c r="E102" s="3">
-        <v>149700</v>
+        <v>156800</v>
       </c>
       <c r="F102" s="3">
-        <v>-86500</v>
+        <v>-90600</v>
       </c>
       <c r="G102" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="H102" s="3">
-        <v>73400</v>
+        <v>76900</v>
       </c>
       <c r="I102" s="3">
-        <v>-117700</v>
+        <v>-123300</v>
       </c>
       <c r="J102" s="3">
-        <v>42900</v>
+        <v>44900</v>
       </c>
       <c r="K102" s="3">
         <v>40200</v>

--- a/AAII_Financials/Yearly/CNI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CNI_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11353200</v>
+        <v>11483400</v>
       </c>
       <c r="E8" s="3">
-        <v>10899600</v>
+        <v>11024600</v>
       </c>
       <c r="F8" s="3">
-        <v>9925400</v>
+        <v>10039200</v>
       </c>
       <c r="G8" s="3">
-        <v>9161200</v>
+        <v>9266300</v>
       </c>
       <c r="H8" s="3">
-        <v>9598100</v>
+        <v>9708200</v>
       </c>
       <c r="I8" s="3">
-        <v>9235100</v>
+        <v>9341000</v>
       </c>
       <c r="J8" s="3">
-        <v>8048500</v>
+        <v>8140800</v>
       </c>
       <c r="K8" s="3">
         <v>7382600</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2971300</v>
+        <v>3005400</v>
       </c>
       <c r="E9" s="3">
-        <v>2818300</v>
+        <v>2850600</v>
       </c>
       <c r="F9" s="3">
-        <v>2383000</v>
+        <v>2410300</v>
       </c>
       <c r="G9" s="3">
-        <v>2011600</v>
+        <v>2034600</v>
       </c>
       <c r="H9" s="3">
-        <v>2293900</v>
+        <v>2320200</v>
       </c>
       <c r="I9" s="3">
-        <v>2621200</v>
+        <v>2651300</v>
       </c>
       <c r="J9" s="3">
-        <v>2260400</v>
+        <v>2286400</v>
       </c>
       <c r="K9" s="3">
         <v>2063000</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8381900</v>
+        <v>8478000</v>
       </c>
       <c r="E10" s="3">
-        <v>8081300</v>
+        <v>8173900</v>
       </c>
       <c r="F10" s="3">
-        <v>7542400</v>
+        <v>7628900</v>
       </c>
       <c r="G10" s="3">
-        <v>7149700</v>
+        <v>7231700</v>
       </c>
       <c r="H10" s="3">
-        <v>7304200</v>
+        <v>7388000</v>
       </c>
       <c r="I10" s="3">
-        <v>6613900</v>
+        <v>6689700</v>
       </c>
       <c r="J10" s="3">
-        <v>5788100</v>
+        <v>5854500</v>
       </c>
       <c r="K10" s="3">
         <v>5319600</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1188800</v>
+        <v>1202500</v>
       </c>
       <c r="E15" s="3">
-        <v>1011500</v>
+        <v>1023100</v>
       </c>
       <c r="F15" s="3">
-        <v>975000</v>
+        <v>986100</v>
       </c>
       <c r="G15" s="3">
-        <v>932300</v>
+        <v>943000</v>
       </c>
       <c r="H15" s="3">
-        <v>881300</v>
+        <v>891500</v>
       </c>
       <c r="I15" s="3">
-        <v>799100</v>
+        <v>808300</v>
       </c>
       <c r="J15" s="3">
-        <v>745900</v>
+        <v>754400</v>
       </c>
       <c r="K15" s="3">
         <v>687700</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7096400</v>
+        <v>7177800</v>
       </c>
       <c r="E17" s="3">
-        <v>6718900</v>
+        <v>6796000</v>
       </c>
       <c r="F17" s="3">
-        <v>5935000</v>
+        <v>6003100</v>
       </c>
       <c r="G17" s="3">
-        <v>5331400</v>
+        <v>5392600</v>
       </c>
       <c r="H17" s="3">
-        <v>5590200</v>
+        <v>5654300</v>
       </c>
       <c r="I17" s="3">
-        <v>5715800</v>
+        <v>5781300</v>
       </c>
       <c r="J17" s="3">
-        <v>5100800</v>
+        <v>5159300</v>
       </c>
       <c r="K17" s="3">
         <v>4640100</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4256800</v>
+        <v>4305600</v>
       </c>
       <c r="E18" s="3">
-        <v>4180700</v>
+        <v>4228600</v>
       </c>
       <c r="F18" s="3">
-        <v>3990400</v>
+        <v>4036200</v>
       </c>
       <c r="G18" s="3">
-        <v>3829800</v>
+        <v>3873700</v>
       </c>
       <c r="H18" s="3">
-        <v>4007900</v>
+        <v>4053900</v>
       </c>
       <c r="I18" s="3">
-        <v>3519300</v>
+        <v>3559600</v>
       </c>
       <c r="J18" s="3">
-        <v>2947700</v>
+        <v>2981500</v>
       </c>
       <c r="K18" s="3">
         <v>2742400</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>284600</v>
+        <v>287900</v>
       </c>
       <c r="E20" s="3">
-        <v>516000</v>
+        <v>521900</v>
       </c>
       <c r="F20" s="3">
-        <v>248900</v>
+        <v>251700</v>
       </c>
       <c r="G20" s="3">
-        <v>285400</v>
+        <v>288700</v>
       </c>
       <c r="H20" s="3">
-        <v>35800</v>
+        <v>36200</v>
       </c>
       <c r="I20" s="3">
-        <v>81400</v>
+        <v>82400</v>
       </c>
       <c r="J20" s="3">
-        <v>55600</v>
+        <v>56200</v>
       </c>
       <c r="K20" s="3">
         <v>234400</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5727600</v>
+        <v>5793900</v>
       </c>
       <c r="E21" s="3">
-        <v>5706000</v>
+        <v>5771800</v>
       </c>
       <c r="F21" s="3">
-        <v>5212100</v>
+        <v>5272300</v>
       </c>
       <c r="G21" s="3">
-        <v>5045500</v>
+        <v>5103800</v>
       </c>
       <c r="H21" s="3">
-        <v>4923100</v>
+        <v>4979900</v>
       </c>
       <c r="I21" s="3">
-        <v>4398100</v>
+        <v>4448900</v>
       </c>
       <c r="J21" s="3">
-        <v>3747500</v>
+        <v>3790800</v>
       </c>
       <c r="K21" s="3">
         <v>3665900</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>409500</v>
+        <v>414200</v>
       </c>
       <c r="E22" s="3">
-        <v>372200</v>
+        <v>376400</v>
       </c>
       <c r="F22" s="3">
-        <v>366100</v>
+        <v>370300</v>
       </c>
       <c r="G22" s="3">
-        <v>365300</v>
+        <v>369500</v>
       </c>
       <c r="H22" s="3">
-        <v>334100</v>
+        <v>338000</v>
       </c>
       <c r="I22" s="3">
-        <v>282400</v>
+        <v>285600</v>
       </c>
       <c r="J22" s="3">
-        <v>271700</v>
+        <v>274800</v>
       </c>
       <c r="K22" s="3">
         <v>254500</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4132000</v>
+        <v>4179400</v>
       </c>
       <c r="E23" s="3">
-        <v>4324500</v>
+        <v>4374100</v>
       </c>
       <c r="F23" s="3">
-        <v>3873200</v>
+        <v>3917600</v>
       </c>
       <c r="G23" s="3">
-        <v>3749900</v>
+        <v>3792900</v>
       </c>
       <c r="H23" s="3">
-        <v>3709600</v>
+        <v>3752100</v>
       </c>
       <c r="I23" s="3">
-        <v>3318400</v>
+        <v>3356400</v>
       </c>
       <c r="J23" s="3">
-        <v>2731600</v>
+        <v>2762900</v>
       </c>
       <c r="K23" s="3">
         <v>2722300</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>923200</v>
+        <v>933800</v>
       </c>
       <c r="E24" s="3">
-        <v>1030500</v>
+        <v>1042300</v>
       </c>
       <c r="F24" s="3">
-        <v>-1643200</v>
+        <v>-1662000</v>
       </c>
       <c r="G24" s="3">
-        <v>979500</v>
+        <v>990800</v>
       </c>
       <c r="H24" s="3">
-        <v>1016800</v>
+        <v>1028500</v>
       </c>
       <c r="I24" s="3">
-        <v>908000</v>
+        <v>918400</v>
       </c>
       <c r="J24" s="3">
-        <v>743600</v>
+        <v>752100</v>
       </c>
       <c r="K24" s="3">
         <v>727800</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3208800</v>
+        <v>3245600</v>
       </c>
       <c r="E26" s="3">
-        <v>3294000</v>
+        <v>3331800</v>
       </c>
       <c r="F26" s="3">
-        <v>5516400</v>
+        <v>5579700</v>
       </c>
       <c r="G26" s="3">
-        <v>2770400</v>
+        <v>2802100</v>
       </c>
       <c r="H26" s="3">
-        <v>2692700</v>
+        <v>2723600</v>
       </c>
       <c r="I26" s="3">
-        <v>2410400</v>
+        <v>2438000</v>
       </c>
       <c r="J26" s="3">
-        <v>1988000</v>
+        <v>2010800</v>
       </c>
       <c r="K26" s="3">
         <v>1994500</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3208800</v>
+        <v>3245600</v>
       </c>
       <c r="E27" s="3">
-        <v>3294000</v>
+        <v>3331800</v>
       </c>
       <c r="F27" s="3">
-        <v>5516400</v>
+        <v>5579700</v>
       </c>
       <c r="G27" s="3">
-        <v>2770400</v>
+        <v>2802100</v>
       </c>
       <c r="H27" s="3">
-        <v>2692700</v>
+        <v>2723600</v>
       </c>
       <c r="I27" s="3">
-        <v>2410400</v>
+        <v>2438000</v>
       </c>
       <c r="J27" s="3">
-        <v>1988000</v>
+        <v>2010800</v>
       </c>
       <c r="K27" s="3">
         <v>1994500</v>
@@ -1359,7 +1359,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="3">
-        <v>-1342600</v>
+        <v>-1358000</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-284600</v>
+        <v>-287900</v>
       </c>
       <c r="E32" s="3">
-        <v>-516000</v>
+        <v>-521900</v>
       </c>
       <c r="F32" s="3">
-        <v>-248900</v>
+        <v>-251700</v>
       </c>
       <c r="G32" s="3">
-        <v>-285400</v>
+        <v>-288700</v>
       </c>
       <c r="H32" s="3">
-        <v>-35800</v>
+        <v>-36200</v>
       </c>
       <c r="I32" s="3">
-        <v>-81400</v>
+        <v>-82400</v>
       </c>
       <c r="J32" s="3">
-        <v>-55600</v>
+        <v>-56200</v>
       </c>
       <c r="K32" s="3">
         <v>-234400</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3208800</v>
+        <v>3245600</v>
       </c>
       <c r="E33" s="3">
-        <v>3294000</v>
+        <v>3331800</v>
       </c>
       <c r="F33" s="3">
-        <v>4173800</v>
+        <v>4221700</v>
       </c>
       <c r="G33" s="3">
-        <v>2770400</v>
+        <v>2802100</v>
       </c>
       <c r="H33" s="3">
-        <v>2692700</v>
+        <v>2723600</v>
       </c>
       <c r="I33" s="3">
-        <v>2410400</v>
+        <v>2438000</v>
       </c>
       <c r="J33" s="3">
-        <v>1988000</v>
+        <v>2010800</v>
       </c>
       <c r="K33" s="3">
         <v>1994500</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3208800</v>
+        <v>3245600</v>
       </c>
       <c r="E35" s="3">
-        <v>3294000</v>
+        <v>3331800</v>
       </c>
       <c r="F35" s="3">
-        <v>4173800</v>
+        <v>4221700</v>
       </c>
       <c r="G35" s="3">
-        <v>2770400</v>
+        <v>2802100</v>
       </c>
       <c r="H35" s="3">
-        <v>2692700</v>
+        <v>2723600</v>
       </c>
       <c r="I35" s="3">
-        <v>2410400</v>
+        <v>2438000</v>
       </c>
       <c r="J35" s="3">
-        <v>1988000</v>
+        <v>2010800</v>
       </c>
       <c r="K35" s="3">
         <v>1994500</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>48700</v>
+        <v>49300</v>
       </c>
       <c r="E41" s="3">
-        <v>202400</v>
+        <v>204800</v>
       </c>
       <c r="F41" s="3">
-        <v>53300</v>
+        <v>53900</v>
       </c>
       <c r="G41" s="3">
-        <v>134000</v>
+        <v>135500</v>
       </c>
       <c r="H41" s="3">
-        <v>116400</v>
+        <v>117800</v>
       </c>
       <c r="I41" s="3">
-        <v>39600</v>
+        <v>40000</v>
       </c>
       <c r="J41" s="3">
-        <v>162900</v>
+        <v>164700</v>
       </c>
       <c r="K41" s="3">
         <v>115400</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>923200</v>
+        <v>933800</v>
       </c>
       <c r="E43" s="3">
-        <v>889700</v>
+        <v>899900</v>
       </c>
       <c r="F43" s="3">
-        <v>748900</v>
+        <v>757500</v>
       </c>
       <c r="G43" s="3">
-        <v>666000</v>
+        <v>673600</v>
       </c>
       <c r="H43" s="3">
-        <v>668200</v>
+        <v>675900</v>
       </c>
       <c r="I43" s="3">
-        <v>706300</v>
+        <v>714400</v>
       </c>
       <c r="J43" s="3">
-        <v>620300</v>
+        <v>627400</v>
       </c>
       <c r="K43" s="3">
         <v>618400</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>465000</v>
+        <v>470400</v>
       </c>
       <c r="E44" s="3">
-        <v>423900</v>
+        <v>428800</v>
       </c>
       <c r="F44" s="3">
-        <v>322700</v>
+        <v>326400</v>
       </c>
       <c r="G44" s="3">
-        <v>270200</v>
+        <v>273300</v>
       </c>
       <c r="H44" s="3">
-        <v>270200</v>
+        <v>273300</v>
       </c>
       <c r="I44" s="3">
-        <v>255000</v>
+        <v>257900</v>
       </c>
       <c r="J44" s="3">
-        <v>208500</v>
+        <v>210900</v>
       </c>
       <c r="K44" s="3">
         <v>171200</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>716900</v>
+        <v>725200</v>
       </c>
       <c r="E45" s="3">
-        <v>560200</v>
+        <v>566600</v>
       </c>
       <c r="F45" s="3">
-        <v>541900</v>
+        <v>548100</v>
       </c>
       <c r="G45" s="3">
-        <v>533500</v>
+        <v>539600</v>
       </c>
       <c r="H45" s="3">
-        <v>583800</v>
+        <v>590500</v>
       </c>
       <c r="I45" s="3">
-        <v>640100</v>
+        <v>647400</v>
       </c>
       <c r="J45" s="3">
-        <v>513000</v>
+        <v>518900</v>
       </c>
       <c r="K45" s="3">
         <v>486000</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2153900</v>
+        <v>2178600</v>
       </c>
       <c r="E46" s="3">
-        <v>2076300</v>
+        <v>2100100</v>
       </c>
       <c r="F46" s="3">
-        <v>1666800</v>
+        <v>1685900</v>
       </c>
       <c r="G46" s="3">
-        <v>1603600</v>
+        <v>1622000</v>
       </c>
       <c r="H46" s="3">
-        <v>1638600</v>
+        <v>1657400</v>
       </c>
       <c r="I46" s="3">
-        <v>1516900</v>
+        <v>1534300</v>
       </c>
       <c r="J46" s="3">
-        <v>1504700</v>
+        <v>1521900</v>
       </c>
       <c r="K46" s="3">
         <v>1390900</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>87500</v>
+        <v>88500</v>
       </c>
       <c r="E47" s="3">
-        <v>73100</v>
+        <v>73900</v>
       </c>
       <c r="F47" s="3">
-        <v>75300</v>
+        <v>76200</v>
       </c>
       <c r="G47" s="3">
-        <v>76900</v>
+        <v>77800</v>
       </c>
       <c r="H47" s="3">
-        <v>162100</v>
+        <v>164000</v>
       </c>
       <c r="I47" s="3">
-        <v>151500</v>
+        <v>153200</v>
       </c>
       <c r="J47" s="3">
-        <v>134700</v>
+        <v>136300</v>
       </c>
       <c r="K47" s="3">
         <v>87100</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>30587400</v>
+        <v>30938300</v>
       </c>
       <c r="E48" s="3">
-        <v>28748700</v>
+        <v>29078400</v>
       </c>
       <c r="F48" s="3">
-        <v>26020900</v>
+        <v>26319400</v>
       </c>
       <c r="G48" s="3">
-        <v>25690600</v>
+        <v>25985300</v>
       </c>
       <c r="H48" s="3">
-        <v>24829800</v>
+        <v>25114600</v>
       </c>
       <c r="I48" s="3">
-        <v>21701700</v>
+        <v>21950600</v>
       </c>
       <c r="J48" s="3">
-        <v>19961100</v>
+        <v>20190100</v>
       </c>
       <c r="K48" s="3">
         <v>18263700</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>174300</v>
+        <v>176300</v>
       </c>
       <c r="E49" s="3">
-        <v>55600</v>
+        <v>56200</v>
       </c>
       <c r="F49" s="3">
-        <v>47200</v>
+        <v>47700</v>
       </c>
       <c r="G49" s="3">
-        <v>51000</v>
+        <v>51600</v>
       </c>
       <c r="H49" s="3">
-        <v>54000</v>
+        <v>54700</v>
       </c>
       <c r="I49" s="3">
-        <v>47200</v>
+        <v>47700</v>
       </c>
       <c r="J49" s="3">
-        <v>44900</v>
+        <v>45400</v>
       </c>
       <c r="K49" s="3">
         <v>42400</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>320400</v>
+        <v>324100</v>
       </c>
       <c r="E52" s="3">
-        <v>414000</v>
+        <v>418800</v>
       </c>
       <c r="F52" s="3">
-        <v>828800</v>
+        <v>838300</v>
       </c>
       <c r="G52" s="3">
-        <v>781600</v>
+        <v>790600</v>
       </c>
       <c r="H52" s="3">
-        <v>1020600</v>
+        <v>1032300</v>
       </c>
       <c r="I52" s="3">
-        <v>699400</v>
+        <v>707500</v>
       </c>
       <c r="J52" s="3">
-        <v>2584700</v>
+        <v>2614300</v>
       </c>
       <c r="K52" s="3">
         <v>55800</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>33323600</v>
+        <v>33705800</v>
       </c>
       <c r="E54" s="3">
-        <v>31367600</v>
+        <v>31727400</v>
       </c>
       <c r="F54" s="3">
-        <v>28639100</v>
+        <v>28967600</v>
       </c>
       <c r="G54" s="3">
-        <v>28203700</v>
+        <v>28527200</v>
       </c>
       <c r="H54" s="3">
-        <v>27705200</v>
+        <v>28023000</v>
       </c>
       <c r="I54" s="3">
-        <v>24116700</v>
+        <v>24393300</v>
       </c>
       <c r="J54" s="3">
-        <v>22956800</v>
+        <v>23220100</v>
       </c>
       <c r="K54" s="3">
         <v>19839900</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>659100</v>
+        <v>666700</v>
       </c>
       <c r="E57" s="3">
-        <v>747400</v>
+        <v>756000</v>
       </c>
       <c r="F57" s="3">
-        <v>1433900</v>
+        <v>1450300</v>
       </c>
       <c r="G57" s="3">
-        <v>1155300</v>
+        <v>1168600</v>
       </c>
       <c r="H57" s="3">
-        <v>1182700</v>
+        <v>1196300</v>
       </c>
       <c r="I57" s="3">
-        <v>1261100</v>
+        <v>1275600</v>
       </c>
       <c r="J57" s="3">
-        <v>1434700</v>
+        <v>1451100</v>
       </c>
       <c r="K57" s="3">
         <v>287300</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1468900</v>
+        <v>1485800</v>
       </c>
       <c r="E58" s="3">
-        <v>901100</v>
+        <v>911500</v>
       </c>
       <c r="F58" s="3">
-        <v>1583100</v>
+        <v>1601200</v>
       </c>
       <c r="G58" s="3">
-        <v>1133300</v>
+        <v>1146300</v>
       </c>
       <c r="H58" s="3">
-        <v>1097500</v>
+        <v>1110100</v>
       </c>
       <c r="I58" s="3">
-        <v>414000</v>
+        <v>418800</v>
       </c>
       <c r="J58" s="3">
-        <v>777100</v>
+        <v>786000</v>
       </c>
       <c r="K58" s="3">
         <v>429400</v>
@@ -2210,13 +2210,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1134800</v>
+        <v>1147800</v>
       </c>
       <c r="E59" s="3">
-        <v>1015300</v>
+        <v>1026900</v>
       </c>
       <c r="F59" s="3">
-        <v>14500</v>
+        <v>14600</v>
       </c>
       <c r="G59" s="3">
         <v>800</v>
@@ -2228,7 +2228,7 @@
         <v>8</v>
       </c>
       <c r="J59" s="3">
-        <v>813600</v>
+        <v>822900</v>
       </c>
       <c r="K59" s="3">
         <v>922800</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3262800</v>
+        <v>3300200</v>
       </c>
       <c r="E60" s="3">
-        <v>2663800</v>
+        <v>2694400</v>
       </c>
       <c r="F60" s="3">
-        <v>3031400</v>
+        <v>3066200</v>
       </c>
       <c r="G60" s="3">
-        <v>2289400</v>
+        <v>2315600</v>
       </c>
       <c r="H60" s="3">
-        <v>2281700</v>
+        <v>2307900</v>
       </c>
       <c r="I60" s="3">
-        <v>1675200</v>
+        <v>1694400</v>
       </c>
       <c r="J60" s="3">
-        <v>1901200</v>
+        <v>1923000</v>
       </c>
       <c r="K60" s="3">
         <v>1639500</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9031100</v>
+        <v>9134700</v>
       </c>
       <c r="E61" s="3">
-        <v>8665000</v>
+        <v>8764400</v>
       </c>
       <c r="F61" s="3">
-        <v>6658000</v>
+        <v>6734400</v>
       </c>
       <c r="G61" s="3">
-        <v>7190800</v>
+        <v>7273300</v>
       </c>
       <c r="H61" s="3">
-        <v>6838400</v>
+        <v>6916800</v>
       </c>
       <c r="I61" s="3">
-        <v>5957800</v>
+        <v>6026200</v>
       </c>
       <c r="J61" s="3">
-        <v>5189900</v>
+        <v>5249400</v>
       </c>
       <c r="K61" s="3">
         <v>4705600</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7298900</v>
+        <v>7382600</v>
       </c>
       <c r="E62" s="3">
-        <v>6612300</v>
+        <v>6688200</v>
       </c>
       <c r="F62" s="3">
-        <v>6272900</v>
+        <v>6344900</v>
       </c>
       <c r="G62" s="3">
-        <v>7428200</v>
+        <v>7513400</v>
       </c>
       <c r="H62" s="3">
-        <v>7206800</v>
+        <v>7289400</v>
       </c>
       <c r="I62" s="3">
-        <v>6231800</v>
+        <v>6303300</v>
       </c>
       <c r="J62" s="3">
-        <v>6808000</v>
+        <v>6886000</v>
       </c>
       <c r="K62" s="3">
         <v>5295100</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19592700</v>
+        <v>19817500</v>
       </c>
       <c r="E66" s="3">
-        <v>17941200</v>
+        <v>18147000</v>
       </c>
       <c r="F66" s="3">
-        <v>15962300</v>
+        <v>16145400</v>
       </c>
       <c r="G66" s="3">
-        <v>16908400</v>
+        <v>17102300</v>
       </c>
       <c r="H66" s="3">
-        <v>16326900</v>
+        <v>16514200</v>
       </c>
       <c r="I66" s="3">
-        <v>13864800</v>
+        <v>14023800</v>
       </c>
       <c r="J66" s="3">
-        <v>13098400</v>
+        <v>13248600</v>
       </c>
       <c r="K66" s="3">
         <v>11640200</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>13421100</v>
+        <v>13575000</v>
       </c>
       <c r="E72" s="3">
-        <v>12651600</v>
+        <v>12796700</v>
       </c>
       <c r="F72" s="3">
-        <v>11862300</v>
+        <v>11998400</v>
       </c>
       <c r="G72" s="3">
-        <v>10078400</v>
+        <v>10194000</v>
       </c>
       <c r="H72" s="3">
-        <v>9617900</v>
+        <v>9728200</v>
       </c>
       <c r="I72" s="3">
-        <v>8935200</v>
+        <v>9037700</v>
       </c>
       <c r="J72" s="3">
-        <v>8210600</v>
+        <v>8304800</v>
       </c>
       <c r="K72" s="3">
         <v>7566400</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13730800</v>
+        <v>13888300</v>
       </c>
       <c r="E76" s="3">
-        <v>13426400</v>
+        <v>13580400</v>
       </c>
       <c r="F76" s="3">
-        <v>12676700</v>
+        <v>12822100</v>
       </c>
       <c r="G76" s="3">
-        <v>11295300</v>
+        <v>11424900</v>
       </c>
       <c r="H76" s="3">
-        <v>11378300</v>
+        <v>11508800</v>
       </c>
       <c r="I76" s="3">
-        <v>10251900</v>
+        <v>10369500</v>
       </c>
       <c r="J76" s="3">
-        <v>9858400</v>
+        <v>9971500</v>
       </c>
       <c r="K76" s="3">
         <v>8199700</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3208800</v>
+        <v>3245600</v>
       </c>
       <c r="E81" s="3">
-        <v>3294000</v>
+        <v>3331800</v>
       </c>
       <c r="F81" s="3">
-        <v>4173800</v>
+        <v>4221700</v>
       </c>
       <c r="G81" s="3">
-        <v>2770400</v>
+        <v>2802100</v>
       </c>
       <c r="H81" s="3">
-        <v>2692700</v>
+        <v>2723600</v>
       </c>
       <c r="I81" s="3">
-        <v>2410400</v>
+        <v>2438000</v>
       </c>
       <c r="J81" s="3">
-        <v>1988000</v>
+        <v>2010800</v>
       </c>
       <c r="K81" s="3">
         <v>1994500</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1188800</v>
+        <v>1202500</v>
       </c>
       <c r="E83" s="3">
-        <v>1011500</v>
+        <v>1023100</v>
       </c>
       <c r="F83" s="3">
-        <v>975000</v>
+        <v>986100</v>
       </c>
       <c r="G83" s="3">
-        <v>932300</v>
+        <v>943000</v>
       </c>
       <c r="H83" s="3">
-        <v>881300</v>
+        <v>891500</v>
       </c>
       <c r="I83" s="3">
-        <v>799100</v>
+        <v>808300</v>
       </c>
       <c r="J83" s="3">
-        <v>745900</v>
+        <v>754400</v>
       </c>
       <c r="K83" s="3">
         <v>687700</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4507900</v>
+        <v>4559600</v>
       </c>
       <c r="E89" s="3">
-        <v>4504100</v>
+        <v>4555800</v>
       </c>
       <c r="F89" s="3">
-        <v>4198200</v>
+        <v>4246300</v>
       </c>
       <c r="G89" s="3">
-        <v>3959200</v>
+        <v>4004600</v>
       </c>
       <c r="H89" s="3">
-        <v>3912000</v>
+        <v>3956900</v>
       </c>
       <c r="I89" s="3">
-        <v>3334300</v>
+        <v>3372600</v>
       </c>
       <c r="J89" s="3">
-        <v>2700300</v>
+        <v>2731300</v>
       </c>
       <c r="K89" s="3">
         <v>2277300</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2941600</v>
+        <v>-2975400</v>
       </c>
       <c r="E91" s="3">
-        <v>-2687400</v>
+        <v>-2718200</v>
       </c>
       <c r="F91" s="3">
-        <v>-2034400</v>
+        <v>-2057700</v>
       </c>
       <c r="G91" s="3">
-        <v>-2051100</v>
+        <v>-2074700</v>
       </c>
       <c r="H91" s="3">
-        <v>-2059500</v>
+        <v>-2083100</v>
       </c>
       <c r="I91" s="3">
-        <v>-1748200</v>
+        <v>-1768300</v>
       </c>
       <c r="J91" s="3">
-        <v>-1501600</v>
+        <v>-1518900</v>
       </c>
       <c r="K91" s="3">
         <v>-1288200</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3189000</v>
+        <v>-3225500</v>
       </c>
       <c r="E94" s="3">
-        <v>-2590800</v>
+        <v>-2620500</v>
       </c>
       <c r="F94" s="3">
-        <v>-2083900</v>
+        <v>-2107800</v>
       </c>
       <c r="G94" s="3">
-        <v>-2041200</v>
+        <v>-2064700</v>
       </c>
       <c r="H94" s="3">
-        <v>-2151600</v>
+        <v>-2176300</v>
       </c>
       <c r="I94" s="3">
-        <v>-1656100</v>
+        <v>-1675100</v>
       </c>
       <c r="J94" s="3">
-        <v>-1409500</v>
+        <v>-1425700</v>
       </c>
       <c r="K94" s="3">
         <v>-1057500</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1175100</v>
+        <v>-1188600</v>
       </c>
       <c r="E96" s="3">
-        <v>-1014500</v>
+        <v>-1026200</v>
       </c>
       <c r="F96" s="3">
-        <v>-943000</v>
+        <v>-953800</v>
       </c>
       <c r="G96" s="3">
-        <v>-882100</v>
+        <v>-892200</v>
       </c>
       <c r="H96" s="3">
-        <v>-758000</v>
+        <v>-766700</v>
       </c>
       <c r="I96" s="3">
-        <v>-622600</v>
+        <v>-629700</v>
       </c>
       <c r="J96" s="3">
-        <v>-551000</v>
+        <v>-557300</v>
       </c>
       <c r="K96" s="3">
         <v>-485200</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1448400</v>
+        <v>-1465000</v>
       </c>
       <c r="E100" s="3">
-        <v>-1756600</v>
+        <v>-1776700</v>
       </c>
       <c r="F100" s="3">
-        <v>-2203400</v>
+        <v>-2228600</v>
       </c>
       <c r="G100" s="3">
-        <v>-1932400</v>
+        <v>-1954600</v>
       </c>
       <c r="H100" s="3">
-        <v>-1691900</v>
+        <v>-1711300</v>
       </c>
       <c r="I100" s="3">
-        <v>-1803800</v>
+        <v>-1824500</v>
       </c>
       <c r="J100" s="3">
-        <v>-1260400</v>
+        <v>-1274800</v>
       </c>
       <c r="K100" s="3">
         <v>-1177300</v>
@@ -3472,16 +3472,16 @@
         <v>-1500</v>
       </c>
       <c r="G101" s="3">
-        <v>11400</v>
+        <v>11500</v>
       </c>
       <c r="H101" s="3">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="I101" s="3">
         <v>2300</v>
       </c>
       <c r="J101" s="3">
-        <v>14500</v>
+        <v>14600</v>
       </c>
       <c r="K101" s="3">
         <v>-2200</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-130100</v>
+        <v>-131600</v>
       </c>
       <c r="E102" s="3">
-        <v>156800</v>
+        <v>158600</v>
       </c>
       <c r="F102" s="3">
-        <v>-90600</v>
+        <v>-91600</v>
       </c>
       <c r="G102" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="H102" s="3">
-        <v>76900</v>
+        <v>77800</v>
       </c>
       <c r="I102" s="3">
-        <v>-123300</v>
+        <v>-124700</v>
       </c>
       <c r="J102" s="3">
-        <v>44900</v>
+        <v>45400</v>
       </c>
       <c r="K102" s="3">
         <v>40200</v>

--- a/AAII_Financials/Yearly/CNI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CNI_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>CNI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11483400</v>
+        <v>10958700</v>
       </c>
       <c r="E8" s="3">
-        <v>11024600</v>
+        <v>11829500</v>
       </c>
       <c r="F8" s="3">
-        <v>10039200</v>
+        <v>11356800</v>
       </c>
       <c r="G8" s="3">
-        <v>9266300</v>
+        <v>10341800</v>
       </c>
       <c r="H8" s="3">
-        <v>9708200</v>
+        <v>9545600</v>
       </c>
       <c r="I8" s="3">
-        <v>9341000</v>
+        <v>10000800</v>
       </c>
       <c r="J8" s="3">
+        <v>9622500</v>
+      </c>
+      <c r="K8" s="3">
         <v>8140800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7382600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6935600</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3005400</v>
+        <v>2620100</v>
       </c>
       <c r="E9" s="3">
-        <v>2850600</v>
+        <v>3096000</v>
       </c>
       <c r="F9" s="3">
-        <v>2410300</v>
+        <v>2936600</v>
       </c>
       <c r="G9" s="3">
-        <v>2034600</v>
+        <v>2482900</v>
       </c>
       <c r="H9" s="3">
-        <v>2320200</v>
+        <v>2096000</v>
       </c>
       <c r="I9" s="3">
-        <v>2651300</v>
+        <v>2390200</v>
       </c>
       <c r="J9" s="3">
+        <v>2731200</v>
+      </c>
+      <c r="K9" s="3">
         <v>2286400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2063000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1945200</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8478000</v>
+        <v>8338600</v>
       </c>
       <c r="E10" s="3">
-        <v>8173900</v>
+        <v>8733500</v>
       </c>
       <c r="F10" s="3">
-        <v>7628900</v>
+        <v>8420300</v>
       </c>
       <c r="G10" s="3">
-        <v>7231700</v>
+        <v>7858800</v>
       </c>
       <c r="H10" s="3">
-        <v>7388000</v>
+        <v>7449600</v>
       </c>
       <c r="I10" s="3">
-        <v>6689700</v>
+        <v>7610600</v>
       </c>
       <c r="J10" s="3">
+        <v>6891300</v>
+      </c>
+      <c r="K10" s="3">
         <v>5854500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5319600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4990400</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,9 +906,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -923,42 +942,48 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1202500</v>
+        <v>1260100</v>
       </c>
       <c r="E15" s="3">
-        <v>1023100</v>
+        <v>1238700</v>
       </c>
       <c r="F15" s="3">
-        <v>986100</v>
+        <v>1053900</v>
       </c>
       <c r="G15" s="3">
-        <v>943000</v>
+        <v>1015900</v>
       </c>
       <c r="H15" s="3">
-        <v>891500</v>
+        <v>971400</v>
       </c>
       <c r="I15" s="3">
-        <v>808300</v>
+        <v>918300</v>
       </c>
       <c r="J15" s="3">
+        <v>832700</v>
+      </c>
+      <c r="K15" s="3">
         <v>754400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>687700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>679100</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7177800</v>
+        <v>7170500</v>
       </c>
       <c r="E17" s="3">
-        <v>6796000</v>
+        <v>7394100</v>
       </c>
       <c r="F17" s="3">
-        <v>6003100</v>
+        <v>7000800</v>
       </c>
       <c r="G17" s="3">
-        <v>5392600</v>
+        <v>6184000</v>
       </c>
       <c r="H17" s="3">
-        <v>5654300</v>
+        <v>5555100</v>
       </c>
       <c r="I17" s="3">
-        <v>5781300</v>
+        <v>5824700</v>
       </c>
       <c r="J17" s="3">
+        <v>5955600</v>
+      </c>
+      <c r="K17" s="3">
         <v>5159300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4640100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4403500</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4305600</v>
+        <v>3788300</v>
       </c>
       <c r="E18" s="3">
-        <v>4228600</v>
+        <v>4435400</v>
       </c>
       <c r="F18" s="3">
-        <v>4036200</v>
+        <v>4356100</v>
       </c>
       <c r="G18" s="3">
-        <v>3873700</v>
+        <v>4157800</v>
       </c>
       <c r="H18" s="3">
-        <v>4053900</v>
+        <v>3990500</v>
       </c>
       <c r="I18" s="3">
-        <v>3559600</v>
+        <v>4176000</v>
       </c>
       <c r="J18" s="3">
+        <v>3666900</v>
+      </c>
+      <c r="K18" s="3">
         <v>2981500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2742400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2532100</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>287900</v>
+        <v>254600</v>
       </c>
       <c r="E20" s="3">
-        <v>521900</v>
+        <v>296600</v>
       </c>
       <c r="F20" s="3">
-        <v>251700</v>
+        <v>537700</v>
       </c>
       <c r="G20" s="3">
-        <v>288700</v>
+        <v>259300</v>
       </c>
       <c r="H20" s="3">
-        <v>36200</v>
+        <v>297400</v>
       </c>
       <c r="I20" s="3">
-        <v>82400</v>
+        <v>37300</v>
       </c>
       <c r="J20" s="3">
+        <v>84900</v>
+      </c>
+      <c r="K20" s="3">
         <v>56200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>234400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>308100</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5793900</v>
+        <v>5306400</v>
       </c>
       <c r="E21" s="3">
-        <v>5771800</v>
+        <v>5974100</v>
       </c>
       <c r="F21" s="3">
-        <v>5272300</v>
+        <v>5950600</v>
       </c>
       <c r="G21" s="3">
-        <v>5103800</v>
+        <v>5435800</v>
       </c>
       <c r="H21" s="3">
-        <v>4979900</v>
+        <v>5262000</v>
       </c>
       <c r="I21" s="3">
-        <v>4448900</v>
+        <v>5134200</v>
       </c>
       <c r="J21" s="3">
+        <v>4586800</v>
+      </c>
+      <c r="K21" s="3">
         <v>3790800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3665900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3522500</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>414200</v>
+        <v>439300</v>
       </c>
       <c r="E22" s="3">
-        <v>376400</v>
+        <v>426600</v>
       </c>
       <c r="F22" s="3">
-        <v>370300</v>
+        <v>387800</v>
       </c>
       <c r="G22" s="3">
-        <v>369500</v>
+        <v>381400</v>
       </c>
       <c r="H22" s="3">
-        <v>338000</v>
+        <v>380600</v>
       </c>
       <c r="I22" s="3">
-        <v>285600</v>
+        <v>348100</v>
       </c>
       <c r="J22" s="3">
+        <v>294200</v>
+      </c>
+      <c r="K22" s="3">
         <v>274800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>254500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>262000</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4179400</v>
+        <v>3603500</v>
       </c>
       <c r="E23" s="3">
-        <v>4374100</v>
+        <v>4305300</v>
       </c>
       <c r="F23" s="3">
-        <v>3917600</v>
+        <v>4505900</v>
       </c>
       <c r="G23" s="3">
-        <v>3792900</v>
+        <v>4035700</v>
       </c>
       <c r="H23" s="3">
-        <v>3752100</v>
+        <v>3907200</v>
       </c>
       <c r="I23" s="3">
-        <v>3356400</v>
+        <v>3865200</v>
       </c>
       <c r="J23" s="3">
+        <v>3457600</v>
+      </c>
+      <c r="K23" s="3">
         <v>2762900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2722300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2578200</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>933800</v>
+        <v>890600</v>
       </c>
       <c r="E24" s="3">
-        <v>1042300</v>
+        <v>961900</v>
       </c>
       <c r="F24" s="3">
-        <v>-1662000</v>
+        <v>1073700</v>
       </c>
       <c r="G24" s="3">
-        <v>990800</v>
+        <v>-1712100</v>
       </c>
       <c r="H24" s="3">
-        <v>1028500</v>
+        <v>1020600</v>
       </c>
       <c r="I24" s="3">
-        <v>918400</v>
+        <v>1059500</v>
       </c>
       <c r="J24" s="3">
+        <v>946100</v>
+      </c>
+      <c r="K24" s="3">
         <v>752100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>727800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>690600</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3245600</v>
+        <v>2712900</v>
       </c>
       <c r="E26" s="3">
-        <v>3331800</v>
+        <v>3343400</v>
       </c>
       <c r="F26" s="3">
-        <v>5579700</v>
+        <v>3432200</v>
       </c>
       <c r="G26" s="3">
-        <v>2802100</v>
+        <v>5747800</v>
       </c>
       <c r="H26" s="3">
-        <v>2723600</v>
+        <v>2886600</v>
       </c>
       <c r="I26" s="3">
-        <v>2438000</v>
+        <v>2805700</v>
       </c>
       <c r="J26" s="3">
+        <v>2511500</v>
+      </c>
+      <c r="K26" s="3">
         <v>2010800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1994500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1887500</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3245600</v>
+        <v>2712900</v>
       </c>
       <c r="E27" s="3">
-        <v>3331800</v>
+        <v>3343400</v>
       </c>
       <c r="F27" s="3">
-        <v>5579700</v>
+        <v>3432200</v>
       </c>
       <c r="G27" s="3">
-        <v>2802100</v>
+        <v>5747800</v>
       </c>
       <c r="H27" s="3">
-        <v>2723600</v>
+        <v>2886600</v>
       </c>
       <c r="I27" s="3">
-        <v>2438000</v>
+        <v>2805700</v>
       </c>
       <c r="J27" s="3">
+        <v>2511500</v>
+      </c>
+      <c r="K27" s="3">
         <v>2010800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1994500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1887500</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,23 +1403,26 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>111800</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>-1358000</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G29" s="3">
+        <v>-1398900</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-287900</v>
+        <v>-254600</v>
       </c>
       <c r="E32" s="3">
-        <v>-521900</v>
+        <v>-296600</v>
       </c>
       <c r="F32" s="3">
-        <v>-251700</v>
+        <v>-537700</v>
       </c>
       <c r="G32" s="3">
-        <v>-288700</v>
+        <v>-259300</v>
       </c>
       <c r="H32" s="3">
-        <v>-36200</v>
+        <v>-297400</v>
       </c>
       <c r="I32" s="3">
-        <v>-82400</v>
+        <v>-37300</v>
       </c>
       <c r="J32" s="3">
+        <v>-84900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-56200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-234400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-308100</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3245600</v>
+        <v>2824700</v>
       </c>
       <c r="E33" s="3">
-        <v>3331800</v>
+        <v>3343400</v>
       </c>
       <c r="F33" s="3">
-        <v>4221700</v>
+        <v>3432200</v>
       </c>
       <c r="G33" s="3">
-        <v>2802100</v>
+        <v>4348900</v>
       </c>
       <c r="H33" s="3">
-        <v>2723600</v>
+        <v>2886600</v>
       </c>
       <c r="I33" s="3">
-        <v>2438000</v>
+        <v>2805700</v>
       </c>
       <c r="J33" s="3">
+        <v>2511500</v>
+      </c>
+      <c r="K33" s="3">
         <v>2010800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1994500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1887500</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3245600</v>
+        <v>2824700</v>
       </c>
       <c r="E35" s="3">
-        <v>3331800</v>
+        <v>3343400</v>
       </c>
       <c r="F35" s="3">
-        <v>4221700</v>
+        <v>3432200</v>
       </c>
       <c r="G35" s="3">
-        <v>2802100</v>
+        <v>4348900</v>
       </c>
       <c r="H35" s="3">
-        <v>2723600</v>
+        <v>2886600</v>
       </c>
       <c r="I35" s="3">
-        <v>2438000</v>
+        <v>2805700</v>
       </c>
       <c r="J35" s="3">
+        <v>2511500</v>
+      </c>
+      <c r="K35" s="3">
         <v>2010800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1994500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1887500</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,41 +1731,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>49300</v>
+        <v>451200</v>
       </c>
       <c r="E41" s="3">
-        <v>204800</v>
+        <v>50800</v>
       </c>
       <c r="F41" s="3">
-        <v>53900</v>
+        <v>210900</v>
       </c>
       <c r="G41" s="3">
-        <v>135500</v>
+        <v>55500</v>
       </c>
       <c r="H41" s="3">
-        <v>117800</v>
+        <v>139600</v>
       </c>
       <c r="I41" s="3">
-        <v>40000</v>
+        <v>121300</v>
       </c>
       <c r="J41" s="3">
+        <v>41200</v>
+      </c>
+      <c r="K41" s="3">
         <v>164700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>115400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>77600</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1711,240 +1800,264 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>933800</v>
+        <v>903200</v>
       </c>
       <c r="E43" s="3">
-        <v>899900</v>
+        <v>961900</v>
       </c>
       <c r="F43" s="3">
-        <v>757500</v>
+        <v>927000</v>
       </c>
       <c r="G43" s="3">
-        <v>673600</v>
+        <v>780300</v>
       </c>
       <c r="H43" s="3">
-        <v>675900</v>
+        <v>693900</v>
       </c>
       <c r="I43" s="3">
-        <v>714400</v>
+        <v>696300</v>
       </c>
       <c r="J43" s="3">
+        <v>735900</v>
+      </c>
+      <c r="K43" s="3">
         <v>627400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>618400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>629900</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>470400</v>
+        <v>462300</v>
       </c>
       <c r="E44" s="3">
-        <v>428800</v>
+        <v>484500</v>
       </c>
       <c r="F44" s="3">
-        <v>326400</v>
+        <v>441700</v>
       </c>
       <c r="G44" s="3">
-        <v>273300</v>
+        <v>336200</v>
       </c>
       <c r="H44" s="3">
-        <v>273300</v>
+        <v>281500</v>
       </c>
       <c r="I44" s="3">
-        <v>257900</v>
+        <v>281500</v>
       </c>
       <c r="J44" s="3">
+        <v>265700</v>
+      </c>
+      <c r="K44" s="3">
         <v>210900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>171200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>154400</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>725200</v>
+        <v>643100</v>
       </c>
       <c r="E45" s="3">
-        <v>566600</v>
+        <v>747000</v>
       </c>
       <c r="F45" s="3">
-        <v>548100</v>
+        <v>583700</v>
       </c>
       <c r="G45" s="3">
-        <v>539600</v>
+        <v>564600</v>
       </c>
       <c r="H45" s="3">
-        <v>590500</v>
+        <v>555900</v>
       </c>
       <c r="I45" s="3">
-        <v>647400</v>
+        <v>608200</v>
       </c>
       <c r="J45" s="3">
+        <v>666900</v>
+      </c>
+      <c r="K45" s="3">
         <v>518900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>486000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>557700</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2178600</v>
+        <v>2459900</v>
       </c>
       <c r="E46" s="3">
-        <v>2100100</v>
+        <v>2244200</v>
       </c>
       <c r="F46" s="3">
-        <v>1685900</v>
+        <v>2163400</v>
       </c>
       <c r="G46" s="3">
-        <v>1622000</v>
+        <v>1736700</v>
       </c>
       <c r="H46" s="3">
-        <v>1657400</v>
+        <v>1670900</v>
       </c>
       <c r="I46" s="3">
-        <v>1534300</v>
+        <v>1707400</v>
       </c>
       <c r="J46" s="3">
+        <v>1580500</v>
+      </c>
+      <c r="K46" s="3">
         <v>1521900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1390900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1419700</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>88500</v>
+        <v>95200</v>
       </c>
       <c r="E47" s="3">
-        <v>73900</v>
+        <v>91200</v>
       </c>
       <c r="F47" s="3">
-        <v>76200</v>
+        <v>76100</v>
       </c>
       <c r="G47" s="3">
-        <v>77800</v>
+        <v>78500</v>
       </c>
       <c r="H47" s="3">
-        <v>164000</v>
+        <v>80100</v>
       </c>
       <c r="I47" s="3">
-        <v>153200</v>
+        <v>168900</v>
       </c>
       <c r="J47" s="3">
+        <v>157800</v>
+      </c>
+      <c r="K47" s="3">
         <v>136300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>87100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>99100</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>30938300</v>
+        <v>32120500</v>
       </c>
       <c r="E48" s="3">
-        <v>29078400</v>
+        <v>31870700</v>
       </c>
       <c r="F48" s="3">
-        <v>26319400</v>
+        <v>29954700</v>
       </c>
       <c r="G48" s="3">
-        <v>25985300</v>
+        <v>27112600</v>
       </c>
       <c r="H48" s="3">
-        <v>25114600</v>
+        <v>26768400</v>
       </c>
       <c r="I48" s="3">
-        <v>21950600</v>
+        <v>25871500</v>
       </c>
       <c r="J48" s="3">
+        <v>22612200</v>
+      </c>
+      <c r="K48" s="3">
         <v>20190100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>18263700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>18373800</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>176300</v>
+        <v>170500</v>
       </c>
       <c r="E49" s="3">
-        <v>56200</v>
+        <v>181600</v>
       </c>
       <c r="F49" s="3">
-        <v>47700</v>
+        <v>57900</v>
       </c>
       <c r="G49" s="3">
-        <v>51600</v>
+        <v>49200</v>
       </c>
       <c r="H49" s="3">
-        <v>54700</v>
+        <v>53100</v>
       </c>
       <c r="I49" s="3">
-        <v>47700</v>
+        <v>56300</v>
       </c>
       <c r="J49" s="3">
+        <v>49200</v>
+      </c>
+      <c r="K49" s="3">
         <v>45400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>42400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>41500</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>324100</v>
+        <v>684400</v>
       </c>
       <c r="E52" s="3">
-        <v>418800</v>
+        <v>333900</v>
       </c>
       <c r="F52" s="3">
-        <v>838300</v>
+        <v>431400</v>
       </c>
       <c r="G52" s="3">
-        <v>790600</v>
+        <v>863600</v>
       </c>
       <c r="H52" s="3">
-        <v>1032300</v>
+        <v>814400</v>
       </c>
       <c r="I52" s="3">
-        <v>707500</v>
+        <v>1063400</v>
       </c>
       <c r="J52" s="3">
+        <v>728800</v>
+      </c>
+      <c r="K52" s="3">
         <v>2614300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>55800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>59900</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>33705800</v>
+        <v>35530500</v>
       </c>
       <c r="E54" s="3">
-        <v>31727400</v>
+        <v>34721600</v>
       </c>
       <c r="F54" s="3">
-        <v>28967600</v>
+        <v>32683500</v>
       </c>
       <c r="G54" s="3">
-        <v>28527200</v>
+        <v>29840500</v>
       </c>
       <c r="H54" s="3">
-        <v>28023000</v>
+        <v>29386900</v>
       </c>
       <c r="I54" s="3">
-        <v>24393300</v>
+        <v>28867500</v>
       </c>
       <c r="J54" s="3">
+        <v>25128400</v>
+      </c>
+      <c r="K54" s="3">
         <v>23220100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>19839900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>19994000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>666700</v>
+        <v>618600</v>
       </c>
       <c r="E57" s="3">
-        <v>756000</v>
+        <v>686800</v>
       </c>
       <c r="F57" s="3">
-        <v>1450300</v>
+        <v>778700</v>
       </c>
       <c r="G57" s="3">
-        <v>1168600</v>
+        <v>1494000</v>
       </c>
       <c r="H57" s="3">
-        <v>1196300</v>
+        <v>1203800</v>
       </c>
       <c r="I57" s="3">
-        <v>1275600</v>
+        <v>1232400</v>
       </c>
       <c r="J57" s="3">
+        <v>1314000</v>
+      </c>
+      <c r="K57" s="3">
         <v>1451100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>287300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>341900</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1485800</v>
+        <v>721600</v>
       </c>
       <c r="E58" s="3">
-        <v>911500</v>
+        <v>1530500</v>
       </c>
       <c r="F58" s="3">
-        <v>1601200</v>
+        <v>938900</v>
       </c>
       <c r="G58" s="3">
-        <v>1146300</v>
+        <v>1649500</v>
       </c>
       <c r="H58" s="3">
-        <v>1110100</v>
+        <v>1180800</v>
       </c>
       <c r="I58" s="3">
-        <v>418800</v>
+        <v>1143500</v>
       </c>
       <c r="J58" s="3">
+        <v>431400</v>
+      </c>
+      <c r="K58" s="3">
         <v>786000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>429400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>103700</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1147800</v>
+        <v>1256100</v>
       </c>
       <c r="E59" s="3">
-        <v>1026900</v>
+        <v>1182400</v>
       </c>
       <c r="F59" s="3">
-        <v>14600</v>
+        <v>1057900</v>
       </c>
       <c r="G59" s="3">
+        <v>15100</v>
+      </c>
+      <c r="H59" s="3">
         <v>800</v>
       </c>
-      <c r="H59" s="3">
-        <v>1500</v>
-      </c>
-      <c r="I59" s="3" t="s">
+      <c r="I59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>822900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>922800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>871900</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3300200</v>
+        <v>2596300</v>
       </c>
       <c r="E60" s="3">
-        <v>2694400</v>
+        <v>3399700</v>
       </c>
       <c r="F60" s="3">
-        <v>3066200</v>
+        <v>2775600</v>
       </c>
       <c r="G60" s="3">
-        <v>2315600</v>
+        <v>3158600</v>
       </c>
       <c r="H60" s="3">
-        <v>2307900</v>
+        <v>2385400</v>
       </c>
       <c r="I60" s="3">
-        <v>1694400</v>
+        <v>2377500</v>
       </c>
       <c r="J60" s="3">
+        <v>1745400</v>
+      </c>
+      <c r="K60" s="3">
         <v>1923000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1639500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1317500</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9134700</v>
+        <v>9513100</v>
       </c>
       <c r="E61" s="3">
-        <v>8764400</v>
+        <v>9410000</v>
       </c>
       <c r="F61" s="3">
-        <v>6734400</v>
+        <v>9028500</v>
       </c>
       <c r="G61" s="3">
-        <v>7273300</v>
+        <v>6937300</v>
       </c>
       <c r="H61" s="3">
-        <v>6916800</v>
+        <v>7492500</v>
       </c>
       <c r="I61" s="3">
-        <v>6026200</v>
+        <v>7125300</v>
       </c>
       <c r="J61" s="3">
+        <v>6207800</v>
+      </c>
+      <c r="K61" s="3">
         <v>5249400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4705600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4948200</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7382600</v>
+        <v>7837400</v>
       </c>
       <c r="E62" s="3">
-        <v>6688200</v>
+        <v>7605100</v>
       </c>
       <c r="F62" s="3">
-        <v>6344900</v>
+        <v>6889800</v>
       </c>
       <c r="G62" s="3">
-        <v>7513400</v>
+        <v>6536100</v>
       </c>
       <c r="H62" s="3">
-        <v>7289400</v>
+        <v>7739900</v>
       </c>
       <c r="I62" s="3">
-        <v>6303300</v>
+        <v>7509100</v>
       </c>
       <c r="J62" s="3">
+        <v>6493200</v>
+      </c>
+      <c r="K62" s="3">
         <v>6886000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5295100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5523600</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19817500</v>
+        <v>19946800</v>
       </c>
       <c r="E66" s="3">
-        <v>18147000</v>
+        <v>20414700</v>
       </c>
       <c r="F66" s="3">
-        <v>16145400</v>
+        <v>18693900</v>
       </c>
       <c r="G66" s="3">
-        <v>17102300</v>
+        <v>16632000</v>
       </c>
       <c r="H66" s="3">
-        <v>16514200</v>
+        <v>17617700</v>
       </c>
       <c r="I66" s="3">
-        <v>14023800</v>
+        <v>17011900</v>
       </c>
       <c r="J66" s="3">
+        <v>14446400</v>
+      </c>
+      <c r="K66" s="3">
         <v>13248600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11640200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11789300</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>13575000</v>
+        <v>15195100</v>
       </c>
       <c r="E72" s="3">
-        <v>12796700</v>
+        <v>13984100</v>
       </c>
       <c r="F72" s="3">
-        <v>11998400</v>
+        <v>13182400</v>
       </c>
       <c r="G72" s="3">
-        <v>10194000</v>
+        <v>12360000</v>
       </c>
       <c r="H72" s="3">
-        <v>9728200</v>
+        <v>10501200</v>
       </c>
       <c r="I72" s="3">
-        <v>9037700</v>
+        <v>10021400</v>
       </c>
       <c r="J72" s="3">
+        <v>9310100</v>
+      </c>
+      <c r="K72" s="3">
         <v>8304800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7566400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7204500</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13888300</v>
+        <v>15583600</v>
       </c>
       <c r="E76" s="3">
-        <v>13580400</v>
+        <v>14306900</v>
       </c>
       <c r="F76" s="3">
-        <v>12822100</v>
+        <v>13989700</v>
       </c>
       <c r="G76" s="3">
-        <v>11424900</v>
+        <v>13208500</v>
       </c>
       <c r="H76" s="3">
-        <v>11508800</v>
+        <v>11769200</v>
       </c>
       <c r="I76" s="3">
-        <v>10369500</v>
+        <v>11855600</v>
       </c>
       <c r="J76" s="3">
+        <v>10682000</v>
+      </c>
+      <c r="K76" s="3">
         <v>9971500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8199700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8204700</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3245600</v>
+        <v>2824700</v>
       </c>
       <c r="E81" s="3">
-        <v>3331800</v>
+        <v>3343400</v>
       </c>
       <c r="F81" s="3">
-        <v>4221700</v>
+        <v>3432200</v>
       </c>
       <c r="G81" s="3">
-        <v>2802100</v>
+        <v>4348900</v>
       </c>
       <c r="H81" s="3">
-        <v>2723600</v>
+        <v>2886600</v>
       </c>
       <c r="I81" s="3">
-        <v>2438000</v>
+        <v>2805700</v>
       </c>
       <c r="J81" s="3">
+        <v>2511500</v>
+      </c>
+      <c r="K81" s="3">
         <v>2010800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1994500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1887500</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1202500</v>
+        <v>1260100</v>
       </c>
       <c r="E83" s="3">
-        <v>1023100</v>
+        <v>1238700</v>
       </c>
       <c r="F83" s="3">
-        <v>986100</v>
+        <v>1053900</v>
       </c>
       <c r="G83" s="3">
-        <v>943000</v>
+        <v>1015900</v>
       </c>
       <c r="H83" s="3">
-        <v>891500</v>
+        <v>971400</v>
       </c>
       <c r="I83" s="3">
-        <v>808300</v>
+        <v>918300</v>
       </c>
       <c r="J83" s="3">
+        <v>832700</v>
+      </c>
+      <c r="K83" s="3">
         <v>754400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>687700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>679100</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4559600</v>
+        <v>4889000</v>
       </c>
       <c r="E89" s="3">
-        <v>4555800</v>
+        <v>4697100</v>
       </c>
       <c r="F89" s="3">
-        <v>4246300</v>
+        <v>4693100</v>
       </c>
       <c r="G89" s="3">
-        <v>4004600</v>
+        <v>4374300</v>
       </c>
       <c r="H89" s="3">
-        <v>3956900</v>
+        <v>4125300</v>
       </c>
       <c r="I89" s="3">
-        <v>3372600</v>
+        <v>4076100</v>
       </c>
       <c r="J89" s="3">
+        <v>3474200</v>
+      </c>
+      <c r="K89" s="3">
         <v>2731300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2277300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2286300</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2975400</v>
+        <v>-2270400</v>
       </c>
       <c r="E91" s="3">
-        <v>-2718200</v>
+        <v>-3065000</v>
       </c>
       <c r="F91" s="3">
-        <v>-2057700</v>
+        <v>-2800200</v>
       </c>
       <c r="G91" s="3">
-        <v>-2074700</v>
+        <v>-2119700</v>
       </c>
       <c r="H91" s="3">
-        <v>-2083100</v>
+        <v>-2137200</v>
       </c>
       <c r="I91" s="3">
-        <v>-1768300</v>
+        <v>-2145900</v>
       </c>
       <c r="J91" s="3">
+        <v>-1821600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1518900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1288200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1248400</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3225500</v>
+        <v>-2336200</v>
       </c>
       <c r="E94" s="3">
-        <v>-2620500</v>
+        <v>-3322800</v>
       </c>
       <c r="F94" s="3">
-        <v>-2107800</v>
+        <v>-2699400</v>
       </c>
       <c r="G94" s="3">
-        <v>-2064700</v>
+        <v>-2171300</v>
       </c>
       <c r="H94" s="3">
-        <v>-2176300</v>
+        <v>-2126900</v>
       </c>
       <c r="I94" s="3">
-        <v>-1675100</v>
+        <v>-2241900</v>
       </c>
       <c r="J94" s="3">
+        <v>-1725600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1425700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1057500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1328300</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1188600</v>
+        <v>-1295800</v>
       </c>
       <c r="E96" s="3">
-        <v>-1026200</v>
+        <v>-1224400</v>
       </c>
       <c r="F96" s="3">
-        <v>-953800</v>
+        <v>-1057100</v>
       </c>
       <c r="G96" s="3">
-        <v>-892200</v>
+        <v>-982600</v>
       </c>
       <c r="H96" s="3">
-        <v>-766700</v>
+        <v>-919100</v>
       </c>
       <c r="I96" s="3">
-        <v>-629700</v>
+        <v>-789800</v>
       </c>
       <c r="J96" s="3">
+        <v>-648700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-557300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-485200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-449400</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1465000</v>
+        <v>-2146700</v>
       </c>
       <c r="E100" s="3">
-        <v>-1776700</v>
+        <v>-1509100</v>
       </c>
       <c r="F100" s="3">
-        <v>-2228600</v>
+        <v>-1830300</v>
       </c>
       <c r="G100" s="3">
-        <v>-1954600</v>
+        <v>-2295800</v>
       </c>
       <c r="H100" s="3">
-        <v>-1711300</v>
+        <v>-2013500</v>
       </c>
       <c r="I100" s="3">
-        <v>-1824500</v>
+        <v>-1762900</v>
       </c>
       <c r="J100" s="3">
+        <v>-1879500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1274800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1177300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1267600</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-800</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
-        <v>-1500</v>
+        <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>11500</v>
+        <v>-1600</v>
       </c>
       <c r="H101" s="3">
-        <v>8500</v>
+        <v>11900</v>
       </c>
       <c r="I101" s="3">
-        <v>2300</v>
+        <v>8700</v>
       </c>
       <c r="J101" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K101" s="3">
         <v>14600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>10800</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-131600</v>
+        <v>406000</v>
       </c>
       <c r="E102" s="3">
-        <v>158600</v>
+        <v>-135600</v>
       </c>
       <c r="F102" s="3">
-        <v>-91600</v>
+        <v>163400</v>
       </c>
       <c r="G102" s="3">
-        <v>-3100</v>
+        <v>-94400</v>
       </c>
       <c r="H102" s="3">
-        <v>77800</v>
+        <v>-3200</v>
       </c>
       <c r="I102" s="3">
-        <v>-124700</v>
+        <v>80100</v>
       </c>
       <c r="J102" s="3">
+        <v>-128500</v>
+      </c>
+      <c r="K102" s="3">
         <v>45400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>40200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-298800</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CNI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CNI_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10958700</v>
+        <v>11456600</v>
       </c>
       <c r="E8" s="3">
-        <v>11829500</v>
+        <v>12366900</v>
       </c>
       <c r="F8" s="3">
-        <v>11356800</v>
+        <v>11872800</v>
       </c>
       <c r="G8" s="3">
-        <v>10341800</v>
+        <v>10811600</v>
       </c>
       <c r="H8" s="3">
-        <v>9545600</v>
+        <v>9979300</v>
       </c>
       <c r="I8" s="3">
-        <v>10000800</v>
+        <v>10455100</v>
       </c>
       <c r="J8" s="3">
-        <v>9622500</v>
+        <v>10059700</v>
       </c>
       <c r="K8" s="3">
         <v>8140800</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2620100</v>
+        <v>2739200</v>
       </c>
       <c r="E9" s="3">
-        <v>3096000</v>
+        <v>3236600</v>
       </c>
       <c r="F9" s="3">
-        <v>2936600</v>
+        <v>3070000</v>
       </c>
       <c r="G9" s="3">
-        <v>2482900</v>
+        <v>2595800</v>
       </c>
       <c r="H9" s="3">
-        <v>2096000</v>
+        <v>2191200</v>
       </c>
       <c r="I9" s="3">
-        <v>2390200</v>
+        <v>2498800</v>
       </c>
       <c r="J9" s="3">
-        <v>2731200</v>
+        <v>2855200</v>
       </c>
       <c r="K9" s="3">
         <v>2286400</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8338600</v>
+        <v>8717500</v>
       </c>
       <c r="E10" s="3">
-        <v>8733500</v>
+        <v>9130300</v>
       </c>
       <c r="F10" s="3">
-        <v>8420300</v>
+        <v>8802900</v>
       </c>
       <c r="G10" s="3">
-        <v>7858800</v>
+        <v>8215900</v>
       </c>
       <c r="H10" s="3">
-        <v>7449600</v>
+        <v>7788100</v>
       </c>
       <c r="I10" s="3">
-        <v>7610600</v>
+        <v>7956400</v>
       </c>
       <c r="J10" s="3">
-        <v>6891300</v>
+        <v>7204400</v>
       </c>
       <c r="K10" s="3">
         <v>5854500</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1260100</v>
+        <v>1317400</v>
       </c>
       <c r="E15" s="3">
-        <v>1238700</v>
+        <v>1295000</v>
       </c>
       <c r="F15" s="3">
-        <v>1053900</v>
+        <v>1101800</v>
       </c>
       <c r="G15" s="3">
-        <v>1015900</v>
+        <v>1062000</v>
       </c>
       <c r="H15" s="3">
-        <v>971400</v>
+        <v>1015600</v>
       </c>
       <c r="I15" s="3">
-        <v>918300</v>
+        <v>960000</v>
       </c>
       <c r="J15" s="3">
-        <v>832700</v>
+        <v>870500</v>
       </c>
       <c r="K15" s="3">
         <v>754400</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7170500</v>
+        <v>7496300</v>
       </c>
       <c r="E17" s="3">
-        <v>7394100</v>
+        <v>7730100</v>
       </c>
       <c r="F17" s="3">
-        <v>7000800</v>
+        <v>7318900</v>
       </c>
       <c r="G17" s="3">
-        <v>6184000</v>
+        <v>6464900</v>
       </c>
       <c r="H17" s="3">
-        <v>5555100</v>
+        <v>5807500</v>
       </c>
       <c r="I17" s="3">
-        <v>5824700</v>
+        <v>6089400</v>
       </c>
       <c r="J17" s="3">
-        <v>5955600</v>
+        <v>6226200</v>
       </c>
       <c r="K17" s="3">
         <v>5159300</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3788300</v>
+        <v>3960400</v>
       </c>
       <c r="E18" s="3">
-        <v>4435400</v>
+        <v>4636900</v>
       </c>
       <c r="F18" s="3">
-        <v>4356100</v>
+        <v>4554000</v>
       </c>
       <c r="G18" s="3">
-        <v>4157800</v>
+        <v>4346700</v>
       </c>
       <c r="H18" s="3">
-        <v>3990500</v>
+        <v>4171800</v>
       </c>
       <c r="I18" s="3">
-        <v>4176000</v>
+        <v>4365800</v>
       </c>
       <c r="J18" s="3">
-        <v>3666900</v>
+        <v>3833500</v>
       </c>
       <c r="K18" s="3">
         <v>2981500</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>254600</v>
+        <v>266100</v>
       </c>
       <c r="E20" s="3">
-        <v>296600</v>
+        <v>310100</v>
       </c>
       <c r="F20" s="3">
-        <v>537700</v>
+        <v>562100</v>
       </c>
       <c r="G20" s="3">
-        <v>259300</v>
+        <v>271100</v>
       </c>
       <c r="H20" s="3">
-        <v>297400</v>
+        <v>310900</v>
       </c>
       <c r="I20" s="3">
-        <v>37300</v>
+        <v>39000</v>
       </c>
       <c r="J20" s="3">
-        <v>84900</v>
+        <v>88700</v>
       </c>
       <c r="K20" s="3">
         <v>56200</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5306400</v>
+        <v>5546400</v>
       </c>
       <c r="E21" s="3">
-        <v>5974100</v>
+        <v>6244400</v>
       </c>
       <c r="F21" s="3">
-        <v>5950600</v>
+        <v>6220000</v>
       </c>
       <c r="G21" s="3">
-        <v>5435800</v>
+        <v>5681800</v>
       </c>
       <c r="H21" s="3">
-        <v>5262000</v>
+        <v>5500200</v>
       </c>
       <c r="I21" s="3">
-        <v>5134200</v>
+        <v>5366600</v>
       </c>
       <c r="J21" s="3">
-        <v>4586800</v>
+        <v>4794400</v>
       </c>
       <c r="K21" s="3">
         <v>3790800</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>439300</v>
+        <v>459300</v>
       </c>
       <c r="E22" s="3">
-        <v>426600</v>
+        <v>446000</v>
       </c>
       <c r="F22" s="3">
-        <v>387800</v>
+        <v>405400</v>
       </c>
       <c r="G22" s="3">
-        <v>381400</v>
+        <v>398800</v>
       </c>
       <c r="H22" s="3">
-        <v>380600</v>
+        <v>397900</v>
       </c>
       <c r="I22" s="3">
-        <v>348100</v>
+        <v>364000</v>
       </c>
       <c r="J22" s="3">
-        <v>294200</v>
+        <v>307600</v>
       </c>
       <c r="K22" s="3">
         <v>274800</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3603500</v>
+        <v>3767200</v>
       </c>
       <c r="E23" s="3">
-        <v>4305300</v>
+        <v>4500900</v>
       </c>
       <c r="F23" s="3">
-        <v>4505900</v>
+        <v>4710700</v>
       </c>
       <c r="G23" s="3">
-        <v>4035700</v>
+        <v>4219000</v>
       </c>
       <c r="H23" s="3">
-        <v>3907200</v>
+        <v>4084700</v>
       </c>
       <c r="I23" s="3">
-        <v>3865200</v>
+        <v>4040800</v>
       </c>
       <c r="J23" s="3">
-        <v>3457600</v>
+        <v>3614700</v>
       </c>
       <c r="K23" s="3">
         <v>2762900</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>890600</v>
+        <v>931000</v>
       </c>
       <c r="E24" s="3">
-        <v>961900</v>
+        <v>1005600</v>
       </c>
       <c r="F24" s="3">
-        <v>1073700</v>
+        <v>1122500</v>
       </c>
       <c r="G24" s="3">
-        <v>-1712100</v>
+        <v>-1789900</v>
       </c>
       <c r="H24" s="3">
-        <v>1020600</v>
+        <v>1067000</v>
       </c>
       <c r="I24" s="3">
-        <v>1059500</v>
+        <v>1107600</v>
       </c>
       <c r="J24" s="3">
-        <v>946100</v>
+        <v>989100</v>
       </c>
       <c r="K24" s="3">
         <v>752100</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2712900</v>
+        <v>2836200</v>
       </c>
       <c r="E26" s="3">
-        <v>3343400</v>
+        <v>3495300</v>
       </c>
       <c r="F26" s="3">
-        <v>3432200</v>
+        <v>3588100</v>
       </c>
       <c r="G26" s="3">
-        <v>5747800</v>
+        <v>6009000</v>
       </c>
       <c r="H26" s="3">
-        <v>2886600</v>
+        <v>3017700</v>
       </c>
       <c r="I26" s="3">
-        <v>2805700</v>
+        <v>2933200</v>
       </c>
       <c r="J26" s="3">
-        <v>2511500</v>
+        <v>2625600</v>
       </c>
       <c r="K26" s="3">
         <v>2010800</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2712900</v>
+        <v>2836200</v>
       </c>
       <c r="E27" s="3">
-        <v>3343400</v>
+        <v>3495300</v>
       </c>
       <c r="F27" s="3">
-        <v>3432200</v>
+        <v>3588100</v>
       </c>
       <c r="G27" s="3">
-        <v>5747800</v>
+        <v>6009000</v>
       </c>
       <c r="H27" s="3">
-        <v>2886600</v>
+        <v>3017700</v>
       </c>
       <c r="I27" s="3">
-        <v>2805700</v>
+        <v>2933200</v>
       </c>
       <c r="J27" s="3">
-        <v>2511500</v>
+        <v>2625600</v>
       </c>
       <c r="K27" s="3">
         <v>2010800</v>
@@ -1413,7 +1413,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>111800</v>
+        <v>116900</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
@@ -1422,7 +1422,7 @@
         <v>8</v>
       </c>
       <c r="G29" s="3">
-        <v>-1398900</v>
+        <v>-1462400</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-254600</v>
+        <v>-266100</v>
       </c>
       <c r="E32" s="3">
-        <v>-296600</v>
+        <v>-310100</v>
       </c>
       <c r="F32" s="3">
-        <v>-537700</v>
+        <v>-562100</v>
       </c>
       <c r="G32" s="3">
-        <v>-259300</v>
+        <v>-271100</v>
       </c>
       <c r="H32" s="3">
-        <v>-297400</v>
+        <v>-310900</v>
       </c>
       <c r="I32" s="3">
-        <v>-37300</v>
+        <v>-39000</v>
       </c>
       <c r="J32" s="3">
-        <v>-84900</v>
+        <v>-88700</v>
       </c>
       <c r="K32" s="3">
         <v>-56200</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2824700</v>
+        <v>2953100</v>
       </c>
       <c r="E33" s="3">
-        <v>3343400</v>
+        <v>3495300</v>
       </c>
       <c r="F33" s="3">
-        <v>3432200</v>
+        <v>3588100</v>
       </c>
       <c r="G33" s="3">
-        <v>4348900</v>
+        <v>4546500</v>
       </c>
       <c r="H33" s="3">
-        <v>2886600</v>
+        <v>3017700</v>
       </c>
       <c r="I33" s="3">
-        <v>2805700</v>
+        <v>2933200</v>
       </c>
       <c r="J33" s="3">
-        <v>2511500</v>
+        <v>2625600</v>
       </c>
       <c r="K33" s="3">
         <v>2010800</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2824700</v>
+        <v>2953100</v>
       </c>
       <c r="E35" s="3">
-        <v>3343400</v>
+        <v>3495300</v>
       </c>
       <c r="F35" s="3">
-        <v>3432200</v>
+        <v>3588100</v>
       </c>
       <c r="G35" s="3">
-        <v>4348900</v>
+        <v>4546500</v>
       </c>
       <c r="H35" s="3">
-        <v>2886600</v>
+        <v>3017700</v>
       </c>
       <c r="I35" s="3">
-        <v>2805700</v>
+        <v>2933200</v>
       </c>
       <c r="J35" s="3">
-        <v>2511500</v>
+        <v>2625600</v>
       </c>
       <c r="K35" s="3">
         <v>2010800</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>451200</v>
+        <v>471700</v>
       </c>
       <c r="E41" s="3">
-        <v>50800</v>
+        <v>53100</v>
       </c>
       <c r="F41" s="3">
-        <v>210900</v>
+        <v>220500</v>
       </c>
       <c r="G41" s="3">
-        <v>55500</v>
+        <v>58000</v>
       </c>
       <c r="H41" s="3">
-        <v>139600</v>
+        <v>145900</v>
       </c>
       <c r="I41" s="3">
-        <v>121300</v>
+        <v>126800</v>
       </c>
       <c r="J41" s="3">
-        <v>41200</v>
+        <v>43100</v>
       </c>
       <c r="K41" s="3">
         <v>164700</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>903200</v>
+        <v>944300</v>
       </c>
       <c r="E43" s="3">
-        <v>961900</v>
+        <v>1005600</v>
       </c>
       <c r="F43" s="3">
-        <v>927000</v>
+        <v>969200</v>
       </c>
       <c r="G43" s="3">
-        <v>780300</v>
+        <v>815800</v>
       </c>
       <c r="H43" s="3">
-        <v>693900</v>
+        <v>725400</v>
       </c>
       <c r="I43" s="3">
-        <v>696300</v>
+        <v>727900</v>
       </c>
       <c r="J43" s="3">
-        <v>735900</v>
+        <v>769400</v>
       </c>
       <c r="K43" s="3">
         <v>627400</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>462300</v>
+        <v>483300</v>
       </c>
       <c r="E44" s="3">
-        <v>484500</v>
+        <v>506500</v>
       </c>
       <c r="F44" s="3">
-        <v>441700</v>
+        <v>461800</v>
       </c>
       <c r="G44" s="3">
-        <v>336200</v>
+        <v>351500</v>
       </c>
       <c r="H44" s="3">
-        <v>281500</v>
+        <v>294300</v>
       </c>
       <c r="I44" s="3">
-        <v>281500</v>
+        <v>294300</v>
       </c>
       <c r="J44" s="3">
-        <v>265700</v>
+        <v>277700</v>
       </c>
       <c r="K44" s="3">
         <v>210900</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>643100</v>
+        <v>672400</v>
       </c>
       <c r="E45" s="3">
-        <v>747000</v>
+        <v>781000</v>
       </c>
       <c r="F45" s="3">
-        <v>583700</v>
+        <v>610200</v>
       </c>
       <c r="G45" s="3">
-        <v>564600</v>
+        <v>590300</v>
       </c>
       <c r="H45" s="3">
-        <v>555900</v>
+        <v>581200</v>
       </c>
       <c r="I45" s="3">
-        <v>608200</v>
+        <v>635900</v>
       </c>
       <c r="J45" s="3">
-        <v>666900</v>
+        <v>697200</v>
       </c>
       <c r="K45" s="3">
         <v>518900</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2459900</v>
+        <v>2571700</v>
       </c>
       <c r="E46" s="3">
-        <v>2244200</v>
+        <v>2346200</v>
       </c>
       <c r="F46" s="3">
-        <v>2163400</v>
+        <v>2261600</v>
       </c>
       <c r="G46" s="3">
-        <v>1736700</v>
+        <v>1815600</v>
       </c>
       <c r="H46" s="3">
-        <v>1670900</v>
+        <v>1746800</v>
       </c>
       <c r="I46" s="3">
-        <v>1707400</v>
+        <v>1784900</v>
       </c>
       <c r="J46" s="3">
-        <v>1580500</v>
+        <v>1652300</v>
       </c>
       <c r="K46" s="3">
         <v>1521900</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>95200</v>
+        <v>99500</v>
       </c>
       <c r="E47" s="3">
-        <v>91200</v>
+        <v>95300</v>
       </c>
       <c r="F47" s="3">
-        <v>76100</v>
+        <v>79600</v>
       </c>
       <c r="G47" s="3">
-        <v>78500</v>
+        <v>82100</v>
       </c>
       <c r="H47" s="3">
-        <v>80100</v>
+        <v>83700</v>
       </c>
       <c r="I47" s="3">
-        <v>168900</v>
+        <v>176600</v>
       </c>
       <c r="J47" s="3">
-        <v>157800</v>
+        <v>165000</v>
       </c>
       <c r="K47" s="3">
         <v>136300</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>32120500</v>
+        <v>33579800</v>
       </c>
       <c r="E48" s="3">
-        <v>31870700</v>
+        <v>33318700</v>
       </c>
       <c r="F48" s="3">
-        <v>29954700</v>
+        <v>31315700</v>
       </c>
       <c r="G48" s="3">
-        <v>27112600</v>
+        <v>28344400</v>
       </c>
       <c r="H48" s="3">
-        <v>26768400</v>
+        <v>27984600</v>
       </c>
       <c r="I48" s="3">
-        <v>25871500</v>
+        <v>27046900</v>
       </c>
       <c r="J48" s="3">
-        <v>22612200</v>
+        <v>23639500</v>
       </c>
       <c r="K48" s="3">
         <v>20190100</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>170500</v>
+        <v>178200</v>
       </c>
       <c r="E49" s="3">
-        <v>181600</v>
+        <v>189900</v>
       </c>
       <c r="F49" s="3">
-        <v>57900</v>
+        <v>60500</v>
       </c>
       <c r="G49" s="3">
-        <v>49200</v>
+        <v>51400</v>
       </c>
       <c r="H49" s="3">
-        <v>53100</v>
+        <v>55500</v>
       </c>
       <c r="I49" s="3">
-        <v>56300</v>
+        <v>58900</v>
       </c>
       <c r="J49" s="3">
-        <v>49200</v>
+        <v>51400</v>
       </c>
       <c r="K49" s="3">
         <v>45400</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>684400</v>
+        <v>715500</v>
       </c>
       <c r="E52" s="3">
-        <v>333900</v>
+        <v>349000</v>
       </c>
       <c r="F52" s="3">
-        <v>431400</v>
+        <v>451000</v>
       </c>
       <c r="G52" s="3">
-        <v>863600</v>
+        <v>902800</v>
       </c>
       <c r="H52" s="3">
-        <v>814400</v>
+        <v>851400</v>
       </c>
       <c r="I52" s="3">
-        <v>1063400</v>
+        <v>1111800</v>
       </c>
       <c r="J52" s="3">
-        <v>728800</v>
+        <v>761900</v>
       </c>
       <c r="K52" s="3">
         <v>2614300</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>35530500</v>
+        <v>37144800</v>
       </c>
       <c r="E54" s="3">
-        <v>34721600</v>
+        <v>36299100</v>
       </c>
       <c r="F54" s="3">
-        <v>32683500</v>
+        <v>34168500</v>
       </c>
       <c r="G54" s="3">
-        <v>29840500</v>
+        <v>31196300</v>
       </c>
       <c r="H54" s="3">
-        <v>29386900</v>
+        <v>30722100</v>
       </c>
       <c r="I54" s="3">
-        <v>28867500</v>
+        <v>30179100</v>
       </c>
       <c r="J54" s="3">
-        <v>25128400</v>
+        <v>26270100</v>
       </c>
       <c r="K54" s="3">
         <v>23220100</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>618600</v>
+        <v>646700</v>
       </c>
       <c r="E57" s="3">
-        <v>686800</v>
+        <v>718000</v>
       </c>
       <c r="F57" s="3">
-        <v>778700</v>
+        <v>814100</v>
       </c>
       <c r="G57" s="3">
-        <v>1494000</v>
+        <v>1561900</v>
       </c>
       <c r="H57" s="3">
-        <v>1203800</v>
+        <v>1258500</v>
       </c>
       <c r="I57" s="3">
-        <v>1232400</v>
+        <v>1288300</v>
       </c>
       <c r="J57" s="3">
-        <v>1314000</v>
+        <v>1373700</v>
       </c>
       <c r="K57" s="3">
         <v>1451100</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>721600</v>
+        <v>754400</v>
       </c>
       <c r="E58" s="3">
-        <v>1530500</v>
+        <v>1600100</v>
       </c>
       <c r="F58" s="3">
-        <v>938900</v>
+        <v>981600</v>
       </c>
       <c r="G58" s="3">
-        <v>1649500</v>
+        <v>1724400</v>
       </c>
       <c r="H58" s="3">
-        <v>1180800</v>
+        <v>1234500</v>
       </c>
       <c r="I58" s="3">
-        <v>1143500</v>
+        <v>1195500</v>
       </c>
       <c r="J58" s="3">
-        <v>431400</v>
+        <v>451000</v>
       </c>
       <c r="K58" s="3">
         <v>786000</v>
@@ -2346,22 +2346,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1256100</v>
+        <v>1313200</v>
       </c>
       <c r="E59" s="3">
-        <v>1182400</v>
+        <v>1236100</v>
       </c>
       <c r="F59" s="3">
-        <v>1057900</v>
+        <v>1106000</v>
       </c>
       <c r="G59" s="3">
-        <v>15100</v>
+        <v>15800</v>
       </c>
       <c r="H59" s="3">
         <v>800</v>
       </c>
       <c r="I59" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>8</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2596300</v>
+        <v>2714300</v>
       </c>
       <c r="E60" s="3">
-        <v>3399700</v>
+        <v>3554100</v>
       </c>
       <c r="F60" s="3">
-        <v>2775600</v>
+        <v>2901700</v>
       </c>
       <c r="G60" s="3">
-        <v>3158600</v>
+        <v>3302100</v>
       </c>
       <c r="H60" s="3">
-        <v>2385400</v>
+        <v>2493800</v>
       </c>
       <c r="I60" s="3">
-        <v>2377500</v>
+        <v>2485500</v>
       </c>
       <c r="J60" s="3">
-        <v>1745400</v>
+        <v>1824700</v>
       </c>
       <c r="K60" s="3">
         <v>1923000</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9513100</v>
+        <v>9945300</v>
       </c>
       <c r="E61" s="3">
-        <v>9410000</v>
+        <v>9837500</v>
       </c>
       <c r="F61" s="3">
-        <v>9028500</v>
+        <v>9438700</v>
       </c>
       <c r="G61" s="3">
-        <v>6937300</v>
+        <v>7252500</v>
       </c>
       <c r="H61" s="3">
-        <v>7492500</v>
+        <v>7832900</v>
       </c>
       <c r="I61" s="3">
-        <v>7125300</v>
+        <v>7449000</v>
       </c>
       <c r="J61" s="3">
-        <v>6207800</v>
+        <v>6489800</v>
       </c>
       <c r="K61" s="3">
         <v>5249400</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7837400</v>
+        <v>8193500</v>
       </c>
       <c r="E62" s="3">
-        <v>7605100</v>
+        <v>7950600</v>
       </c>
       <c r="F62" s="3">
-        <v>6889800</v>
+        <v>7202800</v>
       </c>
       <c r="G62" s="3">
-        <v>6536100</v>
+        <v>6833000</v>
       </c>
       <c r="H62" s="3">
-        <v>7739900</v>
+        <v>8091500</v>
       </c>
       <c r="I62" s="3">
-        <v>7509100</v>
+        <v>7850300</v>
       </c>
       <c r="J62" s="3">
-        <v>6493200</v>
+        <v>6788300</v>
       </c>
       <c r="K62" s="3">
         <v>6886000</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19946800</v>
+        <v>20853100</v>
       </c>
       <c r="E66" s="3">
-        <v>20414700</v>
+        <v>21342200</v>
       </c>
       <c r="F66" s="3">
-        <v>18693900</v>
+        <v>19543200</v>
       </c>
       <c r="G66" s="3">
-        <v>16632000</v>
+        <v>17387700</v>
       </c>
       <c r="H66" s="3">
-        <v>17617700</v>
+        <v>18418200</v>
       </c>
       <c r="I66" s="3">
-        <v>17011900</v>
+        <v>17784800</v>
       </c>
       <c r="J66" s="3">
-        <v>14446400</v>
+        <v>15102800</v>
       </c>
       <c r="K66" s="3">
         <v>13248600</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15195100</v>
+        <v>15885400</v>
       </c>
       <c r="E72" s="3">
-        <v>13984100</v>
+        <v>14619500</v>
       </c>
       <c r="F72" s="3">
-        <v>13182400</v>
+        <v>13781300</v>
       </c>
       <c r="G72" s="3">
-        <v>12360000</v>
+        <v>12921600</v>
       </c>
       <c r="H72" s="3">
-        <v>10501200</v>
+        <v>10978300</v>
       </c>
       <c r="I72" s="3">
-        <v>10021400</v>
+        <v>10476700</v>
       </c>
       <c r="J72" s="3">
-        <v>9310100</v>
+        <v>9733000</v>
       </c>
       <c r="K72" s="3">
         <v>8304800</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15583600</v>
+        <v>16291700</v>
       </c>
       <c r="E76" s="3">
-        <v>14306900</v>
+        <v>14956900</v>
       </c>
       <c r="F76" s="3">
-        <v>13989700</v>
+        <v>14625300</v>
       </c>
       <c r="G76" s="3">
-        <v>13208500</v>
+        <v>13808700</v>
       </c>
       <c r="H76" s="3">
-        <v>11769200</v>
+        <v>12303900</v>
       </c>
       <c r="I76" s="3">
-        <v>11855600</v>
+        <v>12394300</v>
       </c>
       <c r="J76" s="3">
-        <v>10682000</v>
+        <v>11167300</v>
       </c>
       <c r="K76" s="3">
         <v>9971500</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2824700</v>
+        <v>2953100</v>
       </c>
       <c r="E81" s="3">
-        <v>3343400</v>
+        <v>3495300</v>
       </c>
       <c r="F81" s="3">
-        <v>3432200</v>
+        <v>3588100</v>
       </c>
       <c r="G81" s="3">
-        <v>4348900</v>
+        <v>4546500</v>
       </c>
       <c r="H81" s="3">
-        <v>2886600</v>
+        <v>3017700</v>
       </c>
       <c r="I81" s="3">
-        <v>2805700</v>
+        <v>2933200</v>
       </c>
       <c r="J81" s="3">
-        <v>2511500</v>
+        <v>2625600</v>
       </c>
       <c r="K81" s="3">
         <v>2010800</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1260100</v>
+        <v>1317400</v>
       </c>
       <c r="E83" s="3">
-        <v>1238700</v>
+        <v>1295000</v>
       </c>
       <c r="F83" s="3">
-        <v>1053900</v>
+        <v>1101800</v>
       </c>
       <c r="G83" s="3">
-        <v>1015900</v>
+        <v>1062000</v>
       </c>
       <c r="H83" s="3">
-        <v>971400</v>
+        <v>1015600</v>
       </c>
       <c r="I83" s="3">
-        <v>918300</v>
+        <v>960000</v>
       </c>
       <c r="J83" s="3">
-        <v>832700</v>
+        <v>870500</v>
       </c>
       <c r="K83" s="3">
         <v>754400</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4889000</v>
+        <v>5111100</v>
       </c>
       <c r="E89" s="3">
-        <v>4697100</v>
+        <v>4910500</v>
       </c>
       <c r="F89" s="3">
-        <v>4693100</v>
+        <v>4906300</v>
       </c>
       <c r="G89" s="3">
-        <v>4374300</v>
+        <v>4573000</v>
       </c>
       <c r="H89" s="3">
-        <v>4125300</v>
+        <v>4312700</v>
       </c>
       <c r="I89" s="3">
-        <v>4076100</v>
+        <v>4261300</v>
       </c>
       <c r="J89" s="3">
-        <v>3474200</v>
+        <v>3632100</v>
       </c>
       <c r="K89" s="3">
         <v>2731300</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2270400</v>
+        <v>-2373600</v>
       </c>
       <c r="E91" s="3">
-        <v>-3065000</v>
+        <v>-3204300</v>
       </c>
       <c r="F91" s="3">
-        <v>-2800200</v>
+        <v>-2927400</v>
       </c>
       <c r="G91" s="3">
-        <v>-2119700</v>
+        <v>-2216100</v>
       </c>
       <c r="H91" s="3">
-        <v>-2137200</v>
+        <v>-2234300</v>
       </c>
       <c r="I91" s="3">
-        <v>-2145900</v>
+        <v>-2243400</v>
       </c>
       <c r="J91" s="3">
-        <v>-1821600</v>
+        <v>-1904300</v>
       </c>
       <c r="K91" s="3">
         <v>-1518900</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2336200</v>
+        <v>-2442400</v>
       </c>
       <c r="E94" s="3">
-        <v>-3322800</v>
+        <v>-3473700</v>
       </c>
       <c r="F94" s="3">
-        <v>-2699400</v>
+        <v>-2822100</v>
       </c>
       <c r="G94" s="3">
-        <v>-2171300</v>
+        <v>-2269900</v>
       </c>
       <c r="H94" s="3">
-        <v>-2126900</v>
+        <v>-2223500</v>
       </c>
       <c r="I94" s="3">
-        <v>-2241900</v>
+        <v>-2343700</v>
       </c>
       <c r="J94" s="3">
-        <v>-1725600</v>
+        <v>-1804000</v>
       </c>
       <c r="K94" s="3">
         <v>-1425700</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1295800</v>
+        <v>-1354700</v>
       </c>
       <c r="E96" s="3">
-        <v>-1224400</v>
+        <v>-1280100</v>
       </c>
       <c r="F96" s="3">
-        <v>-1057100</v>
+        <v>-1105100</v>
       </c>
       <c r="G96" s="3">
-        <v>-982600</v>
+        <v>-1027200</v>
       </c>
       <c r="H96" s="3">
-        <v>-919100</v>
+        <v>-960900</v>
       </c>
       <c r="I96" s="3">
-        <v>-789800</v>
+        <v>-825700</v>
       </c>
       <c r="J96" s="3">
-        <v>-648700</v>
+        <v>-678200</v>
       </c>
       <c r="K96" s="3">
         <v>-557300</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2146700</v>
+        <v>-2244200</v>
       </c>
       <c r="E100" s="3">
-        <v>-1509100</v>
+        <v>-1577700</v>
       </c>
       <c r="F100" s="3">
-        <v>-1830300</v>
+        <v>-1913400</v>
       </c>
       <c r="G100" s="3">
-        <v>-2295800</v>
+        <v>-2400100</v>
       </c>
       <c r="H100" s="3">
-        <v>-2013500</v>
+        <v>-2105000</v>
       </c>
       <c r="I100" s="3">
-        <v>-1762900</v>
+        <v>-1843000</v>
       </c>
       <c r="J100" s="3">
-        <v>-1879500</v>
+        <v>-1964800</v>
       </c>
       <c r="K100" s="3">
         <v>-1274800</v>
@@ -3720,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="H101" s="3">
-        <v>11900</v>
+        <v>12400</v>
       </c>
       <c r="I101" s="3">
-        <v>8700</v>
+        <v>9100</v>
       </c>
       <c r="J101" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="K101" s="3">
         <v>14600</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>406000</v>
+        <v>424500</v>
       </c>
       <c r="E102" s="3">
-        <v>-135600</v>
+        <v>-141800</v>
       </c>
       <c r="F102" s="3">
-        <v>163400</v>
+        <v>170800</v>
       </c>
       <c r="G102" s="3">
-        <v>-94400</v>
+        <v>-98700</v>
       </c>
       <c r="H102" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="I102" s="3">
-        <v>80100</v>
+        <v>83700</v>
       </c>
       <c r="J102" s="3">
-        <v>-128500</v>
+        <v>-134300</v>
       </c>
       <c r="K102" s="3">
         <v>45400</v>

--- a/AAII_Financials/Yearly/CNI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CNI_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11456600</v>
+        <v>10774300</v>
       </c>
       <c r="E8" s="3">
-        <v>12366900</v>
+        <v>11630300</v>
       </c>
       <c r="F8" s="3">
-        <v>11872800</v>
+        <v>11165700</v>
       </c>
       <c r="G8" s="3">
-        <v>10811600</v>
+        <v>10167700</v>
       </c>
       <c r="H8" s="3">
-        <v>9979300</v>
+        <v>9384900</v>
       </c>
       <c r="I8" s="3">
-        <v>10455100</v>
+        <v>9832400</v>
       </c>
       <c r="J8" s="3">
-        <v>10059700</v>
+        <v>9460500</v>
       </c>
       <c r="K8" s="3">
         <v>8140800</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2739200</v>
+        <v>2576000</v>
       </c>
       <c r="E9" s="3">
-        <v>3236600</v>
+        <v>3043800</v>
       </c>
       <c r="F9" s="3">
-        <v>3070000</v>
+        <v>2887100</v>
       </c>
       <c r="G9" s="3">
-        <v>2595800</v>
+        <v>2441100</v>
       </c>
       <c r="H9" s="3">
-        <v>2191200</v>
+        <v>2060700</v>
       </c>
       <c r="I9" s="3">
-        <v>2498800</v>
+        <v>2349900</v>
       </c>
       <c r="J9" s="3">
-        <v>2855200</v>
+        <v>2685200</v>
       </c>
       <c r="K9" s="3">
         <v>2286400</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8717500</v>
+        <v>8198200</v>
       </c>
       <c r="E10" s="3">
-        <v>9130300</v>
+        <v>8586500</v>
       </c>
       <c r="F10" s="3">
-        <v>8802900</v>
+        <v>8278500</v>
       </c>
       <c r="G10" s="3">
-        <v>8215900</v>
+        <v>7726500</v>
       </c>
       <c r="H10" s="3">
-        <v>7788100</v>
+        <v>7324200</v>
       </c>
       <c r="I10" s="3">
-        <v>7956400</v>
+        <v>7482500</v>
       </c>
       <c r="J10" s="3">
-        <v>7204400</v>
+        <v>6775300</v>
       </c>
       <c r="K10" s="3">
         <v>5854500</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1317400</v>
+        <v>1238900</v>
       </c>
       <c r="E15" s="3">
-        <v>1295000</v>
+        <v>1217800</v>
       </c>
       <c r="F15" s="3">
-        <v>1101800</v>
+        <v>1036200</v>
       </c>
       <c r="G15" s="3">
-        <v>1062000</v>
+        <v>998800</v>
       </c>
       <c r="H15" s="3">
-        <v>1015600</v>
+        <v>955100</v>
       </c>
       <c r="I15" s="3">
-        <v>960000</v>
+        <v>902900</v>
       </c>
       <c r="J15" s="3">
-        <v>870500</v>
+        <v>818700</v>
       </c>
       <c r="K15" s="3">
         <v>754400</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7496300</v>
+        <v>7049800</v>
       </c>
       <c r="E17" s="3">
-        <v>7730100</v>
+        <v>7269600</v>
       </c>
       <c r="F17" s="3">
-        <v>7318900</v>
+        <v>6882900</v>
       </c>
       <c r="G17" s="3">
-        <v>6464900</v>
+        <v>6079900</v>
       </c>
       <c r="H17" s="3">
-        <v>5807500</v>
+        <v>5461600</v>
       </c>
       <c r="I17" s="3">
-        <v>6089400</v>
+        <v>5726700</v>
       </c>
       <c r="J17" s="3">
-        <v>6226200</v>
+        <v>5855300</v>
       </c>
       <c r="K17" s="3">
         <v>5159300</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3960400</v>
+        <v>3724500</v>
       </c>
       <c r="E18" s="3">
-        <v>4636900</v>
+        <v>4360700</v>
       </c>
       <c r="F18" s="3">
-        <v>4554000</v>
+        <v>4282700</v>
       </c>
       <c r="G18" s="3">
-        <v>4346700</v>
+        <v>4087800</v>
       </c>
       <c r="H18" s="3">
-        <v>4171800</v>
+        <v>3923300</v>
       </c>
       <c r="I18" s="3">
-        <v>4365800</v>
+        <v>4105700</v>
       </c>
       <c r="J18" s="3">
-        <v>3833500</v>
+        <v>3605200</v>
       </c>
       <c r="K18" s="3">
         <v>2981500</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>266100</v>
+        <v>250300</v>
       </c>
       <c r="E20" s="3">
-        <v>310100</v>
+        <v>291600</v>
       </c>
       <c r="F20" s="3">
-        <v>562100</v>
+        <v>528600</v>
       </c>
       <c r="G20" s="3">
-        <v>271100</v>
+        <v>255000</v>
       </c>
       <c r="H20" s="3">
-        <v>310900</v>
+        <v>292400</v>
       </c>
       <c r="I20" s="3">
-        <v>39000</v>
+        <v>36600</v>
       </c>
       <c r="J20" s="3">
-        <v>88700</v>
+        <v>83400</v>
       </c>
       <c r="K20" s="3">
         <v>56200</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5546400</v>
+        <v>5230400</v>
       </c>
       <c r="E21" s="3">
-        <v>6244400</v>
+        <v>5886600</v>
       </c>
       <c r="F21" s="3">
-        <v>6220000</v>
+        <v>5861500</v>
       </c>
       <c r="G21" s="3">
-        <v>5681800</v>
+        <v>5355000</v>
       </c>
       <c r="H21" s="3">
-        <v>5500200</v>
+        <v>5183700</v>
       </c>
       <c r="I21" s="3">
-        <v>5366600</v>
+        <v>5057400</v>
       </c>
       <c r="J21" s="3">
-        <v>4794400</v>
+        <v>4518300</v>
       </c>
       <c r="K21" s="3">
         <v>3790800</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>459300</v>
+        <v>431900</v>
       </c>
       <c r="E22" s="3">
-        <v>446000</v>
+        <v>419500</v>
       </c>
       <c r="F22" s="3">
-        <v>405400</v>
+        <v>381300</v>
       </c>
       <c r="G22" s="3">
-        <v>398800</v>
+        <v>375000</v>
       </c>
       <c r="H22" s="3">
-        <v>397900</v>
+        <v>374200</v>
       </c>
       <c r="I22" s="3">
-        <v>364000</v>
+        <v>342300</v>
       </c>
       <c r="J22" s="3">
-        <v>307600</v>
+        <v>289300</v>
       </c>
       <c r="K22" s="3">
         <v>274800</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3767200</v>
+        <v>3542800</v>
       </c>
       <c r="E23" s="3">
-        <v>4500900</v>
+        <v>4232800</v>
       </c>
       <c r="F23" s="3">
-        <v>4710700</v>
+        <v>4430100</v>
       </c>
       <c r="G23" s="3">
-        <v>4219000</v>
+        <v>3967700</v>
       </c>
       <c r="H23" s="3">
-        <v>4084700</v>
+        <v>3841400</v>
       </c>
       <c r="I23" s="3">
-        <v>4040800</v>
+        <v>3800100</v>
       </c>
       <c r="J23" s="3">
-        <v>3614700</v>
+        <v>3399400</v>
       </c>
       <c r="K23" s="3">
         <v>2762900</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>931000</v>
+        <v>875600</v>
       </c>
       <c r="E24" s="3">
-        <v>1005600</v>
+        <v>945700</v>
       </c>
       <c r="F24" s="3">
-        <v>1122500</v>
+        <v>1055700</v>
       </c>
       <c r="G24" s="3">
-        <v>-1789900</v>
+        <v>-1683300</v>
       </c>
       <c r="H24" s="3">
-        <v>1067000</v>
+        <v>1003400</v>
       </c>
       <c r="I24" s="3">
-        <v>1107600</v>
+        <v>1041600</v>
       </c>
       <c r="J24" s="3">
-        <v>989100</v>
+        <v>930100</v>
       </c>
       <c r="K24" s="3">
         <v>752100</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2836200</v>
+        <v>2667300</v>
       </c>
       <c r="E26" s="3">
-        <v>3495300</v>
+        <v>3287100</v>
       </c>
       <c r="F26" s="3">
-        <v>3588100</v>
+        <v>3374400</v>
       </c>
       <c r="G26" s="3">
-        <v>6009000</v>
+        <v>5651000</v>
       </c>
       <c r="H26" s="3">
-        <v>3017700</v>
+        <v>2838000</v>
       </c>
       <c r="I26" s="3">
-        <v>2933200</v>
+        <v>2758500</v>
       </c>
       <c r="J26" s="3">
-        <v>2625600</v>
+        <v>2469200</v>
       </c>
       <c r="K26" s="3">
         <v>2010800</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2836200</v>
+        <v>2667300</v>
       </c>
       <c r="E27" s="3">
-        <v>3495300</v>
+        <v>3287100</v>
       </c>
       <c r="F27" s="3">
-        <v>3588100</v>
+        <v>3374400</v>
       </c>
       <c r="G27" s="3">
-        <v>6009000</v>
+        <v>5651000</v>
       </c>
       <c r="H27" s="3">
-        <v>3017700</v>
+        <v>2838000</v>
       </c>
       <c r="I27" s="3">
-        <v>2933200</v>
+        <v>2758500</v>
       </c>
       <c r="J27" s="3">
-        <v>2625600</v>
+        <v>2469200</v>
       </c>
       <c r="K27" s="3">
         <v>2010800</v>
@@ -1413,7 +1413,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>116900</v>
+        <v>109900</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
@@ -1422,7 +1422,7 @@
         <v>8</v>
       </c>
       <c r="G29" s="3">
-        <v>-1462400</v>
+        <v>-1375300</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-266100</v>
+        <v>-250300</v>
       </c>
       <c r="E32" s="3">
-        <v>-310100</v>
+        <v>-291600</v>
       </c>
       <c r="F32" s="3">
-        <v>-562100</v>
+        <v>-528600</v>
       </c>
       <c r="G32" s="3">
-        <v>-271100</v>
+        <v>-255000</v>
       </c>
       <c r="H32" s="3">
-        <v>-310900</v>
+        <v>-292400</v>
       </c>
       <c r="I32" s="3">
-        <v>-39000</v>
+        <v>-36600</v>
       </c>
       <c r="J32" s="3">
-        <v>-88700</v>
+        <v>-83400</v>
       </c>
       <c r="K32" s="3">
         <v>-56200</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2953100</v>
+        <v>2777200</v>
       </c>
       <c r="E33" s="3">
-        <v>3495300</v>
+        <v>3287100</v>
       </c>
       <c r="F33" s="3">
-        <v>3588100</v>
+        <v>3374400</v>
       </c>
       <c r="G33" s="3">
-        <v>4546500</v>
+        <v>4275700</v>
       </c>
       <c r="H33" s="3">
-        <v>3017700</v>
+        <v>2838000</v>
       </c>
       <c r="I33" s="3">
-        <v>2933200</v>
+        <v>2758500</v>
       </c>
       <c r="J33" s="3">
-        <v>2625600</v>
+        <v>2469200</v>
       </c>
       <c r="K33" s="3">
         <v>2010800</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2953100</v>
+        <v>2777200</v>
       </c>
       <c r="E35" s="3">
-        <v>3495300</v>
+        <v>3287100</v>
       </c>
       <c r="F35" s="3">
-        <v>3588100</v>
+        <v>3374400</v>
       </c>
       <c r="G35" s="3">
-        <v>4546500</v>
+        <v>4275700</v>
       </c>
       <c r="H35" s="3">
-        <v>3017700</v>
+        <v>2838000</v>
       </c>
       <c r="I35" s="3">
-        <v>2933200</v>
+        <v>2758500</v>
       </c>
       <c r="J35" s="3">
-        <v>2625600</v>
+        <v>2469200</v>
       </c>
       <c r="K35" s="3">
         <v>2010800</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>471700</v>
+        <v>443600</v>
       </c>
       <c r="E41" s="3">
-        <v>53100</v>
+        <v>49900</v>
       </c>
       <c r="F41" s="3">
-        <v>220500</v>
+        <v>207400</v>
       </c>
       <c r="G41" s="3">
-        <v>58000</v>
+        <v>54600</v>
       </c>
       <c r="H41" s="3">
-        <v>145900</v>
+        <v>137200</v>
       </c>
       <c r="I41" s="3">
-        <v>126800</v>
+        <v>119300</v>
       </c>
       <c r="J41" s="3">
-        <v>43100</v>
+        <v>40500</v>
       </c>
       <c r="K41" s="3">
         <v>164700</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>944300</v>
+        <v>888000</v>
       </c>
       <c r="E43" s="3">
-        <v>1005600</v>
+        <v>945700</v>
       </c>
       <c r="F43" s="3">
-        <v>969200</v>
+        <v>911400</v>
       </c>
       <c r="G43" s="3">
-        <v>815800</v>
+        <v>767200</v>
       </c>
       <c r="H43" s="3">
-        <v>725400</v>
+        <v>682200</v>
       </c>
       <c r="I43" s="3">
-        <v>727900</v>
+        <v>684600</v>
       </c>
       <c r="J43" s="3">
-        <v>769400</v>
+        <v>723500</v>
       </c>
       <c r="K43" s="3">
         <v>627400</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>483300</v>
+        <v>454500</v>
       </c>
       <c r="E44" s="3">
-        <v>506500</v>
+        <v>476400</v>
       </c>
       <c r="F44" s="3">
-        <v>461800</v>
+        <v>434300</v>
       </c>
       <c r="G44" s="3">
-        <v>351500</v>
+        <v>330600</v>
       </c>
       <c r="H44" s="3">
-        <v>294300</v>
+        <v>276800</v>
       </c>
       <c r="I44" s="3">
-        <v>294300</v>
+        <v>276800</v>
       </c>
       <c r="J44" s="3">
-        <v>277700</v>
+        <v>261200</v>
       </c>
       <c r="K44" s="3">
         <v>210900</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>672400</v>
+        <v>632300</v>
       </c>
       <c r="E45" s="3">
-        <v>781000</v>
+        <v>734400</v>
       </c>
       <c r="F45" s="3">
-        <v>610200</v>
+        <v>573800</v>
       </c>
       <c r="G45" s="3">
-        <v>590300</v>
+        <v>555100</v>
       </c>
       <c r="H45" s="3">
-        <v>581200</v>
+        <v>546500</v>
       </c>
       <c r="I45" s="3">
-        <v>635900</v>
+        <v>598000</v>
       </c>
       <c r="J45" s="3">
-        <v>697200</v>
+        <v>655700</v>
       </c>
       <c r="K45" s="3">
         <v>518900</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2571700</v>
+        <v>2418500</v>
       </c>
       <c r="E46" s="3">
-        <v>2346200</v>
+        <v>2206500</v>
       </c>
       <c r="F46" s="3">
-        <v>2261600</v>
+        <v>2126900</v>
       </c>
       <c r="G46" s="3">
-        <v>1815600</v>
+        <v>1707500</v>
       </c>
       <c r="H46" s="3">
-        <v>1746800</v>
+        <v>1642800</v>
       </c>
       <c r="I46" s="3">
-        <v>1784900</v>
+        <v>1678600</v>
       </c>
       <c r="J46" s="3">
-        <v>1652300</v>
+        <v>1553900</v>
       </c>
       <c r="K46" s="3">
         <v>1521900</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>99500</v>
+        <v>93600</v>
       </c>
       <c r="E47" s="3">
-        <v>95300</v>
+        <v>89700</v>
       </c>
       <c r="F47" s="3">
-        <v>79600</v>
+        <v>74800</v>
       </c>
       <c r="G47" s="3">
-        <v>82100</v>
+        <v>77200</v>
       </c>
       <c r="H47" s="3">
-        <v>83700</v>
+        <v>78700</v>
       </c>
       <c r="I47" s="3">
-        <v>176600</v>
+        <v>166100</v>
       </c>
       <c r="J47" s="3">
-        <v>165000</v>
+        <v>155200</v>
       </c>
       <c r="K47" s="3">
         <v>136300</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>33579800</v>
+        <v>31579800</v>
       </c>
       <c r="E48" s="3">
-        <v>33318700</v>
+        <v>31334200</v>
       </c>
       <c r="F48" s="3">
-        <v>31315700</v>
+        <v>29450500</v>
       </c>
       <c r="G48" s="3">
-        <v>28344400</v>
+        <v>26656100</v>
       </c>
       <c r="H48" s="3">
-        <v>27984600</v>
+        <v>26317800</v>
       </c>
       <c r="I48" s="3">
-        <v>27046900</v>
+        <v>25436000</v>
       </c>
       <c r="J48" s="3">
-        <v>23639500</v>
+        <v>22231500</v>
       </c>
       <c r="K48" s="3">
         <v>20190100</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>178200</v>
+        <v>167600</v>
       </c>
       <c r="E49" s="3">
-        <v>189900</v>
+        <v>178500</v>
       </c>
       <c r="F49" s="3">
-        <v>60500</v>
+        <v>56900</v>
       </c>
       <c r="G49" s="3">
-        <v>51400</v>
+        <v>48300</v>
       </c>
       <c r="H49" s="3">
-        <v>55500</v>
+        <v>52200</v>
       </c>
       <c r="I49" s="3">
-        <v>58900</v>
+        <v>55400</v>
       </c>
       <c r="J49" s="3">
-        <v>51400</v>
+        <v>48300</v>
       </c>
       <c r="K49" s="3">
         <v>45400</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>715500</v>
+        <v>672900</v>
       </c>
       <c r="E52" s="3">
-        <v>349000</v>
+        <v>328200</v>
       </c>
       <c r="F52" s="3">
-        <v>451000</v>
+        <v>424100</v>
       </c>
       <c r="G52" s="3">
-        <v>902800</v>
+        <v>849100</v>
       </c>
       <c r="H52" s="3">
-        <v>851400</v>
+        <v>800700</v>
       </c>
       <c r="I52" s="3">
-        <v>1111800</v>
+        <v>1045500</v>
       </c>
       <c r="J52" s="3">
-        <v>761900</v>
+        <v>716500</v>
       </c>
       <c r="K52" s="3">
         <v>2614300</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>37144800</v>
+        <v>34932300</v>
       </c>
       <c r="E54" s="3">
-        <v>36299100</v>
+        <v>34137100</v>
       </c>
       <c r="F54" s="3">
-        <v>34168500</v>
+        <v>32133300</v>
       </c>
       <c r="G54" s="3">
-        <v>31196300</v>
+        <v>29338200</v>
       </c>
       <c r="H54" s="3">
-        <v>30722100</v>
+        <v>28892200</v>
       </c>
       <c r="I54" s="3">
-        <v>30179100</v>
+        <v>28381500</v>
       </c>
       <c r="J54" s="3">
-        <v>26270100</v>
+        <v>24705400</v>
       </c>
       <c r="K54" s="3">
         <v>23220100</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>646700</v>
+        <v>608100</v>
       </c>
       <c r="E57" s="3">
-        <v>718000</v>
+        <v>675200</v>
       </c>
       <c r="F57" s="3">
-        <v>814100</v>
+        <v>765600</v>
       </c>
       <c r="G57" s="3">
-        <v>1561900</v>
+        <v>1468900</v>
       </c>
       <c r="H57" s="3">
-        <v>1258500</v>
+        <v>1183500</v>
       </c>
       <c r="I57" s="3">
-        <v>1288300</v>
+        <v>1211600</v>
       </c>
       <c r="J57" s="3">
-        <v>1373700</v>
+        <v>1291900</v>
       </c>
       <c r="K57" s="3">
         <v>1451100</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>754400</v>
+        <v>709500</v>
       </c>
       <c r="E58" s="3">
-        <v>1600100</v>
+        <v>1504800</v>
       </c>
       <c r="F58" s="3">
-        <v>981600</v>
+        <v>923100</v>
       </c>
       <c r="G58" s="3">
-        <v>1724400</v>
+        <v>1621700</v>
       </c>
       <c r="H58" s="3">
-        <v>1234500</v>
+        <v>1160900</v>
       </c>
       <c r="I58" s="3">
-        <v>1195500</v>
+        <v>1124300</v>
       </c>
       <c r="J58" s="3">
-        <v>451000</v>
+        <v>424100</v>
       </c>
       <c r="K58" s="3">
         <v>786000</v>
@@ -2346,22 +2346,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1313200</v>
+        <v>1235000</v>
       </c>
       <c r="E59" s="3">
-        <v>1236100</v>
+        <v>1162500</v>
       </c>
       <c r="F59" s="3">
-        <v>1106000</v>
+        <v>1040100</v>
       </c>
       <c r="G59" s="3">
-        <v>15800</v>
+        <v>14800</v>
       </c>
       <c r="H59" s="3">
         <v>800</v>
       </c>
       <c r="I59" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>8</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2714300</v>
+        <v>2552600</v>
       </c>
       <c r="E60" s="3">
-        <v>3554100</v>
+        <v>3342400</v>
       </c>
       <c r="F60" s="3">
-        <v>2901700</v>
+        <v>2728800</v>
       </c>
       <c r="G60" s="3">
-        <v>3302100</v>
+        <v>3105400</v>
       </c>
       <c r="H60" s="3">
-        <v>2493800</v>
+        <v>2345200</v>
       </c>
       <c r="I60" s="3">
-        <v>2485500</v>
+        <v>2337500</v>
       </c>
       <c r="J60" s="3">
-        <v>1824700</v>
+        <v>1716100</v>
       </c>
       <c r="K60" s="3">
         <v>1923000</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9945300</v>
+        <v>9352900</v>
       </c>
       <c r="E61" s="3">
-        <v>9837500</v>
+        <v>9251600</v>
       </c>
       <c r="F61" s="3">
-        <v>9438700</v>
+        <v>8876500</v>
       </c>
       <c r="G61" s="3">
-        <v>7252500</v>
+        <v>6820600</v>
       </c>
       <c r="H61" s="3">
-        <v>7832900</v>
+        <v>7366300</v>
       </c>
       <c r="I61" s="3">
-        <v>7449000</v>
+        <v>7005300</v>
       </c>
       <c r="J61" s="3">
-        <v>6489800</v>
+        <v>6103300</v>
       </c>
       <c r="K61" s="3">
         <v>5249400</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8193500</v>
+        <v>7705500</v>
       </c>
       <c r="E62" s="3">
-        <v>7950600</v>
+        <v>7477000</v>
       </c>
       <c r="F62" s="3">
-        <v>7202800</v>
+        <v>6773800</v>
       </c>
       <c r="G62" s="3">
-        <v>6833000</v>
+        <v>6426000</v>
       </c>
       <c r="H62" s="3">
-        <v>8091500</v>
+        <v>7609600</v>
       </c>
       <c r="I62" s="3">
-        <v>7850300</v>
+        <v>7382700</v>
       </c>
       <c r="J62" s="3">
-        <v>6788300</v>
+        <v>6383900</v>
       </c>
       <c r="K62" s="3">
         <v>6886000</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>20853100</v>
+        <v>19611000</v>
       </c>
       <c r="E66" s="3">
-        <v>21342200</v>
+        <v>20071000</v>
       </c>
       <c r="F66" s="3">
-        <v>19543200</v>
+        <v>18379200</v>
       </c>
       <c r="G66" s="3">
-        <v>17387700</v>
+        <v>16352000</v>
       </c>
       <c r="H66" s="3">
-        <v>18418200</v>
+        <v>17321100</v>
       </c>
       <c r="I66" s="3">
-        <v>17784800</v>
+        <v>16725500</v>
       </c>
       <c r="J66" s="3">
-        <v>15102800</v>
+        <v>14203200</v>
       </c>
       <c r="K66" s="3">
         <v>13248600</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15885400</v>
+        <v>14939300</v>
       </c>
       <c r="E72" s="3">
-        <v>14619500</v>
+        <v>13748700</v>
       </c>
       <c r="F72" s="3">
-        <v>13781300</v>
+        <v>12960500</v>
       </c>
       <c r="G72" s="3">
-        <v>12921600</v>
+        <v>12151900</v>
       </c>
       <c r="H72" s="3">
-        <v>10978300</v>
+        <v>10324400</v>
       </c>
       <c r="I72" s="3">
-        <v>10476700</v>
+        <v>9852700</v>
       </c>
       <c r="J72" s="3">
-        <v>9733000</v>
+        <v>9153300</v>
       </c>
       <c r="K72" s="3">
         <v>8304800</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16291700</v>
+        <v>15321300</v>
       </c>
       <c r="E76" s="3">
-        <v>14956900</v>
+        <v>14066000</v>
       </c>
       <c r="F76" s="3">
-        <v>14625300</v>
+        <v>13754200</v>
       </c>
       <c r="G76" s="3">
-        <v>13808700</v>
+        <v>12986200</v>
       </c>
       <c r="H76" s="3">
-        <v>12303900</v>
+        <v>11571100</v>
       </c>
       <c r="I76" s="3">
-        <v>12394300</v>
+        <v>11656100</v>
       </c>
       <c r="J76" s="3">
-        <v>11167300</v>
+        <v>10502200</v>
       </c>
       <c r="K76" s="3">
         <v>9971500</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2953100</v>
+        <v>2777200</v>
       </c>
       <c r="E81" s="3">
-        <v>3495300</v>
+        <v>3287100</v>
       </c>
       <c r="F81" s="3">
-        <v>3588100</v>
+        <v>3374400</v>
       </c>
       <c r="G81" s="3">
-        <v>4546500</v>
+        <v>4275700</v>
       </c>
       <c r="H81" s="3">
-        <v>3017700</v>
+        <v>2838000</v>
       </c>
       <c r="I81" s="3">
-        <v>2933200</v>
+        <v>2758500</v>
       </c>
       <c r="J81" s="3">
-        <v>2625600</v>
+        <v>2469200</v>
       </c>
       <c r="K81" s="3">
         <v>2010800</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1317400</v>
+        <v>1238900</v>
       </c>
       <c r="E83" s="3">
-        <v>1295000</v>
+        <v>1217800</v>
       </c>
       <c r="F83" s="3">
-        <v>1101800</v>
+        <v>1036200</v>
       </c>
       <c r="G83" s="3">
-        <v>1062000</v>
+        <v>998800</v>
       </c>
       <c r="H83" s="3">
-        <v>1015600</v>
+        <v>955100</v>
       </c>
       <c r="I83" s="3">
-        <v>960000</v>
+        <v>902900</v>
       </c>
       <c r="J83" s="3">
-        <v>870500</v>
+        <v>818700</v>
       </c>
       <c r="K83" s="3">
         <v>754400</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5111100</v>
+        <v>4806700</v>
       </c>
       <c r="E89" s="3">
-        <v>4910500</v>
+        <v>4618000</v>
       </c>
       <c r="F89" s="3">
-        <v>4906300</v>
+        <v>4614100</v>
       </c>
       <c r="G89" s="3">
-        <v>4573000</v>
+        <v>4300700</v>
       </c>
       <c r="H89" s="3">
-        <v>4312700</v>
+        <v>4055800</v>
       </c>
       <c r="I89" s="3">
-        <v>4261300</v>
+        <v>4007500</v>
       </c>
       <c r="J89" s="3">
-        <v>3632100</v>
+        <v>3415700</v>
       </c>
       <c r="K89" s="3">
         <v>2731300</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2373600</v>
+        <v>-2232200</v>
       </c>
       <c r="E91" s="3">
-        <v>-3204300</v>
+        <v>-3013400</v>
       </c>
       <c r="F91" s="3">
-        <v>-2927400</v>
+        <v>-2753000</v>
       </c>
       <c r="G91" s="3">
-        <v>-2216100</v>
+        <v>-2084100</v>
       </c>
       <c r="H91" s="3">
-        <v>-2234300</v>
+        <v>-2101200</v>
       </c>
       <c r="I91" s="3">
-        <v>-2243400</v>
+        <v>-2109800</v>
       </c>
       <c r="J91" s="3">
-        <v>-1904300</v>
+        <v>-1790900</v>
       </c>
       <c r="K91" s="3">
         <v>-1518900</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2442400</v>
+        <v>-2296900</v>
       </c>
       <c r="E94" s="3">
-        <v>-3473700</v>
+        <v>-3266800</v>
       </c>
       <c r="F94" s="3">
-        <v>-2822100</v>
+        <v>-2654000</v>
       </c>
       <c r="G94" s="3">
-        <v>-2269900</v>
+        <v>-2134700</v>
       </c>
       <c r="H94" s="3">
-        <v>-2223500</v>
+        <v>-2091100</v>
       </c>
       <c r="I94" s="3">
-        <v>-2343700</v>
+        <v>-2204100</v>
       </c>
       <c r="J94" s="3">
-        <v>-1804000</v>
+        <v>-1696600</v>
       </c>
       <c r="K94" s="3">
         <v>-1425700</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1354700</v>
+        <v>-1274000</v>
       </c>
       <c r="E96" s="3">
-        <v>-1280100</v>
+        <v>-1203800</v>
       </c>
       <c r="F96" s="3">
-        <v>-1105100</v>
+        <v>-1039300</v>
       </c>
       <c r="G96" s="3">
-        <v>-1027200</v>
+        <v>-966000</v>
       </c>
       <c r="H96" s="3">
-        <v>-960900</v>
+        <v>-903600</v>
       </c>
       <c r="I96" s="3">
-        <v>-825700</v>
+        <v>-776600</v>
       </c>
       <c r="J96" s="3">
-        <v>-678200</v>
+        <v>-637800</v>
       </c>
       <c r="K96" s="3">
         <v>-557300</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2244200</v>
+        <v>-2110600</v>
       </c>
       <c r="E100" s="3">
-        <v>-1577700</v>
+        <v>-1483700</v>
       </c>
       <c r="F100" s="3">
-        <v>-1913400</v>
+        <v>-1799500</v>
       </c>
       <c r="G100" s="3">
-        <v>-2400100</v>
+        <v>-2257100</v>
       </c>
       <c r="H100" s="3">
-        <v>-2105000</v>
+        <v>-1979600</v>
       </c>
       <c r="I100" s="3">
-        <v>-1843000</v>
+        <v>-1733200</v>
       </c>
       <c r="J100" s="3">
-        <v>-1964800</v>
+        <v>-1847800</v>
       </c>
       <c r="K100" s="3">
         <v>-1274800</v>
@@ -3720,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="H101" s="3">
-        <v>12400</v>
+        <v>11700</v>
       </c>
       <c r="I101" s="3">
-        <v>9100</v>
+        <v>8600</v>
       </c>
       <c r="J101" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="K101" s="3">
         <v>14600</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>424500</v>
+        <v>399200</v>
       </c>
       <c r="E102" s="3">
-        <v>-141800</v>
+        <v>-133300</v>
       </c>
       <c r="F102" s="3">
-        <v>170800</v>
+        <v>160600</v>
       </c>
       <c r="G102" s="3">
-        <v>-98700</v>
+        <v>-92800</v>
       </c>
       <c r="H102" s="3">
-        <v>-3300</v>
+        <v>-3100</v>
       </c>
       <c r="I102" s="3">
-        <v>83700</v>
+        <v>78700</v>
       </c>
       <c r="J102" s="3">
-        <v>-134300</v>
+        <v>-126300</v>
       </c>
       <c r="K102" s="3">
         <v>45400</v>

--- a/AAII_Financials/Yearly/CNI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CNI_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10774300</v>
+        <v>10848600</v>
       </c>
       <c r="E8" s="3">
-        <v>11630300</v>
+        <v>11710600</v>
       </c>
       <c r="F8" s="3">
-        <v>11165700</v>
+        <v>11242700</v>
       </c>
       <c r="G8" s="3">
-        <v>10167700</v>
+        <v>10237800</v>
       </c>
       <c r="H8" s="3">
-        <v>9384900</v>
+        <v>9449600</v>
       </c>
       <c r="I8" s="3">
-        <v>9832400</v>
+        <v>9900300</v>
       </c>
       <c r="J8" s="3">
-        <v>9460500</v>
+        <v>9525800</v>
       </c>
       <c r="K8" s="3">
         <v>8140800</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2576000</v>
+        <v>2593800</v>
       </c>
       <c r="E9" s="3">
-        <v>3043800</v>
+        <v>3064800</v>
       </c>
       <c r="F9" s="3">
-        <v>2887100</v>
+        <v>2907000</v>
       </c>
       <c r="G9" s="3">
-        <v>2441100</v>
+        <v>2458000</v>
       </c>
       <c r="H9" s="3">
-        <v>2060700</v>
+        <v>2074900</v>
       </c>
       <c r="I9" s="3">
-        <v>2349900</v>
+        <v>2366100</v>
       </c>
       <c r="J9" s="3">
-        <v>2685200</v>
+        <v>2703700</v>
       </c>
       <c r="K9" s="3">
         <v>2286400</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8198200</v>
+        <v>8254800</v>
       </c>
       <c r="E10" s="3">
-        <v>8586500</v>
+        <v>8645800</v>
       </c>
       <c r="F10" s="3">
-        <v>8278500</v>
+        <v>8335700</v>
       </c>
       <c r="G10" s="3">
-        <v>7726500</v>
+        <v>7779800</v>
       </c>
       <c r="H10" s="3">
-        <v>7324200</v>
+        <v>7374800</v>
       </c>
       <c r="I10" s="3">
-        <v>7482500</v>
+        <v>7534100</v>
       </c>
       <c r="J10" s="3">
-        <v>6775300</v>
+        <v>6822100</v>
       </c>
       <c r="K10" s="3">
         <v>5854500</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1238900</v>
+        <v>1247400</v>
       </c>
       <c r="E15" s="3">
-        <v>1217800</v>
+        <v>1226200</v>
       </c>
       <c r="F15" s="3">
-        <v>1036200</v>
+        <v>1043300</v>
       </c>
       <c r="G15" s="3">
-        <v>998800</v>
+        <v>1005600</v>
       </c>
       <c r="H15" s="3">
-        <v>955100</v>
+        <v>961700</v>
       </c>
       <c r="I15" s="3">
-        <v>902900</v>
+        <v>909100</v>
       </c>
       <c r="J15" s="3">
-        <v>818700</v>
+        <v>824300</v>
       </c>
       <c r="K15" s="3">
         <v>754400</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7049800</v>
+        <v>7098400</v>
       </c>
       <c r="E17" s="3">
-        <v>7269600</v>
+        <v>7319800</v>
       </c>
       <c r="F17" s="3">
-        <v>6882900</v>
+        <v>6930400</v>
       </c>
       <c r="G17" s="3">
-        <v>6079900</v>
+        <v>6121800</v>
       </c>
       <c r="H17" s="3">
-        <v>5461600</v>
+        <v>5499300</v>
       </c>
       <c r="I17" s="3">
-        <v>5726700</v>
+        <v>5766200</v>
       </c>
       <c r="J17" s="3">
-        <v>5855300</v>
+        <v>5895700</v>
       </c>
       <c r="K17" s="3">
         <v>5159300</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3724500</v>
+        <v>3750200</v>
       </c>
       <c r="E18" s="3">
-        <v>4360700</v>
+        <v>4390800</v>
       </c>
       <c r="F18" s="3">
-        <v>4282700</v>
+        <v>4312300</v>
       </c>
       <c r="G18" s="3">
-        <v>4087800</v>
+        <v>4116000</v>
       </c>
       <c r="H18" s="3">
-        <v>3923300</v>
+        <v>3950400</v>
       </c>
       <c r="I18" s="3">
-        <v>4105700</v>
+        <v>4134100</v>
       </c>
       <c r="J18" s="3">
-        <v>3605200</v>
+        <v>3630100</v>
       </c>
       <c r="K18" s="3">
         <v>2981500</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>250300</v>
+        <v>252000</v>
       </c>
       <c r="E20" s="3">
-        <v>291600</v>
+        <v>293600</v>
       </c>
       <c r="F20" s="3">
-        <v>528600</v>
+        <v>532300</v>
       </c>
       <c r="G20" s="3">
-        <v>255000</v>
+        <v>256700</v>
       </c>
       <c r="H20" s="3">
-        <v>292400</v>
+        <v>294400</v>
       </c>
       <c r="I20" s="3">
-        <v>36600</v>
+        <v>36900</v>
       </c>
       <c r="J20" s="3">
-        <v>83400</v>
+        <v>84000</v>
       </c>
       <c r="K20" s="3">
         <v>56200</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5230400</v>
+        <v>5245000</v>
       </c>
       <c r="E21" s="3">
-        <v>5886600</v>
+        <v>5906000</v>
       </c>
       <c r="F21" s="3">
-        <v>5861500</v>
+        <v>5884000</v>
       </c>
       <c r="G21" s="3">
-        <v>5355000</v>
+        <v>5374600</v>
       </c>
       <c r="H21" s="3">
-        <v>5183700</v>
+        <v>5202900</v>
       </c>
       <c r="I21" s="3">
-        <v>5057400</v>
+        <v>5076700</v>
       </c>
       <c r="J21" s="3">
-        <v>4518300</v>
+        <v>4535300</v>
       </c>
       <c r="K21" s="3">
         <v>3790800</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>431900</v>
+        <v>434900</v>
       </c>
       <c r="E22" s="3">
-        <v>419500</v>
+        <v>422400</v>
       </c>
       <c r="F22" s="3">
-        <v>381300</v>
+        <v>383900</v>
       </c>
       <c r="G22" s="3">
-        <v>375000</v>
+        <v>377600</v>
       </c>
       <c r="H22" s="3">
-        <v>374200</v>
+        <v>376800</v>
       </c>
       <c r="I22" s="3">
-        <v>342300</v>
+        <v>344600</v>
       </c>
       <c r="J22" s="3">
-        <v>289300</v>
+        <v>291300</v>
       </c>
       <c r="K22" s="3">
         <v>274800</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3542800</v>
+        <v>3567300</v>
       </c>
       <c r="E23" s="3">
-        <v>4232800</v>
+        <v>4262000</v>
       </c>
       <c r="F23" s="3">
-        <v>4430100</v>
+        <v>4460700</v>
       </c>
       <c r="G23" s="3">
-        <v>3967700</v>
+        <v>3995100</v>
       </c>
       <c r="H23" s="3">
-        <v>3841400</v>
+        <v>3867900</v>
       </c>
       <c r="I23" s="3">
-        <v>3800100</v>
+        <v>3826300</v>
       </c>
       <c r="J23" s="3">
-        <v>3399400</v>
+        <v>3422800</v>
       </c>
       <c r="K23" s="3">
         <v>2762900</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>875600</v>
+        <v>881600</v>
       </c>
       <c r="E24" s="3">
-        <v>945700</v>
+        <v>952300</v>
       </c>
       <c r="F24" s="3">
-        <v>1055700</v>
+        <v>1063000</v>
       </c>
       <c r="G24" s="3">
-        <v>-1683300</v>
+        <v>-1694900</v>
       </c>
       <c r="H24" s="3">
-        <v>1003400</v>
+        <v>1010400</v>
       </c>
       <c r="I24" s="3">
-        <v>1041600</v>
+        <v>1048800</v>
       </c>
       <c r="J24" s="3">
-        <v>930100</v>
+        <v>936600</v>
       </c>
       <c r="K24" s="3">
         <v>752100</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2667300</v>
+        <v>2685700</v>
       </c>
       <c r="E26" s="3">
-        <v>3287100</v>
+        <v>3309800</v>
       </c>
       <c r="F26" s="3">
-        <v>3374400</v>
+        <v>3397700</v>
       </c>
       <c r="G26" s="3">
-        <v>5651000</v>
+        <v>5690000</v>
       </c>
       <c r="H26" s="3">
-        <v>2838000</v>
+        <v>2857600</v>
       </c>
       <c r="I26" s="3">
-        <v>2758500</v>
+        <v>2777500</v>
       </c>
       <c r="J26" s="3">
-        <v>2469200</v>
+        <v>2486300</v>
       </c>
       <c r="K26" s="3">
         <v>2010800</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2667300</v>
+        <v>2685700</v>
       </c>
       <c r="E27" s="3">
-        <v>3287100</v>
+        <v>3309800</v>
       </c>
       <c r="F27" s="3">
-        <v>3374400</v>
+        <v>3397700</v>
       </c>
       <c r="G27" s="3">
-        <v>5651000</v>
+        <v>5690000</v>
       </c>
       <c r="H27" s="3">
-        <v>2838000</v>
+        <v>2857600</v>
       </c>
       <c r="I27" s="3">
-        <v>2758500</v>
+        <v>2777500</v>
       </c>
       <c r="J27" s="3">
-        <v>2469200</v>
+        <v>2486300</v>
       </c>
       <c r="K27" s="3">
         <v>2010800</v>
@@ -1413,7 +1413,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>109900</v>
+        <v>110700</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
@@ -1422,7 +1422,7 @@
         <v>8</v>
       </c>
       <c r="G29" s="3">
-        <v>-1375300</v>
+        <v>-1384800</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-250300</v>
+        <v>-252000</v>
       </c>
       <c r="E32" s="3">
-        <v>-291600</v>
+        <v>-293600</v>
       </c>
       <c r="F32" s="3">
-        <v>-528600</v>
+        <v>-532300</v>
       </c>
       <c r="G32" s="3">
-        <v>-255000</v>
+        <v>-256700</v>
       </c>
       <c r="H32" s="3">
-        <v>-292400</v>
+        <v>-294400</v>
       </c>
       <c r="I32" s="3">
-        <v>-36600</v>
+        <v>-36900</v>
       </c>
       <c r="J32" s="3">
-        <v>-83400</v>
+        <v>-84000</v>
       </c>
       <c r="K32" s="3">
         <v>-56200</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2777200</v>
+        <v>2796300</v>
       </c>
       <c r="E33" s="3">
-        <v>3287100</v>
+        <v>3309800</v>
       </c>
       <c r="F33" s="3">
-        <v>3374400</v>
+        <v>3397700</v>
       </c>
       <c r="G33" s="3">
-        <v>4275700</v>
+        <v>4305200</v>
       </c>
       <c r="H33" s="3">
-        <v>2838000</v>
+        <v>2857600</v>
       </c>
       <c r="I33" s="3">
-        <v>2758500</v>
+        <v>2777500</v>
       </c>
       <c r="J33" s="3">
-        <v>2469200</v>
+        <v>2486300</v>
       </c>
       <c r="K33" s="3">
         <v>2010800</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2777200</v>
+        <v>2796300</v>
       </c>
       <c r="E35" s="3">
-        <v>3287100</v>
+        <v>3309800</v>
       </c>
       <c r="F35" s="3">
-        <v>3374400</v>
+        <v>3397700</v>
       </c>
       <c r="G35" s="3">
-        <v>4275700</v>
+        <v>4305200</v>
       </c>
       <c r="H35" s="3">
-        <v>2838000</v>
+        <v>2857600</v>
       </c>
       <c r="I35" s="3">
-        <v>2758500</v>
+        <v>2777500</v>
       </c>
       <c r="J35" s="3">
-        <v>2469200</v>
+        <v>2486300</v>
       </c>
       <c r="K35" s="3">
         <v>2010800</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>443600</v>
+        <v>446700</v>
       </c>
       <c r="E41" s="3">
-        <v>49900</v>
+        <v>50200</v>
       </c>
       <c r="F41" s="3">
-        <v>207400</v>
+        <v>208800</v>
       </c>
       <c r="G41" s="3">
-        <v>54600</v>
+        <v>55000</v>
       </c>
       <c r="H41" s="3">
-        <v>137200</v>
+        <v>138200</v>
       </c>
       <c r="I41" s="3">
-        <v>119300</v>
+        <v>120100</v>
       </c>
       <c r="J41" s="3">
-        <v>40500</v>
+        <v>40800</v>
       </c>
       <c r="K41" s="3">
         <v>164700</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>888000</v>
+        <v>894200</v>
       </c>
       <c r="E43" s="3">
-        <v>945700</v>
+        <v>952300</v>
       </c>
       <c r="F43" s="3">
-        <v>911400</v>
+        <v>917700</v>
       </c>
       <c r="G43" s="3">
-        <v>767200</v>
+        <v>772500</v>
       </c>
       <c r="H43" s="3">
-        <v>682200</v>
+        <v>686900</v>
       </c>
       <c r="I43" s="3">
-        <v>684600</v>
+        <v>689300</v>
       </c>
       <c r="J43" s="3">
-        <v>723500</v>
+        <v>728500</v>
       </c>
       <c r="K43" s="3">
         <v>627400</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>454500</v>
+        <v>457700</v>
       </c>
       <c r="E44" s="3">
-        <v>476400</v>
+        <v>479700</v>
       </c>
       <c r="F44" s="3">
-        <v>434300</v>
+        <v>437300</v>
       </c>
       <c r="G44" s="3">
-        <v>330600</v>
+        <v>332900</v>
       </c>
       <c r="H44" s="3">
-        <v>276800</v>
+        <v>278700</v>
       </c>
       <c r="I44" s="3">
-        <v>276800</v>
+        <v>278700</v>
       </c>
       <c r="J44" s="3">
-        <v>261200</v>
+        <v>263000</v>
       </c>
       <c r="K44" s="3">
         <v>210900</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>632300</v>
+        <v>636700</v>
       </c>
       <c r="E45" s="3">
-        <v>734400</v>
+        <v>739500</v>
       </c>
       <c r="F45" s="3">
-        <v>573800</v>
+        <v>577800</v>
       </c>
       <c r="G45" s="3">
-        <v>555100</v>
+        <v>559000</v>
       </c>
       <c r="H45" s="3">
-        <v>546500</v>
+        <v>550300</v>
       </c>
       <c r="I45" s="3">
-        <v>598000</v>
+        <v>602100</v>
       </c>
       <c r="J45" s="3">
-        <v>655700</v>
+        <v>660200</v>
       </c>
       <c r="K45" s="3">
         <v>518900</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2418500</v>
+        <v>2435200</v>
       </c>
       <c r="E46" s="3">
-        <v>2206500</v>
+        <v>2221700</v>
       </c>
       <c r="F46" s="3">
-        <v>2126900</v>
+        <v>2141600</v>
       </c>
       <c r="G46" s="3">
-        <v>1707500</v>
+        <v>1719300</v>
       </c>
       <c r="H46" s="3">
-        <v>1642800</v>
+        <v>1654100</v>
       </c>
       <c r="I46" s="3">
-        <v>1678600</v>
+        <v>1690200</v>
       </c>
       <c r="J46" s="3">
-        <v>1553900</v>
+        <v>1564600</v>
       </c>
       <c r="K46" s="3">
         <v>1521900</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>93600</v>
+        <v>94200</v>
       </c>
       <c r="E47" s="3">
-        <v>89700</v>
+        <v>90300</v>
       </c>
       <c r="F47" s="3">
-        <v>74800</v>
+        <v>75400</v>
       </c>
       <c r="G47" s="3">
-        <v>77200</v>
+        <v>77700</v>
       </c>
       <c r="H47" s="3">
-        <v>78700</v>
+        <v>79300</v>
       </c>
       <c r="I47" s="3">
-        <v>166100</v>
+        <v>167200</v>
       </c>
       <c r="J47" s="3">
-        <v>155200</v>
+        <v>156200</v>
       </c>
       <c r="K47" s="3">
         <v>136300</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>31579800</v>
+        <v>31797700</v>
       </c>
       <c r="E48" s="3">
-        <v>31334200</v>
+        <v>31550400</v>
       </c>
       <c r="F48" s="3">
-        <v>29450500</v>
+        <v>29653700</v>
       </c>
       <c r="G48" s="3">
-        <v>26656100</v>
+        <v>26840100</v>
       </c>
       <c r="H48" s="3">
-        <v>26317800</v>
+        <v>26499400</v>
       </c>
       <c r="I48" s="3">
-        <v>25436000</v>
+        <v>25611500</v>
       </c>
       <c r="J48" s="3">
-        <v>22231500</v>
+        <v>22384900</v>
       </c>
       <c r="K48" s="3">
         <v>20190100</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>167600</v>
+        <v>168800</v>
       </c>
       <c r="E49" s="3">
-        <v>178500</v>
+        <v>179800</v>
       </c>
       <c r="F49" s="3">
-        <v>56900</v>
+        <v>57300</v>
       </c>
       <c r="G49" s="3">
-        <v>48300</v>
+        <v>48700</v>
       </c>
       <c r="H49" s="3">
-        <v>52200</v>
+        <v>52600</v>
       </c>
       <c r="I49" s="3">
-        <v>55400</v>
+        <v>55700</v>
       </c>
       <c r="J49" s="3">
-        <v>48300</v>
+        <v>48700</v>
       </c>
       <c r="K49" s="3">
         <v>45400</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>672900</v>
+        <v>677500</v>
       </c>
       <c r="E52" s="3">
-        <v>328200</v>
+        <v>330500</v>
       </c>
       <c r="F52" s="3">
-        <v>424100</v>
+        <v>427100</v>
       </c>
       <c r="G52" s="3">
-        <v>849100</v>
+        <v>854900</v>
       </c>
       <c r="H52" s="3">
-        <v>800700</v>
+        <v>806200</v>
       </c>
       <c r="I52" s="3">
-        <v>1045500</v>
+        <v>1052800</v>
       </c>
       <c r="J52" s="3">
-        <v>716500</v>
+        <v>721500</v>
       </c>
       <c r="K52" s="3">
         <v>2614300</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>34932300</v>
+        <v>35173400</v>
       </c>
       <c r="E54" s="3">
-        <v>34137100</v>
+        <v>34372600</v>
       </c>
       <c r="F54" s="3">
-        <v>32133300</v>
+        <v>32355100</v>
       </c>
       <c r="G54" s="3">
-        <v>29338200</v>
+        <v>29540600</v>
       </c>
       <c r="H54" s="3">
-        <v>28892200</v>
+        <v>29091600</v>
       </c>
       <c r="I54" s="3">
-        <v>28381500</v>
+        <v>28577400</v>
       </c>
       <c r="J54" s="3">
-        <v>24705400</v>
+        <v>24875900</v>
       </c>
       <c r="K54" s="3">
         <v>23220100</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>608100</v>
+        <v>612300</v>
       </c>
       <c r="E57" s="3">
-        <v>675200</v>
+        <v>679900</v>
       </c>
       <c r="F57" s="3">
-        <v>765600</v>
+        <v>770900</v>
       </c>
       <c r="G57" s="3">
-        <v>1468900</v>
+        <v>1479000</v>
       </c>
       <c r="H57" s="3">
-        <v>1183500</v>
+        <v>1191700</v>
       </c>
       <c r="I57" s="3">
-        <v>1211600</v>
+        <v>1220000</v>
       </c>
       <c r="J57" s="3">
-        <v>1291900</v>
+        <v>1300800</v>
       </c>
       <c r="K57" s="3">
         <v>1451100</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>709500</v>
+        <v>714400</v>
       </c>
       <c r="E58" s="3">
-        <v>1504800</v>
+        <v>1515100</v>
       </c>
       <c r="F58" s="3">
-        <v>923100</v>
+        <v>929500</v>
       </c>
       <c r="G58" s="3">
-        <v>1621700</v>
+        <v>1632900</v>
       </c>
       <c r="H58" s="3">
-        <v>1160900</v>
+        <v>1168900</v>
       </c>
       <c r="I58" s="3">
-        <v>1124300</v>
+        <v>1132000</v>
       </c>
       <c r="J58" s="3">
-        <v>424100</v>
+        <v>427100</v>
       </c>
       <c r="K58" s="3">
         <v>786000</v>
@@ -2346,16 +2346,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1235000</v>
+        <v>1243500</v>
       </c>
       <c r="E59" s="3">
-        <v>1162500</v>
+        <v>1170500</v>
       </c>
       <c r="F59" s="3">
-        <v>1040100</v>
+        <v>1047300</v>
       </c>
       <c r="G59" s="3">
-        <v>14800</v>
+        <v>14900</v>
       </c>
       <c r="H59" s="3">
         <v>800</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2552600</v>
+        <v>2570300</v>
       </c>
       <c r="E60" s="3">
-        <v>3342400</v>
+        <v>3365500</v>
       </c>
       <c r="F60" s="3">
-        <v>2728800</v>
+        <v>2747700</v>
       </c>
       <c r="G60" s="3">
-        <v>3105400</v>
+        <v>3126900</v>
       </c>
       <c r="H60" s="3">
-        <v>2345200</v>
+        <v>2361400</v>
       </c>
       <c r="I60" s="3">
-        <v>2337500</v>
+        <v>2353600</v>
       </c>
       <c r="J60" s="3">
-        <v>1716100</v>
+        <v>1727900</v>
       </c>
       <c r="K60" s="3">
         <v>1923000</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9352900</v>
+        <v>9417500</v>
       </c>
       <c r="E61" s="3">
-        <v>9251600</v>
+        <v>9315400</v>
       </c>
       <c r="F61" s="3">
-        <v>8876500</v>
+        <v>8937800</v>
       </c>
       <c r="G61" s="3">
-        <v>6820600</v>
+        <v>6867600</v>
       </c>
       <c r="H61" s="3">
-        <v>7366300</v>
+        <v>7417200</v>
       </c>
       <c r="I61" s="3">
-        <v>7005300</v>
+        <v>7053700</v>
       </c>
       <c r="J61" s="3">
-        <v>6103300</v>
+        <v>6145400</v>
       </c>
       <c r="K61" s="3">
         <v>5249400</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7705500</v>
+        <v>7758600</v>
       </c>
       <c r="E62" s="3">
-        <v>7477000</v>
+        <v>7528600</v>
       </c>
       <c r="F62" s="3">
-        <v>6773800</v>
+        <v>6820500</v>
       </c>
       <c r="G62" s="3">
-        <v>6426000</v>
+        <v>6470400</v>
       </c>
       <c r="H62" s="3">
-        <v>7609600</v>
+        <v>7662100</v>
       </c>
       <c r="I62" s="3">
-        <v>7382700</v>
+        <v>7433600</v>
       </c>
       <c r="J62" s="3">
-        <v>6383900</v>
+        <v>6428000</v>
       </c>
       <c r="K62" s="3">
         <v>6886000</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19611000</v>
+        <v>19746400</v>
       </c>
       <c r="E66" s="3">
-        <v>20071000</v>
+        <v>20209500</v>
       </c>
       <c r="F66" s="3">
-        <v>18379200</v>
+        <v>18506000</v>
       </c>
       <c r="G66" s="3">
-        <v>16352000</v>
+        <v>16464900</v>
       </c>
       <c r="H66" s="3">
-        <v>17321100</v>
+        <v>17440700</v>
       </c>
       <c r="I66" s="3">
-        <v>16725500</v>
+        <v>16840900</v>
       </c>
       <c r="J66" s="3">
-        <v>14203200</v>
+        <v>14301300</v>
       </c>
       <c r="K66" s="3">
         <v>13248600</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>14939300</v>
+        <v>15042300</v>
       </c>
       <c r="E72" s="3">
-        <v>13748700</v>
+        <v>13843600</v>
       </c>
       <c r="F72" s="3">
-        <v>12960500</v>
+        <v>13049900</v>
       </c>
       <c r="G72" s="3">
-        <v>12151900</v>
+        <v>12235800</v>
       </c>
       <c r="H72" s="3">
-        <v>10324400</v>
+        <v>10395600</v>
       </c>
       <c r="I72" s="3">
-        <v>9852700</v>
+        <v>9920700</v>
       </c>
       <c r="J72" s="3">
-        <v>9153300</v>
+        <v>9216500</v>
       </c>
       <c r="K72" s="3">
         <v>8304800</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15321300</v>
+        <v>15427000</v>
       </c>
       <c r="E76" s="3">
-        <v>14066000</v>
+        <v>14163100</v>
       </c>
       <c r="F76" s="3">
-        <v>13754200</v>
+        <v>13849100</v>
       </c>
       <c r="G76" s="3">
-        <v>12986200</v>
+        <v>13075800</v>
       </c>
       <c r="H76" s="3">
-        <v>11571100</v>
+        <v>11650900</v>
       </c>
       <c r="I76" s="3">
-        <v>11656100</v>
+        <v>11736500</v>
       </c>
       <c r="J76" s="3">
-        <v>10502200</v>
+        <v>10574600</v>
       </c>
       <c r="K76" s="3">
         <v>9971500</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2777200</v>
+        <v>2796300</v>
       </c>
       <c r="E81" s="3">
-        <v>3287100</v>
+        <v>3309800</v>
       </c>
       <c r="F81" s="3">
-        <v>3374400</v>
+        <v>3397700</v>
       </c>
       <c r="G81" s="3">
-        <v>4275700</v>
+        <v>4305200</v>
       </c>
       <c r="H81" s="3">
-        <v>2838000</v>
+        <v>2857600</v>
       </c>
       <c r="I81" s="3">
-        <v>2758500</v>
+        <v>2777500</v>
       </c>
       <c r="J81" s="3">
-        <v>2469200</v>
+        <v>2486300</v>
       </c>
       <c r="K81" s="3">
         <v>2010800</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1238900</v>
+        <v>1247400</v>
       </c>
       <c r="E83" s="3">
-        <v>1217800</v>
+        <v>1226200</v>
       </c>
       <c r="F83" s="3">
-        <v>1036200</v>
+        <v>1043300</v>
       </c>
       <c r="G83" s="3">
-        <v>998800</v>
+        <v>1005600</v>
       </c>
       <c r="H83" s="3">
-        <v>955100</v>
+        <v>961700</v>
       </c>
       <c r="I83" s="3">
-        <v>902900</v>
+        <v>909100</v>
       </c>
       <c r="J83" s="3">
-        <v>818700</v>
+        <v>824300</v>
       </c>
       <c r="K83" s="3">
         <v>754400</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4806700</v>
+        <v>4839800</v>
       </c>
       <c r="E89" s="3">
-        <v>4618000</v>
+        <v>4649900</v>
       </c>
       <c r="F89" s="3">
-        <v>4614100</v>
+        <v>4645900</v>
       </c>
       <c r="G89" s="3">
-        <v>4300700</v>
+        <v>4330300</v>
       </c>
       <c r="H89" s="3">
-        <v>4055800</v>
+        <v>4083800</v>
       </c>
       <c r="I89" s="3">
-        <v>4007500</v>
+        <v>4035200</v>
       </c>
       <c r="J89" s="3">
-        <v>3415700</v>
+        <v>3439300</v>
       </c>
       <c r="K89" s="3">
         <v>2731300</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2232200</v>
+        <v>-2247600</v>
       </c>
       <c r="E91" s="3">
-        <v>-3013400</v>
+        <v>-3034200</v>
       </c>
       <c r="F91" s="3">
-        <v>-2753000</v>
+        <v>-2772000</v>
       </c>
       <c r="G91" s="3">
-        <v>-2084100</v>
+        <v>-2098400</v>
       </c>
       <c r="H91" s="3">
-        <v>-2101200</v>
+        <v>-2115700</v>
       </c>
       <c r="I91" s="3">
-        <v>-2109800</v>
+        <v>-2124300</v>
       </c>
       <c r="J91" s="3">
-        <v>-1790900</v>
+        <v>-1803300</v>
       </c>
       <c r="K91" s="3">
         <v>-1518900</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2296900</v>
+        <v>-2312800</v>
       </c>
       <c r="E94" s="3">
-        <v>-3266800</v>
+        <v>-3289400</v>
       </c>
       <c r="F94" s="3">
-        <v>-2654000</v>
+        <v>-2672300</v>
       </c>
       <c r="G94" s="3">
-        <v>-2134700</v>
+        <v>-2149500</v>
       </c>
       <c r="H94" s="3">
-        <v>-2091100</v>
+        <v>-2105500</v>
       </c>
       <c r="I94" s="3">
-        <v>-2204100</v>
+        <v>-2219300</v>
       </c>
       <c r="J94" s="3">
-        <v>-1696600</v>
+        <v>-1708300</v>
       </c>
       <c r="K94" s="3">
         <v>-1425700</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1274000</v>
+        <v>-1282800</v>
       </c>
       <c r="E96" s="3">
-        <v>-1203800</v>
+        <v>-1212100</v>
       </c>
       <c r="F96" s="3">
-        <v>-1039300</v>
+        <v>-1046500</v>
       </c>
       <c r="G96" s="3">
-        <v>-966000</v>
+        <v>-972700</v>
       </c>
       <c r="H96" s="3">
-        <v>-903600</v>
+        <v>-909900</v>
       </c>
       <c r="I96" s="3">
-        <v>-776600</v>
+        <v>-781900</v>
       </c>
       <c r="J96" s="3">
-        <v>-637800</v>
+        <v>-642200</v>
       </c>
       <c r="K96" s="3">
         <v>-557300</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2110600</v>
+        <v>-2125100</v>
       </c>
       <c r="E100" s="3">
-        <v>-1483700</v>
+        <v>-1494000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1799500</v>
+        <v>-1811900</v>
       </c>
       <c r="G100" s="3">
-        <v>-2257100</v>
+        <v>-2272700</v>
       </c>
       <c r="H100" s="3">
-        <v>-1979600</v>
+        <v>-1993200</v>
       </c>
       <c r="I100" s="3">
-        <v>-1733200</v>
+        <v>-1745200</v>
       </c>
       <c r="J100" s="3">
-        <v>-1847800</v>
+        <v>-1860600</v>
       </c>
       <c r="K100" s="3">
         <v>-1274800</v>
@@ -3723,13 +3723,13 @@
         <v>-1600</v>
       </c>
       <c r="H101" s="3">
-        <v>11700</v>
+        <v>11800</v>
       </c>
       <c r="I101" s="3">
         <v>8600</v>
       </c>
       <c r="J101" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="K101" s="3">
         <v>14600</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>399200</v>
+        <v>401900</v>
       </c>
       <c r="E102" s="3">
-        <v>-133300</v>
+        <v>-134200</v>
       </c>
       <c r="F102" s="3">
-        <v>160600</v>
+        <v>161700</v>
       </c>
       <c r="G102" s="3">
-        <v>-92800</v>
+        <v>-93400</v>
       </c>
       <c r="H102" s="3">
         <v>-3100</v>
       </c>
       <c r="I102" s="3">
-        <v>78700</v>
+        <v>79300</v>
       </c>
       <c r="J102" s="3">
-        <v>-126300</v>
+        <v>-127200</v>
       </c>
       <c r="K102" s="3">
         <v>45400</v>

--- a/AAII_Financials/Yearly/CNI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CNI_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>CNI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10848600</v>
+        <v>11360700</v>
       </c>
       <c r="E8" s="3">
-        <v>11710600</v>
+        <v>10844300</v>
       </c>
       <c r="F8" s="3">
-        <v>11242700</v>
+        <v>11706000</v>
       </c>
       <c r="G8" s="3">
-        <v>10237800</v>
+        <v>11238300</v>
       </c>
       <c r="H8" s="3">
-        <v>9449600</v>
+        <v>10233800</v>
       </c>
       <c r="I8" s="3">
-        <v>9900300</v>
+        <v>9445900</v>
       </c>
       <c r="J8" s="3">
+        <v>9896400</v>
+      </c>
+      <c r="K8" s="3">
         <v>9525800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8140800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7382600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6935600</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2593800</v>
+        <v>2821100</v>
       </c>
       <c r="E9" s="3">
-        <v>3064800</v>
+        <v>2592800</v>
       </c>
       <c r="F9" s="3">
-        <v>2907000</v>
+        <v>3063600</v>
       </c>
       <c r="G9" s="3">
-        <v>2458000</v>
+        <v>2905900</v>
       </c>
       <c r="H9" s="3">
-        <v>2074900</v>
+        <v>2457000</v>
       </c>
       <c r="I9" s="3">
-        <v>2366100</v>
+        <v>2074100</v>
       </c>
       <c r="J9" s="3">
+        <v>2365200</v>
+      </c>
+      <c r="K9" s="3">
         <v>2703700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2286400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2063000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1945200</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8254800</v>
+        <v>8539500</v>
       </c>
       <c r="E10" s="3">
-        <v>8645800</v>
+        <v>8251500</v>
       </c>
       <c r="F10" s="3">
-        <v>8335700</v>
+        <v>8642300</v>
       </c>
       <c r="G10" s="3">
-        <v>7779800</v>
+        <v>8332400</v>
       </c>
       <c r="H10" s="3">
-        <v>7374800</v>
+        <v>7776800</v>
       </c>
       <c r="I10" s="3">
-        <v>7534100</v>
+        <v>7371800</v>
       </c>
       <c r="J10" s="3">
+        <v>7531100</v>
+      </c>
+      <c r="K10" s="3">
         <v>6822100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5854500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5319600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4990400</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,32 +925,35 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-629400</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -945,45 +964,51 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1247400</v>
+        <v>1254000</v>
       </c>
       <c r="E15" s="3">
-        <v>1226200</v>
+        <v>1247000</v>
       </c>
       <c r="F15" s="3">
-        <v>1043300</v>
+        <v>1225800</v>
       </c>
       <c r="G15" s="3">
-        <v>1005600</v>
+        <v>1042900</v>
       </c>
       <c r="H15" s="3">
-        <v>961700</v>
+        <v>1005300</v>
       </c>
       <c r="I15" s="3">
-        <v>909100</v>
+        <v>961300</v>
       </c>
       <c r="J15" s="3">
+        <v>908700</v>
+      </c>
+      <c r="K15" s="3">
         <v>824300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>754400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>687700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>679100</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7098400</v>
+        <v>6258300</v>
       </c>
       <c r="E17" s="3">
-        <v>7319800</v>
+        <v>7095600</v>
       </c>
       <c r="F17" s="3">
-        <v>6930400</v>
+        <v>7316900</v>
       </c>
       <c r="G17" s="3">
-        <v>6121800</v>
+        <v>6927700</v>
       </c>
       <c r="H17" s="3">
-        <v>5499300</v>
+        <v>6119400</v>
       </c>
       <c r="I17" s="3">
-        <v>5766200</v>
+        <v>5497100</v>
       </c>
       <c r="J17" s="3">
+        <v>5763900</v>
+      </c>
+      <c r="K17" s="3">
         <v>5895700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5159300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4640100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4403500</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3750200</v>
+        <v>5102400</v>
       </c>
       <c r="E18" s="3">
-        <v>4390800</v>
+        <v>3748700</v>
       </c>
       <c r="F18" s="3">
-        <v>4312300</v>
+        <v>4389100</v>
       </c>
       <c r="G18" s="3">
-        <v>4116000</v>
+        <v>4310600</v>
       </c>
       <c r="H18" s="3">
-        <v>3950400</v>
+        <v>4114400</v>
       </c>
       <c r="I18" s="3">
-        <v>4134100</v>
+        <v>3948800</v>
       </c>
       <c r="J18" s="3">
+        <v>4132400</v>
+      </c>
+      <c r="K18" s="3">
         <v>3630100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2981500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2742400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2532100</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>252000</v>
+        <v>346100</v>
       </c>
       <c r="E20" s="3">
-        <v>293600</v>
+        <v>251900</v>
       </c>
       <c r="F20" s="3">
-        <v>532300</v>
+        <v>293500</v>
       </c>
       <c r="G20" s="3">
-        <v>256700</v>
+        <v>532100</v>
       </c>
       <c r="H20" s="3">
-        <v>294400</v>
+        <v>256600</v>
       </c>
       <c r="I20" s="3">
+        <v>294300</v>
+      </c>
+      <c r="J20" s="3">
         <v>36900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>84000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>56200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>234400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>308100</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5245000</v>
+        <v>6696500</v>
       </c>
       <c r="E21" s="3">
-        <v>5906000</v>
+        <v>5241600</v>
       </c>
       <c r="F21" s="3">
-        <v>5884000</v>
+        <v>5902500</v>
       </c>
       <c r="G21" s="3">
-        <v>5374600</v>
+        <v>5880600</v>
       </c>
       <c r="H21" s="3">
-        <v>5202900</v>
+        <v>5371500</v>
       </c>
       <c r="I21" s="3">
-        <v>5076700</v>
+        <v>5199800</v>
       </c>
       <c r="J21" s="3">
+        <v>5073700</v>
+      </c>
+      <c r="K21" s="3">
         <v>4535300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3790800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3665900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3522500</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>434900</v>
+        <v>478700</v>
       </c>
       <c r="E22" s="3">
-        <v>422400</v>
+        <v>434700</v>
       </c>
       <c r="F22" s="3">
-        <v>383900</v>
+        <v>422200</v>
       </c>
       <c r="G22" s="3">
-        <v>377600</v>
+        <v>383700</v>
       </c>
       <c r="H22" s="3">
-        <v>376800</v>
+        <v>377500</v>
       </c>
       <c r="I22" s="3">
-        <v>344600</v>
+        <v>376700</v>
       </c>
       <c r="J22" s="3">
+        <v>344500</v>
+      </c>
+      <c r="K22" s="3">
         <v>291300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>274800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>254500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>262000</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3567300</v>
+        <v>4969800</v>
       </c>
       <c r="E23" s="3">
-        <v>4262000</v>
+        <v>3565900</v>
       </c>
       <c r="F23" s="3">
-        <v>4460700</v>
+        <v>4260400</v>
       </c>
       <c r="G23" s="3">
-        <v>3995100</v>
+        <v>4458900</v>
       </c>
       <c r="H23" s="3">
-        <v>3867900</v>
+        <v>3993500</v>
       </c>
       <c r="I23" s="3">
-        <v>3826300</v>
+        <v>3866400</v>
       </c>
       <c r="J23" s="3">
+        <v>3824800</v>
+      </c>
+      <c r="K23" s="3">
         <v>3422800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2762900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2722300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2578200</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>881600</v>
+        <v>1130800</v>
       </c>
       <c r="E24" s="3">
-        <v>952300</v>
+        <v>881300</v>
       </c>
       <c r="F24" s="3">
-        <v>1063000</v>
+        <v>951900</v>
       </c>
       <c r="G24" s="3">
-        <v>-1694900</v>
+        <v>1062500</v>
       </c>
       <c r="H24" s="3">
-        <v>1010400</v>
+        <v>-1694300</v>
       </c>
       <c r="I24" s="3">
-        <v>1048800</v>
+        <v>1010000</v>
       </c>
       <c r="J24" s="3">
+        <v>1048400</v>
+      </c>
+      <c r="K24" s="3">
         <v>936600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>752100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>727800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>690600</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2685700</v>
+        <v>3838900</v>
       </c>
       <c r="E26" s="3">
-        <v>3309800</v>
+        <v>2684600</v>
       </c>
       <c r="F26" s="3">
-        <v>3397700</v>
+        <v>3308500</v>
       </c>
       <c r="G26" s="3">
-        <v>5690000</v>
+        <v>3396400</v>
       </c>
       <c r="H26" s="3">
-        <v>2857600</v>
+        <v>5687800</v>
       </c>
       <c r="I26" s="3">
-        <v>2777500</v>
+        <v>2856500</v>
       </c>
       <c r="J26" s="3">
+        <v>2776400</v>
+      </c>
+      <c r="K26" s="3">
         <v>2486300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2010800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1994500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1887500</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2685700</v>
+        <v>3838900</v>
       </c>
       <c r="E27" s="3">
-        <v>3309800</v>
+        <v>2684600</v>
       </c>
       <c r="F27" s="3">
-        <v>3397700</v>
+        <v>3308500</v>
       </c>
       <c r="G27" s="3">
-        <v>5690000</v>
+        <v>3396400</v>
       </c>
       <c r="H27" s="3">
-        <v>2857600</v>
+        <v>5687800</v>
       </c>
       <c r="I27" s="3">
-        <v>2777500</v>
+        <v>2856500</v>
       </c>
       <c r="J27" s="3">
+        <v>2776400</v>
+      </c>
+      <c r="K27" s="3">
         <v>2486300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2010800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1994500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1887500</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,26 +1463,29 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>110700</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E29" s="3">
+        <v>110600</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>-1384800</v>
-      </c>
-      <c r="H29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H29" s="3">
+        <v>-1384300</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1442,9 +1502,12 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-252000</v>
+        <v>-346100</v>
       </c>
       <c r="E32" s="3">
-        <v>-293600</v>
+        <v>-251900</v>
       </c>
       <c r="F32" s="3">
-        <v>-532300</v>
+        <v>-293500</v>
       </c>
       <c r="G32" s="3">
-        <v>-256700</v>
+        <v>-532100</v>
       </c>
       <c r="H32" s="3">
-        <v>-294400</v>
+        <v>-256600</v>
       </c>
       <c r="I32" s="3">
+        <v>-294300</v>
+      </c>
+      <c r="J32" s="3">
         <v>-36900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-84000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-56200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-234400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-308100</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2796300</v>
+        <v>3838900</v>
       </c>
       <c r="E33" s="3">
-        <v>3309800</v>
+        <v>2795200</v>
       </c>
       <c r="F33" s="3">
-        <v>3397700</v>
+        <v>3308500</v>
       </c>
       <c r="G33" s="3">
-        <v>4305200</v>
+        <v>3396400</v>
       </c>
       <c r="H33" s="3">
-        <v>2857600</v>
+        <v>4303500</v>
       </c>
       <c r="I33" s="3">
-        <v>2777500</v>
+        <v>2856500</v>
       </c>
       <c r="J33" s="3">
+        <v>2776400</v>
+      </c>
+      <c r="K33" s="3">
         <v>2486300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2010800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1994500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1887500</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2796300</v>
+        <v>3838900</v>
       </c>
       <c r="E35" s="3">
-        <v>3309800</v>
+        <v>2795200</v>
       </c>
       <c r="F35" s="3">
-        <v>3397700</v>
+        <v>3308500</v>
       </c>
       <c r="G35" s="3">
-        <v>4305200</v>
+        <v>3396400</v>
       </c>
       <c r="H35" s="3">
-        <v>2857600</v>
+        <v>4303500</v>
       </c>
       <c r="I35" s="3">
-        <v>2777500</v>
+        <v>2856500</v>
       </c>
       <c r="J35" s="3">
+        <v>2776400</v>
+      </c>
+      <c r="K35" s="3">
         <v>2486300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2010800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1994500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1887500</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,44 +1817,48 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>446700</v>
+        <v>657600</v>
       </c>
       <c r="E41" s="3">
+        <v>446500</v>
+      </c>
+      <c r="F41" s="3">
         <v>50200</v>
       </c>
-      <c r="F41" s="3">
-        <v>208800</v>
-      </c>
       <c r="G41" s="3">
-        <v>55000</v>
+        <v>208700</v>
       </c>
       <c r="H41" s="3">
-        <v>138200</v>
+        <v>54900</v>
       </c>
       <c r="I41" s="3">
+        <v>138100</v>
+      </c>
+      <c r="J41" s="3">
         <v>120100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>40800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>164700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>115400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>77600</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1803,261 +1892,285 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>894200</v>
+        <v>842800</v>
       </c>
       <c r="E43" s="3">
-        <v>952300</v>
+        <v>893800</v>
       </c>
       <c r="F43" s="3">
-        <v>917700</v>
+        <v>951900</v>
       </c>
       <c r="G43" s="3">
-        <v>772500</v>
+        <v>917400</v>
       </c>
       <c r="H43" s="3">
-        <v>686900</v>
+        <v>772200</v>
       </c>
       <c r="I43" s="3">
-        <v>689300</v>
+        <v>686600</v>
       </c>
       <c r="J43" s="3">
+        <v>689000</v>
+      </c>
+      <c r="K43" s="3">
         <v>728500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>627400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>618400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>629900</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>457700</v>
+        <v>462200</v>
       </c>
       <c r="E44" s="3">
-        <v>479700</v>
+        <v>457500</v>
       </c>
       <c r="F44" s="3">
-        <v>437300</v>
+        <v>479500</v>
       </c>
       <c r="G44" s="3">
-        <v>332900</v>
+        <v>437100</v>
       </c>
       <c r="H44" s="3">
-        <v>278700</v>
+        <v>332700</v>
       </c>
       <c r="I44" s="3">
-        <v>278700</v>
+        <v>278600</v>
       </c>
       <c r="J44" s="3">
+        <v>278600</v>
+      </c>
+      <c r="K44" s="3">
         <v>263000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>210900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>171200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>154400</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>636700</v>
+        <v>725900</v>
       </c>
       <c r="E45" s="3">
-        <v>739500</v>
+        <v>636400</v>
       </c>
       <c r="F45" s="3">
-        <v>577800</v>
+        <v>739200</v>
       </c>
       <c r="G45" s="3">
-        <v>559000</v>
+        <v>577600</v>
       </c>
       <c r="H45" s="3">
-        <v>550300</v>
+        <v>558700</v>
       </c>
       <c r="I45" s="3">
-        <v>602100</v>
+        <v>550100</v>
       </c>
       <c r="J45" s="3">
+        <v>601900</v>
+      </c>
+      <c r="K45" s="3">
         <v>660200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>518900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>486000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>557700</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2435200</v>
+        <v>2688500</v>
       </c>
       <c r="E46" s="3">
-        <v>2221700</v>
+        <v>2434300</v>
       </c>
       <c r="F46" s="3">
-        <v>2141600</v>
+        <v>2220800</v>
       </c>
       <c r="G46" s="3">
-        <v>1719300</v>
+        <v>2140800</v>
       </c>
       <c r="H46" s="3">
-        <v>1654100</v>
+        <v>1718600</v>
       </c>
       <c r="I46" s="3">
-        <v>1690200</v>
+        <v>1653400</v>
       </c>
       <c r="J46" s="3">
+        <v>1689500</v>
+      </c>
+      <c r="K46" s="3">
         <v>1564600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1521900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1390900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1419700</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>118500</v>
+      </c>
+      <c r="E47" s="3">
         <v>94200</v>
       </c>
-      <c r="E47" s="3">
-        <v>90300</v>
-      </c>
       <c r="F47" s="3">
-        <v>75400</v>
+        <v>90200</v>
       </c>
       <c r="G47" s="3">
+        <v>75300</v>
+      </c>
+      <c r="H47" s="3">
         <v>77700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>79300</v>
       </c>
-      <c r="I47" s="3">
-        <v>167200</v>
-      </c>
       <c r="J47" s="3">
+        <v>167100</v>
+      </c>
+      <c r="K47" s="3">
         <v>156200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>136300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>87100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>99100</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>31797700</v>
+        <v>32663200</v>
       </c>
       <c r="E48" s="3">
-        <v>31550400</v>
+        <v>31785100</v>
       </c>
       <c r="F48" s="3">
-        <v>29653700</v>
+        <v>31537900</v>
       </c>
       <c r="G48" s="3">
-        <v>26840100</v>
+        <v>29642000</v>
       </c>
       <c r="H48" s="3">
-        <v>26499400</v>
+        <v>26829500</v>
       </c>
       <c r="I48" s="3">
-        <v>25611500</v>
+        <v>26488900</v>
       </c>
       <c r="J48" s="3">
+        <v>25601400</v>
+      </c>
+      <c r="K48" s="3">
         <v>22384900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>20190100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>18263700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>18373800</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>168800</v>
+        <v>164000</v>
       </c>
       <c r="E49" s="3">
-        <v>179800</v>
+        <v>168700</v>
       </c>
       <c r="F49" s="3">
+        <v>179700</v>
+      </c>
+      <c r="G49" s="3">
         <v>57300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>48700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>52600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>55700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>48700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>45400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>42400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>41500</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>677500</v>
+        <v>2455500</v>
       </c>
       <c r="E52" s="3">
-        <v>330500</v>
+        <v>677200</v>
       </c>
       <c r="F52" s="3">
-        <v>427100</v>
+        <v>330400</v>
       </c>
       <c r="G52" s="3">
-        <v>854900</v>
+        <v>426900</v>
       </c>
       <c r="H52" s="3">
-        <v>806200</v>
+        <v>854600</v>
       </c>
       <c r="I52" s="3">
-        <v>1052800</v>
+        <v>805900</v>
       </c>
       <c r="J52" s="3">
+        <v>1052300</v>
+      </c>
+      <c r="K52" s="3">
         <v>721500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2614300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>55800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>59900</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>35173400</v>
+        <v>38089700</v>
       </c>
       <c r="E54" s="3">
-        <v>34372600</v>
+        <v>35159500</v>
       </c>
       <c r="F54" s="3">
-        <v>32355100</v>
+        <v>34359100</v>
       </c>
       <c r="G54" s="3">
-        <v>29540600</v>
+        <v>32342300</v>
       </c>
       <c r="H54" s="3">
-        <v>29091600</v>
+        <v>29529000</v>
       </c>
       <c r="I54" s="3">
-        <v>28577400</v>
+        <v>29080100</v>
       </c>
       <c r="J54" s="3">
+        <v>28566100</v>
+      </c>
+      <c r="K54" s="3">
         <v>24875900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>23220100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>19839900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>19994000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>612300</v>
+        <v>708600</v>
       </c>
       <c r="E57" s="3">
-        <v>679900</v>
+        <v>612100</v>
       </c>
       <c r="F57" s="3">
-        <v>770900</v>
+        <v>679600</v>
       </c>
       <c r="G57" s="3">
-        <v>1479000</v>
+        <v>770600</v>
       </c>
       <c r="H57" s="3">
-        <v>1191700</v>
+        <v>1478500</v>
       </c>
       <c r="I57" s="3">
-        <v>1220000</v>
+        <v>1191200</v>
       </c>
       <c r="J57" s="3">
+        <v>1219500</v>
+      </c>
+      <c r="K57" s="3">
         <v>1300800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1451100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>287300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>341900</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>714400</v>
+        <v>398600</v>
       </c>
       <c r="E58" s="3">
-        <v>1515100</v>
+        <v>714100</v>
       </c>
       <c r="F58" s="3">
-        <v>929500</v>
+        <v>1514500</v>
       </c>
       <c r="G58" s="3">
-        <v>1632900</v>
+        <v>929100</v>
       </c>
       <c r="H58" s="3">
-        <v>1168900</v>
+        <v>1632300</v>
       </c>
       <c r="I58" s="3">
-        <v>1132000</v>
+        <v>1168500</v>
       </c>
       <c r="J58" s="3">
+        <v>1131600</v>
+      </c>
+      <c r="K58" s="3">
         <v>427100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>786000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>429400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>103700</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1243500</v>
+        <v>1341100</v>
       </c>
       <c r="E59" s="3">
-        <v>1170500</v>
+        <v>1243000</v>
       </c>
       <c r="F59" s="3">
-        <v>1047300</v>
+        <v>1170000</v>
       </c>
       <c r="G59" s="3">
+        <v>1046800</v>
+      </c>
+      <c r="H59" s="3">
         <v>14900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1600</v>
       </c>
-      <c r="J59" s="3" t="s">
+      <c r="K59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>822900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>922800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>871900</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2570300</v>
+        <v>2448400</v>
       </c>
       <c r="E60" s="3">
-        <v>3365500</v>
+        <v>2569200</v>
       </c>
       <c r="F60" s="3">
-        <v>2747700</v>
+        <v>3364200</v>
       </c>
       <c r="G60" s="3">
-        <v>3126900</v>
+        <v>2746600</v>
       </c>
       <c r="H60" s="3">
-        <v>2361400</v>
+        <v>3125600</v>
       </c>
       <c r="I60" s="3">
-        <v>2353600</v>
+        <v>2360500</v>
       </c>
       <c r="J60" s="3">
+        <v>2352700</v>
+      </c>
+      <c r="K60" s="3">
         <v>1727900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1923000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1639500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1317500</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9417500</v>
+        <v>9398800</v>
       </c>
       <c r="E61" s="3">
-        <v>9315400</v>
+        <v>9413700</v>
       </c>
       <c r="F61" s="3">
-        <v>8937800</v>
+        <v>9311700</v>
       </c>
       <c r="G61" s="3">
-        <v>6867600</v>
+        <v>8934300</v>
       </c>
       <c r="H61" s="3">
-        <v>7417200</v>
+        <v>6864900</v>
       </c>
       <c r="I61" s="3">
-        <v>7053700</v>
+        <v>7414200</v>
       </c>
       <c r="J61" s="3">
+        <v>7050900</v>
+      </c>
+      <c r="K61" s="3">
         <v>6145400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5249400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4705600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4948200</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7758600</v>
+        <v>8394400</v>
       </c>
       <c r="E62" s="3">
-        <v>7528600</v>
+        <v>7755600</v>
       </c>
       <c r="F62" s="3">
-        <v>6820500</v>
+        <v>7525700</v>
       </c>
       <c r="G62" s="3">
-        <v>6470400</v>
+        <v>6817800</v>
       </c>
       <c r="H62" s="3">
-        <v>7662100</v>
+        <v>6467800</v>
       </c>
       <c r="I62" s="3">
-        <v>7433600</v>
+        <v>7659100</v>
       </c>
       <c r="J62" s="3">
+        <v>7430700</v>
+      </c>
+      <c r="K62" s="3">
         <v>6428000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6886000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5295100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5523600</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19746400</v>
+        <v>20241600</v>
       </c>
       <c r="E66" s="3">
-        <v>20209500</v>
+        <v>19738600</v>
       </c>
       <c r="F66" s="3">
-        <v>18506000</v>
+        <v>20201600</v>
       </c>
       <c r="G66" s="3">
-        <v>16464900</v>
+        <v>18498700</v>
       </c>
       <c r="H66" s="3">
-        <v>17440700</v>
+        <v>16458400</v>
       </c>
       <c r="I66" s="3">
-        <v>16840900</v>
+        <v>17433800</v>
       </c>
       <c r="J66" s="3">
+        <v>16834200</v>
+      </c>
+      <c r="K66" s="3">
         <v>14301300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13248600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11640200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11789300</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15042300</v>
+        <v>16276300</v>
       </c>
       <c r="E72" s="3">
-        <v>13843600</v>
+        <v>15036400</v>
       </c>
       <c r="F72" s="3">
-        <v>13049900</v>
+        <v>13838100</v>
       </c>
       <c r="G72" s="3">
-        <v>12235800</v>
+        <v>13044700</v>
       </c>
       <c r="H72" s="3">
-        <v>10395600</v>
+        <v>12231000</v>
       </c>
       <c r="I72" s="3">
-        <v>9920700</v>
+        <v>10391500</v>
       </c>
       <c r="J72" s="3">
+        <v>9916800</v>
+      </c>
+      <c r="K72" s="3">
         <v>9216500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8304800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7566400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>7204500</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15427000</v>
+        <v>17848100</v>
       </c>
       <c r="E76" s="3">
-        <v>14163100</v>
+        <v>15420900</v>
       </c>
       <c r="F76" s="3">
-        <v>13849100</v>
+        <v>14157500</v>
       </c>
       <c r="G76" s="3">
-        <v>13075800</v>
+        <v>13843600</v>
       </c>
       <c r="H76" s="3">
-        <v>11650900</v>
+        <v>13070600</v>
       </c>
       <c r="I76" s="3">
-        <v>11736500</v>
+        <v>11646300</v>
       </c>
       <c r="J76" s="3">
+        <v>11731900</v>
+      </c>
+      <c r="K76" s="3">
         <v>10574600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9971500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8199700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8204700</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2796300</v>
+        <v>3838900</v>
       </c>
       <c r="E81" s="3">
-        <v>3309800</v>
+        <v>2795200</v>
       </c>
       <c r="F81" s="3">
-        <v>3397700</v>
+        <v>3308500</v>
       </c>
       <c r="G81" s="3">
-        <v>4305200</v>
+        <v>3396400</v>
       </c>
       <c r="H81" s="3">
-        <v>2857600</v>
+        <v>4303500</v>
       </c>
       <c r="I81" s="3">
-        <v>2777500</v>
+        <v>2856500</v>
       </c>
       <c r="J81" s="3">
+        <v>2776400</v>
+      </c>
+      <c r="K81" s="3">
         <v>2486300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2010800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1994500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1887500</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1247400</v>
+        <v>1254000</v>
       </c>
       <c r="E83" s="3">
-        <v>1226200</v>
+        <v>1247000</v>
       </c>
       <c r="F83" s="3">
-        <v>1043300</v>
+        <v>1225800</v>
       </c>
       <c r="G83" s="3">
-        <v>1005600</v>
+        <v>1042900</v>
       </c>
       <c r="H83" s="3">
-        <v>961700</v>
+        <v>1005300</v>
       </c>
       <c r="I83" s="3">
-        <v>909100</v>
+        <v>961300</v>
       </c>
       <c r="J83" s="3">
+        <v>908700</v>
+      </c>
+      <c r="K83" s="3">
         <v>824300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>754400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>687700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>679100</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4839800</v>
+        <v>5470400</v>
       </c>
       <c r="E89" s="3">
-        <v>4649900</v>
+        <v>4837900</v>
       </c>
       <c r="F89" s="3">
-        <v>4645900</v>
+        <v>4648000</v>
       </c>
       <c r="G89" s="3">
-        <v>4330300</v>
+        <v>4644100</v>
       </c>
       <c r="H89" s="3">
-        <v>4083800</v>
+        <v>4328600</v>
       </c>
       <c r="I89" s="3">
-        <v>4035200</v>
+        <v>4082200</v>
       </c>
       <c r="J89" s="3">
+        <v>4033600</v>
+      </c>
+      <c r="K89" s="3">
         <v>3439300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2731300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2277300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2286300</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2247600</v>
+        <v>-2268700</v>
       </c>
       <c r="E91" s="3">
-        <v>-3034200</v>
+        <v>-2246700</v>
       </c>
       <c r="F91" s="3">
-        <v>-2772000</v>
+        <v>-3033000</v>
       </c>
       <c r="G91" s="3">
-        <v>-2098400</v>
+        <v>-2770900</v>
       </c>
       <c r="H91" s="3">
-        <v>-2115700</v>
+        <v>-2097600</v>
       </c>
       <c r="I91" s="3">
-        <v>-2124300</v>
+        <v>-2114900</v>
       </c>
       <c r="J91" s="3">
+        <v>-2123500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1803300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1518900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1288200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1248400</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2312800</v>
+        <v>-2254600</v>
       </c>
       <c r="E94" s="3">
-        <v>-3289400</v>
+        <v>-2311800</v>
       </c>
       <c r="F94" s="3">
-        <v>-2672300</v>
+        <v>-3288100</v>
       </c>
       <c r="G94" s="3">
-        <v>-2149500</v>
+        <v>-2671300</v>
       </c>
       <c r="H94" s="3">
-        <v>-2105500</v>
+        <v>-2148600</v>
       </c>
       <c r="I94" s="3">
-        <v>-2219300</v>
+        <v>-2104700</v>
       </c>
       <c r="J94" s="3">
+        <v>-2218500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1708300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1425700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1057500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1328300</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1282800</v>
+        <v>-1365400</v>
       </c>
       <c r="E96" s="3">
-        <v>-1212100</v>
+        <v>-1282300</v>
       </c>
       <c r="F96" s="3">
-        <v>-1046500</v>
+        <v>-1211600</v>
       </c>
       <c r="G96" s="3">
-        <v>-972700</v>
+        <v>-1046100</v>
       </c>
       <c r="H96" s="3">
-        <v>-909900</v>
+        <v>-972300</v>
       </c>
       <c r="I96" s="3">
-        <v>-781900</v>
+        <v>-909500</v>
       </c>
       <c r="J96" s="3">
+        <v>-781600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-642200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-557300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-485200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-449400</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,45 +3910,51 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2125100</v>
+        <v>-3026700</v>
       </c>
       <c r="E100" s="3">
-        <v>-1494000</v>
+        <v>-2124300</v>
       </c>
       <c r="F100" s="3">
-        <v>-1811900</v>
+        <v>-1493400</v>
       </c>
       <c r="G100" s="3">
-        <v>-2272700</v>
+        <v>-1811200</v>
       </c>
       <c r="H100" s="3">
-        <v>-1993200</v>
+        <v>-2271800</v>
       </c>
       <c r="I100" s="3">
-        <v>-1745200</v>
+        <v>-1992500</v>
       </c>
       <c r="J100" s="3">
+        <v>-1744500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1860600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1274800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1177300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1267600</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3714,69 +3962,75 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-800</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-1600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>11800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>8600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>14600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>10800</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>401900</v>
+        <v>189100</v>
       </c>
       <c r="E102" s="3">
+        <v>401800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-134200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>161700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-93400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>79300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-127200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>45400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>40200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-298800</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CNI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CNI_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11360700</v>
+        <v>11098600</v>
       </c>
       <c r="E8" s="3">
-        <v>10844300</v>
+        <v>10594200</v>
       </c>
       <c r="F8" s="3">
-        <v>11706000</v>
+        <v>11436000</v>
       </c>
       <c r="G8" s="3">
-        <v>11238300</v>
+        <v>10979100</v>
       </c>
       <c r="H8" s="3">
-        <v>10233800</v>
+        <v>9997800</v>
       </c>
       <c r="I8" s="3">
-        <v>9445900</v>
+        <v>9228000</v>
       </c>
       <c r="J8" s="3">
-        <v>9896400</v>
+        <v>9668100</v>
       </c>
       <c r="K8" s="3">
         <v>9525800</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2821100</v>
+        <v>2756100</v>
       </c>
       <c r="E9" s="3">
-        <v>2592800</v>
+        <v>2533000</v>
       </c>
       <c r="F9" s="3">
-        <v>3063600</v>
+        <v>2993000</v>
       </c>
       <c r="G9" s="3">
-        <v>2905900</v>
+        <v>2838900</v>
       </c>
       <c r="H9" s="3">
-        <v>2457000</v>
+        <v>2400300</v>
       </c>
       <c r="I9" s="3">
-        <v>2074100</v>
+        <v>2026200</v>
       </c>
       <c r="J9" s="3">
-        <v>2365200</v>
+        <v>2310700</v>
       </c>
       <c r="K9" s="3">
         <v>2703700</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8539500</v>
+        <v>8342600</v>
       </c>
       <c r="E10" s="3">
-        <v>8251500</v>
+        <v>8061200</v>
       </c>
       <c r="F10" s="3">
-        <v>8642300</v>
+        <v>8443000</v>
       </c>
       <c r="G10" s="3">
-        <v>8332400</v>
+        <v>8140200</v>
       </c>
       <c r="H10" s="3">
-        <v>7776800</v>
+        <v>7597400</v>
       </c>
       <c r="I10" s="3">
-        <v>7371800</v>
+        <v>7201800</v>
       </c>
       <c r="J10" s="3">
-        <v>7531100</v>
+        <v>7357400</v>
       </c>
       <c r="K10" s="3">
         <v>6822100</v>
@@ -935,7 +935,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-629400</v>
+        <v>-614800</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1254000</v>
+        <v>1225100</v>
       </c>
       <c r="E15" s="3">
-        <v>1247000</v>
+        <v>1218200</v>
       </c>
       <c r="F15" s="3">
-        <v>1225800</v>
+        <v>1197500</v>
       </c>
       <c r="G15" s="3">
-        <v>1042900</v>
+        <v>1018900</v>
       </c>
       <c r="H15" s="3">
-        <v>1005300</v>
+        <v>982100</v>
       </c>
       <c r="I15" s="3">
-        <v>961300</v>
+        <v>939100</v>
       </c>
       <c r="J15" s="3">
-        <v>908700</v>
+        <v>887800</v>
       </c>
       <c r="K15" s="3">
         <v>824300</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6258300</v>
+        <v>6114000</v>
       </c>
       <c r="E17" s="3">
-        <v>7095600</v>
+        <v>6932000</v>
       </c>
       <c r="F17" s="3">
-        <v>7316900</v>
+        <v>7148200</v>
       </c>
       <c r="G17" s="3">
-        <v>6927700</v>
+        <v>6767900</v>
       </c>
       <c r="H17" s="3">
-        <v>6119400</v>
+        <v>5978300</v>
       </c>
       <c r="I17" s="3">
-        <v>5497100</v>
+        <v>5370300</v>
       </c>
       <c r="J17" s="3">
-        <v>5763900</v>
+        <v>5631000</v>
       </c>
       <c r="K17" s="3">
         <v>5895700</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5102400</v>
+        <v>4984700</v>
       </c>
       <c r="E18" s="3">
-        <v>3748700</v>
+        <v>3662200</v>
       </c>
       <c r="F18" s="3">
-        <v>4389100</v>
+        <v>4287800</v>
       </c>
       <c r="G18" s="3">
-        <v>4310600</v>
+        <v>4211200</v>
       </c>
       <c r="H18" s="3">
-        <v>4114400</v>
+        <v>4019500</v>
       </c>
       <c r="I18" s="3">
-        <v>3948800</v>
+        <v>3857700</v>
       </c>
       <c r="J18" s="3">
-        <v>4132400</v>
+        <v>4037100</v>
       </c>
       <c r="K18" s="3">
         <v>3630100</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>346100</v>
+        <v>338100</v>
       </c>
       <c r="E20" s="3">
-        <v>251900</v>
+        <v>246100</v>
       </c>
       <c r="F20" s="3">
-        <v>293500</v>
+        <v>286700</v>
       </c>
       <c r="G20" s="3">
-        <v>532100</v>
+        <v>519800</v>
       </c>
       <c r="H20" s="3">
-        <v>256600</v>
+        <v>250700</v>
       </c>
       <c r="I20" s="3">
-        <v>294300</v>
+        <v>287500</v>
       </c>
       <c r="J20" s="3">
-        <v>36900</v>
+        <v>36000</v>
       </c>
       <c r="K20" s="3">
         <v>84000</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6696500</v>
+        <v>6552700</v>
       </c>
       <c r="E21" s="3">
-        <v>5241600</v>
+        <v>5131300</v>
       </c>
       <c r="F21" s="3">
-        <v>5902500</v>
+        <v>5776700</v>
       </c>
       <c r="G21" s="3">
-        <v>5880600</v>
+        <v>5753800</v>
       </c>
       <c r="H21" s="3">
-        <v>5371500</v>
+        <v>5256100</v>
       </c>
       <c r="I21" s="3">
-        <v>5199800</v>
+        <v>5088000</v>
       </c>
       <c r="J21" s="3">
-        <v>5073700</v>
+        <v>4964400</v>
       </c>
       <c r="K21" s="3">
         <v>4535300</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>478700</v>
+        <v>467700</v>
       </c>
       <c r="E22" s="3">
-        <v>434700</v>
+        <v>424700</v>
       </c>
       <c r="F22" s="3">
-        <v>422200</v>
+        <v>412500</v>
       </c>
       <c r="G22" s="3">
-        <v>383700</v>
+        <v>374900</v>
       </c>
       <c r="H22" s="3">
-        <v>377500</v>
+        <v>368800</v>
       </c>
       <c r="I22" s="3">
-        <v>376700</v>
+        <v>368000</v>
       </c>
       <c r="J22" s="3">
-        <v>344500</v>
+        <v>336600</v>
       </c>
       <c r="K22" s="3">
         <v>291300</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4969800</v>
+        <v>4855100</v>
       </c>
       <c r="E23" s="3">
-        <v>3565900</v>
+        <v>3483600</v>
       </c>
       <c r="F23" s="3">
-        <v>4260400</v>
+        <v>4162100</v>
       </c>
       <c r="G23" s="3">
-        <v>4458900</v>
+        <v>4356000</v>
       </c>
       <c r="H23" s="3">
-        <v>3993500</v>
+        <v>3901400</v>
       </c>
       <c r="I23" s="3">
-        <v>3866400</v>
+        <v>3777200</v>
       </c>
       <c r="J23" s="3">
-        <v>3824800</v>
+        <v>3736600</v>
       </c>
       <c r="K23" s="3">
         <v>3422800</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1130800</v>
+        <v>1104700</v>
       </c>
       <c r="E24" s="3">
-        <v>881300</v>
+        <v>860900</v>
       </c>
       <c r="F24" s="3">
-        <v>951900</v>
+        <v>929900</v>
       </c>
       <c r="G24" s="3">
-        <v>1062500</v>
+        <v>1038000</v>
       </c>
       <c r="H24" s="3">
-        <v>-1694300</v>
+        <v>-1655200</v>
       </c>
       <c r="I24" s="3">
-        <v>1010000</v>
+        <v>986700</v>
       </c>
       <c r="J24" s="3">
-        <v>1048400</v>
+        <v>1024200</v>
       </c>
       <c r="K24" s="3">
         <v>936600</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3838900</v>
+        <v>3750400</v>
       </c>
       <c r="E26" s="3">
-        <v>2684600</v>
+        <v>2622700</v>
       </c>
       <c r="F26" s="3">
-        <v>3308500</v>
+        <v>3232200</v>
       </c>
       <c r="G26" s="3">
-        <v>3396400</v>
+        <v>3318000</v>
       </c>
       <c r="H26" s="3">
-        <v>5687800</v>
+        <v>5556600</v>
       </c>
       <c r="I26" s="3">
-        <v>2856500</v>
+        <v>2790600</v>
       </c>
       <c r="J26" s="3">
-        <v>2776400</v>
+        <v>2712400</v>
       </c>
       <c r="K26" s="3">
         <v>2486300</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3838900</v>
+        <v>3750400</v>
       </c>
       <c r="E27" s="3">
-        <v>2684600</v>
+        <v>2622700</v>
       </c>
       <c r="F27" s="3">
-        <v>3308500</v>
+        <v>3232200</v>
       </c>
       <c r="G27" s="3">
-        <v>3396400</v>
+        <v>3318000</v>
       </c>
       <c r="H27" s="3">
-        <v>5687800</v>
+        <v>5556600</v>
       </c>
       <c r="I27" s="3">
-        <v>2856500</v>
+        <v>2790600</v>
       </c>
       <c r="J27" s="3">
-        <v>2776400</v>
+        <v>2712400</v>
       </c>
       <c r="K27" s="3">
         <v>2486300</v>
@@ -1476,7 +1476,7 @@
         <v>8</v>
       </c>
       <c r="E29" s="3">
-        <v>110600</v>
+        <v>108100</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -1485,7 +1485,7 @@
         <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>-1384300</v>
+        <v>-1352400</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-346100</v>
+        <v>-338100</v>
       </c>
       <c r="E32" s="3">
-        <v>-251900</v>
+        <v>-246100</v>
       </c>
       <c r="F32" s="3">
-        <v>-293500</v>
+        <v>-286700</v>
       </c>
       <c r="G32" s="3">
-        <v>-532100</v>
+        <v>-519800</v>
       </c>
       <c r="H32" s="3">
-        <v>-256600</v>
+        <v>-250700</v>
       </c>
       <c r="I32" s="3">
-        <v>-294300</v>
+        <v>-287500</v>
       </c>
       <c r="J32" s="3">
-        <v>-36900</v>
+        <v>-36000</v>
       </c>
       <c r="K32" s="3">
         <v>-84000</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3838900</v>
+        <v>3750400</v>
       </c>
       <c r="E33" s="3">
-        <v>2795200</v>
+        <v>2730800</v>
       </c>
       <c r="F33" s="3">
-        <v>3308500</v>
+        <v>3232200</v>
       </c>
       <c r="G33" s="3">
-        <v>3396400</v>
+        <v>3318000</v>
       </c>
       <c r="H33" s="3">
-        <v>4303500</v>
+        <v>4204300</v>
       </c>
       <c r="I33" s="3">
-        <v>2856500</v>
+        <v>2790600</v>
       </c>
       <c r="J33" s="3">
-        <v>2776400</v>
+        <v>2712400</v>
       </c>
       <c r="K33" s="3">
         <v>2486300</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3838900</v>
+        <v>3750400</v>
       </c>
       <c r="E35" s="3">
-        <v>2795200</v>
+        <v>2730800</v>
       </c>
       <c r="F35" s="3">
-        <v>3308500</v>
+        <v>3232200</v>
       </c>
       <c r="G35" s="3">
-        <v>3396400</v>
+        <v>3318000</v>
       </c>
       <c r="H35" s="3">
-        <v>4303500</v>
+        <v>4204300</v>
       </c>
       <c r="I35" s="3">
-        <v>2856500</v>
+        <v>2790600</v>
       </c>
       <c r="J35" s="3">
-        <v>2776400</v>
+        <v>2712400</v>
       </c>
       <c r="K35" s="3">
         <v>2486300</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>657600</v>
+        <v>642400</v>
       </c>
       <c r="E41" s="3">
-        <v>446500</v>
+        <v>436200</v>
       </c>
       <c r="F41" s="3">
-        <v>50200</v>
+        <v>49100</v>
       </c>
       <c r="G41" s="3">
-        <v>208700</v>
+        <v>203900</v>
       </c>
       <c r="H41" s="3">
-        <v>54900</v>
+        <v>53700</v>
       </c>
       <c r="I41" s="3">
-        <v>138100</v>
+        <v>134900</v>
       </c>
       <c r="J41" s="3">
-        <v>120100</v>
+        <v>117300</v>
       </c>
       <c r="K41" s="3">
         <v>40800</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>842800</v>
+        <v>823400</v>
       </c>
       <c r="E43" s="3">
-        <v>893800</v>
+        <v>873200</v>
       </c>
       <c r="F43" s="3">
-        <v>951900</v>
+        <v>929900</v>
       </c>
       <c r="G43" s="3">
-        <v>917400</v>
+        <v>896200</v>
       </c>
       <c r="H43" s="3">
-        <v>772200</v>
+        <v>754400</v>
       </c>
       <c r="I43" s="3">
-        <v>686600</v>
+        <v>670800</v>
       </c>
       <c r="J43" s="3">
-        <v>689000</v>
+        <v>673100</v>
       </c>
       <c r="K43" s="3">
         <v>728500</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>462200</v>
+        <v>451600</v>
       </c>
       <c r="E44" s="3">
-        <v>457500</v>
+        <v>447000</v>
       </c>
       <c r="F44" s="3">
-        <v>479500</v>
+        <v>468400</v>
       </c>
       <c r="G44" s="3">
-        <v>437100</v>
+        <v>427000</v>
       </c>
       <c r="H44" s="3">
-        <v>332700</v>
+        <v>325100</v>
       </c>
       <c r="I44" s="3">
-        <v>278600</v>
+        <v>272200</v>
       </c>
       <c r="J44" s="3">
-        <v>278600</v>
+        <v>272200</v>
       </c>
       <c r="K44" s="3">
         <v>263000</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>725900</v>
+        <v>709100</v>
       </c>
       <c r="E45" s="3">
-        <v>636400</v>
+        <v>621700</v>
       </c>
       <c r="F45" s="3">
-        <v>739200</v>
+        <v>722200</v>
       </c>
       <c r="G45" s="3">
-        <v>577600</v>
+        <v>564200</v>
       </c>
       <c r="H45" s="3">
-        <v>558700</v>
+        <v>545800</v>
       </c>
       <c r="I45" s="3">
-        <v>550100</v>
+        <v>537400</v>
       </c>
       <c r="J45" s="3">
-        <v>601900</v>
+        <v>588000</v>
       </c>
       <c r="K45" s="3">
         <v>660200</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2688500</v>
+        <v>2626500</v>
       </c>
       <c r="E46" s="3">
-        <v>2434300</v>
+        <v>2378100</v>
       </c>
       <c r="F46" s="3">
-        <v>2220800</v>
+        <v>2169600</v>
       </c>
       <c r="G46" s="3">
-        <v>2140800</v>
+        <v>2091400</v>
       </c>
       <c r="H46" s="3">
-        <v>1718600</v>
+        <v>1678900</v>
       </c>
       <c r="I46" s="3">
-        <v>1653400</v>
+        <v>1615300</v>
       </c>
       <c r="J46" s="3">
-        <v>1689500</v>
+        <v>1650600</v>
       </c>
       <c r="K46" s="3">
         <v>1564600</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>118500</v>
+        <v>115800</v>
       </c>
       <c r="E47" s="3">
-        <v>94200</v>
+        <v>92000</v>
       </c>
       <c r="F47" s="3">
-        <v>90200</v>
+        <v>88200</v>
       </c>
       <c r="G47" s="3">
-        <v>75300</v>
+        <v>73600</v>
       </c>
       <c r="H47" s="3">
-        <v>77700</v>
+        <v>75900</v>
       </c>
       <c r="I47" s="3">
-        <v>79300</v>
+        <v>77400</v>
       </c>
       <c r="J47" s="3">
-        <v>167100</v>
+        <v>163300</v>
       </c>
       <c r="K47" s="3">
         <v>156200</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>32663200</v>
+        <v>31909900</v>
       </c>
       <c r="E48" s="3">
-        <v>31785100</v>
+        <v>31052000</v>
       </c>
       <c r="F48" s="3">
-        <v>31537900</v>
+        <v>30810500</v>
       </c>
       <c r="G48" s="3">
-        <v>29642000</v>
+        <v>28958300</v>
       </c>
       <c r="H48" s="3">
-        <v>26829500</v>
+        <v>26210700</v>
       </c>
       <c r="I48" s="3">
-        <v>26488900</v>
+        <v>25877900</v>
       </c>
       <c r="J48" s="3">
-        <v>25601400</v>
+        <v>25010900</v>
       </c>
       <c r="K48" s="3">
         <v>22384900</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>164000</v>
+        <v>160200</v>
       </c>
       <c r="E49" s="3">
-        <v>168700</v>
+        <v>164800</v>
       </c>
       <c r="F49" s="3">
-        <v>179700</v>
+        <v>175600</v>
       </c>
       <c r="G49" s="3">
-        <v>57300</v>
+        <v>56000</v>
       </c>
       <c r="H49" s="3">
-        <v>48700</v>
+        <v>47500</v>
       </c>
       <c r="I49" s="3">
-        <v>52600</v>
+        <v>51400</v>
       </c>
       <c r="J49" s="3">
-        <v>55700</v>
+        <v>54400</v>
       </c>
       <c r="K49" s="3">
         <v>48700</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2455500</v>
+        <v>2398800</v>
       </c>
       <c r="E52" s="3">
-        <v>677200</v>
+        <v>661600</v>
       </c>
       <c r="F52" s="3">
-        <v>330400</v>
+        <v>322800</v>
       </c>
       <c r="G52" s="3">
-        <v>426900</v>
+        <v>417100</v>
       </c>
       <c r="H52" s="3">
-        <v>854600</v>
+        <v>834900</v>
       </c>
       <c r="I52" s="3">
-        <v>805900</v>
+        <v>787300</v>
       </c>
       <c r="J52" s="3">
-        <v>1052300</v>
+        <v>1028100</v>
       </c>
       <c r="K52" s="3">
         <v>721500</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>38089700</v>
+        <v>37211200</v>
       </c>
       <c r="E54" s="3">
-        <v>35159500</v>
+        <v>34348500</v>
       </c>
       <c r="F54" s="3">
-        <v>34359100</v>
+        <v>33566600</v>
       </c>
       <c r="G54" s="3">
-        <v>32342300</v>
+        <v>31596300</v>
       </c>
       <c r="H54" s="3">
-        <v>29529000</v>
+        <v>28847900</v>
       </c>
       <c r="I54" s="3">
-        <v>29080100</v>
+        <v>28409400</v>
       </c>
       <c r="J54" s="3">
-        <v>28566100</v>
+        <v>27907200</v>
       </c>
       <c r="K54" s="3">
         <v>24875900</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>708600</v>
+        <v>692300</v>
       </c>
       <c r="E57" s="3">
-        <v>612100</v>
+        <v>598000</v>
       </c>
       <c r="F57" s="3">
-        <v>679600</v>
+        <v>663900</v>
       </c>
       <c r="G57" s="3">
-        <v>770600</v>
+        <v>752800</v>
       </c>
       <c r="H57" s="3">
-        <v>1478500</v>
+        <v>1444300</v>
       </c>
       <c r="I57" s="3">
-        <v>1191200</v>
+        <v>1163800</v>
       </c>
       <c r="J57" s="3">
-        <v>1219500</v>
+        <v>1191400</v>
       </c>
       <c r="K57" s="3">
         <v>1300800</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>398600</v>
+        <v>389500</v>
       </c>
       <c r="E58" s="3">
-        <v>714100</v>
+        <v>697600</v>
       </c>
       <c r="F58" s="3">
-        <v>1514500</v>
+        <v>1479600</v>
       </c>
       <c r="G58" s="3">
-        <v>929100</v>
+        <v>907700</v>
       </c>
       <c r="H58" s="3">
-        <v>1632300</v>
+        <v>1594600</v>
       </c>
       <c r="I58" s="3">
-        <v>1168500</v>
+        <v>1141500</v>
       </c>
       <c r="J58" s="3">
-        <v>1131600</v>
+        <v>1105500</v>
       </c>
       <c r="K58" s="3">
         <v>427100</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1341100</v>
+        <v>1310200</v>
       </c>
       <c r="E59" s="3">
-        <v>1243000</v>
+        <v>1214400</v>
       </c>
       <c r="F59" s="3">
-        <v>1170000</v>
+        <v>1143100</v>
       </c>
       <c r="G59" s="3">
-        <v>1046800</v>
+        <v>1022700</v>
       </c>
       <c r="H59" s="3">
-        <v>14900</v>
+        <v>14600</v>
       </c>
       <c r="I59" s="3">
         <v>800</v>
       </c>
       <c r="J59" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>8</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2448400</v>
+        <v>2391900</v>
       </c>
       <c r="E60" s="3">
-        <v>2569200</v>
+        <v>2510000</v>
       </c>
       <c r="F60" s="3">
-        <v>3364200</v>
+        <v>3286600</v>
       </c>
       <c r="G60" s="3">
-        <v>2746600</v>
+        <v>2683200</v>
       </c>
       <c r="H60" s="3">
-        <v>3125600</v>
+        <v>3053500</v>
       </c>
       <c r="I60" s="3">
-        <v>2360500</v>
+        <v>2306100</v>
       </c>
       <c r="J60" s="3">
-        <v>2352700</v>
+        <v>2298400</v>
       </c>
       <c r="K60" s="3">
         <v>1727900</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9398800</v>
+        <v>9182000</v>
       </c>
       <c r="E61" s="3">
-        <v>9413700</v>
+        <v>9196600</v>
       </c>
       <c r="F61" s="3">
-        <v>9311700</v>
+        <v>9097000</v>
       </c>
       <c r="G61" s="3">
-        <v>8934300</v>
+        <v>8728200</v>
       </c>
       <c r="H61" s="3">
-        <v>6864900</v>
+        <v>6706600</v>
       </c>
       <c r="I61" s="3">
-        <v>7414200</v>
+        <v>7243200</v>
       </c>
       <c r="J61" s="3">
-        <v>7050900</v>
+        <v>6888300</v>
       </c>
       <c r="K61" s="3">
         <v>6145400</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8394400</v>
+        <v>8200700</v>
       </c>
       <c r="E62" s="3">
-        <v>7755600</v>
+        <v>7576700</v>
       </c>
       <c r="F62" s="3">
-        <v>7525700</v>
+        <v>7352100</v>
       </c>
       <c r="G62" s="3">
-        <v>6817800</v>
+        <v>6660600</v>
       </c>
       <c r="H62" s="3">
-        <v>6467800</v>
+        <v>6318600</v>
       </c>
       <c r="I62" s="3">
-        <v>7659100</v>
+        <v>7482400</v>
       </c>
       <c r="J62" s="3">
-        <v>7430700</v>
+        <v>7259300</v>
       </c>
       <c r="K62" s="3">
         <v>6428000</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>20241600</v>
+        <v>19774700</v>
       </c>
       <c r="E66" s="3">
-        <v>19738600</v>
+        <v>19283300</v>
       </c>
       <c r="F66" s="3">
-        <v>20201600</v>
+        <v>19735600</v>
       </c>
       <c r="G66" s="3">
-        <v>18498700</v>
+        <v>18072000</v>
       </c>
       <c r="H66" s="3">
-        <v>16458400</v>
+        <v>16078700</v>
       </c>
       <c r="I66" s="3">
-        <v>17433800</v>
+        <v>17031700</v>
       </c>
       <c r="J66" s="3">
-        <v>16834200</v>
+        <v>16446000</v>
       </c>
       <c r="K66" s="3">
         <v>14301300</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>16276300</v>
+        <v>15900900</v>
       </c>
       <c r="E72" s="3">
-        <v>15036400</v>
+        <v>14689600</v>
       </c>
       <c r="F72" s="3">
-        <v>13838100</v>
+        <v>13518900</v>
       </c>
       <c r="G72" s="3">
-        <v>13044700</v>
+        <v>12743900</v>
       </c>
       <c r="H72" s="3">
-        <v>12231000</v>
+        <v>11948900</v>
       </c>
       <c r="I72" s="3">
-        <v>10391500</v>
+        <v>10151800</v>
       </c>
       <c r="J72" s="3">
-        <v>9916800</v>
+        <v>9688000</v>
       </c>
       <c r="K72" s="3">
         <v>9216500</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>17848100</v>
+        <v>17436500</v>
       </c>
       <c r="E76" s="3">
-        <v>15420900</v>
+        <v>15065200</v>
       </c>
       <c r="F76" s="3">
-        <v>14157500</v>
+        <v>13831000</v>
       </c>
       <c r="G76" s="3">
-        <v>13843600</v>
+        <v>13524300</v>
       </c>
       <c r="H76" s="3">
-        <v>13070600</v>
+        <v>12769200</v>
       </c>
       <c r="I76" s="3">
-        <v>11646300</v>
+        <v>11377700</v>
       </c>
       <c r="J76" s="3">
-        <v>11731900</v>
+        <v>11461300</v>
       </c>
       <c r="K76" s="3">
         <v>10574600</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3838900</v>
+        <v>3750400</v>
       </c>
       <c r="E81" s="3">
-        <v>2795200</v>
+        <v>2730800</v>
       </c>
       <c r="F81" s="3">
-        <v>3308500</v>
+        <v>3232200</v>
       </c>
       <c r="G81" s="3">
-        <v>3396400</v>
+        <v>3318000</v>
       </c>
       <c r="H81" s="3">
-        <v>4303500</v>
+        <v>4204300</v>
       </c>
       <c r="I81" s="3">
-        <v>2856500</v>
+        <v>2790600</v>
       </c>
       <c r="J81" s="3">
-        <v>2776400</v>
+        <v>2712400</v>
       </c>
       <c r="K81" s="3">
         <v>2486300</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1254000</v>
+        <v>1225100</v>
       </c>
       <c r="E83" s="3">
-        <v>1247000</v>
+        <v>1218200</v>
       </c>
       <c r="F83" s="3">
-        <v>1225800</v>
+        <v>1197500</v>
       </c>
       <c r="G83" s="3">
-        <v>1042900</v>
+        <v>1018900</v>
       </c>
       <c r="H83" s="3">
-        <v>1005300</v>
+        <v>982100</v>
       </c>
       <c r="I83" s="3">
-        <v>961300</v>
+        <v>939100</v>
       </c>
       <c r="J83" s="3">
-        <v>908700</v>
+        <v>887800</v>
       </c>
       <c r="K83" s="3">
         <v>824300</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5470400</v>
+        <v>5344200</v>
       </c>
       <c r="E89" s="3">
-        <v>4837900</v>
+        <v>4726300</v>
       </c>
       <c r="F89" s="3">
-        <v>4648000</v>
+        <v>4540800</v>
       </c>
       <c r="G89" s="3">
-        <v>4644100</v>
+        <v>4537000</v>
       </c>
       <c r="H89" s="3">
-        <v>4328600</v>
+        <v>4228800</v>
       </c>
       <c r="I89" s="3">
-        <v>4082200</v>
+        <v>3988100</v>
       </c>
       <c r="J89" s="3">
-        <v>4033600</v>
+        <v>3940500</v>
       </c>
       <c r="K89" s="3">
         <v>3439300</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2268700</v>
+        <v>-2216400</v>
       </c>
       <c r="E91" s="3">
-        <v>-2246700</v>
+        <v>-2194900</v>
       </c>
       <c r="F91" s="3">
-        <v>-3033000</v>
+        <v>-2963100</v>
       </c>
       <c r="G91" s="3">
-        <v>-2770900</v>
+        <v>-2707000</v>
       </c>
       <c r="H91" s="3">
-        <v>-2097600</v>
+        <v>-2049200</v>
       </c>
       <c r="I91" s="3">
-        <v>-2114900</v>
+        <v>-2066100</v>
       </c>
       <c r="J91" s="3">
-        <v>-2123500</v>
+        <v>-2074500</v>
       </c>
       <c r="K91" s="3">
         <v>-1803300</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2254600</v>
+        <v>-2202600</v>
       </c>
       <c r="E94" s="3">
-        <v>-2311800</v>
+        <v>-2258500</v>
       </c>
       <c r="F94" s="3">
-        <v>-3288100</v>
+        <v>-3212200</v>
       </c>
       <c r="G94" s="3">
-        <v>-2671300</v>
+        <v>-2609600</v>
       </c>
       <c r="H94" s="3">
-        <v>-2148600</v>
+        <v>-2099100</v>
       </c>
       <c r="I94" s="3">
-        <v>-2104700</v>
+        <v>-2056100</v>
       </c>
       <c r="J94" s="3">
-        <v>-2218500</v>
+        <v>-2167300</v>
       </c>
       <c r="K94" s="3">
         <v>-1708300</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1365400</v>
+        <v>-1334000</v>
       </c>
       <c r="E96" s="3">
-        <v>-1282300</v>
+        <v>-1252700</v>
       </c>
       <c r="F96" s="3">
-        <v>-1211600</v>
+        <v>-1183700</v>
       </c>
       <c r="G96" s="3">
-        <v>-1046100</v>
+        <v>-1021900</v>
       </c>
       <c r="H96" s="3">
-        <v>-972300</v>
+        <v>-949900</v>
       </c>
       <c r="I96" s="3">
-        <v>-909500</v>
+        <v>-888500</v>
       </c>
       <c r="J96" s="3">
-        <v>-781600</v>
+        <v>-763600</v>
       </c>
       <c r="K96" s="3">
         <v>-642200</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3026700</v>
+        <v>-2956900</v>
       </c>
       <c r="E100" s="3">
-        <v>-2124300</v>
+        <v>-2075300</v>
       </c>
       <c r="F100" s="3">
-        <v>-1493400</v>
+        <v>-1458900</v>
       </c>
       <c r="G100" s="3">
-        <v>-1811200</v>
+        <v>-1769400</v>
       </c>
       <c r="H100" s="3">
-        <v>-2271800</v>
+        <v>-2219400</v>
       </c>
       <c r="I100" s="3">
-        <v>-1992500</v>
+        <v>-1946500</v>
       </c>
       <c r="J100" s="3">
-        <v>-1744500</v>
+        <v>-1704200</v>
       </c>
       <c r="K100" s="3">
         <v>-1860600</v>
@@ -3971,13 +3971,13 @@
         <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="I101" s="3">
-        <v>11800</v>
+        <v>11500</v>
       </c>
       <c r="J101" s="3">
-        <v>8600</v>
+        <v>8400</v>
       </c>
       <c r="K101" s="3">
         <v>2400</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>189100</v>
+        <v>184800</v>
       </c>
       <c r="E102" s="3">
-        <v>401800</v>
+        <v>392500</v>
       </c>
       <c r="F102" s="3">
-        <v>-134200</v>
+        <v>-131100</v>
       </c>
       <c r="G102" s="3">
-        <v>161700</v>
+        <v>157900</v>
       </c>
       <c r="H102" s="3">
-        <v>-93400</v>
+        <v>-91200</v>
       </c>
       <c r="I102" s="3">
         <v>-3100</v>
       </c>
       <c r="J102" s="3">
-        <v>79300</v>
+        <v>77400</v>
       </c>
       <c r="K102" s="3">
         <v>-127200</v>

--- a/AAII_Financials/Yearly/CNI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CNI_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11098600</v>
+        <v>11201600</v>
       </c>
       <c r="E8" s="3">
-        <v>10594200</v>
+        <v>10692500</v>
       </c>
       <c r="F8" s="3">
-        <v>11436000</v>
+        <v>11542000</v>
       </c>
       <c r="G8" s="3">
-        <v>10979100</v>
+        <v>11080900</v>
       </c>
       <c r="H8" s="3">
-        <v>9997800</v>
+        <v>10090500</v>
       </c>
       <c r="I8" s="3">
-        <v>9228000</v>
+        <v>9313600</v>
       </c>
       <c r="J8" s="3">
-        <v>9668100</v>
+        <v>9757800</v>
       </c>
       <c r="K8" s="3">
         <v>9525800</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2756100</v>
+        <v>2781600</v>
       </c>
       <c r="E9" s="3">
-        <v>2533000</v>
+        <v>2556500</v>
       </c>
       <c r="F9" s="3">
-        <v>2993000</v>
+        <v>3020700</v>
       </c>
       <c r="G9" s="3">
-        <v>2838900</v>
+        <v>2865200</v>
       </c>
       <c r="H9" s="3">
-        <v>2400300</v>
+        <v>2422600</v>
       </c>
       <c r="I9" s="3">
-        <v>2026200</v>
+        <v>2045000</v>
       </c>
       <c r="J9" s="3">
-        <v>2310700</v>
+        <v>2332100</v>
       </c>
       <c r="K9" s="3">
         <v>2703700</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8342600</v>
+        <v>8419900</v>
       </c>
       <c r="E10" s="3">
-        <v>8061200</v>
+        <v>8136000</v>
       </c>
       <c r="F10" s="3">
-        <v>8443000</v>
+        <v>8521300</v>
       </c>
       <c r="G10" s="3">
-        <v>8140200</v>
+        <v>8215700</v>
       </c>
       <c r="H10" s="3">
-        <v>7597400</v>
+        <v>7667900</v>
       </c>
       <c r="I10" s="3">
-        <v>7201800</v>
+        <v>7268600</v>
       </c>
       <c r="J10" s="3">
-        <v>7357400</v>
+        <v>7425700</v>
       </c>
       <c r="K10" s="3">
         <v>6822100</v>
@@ -935,7 +935,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-614800</v>
+        <v>-620500</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1225100</v>
+        <v>1236500</v>
       </c>
       <c r="E15" s="3">
-        <v>1218200</v>
+        <v>1229500</v>
       </c>
       <c r="F15" s="3">
-        <v>1197500</v>
+        <v>1208600</v>
       </c>
       <c r="G15" s="3">
-        <v>1018900</v>
+        <v>1028300</v>
       </c>
       <c r="H15" s="3">
-        <v>982100</v>
+        <v>991200</v>
       </c>
       <c r="I15" s="3">
-        <v>939100</v>
+        <v>947800</v>
       </c>
       <c r="J15" s="3">
-        <v>887800</v>
+        <v>896000</v>
       </c>
       <c r="K15" s="3">
         <v>824300</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6114000</v>
+        <v>6170700</v>
       </c>
       <c r="E17" s="3">
-        <v>6932000</v>
+        <v>6996200</v>
       </c>
       <c r="F17" s="3">
-        <v>7148200</v>
+        <v>7214400</v>
       </c>
       <c r="G17" s="3">
-        <v>6767900</v>
+        <v>6830700</v>
       </c>
       <c r="H17" s="3">
-        <v>5978300</v>
+        <v>6033700</v>
       </c>
       <c r="I17" s="3">
-        <v>5370300</v>
+        <v>5420100</v>
       </c>
       <c r="J17" s="3">
-        <v>5631000</v>
+        <v>5683200</v>
       </c>
       <c r="K17" s="3">
         <v>5895700</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4984700</v>
+        <v>5030900</v>
       </c>
       <c r="E18" s="3">
-        <v>3662200</v>
+        <v>3696200</v>
       </c>
       <c r="F18" s="3">
-        <v>4287800</v>
+        <v>4327600</v>
       </c>
       <c r="G18" s="3">
-        <v>4211200</v>
+        <v>4250200</v>
       </c>
       <c r="H18" s="3">
-        <v>4019500</v>
+        <v>4056800</v>
       </c>
       <c r="I18" s="3">
-        <v>3857700</v>
+        <v>3893500</v>
       </c>
       <c r="J18" s="3">
-        <v>4037100</v>
+        <v>4074600</v>
       </c>
       <c r="K18" s="3">
         <v>3630100</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>338100</v>
+        <v>341200</v>
       </c>
       <c r="E20" s="3">
-        <v>246100</v>
+        <v>248400</v>
       </c>
       <c r="F20" s="3">
-        <v>286700</v>
+        <v>289400</v>
       </c>
       <c r="G20" s="3">
-        <v>519800</v>
+        <v>524600</v>
       </c>
       <c r="H20" s="3">
-        <v>250700</v>
+        <v>253000</v>
       </c>
       <c r="I20" s="3">
-        <v>287500</v>
+        <v>290200</v>
       </c>
       <c r="J20" s="3">
-        <v>36000</v>
+        <v>36400</v>
       </c>
       <c r="K20" s="3">
         <v>84000</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6552700</v>
+        <v>6604700</v>
       </c>
       <c r="E21" s="3">
-        <v>5131300</v>
+        <v>5170200</v>
       </c>
       <c r="F21" s="3">
-        <v>5776700</v>
+        <v>5821800</v>
       </c>
       <c r="G21" s="3">
-        <v>5753800</v>
+        <v>5799900</v>
       </c>
       <c r="H21" s="3">
-        <v>5256100</v>
+        <v>5297800</v>
       </c>
       <c r="I21" s="3">
-        <v>5088000</v>
+        <v>5128500</v>
       </c>
       <c r="J21" s="3">
-        <v>4964400</v>
+        <v>5004100</v>
       </c>
       <c r="K21" s="3">
         <v>4535300</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>467700</v>
+        <v>472000</v>
       </c>
       <c r="E22" s="3">
-        <v>424700</v>
+        <v>428700</v>
       </c>
       <c r="F22" s="3">
-        <v>412500</v>
+        <v>416300</v>
       </c>
       <c r="G22" s="3">
-        <v>374900</v>
+        <v>378400</v>
       </c>
       <c r="H22" s="3">
-        <v>368800</v>
+        <v>372200</v>
       </c>
       <c r="I22" s="3">
-        <v>368000</v>
+        <v>371400</v>
       </c>
       <c r="J22" s="3">
-        <v>336600</v>
+        <v>339700</v>
       </c>
       <c r="K22" s="3">
         <v>291300</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4855100</v>
+        <v>4900200</v>
       </c>
       <c r="E23" s="3">
-        <v>3483600</v>
+        <v>3515900</v>
       </c>
       <c r="F23" s="3">
-        <v>4162100</v>
+        <v>4200700</v>
       </c>
       <c r="G23" s="3">
-        <v>4356000</v>
+        <v>4396400</v>
       </c>
       <c r="H23" s="3">
-        <v>3901400</v>
+        <v>3937600</v>
       </c>
       <c r="I23" s="3">
-        <v>3777200</v>
+        <v>3812300</v>
       </c>
       <c r="J23" s="3">
-        <v>3736600</v>
+        <v>3771300</v>
       </c>
       <c r="K23" s="3">
         <v>3422800</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1104700</v>
+        <v>1115000</v>
       </c>
       <c r="E24" s="3">
-        <v>860900</v>
+        <v>868900</v>
       </c>
       <c r="F24" s="3">
-        <v>929900</v>
+        <v>938600</v>
       </c>
       <c r="G24" s="3">
-        <v>1038000</v>
+        <v>1047700</v>
       </c>
       <c r="H24" s="3">
-        <v>-1655200</v>
+        <v>-1670500</v>
       </c>
       <c r="I24" s="3">
-        <v>986700</v>
+        <v>995800</v>
       </c>
       <c r="J24" s="3">
-        <v>1024200</v>
+        <v>1033700</v>
       </c>
       <c r="K24" s="3">
         <v>936600</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3750400</v>
+        <v>3785200</v>
       </c>
       <c r="E26" s="3">
-        <v>2622700</v>
+        <v>2647000</v>
       </c>
       <c r="F26" s="3">
-        <v>3232200</v>
+        <v>3262100</v>
       </c>
       <c r="G26" s="3">
-        <v>3318000</v>
+        <v>3348800</v>
       </c>
       <c r="H26" s="3">
-        <v>5556600</v>
+        <v>5608100</v>
       </c>
       <c r="I26" s="3">
-        <v>2790600</v>
+        <v>2816500</v>
       </c>
       <c r="J26" s="3">
-        <v>2712400</v>
+        <v>2737500</v>
       </c>
       <c r="K26" s="3">
         <v>2486300</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3750400</v>
+        <v>3785200</v>
       </c>
       <c r="E27" s="3">
-        <v>2622700</v>
+        <v>2647000</v>
       </c>
       <c r="F27" s="3">
-        <v>3232200</v>
+        <v>3262100</v>
       </c>
       <c r="G27" s="3">
-        <v>3318000</v>
+        <v>3348800</v>
       </c>
       <c r="H27" s="3">
-        <v>5556600</v>
+        <v>5608100</v>
       </c>
       <c r="I27" s="3">
-        <v>2790600</v>
+        <v>2816500</v>
       </c>
       <c r="J27" s="3">
-        <v>2712400</v>
+        <v>2737500</v>
       </c>
       <c r="K27" s="3">
         <v>2486300</v>
@@ -1476,7 +1476,7 @@
         <v>8</v>
       </c>
       <c r="E29" s="3">
-        <v>108100</v>
+        <v>109100</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -1485,7 +1485,7 @@
         <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>-1352400</v>
+        <v>-1364900</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-338100</v>
+        <v>-341200</v>
       </c>
       <c r="E32" s="3">
-        <v>-246100</v>
+        <v>-248400</v>
       </c>
       <c r="F32" s="3">
-        <v>-286700</v>
+        <v>-289400</v>
       </c>
       <c r="G32" s="3">
-        <v>-519800</v>
+        <v>-524600</v>
       </c>
       <c r="H32" s="3">
-        <v>-250700</v>
+        <v>-253000</v>
       </c>
       <c r="I32" s="3">
-        <v>-287500</v>
+        <v>-290200</v>
       </c>
       <c r="J32" s="3">
-        <v>-36000</v>
+        <v>-36400</v>
       </c>
       <c r="K32" s="3">
         <v>-84000</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3750400</v>
+        <v>3785200</v>
       </c>
       <c r="E33" s="3">
-        <v>2730800</v>
+        <v>2756100</v>
       </c>
       <c r="F33" s="3">
-        <v>3232200</v>
+        <v>3262100</v>
       </c>
       <c r="G33" s="3">
-        <v>3318000</v>
+        <v>3348800</v>
       </c>
       <c r="H33" s="3">
-        <v>4204300</v>
+        <v>4243200</v>
       </c>
       <c r="I33" s="3">
-        <v>2790600</v>
+        <v>2816500</v>
       </c>
       <c r="J33" s="3">
-        <v>2712400</v>
+        <v>2737500</v>
       </c>
       <c r="K33" s="3">
         <v>2486300</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3750400</v>
+        <v>3785200</v>
       </c>
       <c r="E35" s="3">
-        <v>2730800</v>
+        <v>2756100</v>
       </c>
       <c r="F35" s="3">
-        <v>3232200</v>
+        <v>3262100</v>
       </c>
       <c r="G35" s="3">
-        <v>3318000</v>
+        <v>3348800</v>
       </c>
       <c r="H35" s="3">
-        <v>4204300</v>
+        <v>4243200</v>
       </c>
       <c r="I35" s="3">
-        <v>2790600</v>
+        <v>2816500</v>
       </c>
       <c r="J35" s="3">
-        <v>2712400</v>
+        <v>2737500</v>
       </c>
       <c r="K35" s="3">
         <v>2486300</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>642400</v>
+        <v>648400</v>
       </c>
       <c r="E41" s="3">
-        <v>436200</v>
+        <v>440300</v>
       </c>
       <c r="F41" s="3">
-        <v>49100</v>
+        <v>49500</v>
       </c>
       <c r="G41" s="3">
-        <v>203900</v>
+        <v>205800</v>
       </c>
       <c r="H41" s="3">
-        <v>53700</v>
+        <v>54200</v>
       </c>
       <c r="I41" s="3">
-        <v>134900</v>
+        <v>136200</v>
       </c>
       <c r="J41" s="3">
-        <v>117300</v>
+        <v>118400</v>
       </c>
       <c r="K41" s="3">
         <v>40800</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>823400</v>
+        <v>831000</v>
       </c>
       <c r="E43" s="3">
-        <v>873200</v>
+        <v>881300</v>
       </c>
       <c r="F43" s="3">
-        <v>929900</v>
+        <v>938600</v>
       </c>
       <c r="G43" s="3">
-        <v>896200</v>
+        <v>904500</v>
       </c>
       <c r="H43" s="3">
-        <v>754400</v>
+        <v>761400</v>
       </c>
       <c r="I43" s="3">
-        <v>670800</v>
+        <v>677000</v>
       </c>
       <c r="J43" s="3">
-        <v>673100</v>
+        <v>679400</v>
       </c>
       <c r="K43" s="3">
         <v>728500</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>451600</v>
+        <v>455700</v>
       </c>
       <c r="E44" s="3">
-        <v>447000</v>
+        <v>451100</v>
       </c>
       <c r="F44" s="3">
-        <v>468400</v>
+        <v>472800</v>
       </c>
       <c r="G44" s="3">
-        <v>427000</v>
+        <v>431000</v>
       </c>
       <c r="H44" s="3">
-        <v>325100</v>
+        <v>328100</v>
       </c>
       <c r="I44" s="3">
-        <v>272200</v>
+        <v>274700</v>
       </c>
       <c r="J44" s="3">
-        <v>272200</v>
+        <v>274700</v>
       </c>
       <c r="K44" s="3">
         <v>263000</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>709100</v>
+        <v>715700</v>
       </c>
       <c r="E45" s="3">
-        <v>621700</v>
+        <v>627500</v>
       </c>
       <c r="F45" s="3">
-        <v>722200</v>
+        <v>728900</v>
       </c>
       <c r="G45" s="3">
-        <v>564200</v>
+        <v>569500</v>
       </c>
       <c r="H45" s="3">
-        <v>545800</v>
+        <v>550900</v>
       </c>
       <c r="I45" s="3">
-        <v>537400</v>
+        <v>542400</v>
       </c>
       <c r="J45" s="3">
-        <v>588000</v>
+        <v>593500</v>
       </c>
       <c r="K45" s="3">
         <v>660200</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2626500</v>
+        <v>2650900</v>
       </c>
       <c r="E46" s="3">
-        <v>2378100</v>
+        <v>2400200</v>
       </c>
       <c r="F46" s="3">
-        <v>2169600</v>
+        <v>2189700</v>
       </c>
       <c r="G46" s="3">
-        <v>2091400</v>
+        <v>2110800</v>
       </c>
       <c r="H46" s="3">
-        <v>1678900</v>
+        <v>1694500</v>
       </c>
       <c r="I46" s="3">
-        <v>1615300</v>
+        <v>1630300</v>
       </c>
       <c r="J46" s="3">
-        <v>1650600</v>
+        <v>1665900</v>
       </c>
       <c r="K46" s="3">
         <v>1564600</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>115800</v>
+        <v>116800</v>
       </c>
       <c r="E47" s="3">
-        <v>92000</v>
+        <v>92900</v>
       </c>
       <c r="F47" s="3">
-        <v>88200</v>
+        <v>89000</v>
       </c>
       <c r="G47" s="3">
-        <v>73600</v>
+        <v>74300</v>
       </c>
       <c r="H47" s="3">
-        <v>75900</v>
+        <v>76600</v>
       </c>
       <c r="I47" s="3">
-        <v>77400</v>
+        <v>78100</v>
       </c>
       <c r="J47" s="3">
-        <v>163300</v>
+        <v>164800</v>
       </c>
       <c r="K47" s="3">
         <v>156200</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>31909900</v>
+        <v>32205800</v>
       </c>
       <c r="E48" s="3">
-        <v>31052000</v>
+        <v>31340000</v>
       </c>
       <c r="F48" s="3">
-        <v>30810500</v>
+        <v>31096200</v>
       </c>
       <c r="G48" s="3">
-        <v>28958300</v>
+        <v>29226900</v>
       </c>
       <c r="H48" s="3">
-        <v>26210700</v>
+        <v>26453700</v>
       </c>
       <c r="I48" s="3">
-        <v>25877900</v>
+        <v>26117900</v>
       </c>
       <c r="J48" s="3">
-        <v>25010900</v>
+        <v>25242800</v>
       </c>
       <c r="K48" s="3">
         <v>22384900</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>160200</v>
+        <v>161700</v>
       </c>
       <c r="E49" s="3">
-        <v>164800</v>
+        <v>166400</v>
       </c>
       <c r="F49" s="3">
-        <v>175600</v>
+        <v>177200</v>
       </c>
       <c r="G49" s="3">
-        <v>56000</v>
+        <v>56500</v>
       </c>
       <c r="H49" s="3">
-        <v>47500</v>
+        <v>48000</v>
       </c>
       <c r="I49" s="3">
-        <v>51400</v>
+        <v>51800</v>
       </c>
       <c r="J49" s="3">
-        <v>54400</v>
+        <v>54900</v>
       </c>
       <c r="K49" s="3">
         <v>48700</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2398800</v>
+        <v>2421100</v>
       </c>
       <c r="E52" s="3">
-        <v>661600</v>
+        <v>667700</v>
       </c>
       <c r="F52" s="3">
-        <v>322800</v>
+        <v>325700</v>
       </c>
       <c r="G52" s="3">
-        <v>417100</v>
+        <v>420900</v>
       </c>
       <c r="H52" s="3">
-        <v>834900</v>
+        <v>842600</v>
       </c>
       <c r="I52" s="3">
-        <v>787300</v>
+        <v>794600</v>
       </c>
       <c r="J52" s="3">
-        <v>1028100</v>
+        <v>1037600</v>
       </c>
       <c r="K52" s="3">
         <v>721500</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>37211200</v>
+        <v>37556300</v>
       </c>
       <c r="E54" s="3">
-        <v>34348500</v>
+        <v>34667100</v>
       </c>
       <c r="F54" s="3">
-        <v>33566600</v>
+        <v>33877900</v>
       </c>
       <c r="G54" s="3">
-        <v>31596300</v>
+        <v>31889300</v>
       </c>
       <c r="H54" s="3">
-        <v>28847900</v>
+        <v>29115400</v>
       </c>
       <c r="I54" s="3">
-        <v>28409400</v>
+        <v>28672900</v>
       </c>
       <c r="J54" s="3">
-        <v>27907200</v>
+        <v>28166000</v>
       </c>
       <c r="K54" s="3">
         <v>24875900</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>692300</v>
+        <v>698700</v>
       </c>
       <c r="E57" s="3">
-        <v>598000</v>
+        <v>603500</v>
       </c>
       <c r="F57" s="3">
-        <v>663900</v>
+        <v>670100</v>
       </c>
       <c r="G57" s="3">
-        <v>752800</v>
+        <v>759800</v>
       </c>
       <c r="H57" s="3">
-        <v>1444300</v>
+        <v>1457700</v>
       </c>
       <c r="I57" s="3">
-        <v>1163800</v>
+        <v>1174600</v>
       </c>
       <c r="J57" s="3">
-        <v>1191400</v>
+        <v>1202400</v>
       </c>
       <c r="K57" s="3">
         <v>1300800</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>389500</v>
+        <v>393100</v>
       </c>
       <c r="E58" s="3">
-        <v>697600</v>
+        <v>704100</v>
       </c>
       <c r="F58" s="3">
-        <v>1479600</v>
+        <v>1493300</v>
       </c>
       <c r="G58" s="3">
-        <v>907700</v>
+        <v>916100</v>
       </c>
       <c r="H58" s="3">
-        <v>1594600</v>
+        <v>1609400</v>
       </c>
       <c r="I58" s="3">
-        <v>1141500</v>
+        <v>1152100</v>
       </c>
       <c r="J58" s="3">
-        <v>1105500</v>
+        <v>1115700</v>
       </c>
       <c r="K58" s="3">
         <v>427100</v>
@@ -2482,19 +2482,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1310200</v>
+        <v>1322300</v>
       </c>
       <c r="E59" s="3">
-        <v>1214400</v>
+        <v>1225600</v>
       </c>
       <c r="F59" s="3">
-        <v>1143100</v>
+        <v>1153700</v>
       </c>
       <c r="G59" s="3">
-        <v>1022700</v>
+        <v>1032200</v>
       </c>
       <c r="H59" s="3">
-        <v>14600</v>
+        <v>14700</v>
       </c>
       <c r="I59" s="3">
         <v>800</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2391900</v>
+        <v>2414100</v>
       </c>
       <c r="E60" s="3">
-        <v>2510000</v>
+        <v>2533300</v>
       </c>
       <c r="F60" s="3">
-        <v>3286600</v>
+        <v>3317100</v>
       </c>
       <c r="G60" s="3">
-        <v>2683200</v>
+        <v>2708100</v>
       </c>
       <c r="H60" s="3">
-        <v>3053500</v>
+        <v>3081800</v>
       </c>
       <c r="I60" s="3">
-        <v>2306100</v>
+        <v>2327400</v>
       </c>
       <c r="J60" s="3">
-        <v>2298400</v>
+        <v>2319700</v>
       </c>
       <c r="K60" s="3">
         <v>1727900</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9182000</v>
+        <v>9267200</v>
       </c>
       <c r="E61" s="3">
-        <v>9196600</v>
+        <v>9281900</v>
       </c>
       <c r="F61" s="3">
-        <v>9097000</v>
+        <v>9181300</v>
       </c>
       <c r="G61" s="3">
-        <v>8728200</v>
+        <v>8809100</v>
       </c>
       <c r="H61" s="3">
-        <v>6706600</v>
+        <v>6768800</v>
       </c>
       <c r="I61" s="3">
-        <v>7243200</v>
+        <v>7310400</v>
       </c>
       <c r="J61" s="3">
-        <v>6888300</v>
+        <v>6952100</v>
       </c>
       <c r="K61" s="3">
         <v>6145400</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8200700</v>
+        <v>8276800</v>
       </c>
       <c r="E62" s="3">
-        <v>7576700</v>
+        <v>7647000</v>
       </c>
       <c r="F62" s="3">
-        <v>7352100</v>
+        <v>7420300</v>
       </c>
       <c r="G62" s="3">
-        <v>6660600</v>
+        <v>6722300</v>
       </c>
       <c r="H62" s="3">
-        <v>6318600</v>
+        <v>6377200</v>
       </c>
       <c r="I62" s="3">
-        <v>7482400</v>
+        <v>7551800</v>
       </c>
       <c r="J62" s="3">
-        <v>7259300</v>
+        <v>7326600</v>
       </c>
       <c r="K62" s="3">
         <v>6428000</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19774700</v>
+        <v>19958100</v>
       </c>
       <c r="E66" s="3">
-        <v>19283300</v>
+        <v>19462100</v>
       </c>
       <c r="F66" s="3">
-        <v>19735600</v>
+        <v>19918600</v>
       </c>
       <c r="G66" s="3">
-        <v>18072000</v>
+        <v>18239600</v>
       </c>
       <c r="H66" s="3">
-        <v>16078700</v>
+        <v>16227900</v>
       </c>
       <c r="I66" s="3">
-        <v>17031700</v>
+        <v>17189600</v>
       </c>
       <c r="J66" s="3">
-        <v>16446000</v>
+        <v>16598500</v>
       </c>
       <c r="K66" s="3">
         <v>14301300</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15900900</v>
+        <v>16048300</v>
       </c>
       <c r="E72" s="3">
-        <v>14689600</v>
+        <v>14825800</v>
       </c>
       <c r="F72" s="3">
-        <v>13518900</v>
+        <v>13644300</v>
       </c>
       <c r="G72" s="3">
-        <v>12743900</v>
+        <v>12862000</v>
       </c>
       <c r="H72" s="3">
-        <v>11948900</v>
+        <v>12059700</v>
       </c>
       <c r="I72" s="3">
-        <v>10151800</v>
+        <v>10246000</v>
       </c>
       <c r="J72" s="3">
-        <v>9688000</v>
+        <v>9777900</v>
       </c>
       <c r="K72" s="3">
         <v>9216500</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>17436500</v>
+        <v>17598200</v>
       </c>
       <c r="E76" s="3">
-        <v>15065200</v>
+        <v>15205000</v>
       </c>
       <c r="F76" s="3">
-        <v>13831000</v>
+        <v>13959200</v>
       </c>
       <c r="G76" s="3">
-        <v>13524300</v>
+        <v>13649700</v>
       </c>
       <c r="H76" s="3">
-        <v>12769200</v>
+        <v>12887600</v>
       </c>
       <c r="I76" s="3">
-        <v>11377700</v>
+        <v>11483200</v>
       </c>
       <c r="J76" s="3">
-        <v>11461300</v>
+        <v>11567600</v>
       </c>
       <c r="K76" s="3">
         <v>10574600</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3750400</v>
+        <v>3785200</v>
       </c>
       <c r="E81" s="3">
-        <v>2730800</v>
+        <v>2756100</v>
       </c>
       <c r="F81" s="3">
-        <v>3232200</v>
+        <v>3262100</v>
       </c>
       <c r="G81" s="3">
-        <v>3318000</v>
+        <v>3348800</v>
       </c>
       <c r="H81" s="3">
-        <v>4204300</v>
+        <v>4243200</v>
       </c>
       <c r="I81" s="3">
-        <v>2790600</v>
+        <v>2816500</v>
       </c>
       <c r="J81" s="3">
-        <v>2712400</v>
+        <v>2737500</v>
       </c>
       <c r="K81" s="3">
         <v>2486300</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1225100</v>
+        <v>1236500</v>
       </c>
       <c r="E83" s="3">
-        <v>1218200</v>
+        <v>1229500</v>
       </c>
       <c r="F83" s="3">
-        <v>1197500</v>
+        <v>1208600</v>
       </c>
       <c r="G83" s="3">
-        <v>1018900</v>
+        <v>1028300</v>
       </c>
       <c r="H83" s="3">
-        <v>982100</v>
+        <v>991200</v>
       </c>
       <c r="I83" s="3">
-        <v>939100</v>
+        <v>947800</v>
       </c>
       <c r="J83" s="3">
-        <v>887800</v>
+        <v>896000</v>
       </c>
       <c r="K83" s="3">
         <v>824300</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5344200</v>
+        <v>5393800</v>
       </c>
       <c r="E89" s="3">
-        <v>4726300</v>
+        <v>4770200</v>
       </c>
       <c r="F89" s="3">
-        <v>4540800</v>
+        <v>4582900</v>
       </c>
       <c r="G89" s="3">
-        <v>4537000</v>
+        <v>4579100</v>
       </c>
       <c r="H89" s="3">
-        <v>4228800</v>
+        <v>4268000</v>
       </c>
       <c r="I89" s="3">
-        <v>3988100</v>
+        <v>4025000</v>
       </c>
       <c r="J89" s="3">
-        <v>3940500</v>
+        <v>3977100</v>
       </c>
       <c r="K89" s="3">
         <v>3439300</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2216400</v>
+        <v>-2236900</v>
       </c>
       <c r="E91" s="3">
-        <v>-2194900</v>
+        <v>-2215200</v>
       </c>
       <c r="F91" s="3">
-        <v>-2963100</v>
+        <v>-2990500</v>
       </c>
       <c r="G91" s="3">
-        <v>-2707000</v>
+        <v>-2732100</v>
       </c>
       <c r="H91" s="3">
-        <v>-2049200</v>
+        <v>-2068200</v>
       </c>
       <c r="I91" s="3">
-        <v>-2066100</v>
+        <v>-2085300</v>
       </c>
       <c r="J91" s="3">
-        <v>-2074500</v>
+        <v>-2093800</v>
       </c>
       <c r="K91" s="3">
         <v>-1803300</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2202600</v>
+        <v>-2223000</v>
       </c>
       <c r="E94" s="3">
-        <v>-2258500</v>
+        <v>-2279500</v>
       </c>
       <c r="F94" s="3">
-        <v>-3212200</v>
+        <v>-3242000</v>
       </c>
       <c r="G94" s="3">
-        <v>-2609600</v>
+        <v>-2633800</v>
       </c>
       <c r="H94" s="3">
-        <v>-2099100</v>
+        <v>-2118500</v>
       </c>
       <c r="I94" s="3">
-        <v>-2056100</v>
+        <v>-2075200</v>
       </c>
       <c r="J94" s="3">
-        <v>-2167300</v>
+        <v>-2187400</v>
       </c>
       <c r="K94" s="3">
         <v>-1708300</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1334000</v>
+        <v>-1346300</v>
       </c>
       <c r="E96" s="3">
-        <v>-1252700</v>
+        <v>-1264300</v>
       </c>
       <c r="F96" s="3">
-        <v>-1183700</v>
+        <v>-1194700</v>
       </c>
       <c r="G96" s="3">
-        <v>-1021900</v>
+        <v>-1031400</v>
       </c>
       <c r="H96" s="3">
-        <v>-949900</v>
+        <v>-958700</v>
       </c>
       <c r="I96" s="3">
-        <v>-888500</v>
+        <v>-896800</v>
       </c>
       <c r="J96" s="3">
-        <v>-763600</v>
+        <v>-770700</v>
       </c>
       <c r="K96" s="3">
         <v>-642200</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2956900</v>
+        <v>-2984400</v>
       </c>
       <c r="E100" s="3">
-        <v>-2075300</v>
+        <v>-2094500</v>
       </c>
       <c r="F100" s="3">
-        <v>-1458900</v>
+        <v>-1472400</v>
       </c>
       <c r="G100" s="3">
-        <v>-1769400</v>
+        <v>-1785800</v>
       </c>
       <c r="H100" s="3">
-        <v>-2219400</v>
+        <v>-2240000</v>
       </c>
       <c r="I100" s="3">
-        <v>-1946500</v>
+        <v>-1964600</v>
       </c>
       <c r="J100" s="3">
-        <v>-1704200</v>
+        <v>-1720000</v>
       </c>
       <c r="K100" s="3">
         <v>-1860600</v>
@@ -3974,10 +3974,10 @@
         <v>-1500</v>
       </c>
       <c r="I101" s="3">
-        <v>11500</v>
+        <v>11600</v>
       </c>
       <c r="J101" s="3">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="K101" s="3">
         <v>2400</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>184800</v>
+        <v>186500</v>
       </c>
       <c r="E102" s="3">
-        <v>392500</v>
+        <v>396200</v>
       </c>
       <c r="F102" s="3">
-        <v>-131100</v>
+        <v>-132300</v>
       </c>
       <c r="G102" s="3">
-        <v>157900</v>
+        <v>159400</v>
       </c>
       <c r="H102" s="3">
-        <v>-91200</v>
+        <v>-92100</v>
       </c>
       <c r="I102" s="3">
         <v>-3100</v>
       </c>
       <c r="J102" s="3">
-        <v>77400</v>
+        <v>78100</v>
       </c>
       <c r="K102" s="3">
         <v>-127200</v>

--- a/AAII_Financials/Yearly/CNI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CNI_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11201600</v>
+        <v>10870200</v>
       </c>
       <c r="E8" s="3">
-        <v>10692500</v>
+        <v>10376100</v>
       </c>
       <c r="F8" s="3">
-        <v>11542000</v>
+        <v>11200600</v>
       </c>
       <c r="G8" s="3">
-        <v>11080900</v>
+        <v>10753100</v>
       </c>
       <c r="H8" s="3">
-        <v>10090500</v>
+        <v>9792000</v>
       </c>
       <c r="I8" s="3">
-        <v>9313600</v>
+        <v>9038100</v>
       </c>
       <c r="J8" s="3">
-        <v>9757800</v>
+        <v>9469100</v>
       </c>
       <c r="K8" s="3">
         <v>9525800</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2781600</v>
+        <v>2699300</v>
       </c>
       <c r="E9" s="3">
-        <v>2556500</v>
+        <v>2480800</v>
       </c>
       <c r="F9" s="3">
-        <v>3020700</v>
+        <v>2931400</v>
       </c>
       <c r="G9" s="3">
-        <v>2865200</v>
+        <v>2780400</v>
       </c>
       <c r="H9" s="3">
-        <v>2422600</v>
+        <v>2350900</v>
       </c>
       <c r="I9" s="3">
-        <v>2045000</v>
+        <v>1984500</v>
       </c>
       <c r="J9" s="3">
-        <v>2332100</v>
+        <v>2263100</v>
       </c>
       <c r="K9" s="3">
         <v>2703700</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8419900</v>
+        <v>8170900</v>
       </c>
       <c r="E10" s="3">
-        <v>8136000</v>
+        <v>7895300</v>
       </c>
       <c r="F10" s="3">
-        <v>8521300</v>
+        <v>8269200</v>
       </c>
       <c r="G10" s="3">
-        <v>8215700</v>
+        <v>7972600</v>
       </c>
       <c r="H10" s="3">
-        <v>7667900</v>
+        <v>7441000</v>
       </c>
       <c r="I10" s="3">
-        <v>7268600</v>
+        <v>7053600</v>
       </c>
       <c r="J10" s="3">
-        <v>7425700</v>
+        <v>7206000</v>
       </c>
       <c r="K10" s="3">
         <v>6822100</v>
@@ -935,7 +935,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-620500</v>
+        <v>-602200</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1236500</v>
+        <v>1199900</v>
       </c>
       <c r="E15" s="3">
-        <v>1229500</v>
+        <v>1193100</v>
       </c>
       <c r="F15" s="3">
-        <v>1208600</v>
+        <v>1172800</v>
       </c>
       <c r="G15" s="3">
-        <v>1028300</v>
+        <v>997900</v>
       </c>
       <c r="H15" s="3">
-        <v>991200</v>
+        <v>961900</v>
       </c>
       <c r="I15" s="3">
-        <v>947800</v>
+        <v>919800</v>
       </c>
       <c r="J15" s="3">
-        <v>896000</v>
+        <v>869500</v>
       </c>
       <c r="K15" s="3">
         <v>824300</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6170700</v>
+        <v>5988100</v>
       </c>
       <c r="E17" s="3">
-        <v>6996200</v>
+        <v>6789300</v>
       </c>
       <c r="F17" s="3">
-        <v>7214400</v>
+        <v>7001000</v>
       </c>
       <c r="G17" s="3">
-        <v>6830700</v>
+        <v>6628600</v>
       </c>
       <c r="H17" s="3">
-        <v>6033700</v>
+        <v>5855200</v>
       </c>
       <c r="I17" s="3">
-        <v>5420100</v>
+        <v>5259800</v>
       </c>
       <c r="J17" s="3">
-        <v>5683200</v>
+        <v>5515100</v>
       </c>
       <c r="K17" s="3">
         <v>5895700</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5030900</v>
+        <v>4882100</v>
       </c>
       <c r="E18" s="3">
-        <v>3696200</v>
+        <v>3586900</v>
       </c>
       <c r="F18" s="3">
-        <v>4327600</v>
+        <v>4199600</v>
       </c>
       <c r="G18" s="3">
-        <v>4250200</v>
+        <v>4124500</v>
       </c>
       <c r="H18" s="3">
-        <v>4056800</v>
+        <v>3936800</v>
       </c>
       <c r="I18" s="3">
-        <v>3893500</v>
+        <v>3778300</v>
       </c>
       <c r="J18" s="3">
-        <v>4074600</v>
+        <v>3954000</v>
       </c>
       <c r="K18" s="3">
         <v>3630100</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>341200</v>
+        <v>331100</v>
       </c>
       <c r="E20" s="3">
-        <v>248400</v>
+        <v>241000</v>
       </c>
       <c r="F20" s="3">
-        <v>289400</v>
+        <v>280800</v>
       </c>
       <c r="G20" s="3">
-        <v>524600</v>
+        <v>509100</v>
       </c>
       <c r="H20" s="3">
-        <v>253000</v>
+        <v>245500</v>
       </c>
       <c r="I20" s="3">
-        <v>290200</v>
+        <v>281600</v>
       </c>
       <c r="J20" s="3">
-        <v>36400</v>
+        <v>35300</v>
       </c>
       <c r="K20" s="3">
         <v>84000</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6604700</v>
+        <v>6394700</v>
       </c>
       <c r="E21" s="3">
-        <v>5170200</v>
+        <v>5002700</v>
       </c>
       <c r="F21" s="3">
-        <v>5821800</v>
+        <v>5635200</v>
       </c>
       <c r="G21" s="3">
-        <v>5799900</v>
+        <v>5616100</v>
       </c>
       <c r="H21" s="3">
-        <v>5297800</v>
+        <v>5129400</v>
       </c>
       <c r="I21" s="3">
-        <v>5128500</v>
+        <v>4965600</v>
       </c>
       <c r="J21" s="3">
-        <v>5004100</v>
+        <v>4845500</v>
       </c>
       <c r="K21" s="3">
         <v>4535300</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>472000</v>
+        <v>458000</v>
       </c>
       <c r="E22" s="3">
-        <v>428700</v>
+        <v>416000</v>
       </c>
       <c r="F22" s="3">
-        <v>416300</v>
+        <v>404000</v>
       </c>
       <c r="G22" s="3">
-        <v>378400</v>
+        <v>367200</v>
       </c>
       <c r="H22" s="3">
-        <v>372200</v>
+        <v>361200</v>
       </c>
       <c r="I22" s="3">
-        <v>371400</v>
+        <v>360400</v>
       </c>
       <c r="J22" s="3">
-        <v>339700</v>
+        <v>329600</v>
       </c>
       <c r="K22" s="3">
         <v>291300</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4900200</v>
+        <v>4755200</v>
       </c>
       <c r="E23" s="3">
-        <v>3515900</v>
+        <v>3411900</v>
       </c>
       <c r="F23" s="3">
-        <v>4200700</v>
+        <v>4076400</v>
       </c>
       <c r="G23" s="3">
-        <v>4396400</v>
+        <v>4266400</v>
       </c>
       <c r="H23" s="3">
-        <v>3937600</v>
+        <v>3821100</v>
       </c>
       <c r="I23" s="3">
-        <v>3812300</v>
+        <v>3699500</v>
       </c>
       <c r="J23" s="3">
-        <v>3771300</v>
+        <v>3659700</v>
       </c>
       <c r="K23" s="3">
         <v>3422800</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1115000</v>
+        <v>1082000</v>
       </c>
       <c r="E24" s="3">
-        <v>868900</v>
+        <v>843200</v>
       </c>
       <c r="F24" s="3">
-        <v>938600</v>
+        <v>910800</v>
       </c>
       <c r="G24" s="3">
-        <v>1047700</v>
+        <v>1016700</v>
       </c>
       <c r="H24" s="3">
-        <v>-1670500</v>
+        <v>-1621100</v>
       </c>
       <c r="I24" s="3">
-        <v>995800</v>
+        <v>966400</v>
       </c>
       <c r="J24" s="3">
-        <v>1033700</v>
+        <v>1003100</v>
       </c>
       <c r="K24" s="3">
         <v>936600</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3785200</v>
+        <v>3673200</v>
       </c>
       <c r="E26" s="3">
-        <v>2647000</v>
+        <v>2568700</v>
       </c>
       <c r="F26" s="3">
-        <v>3262100</v>
+        <v>3165600</v>
       </c>
       <c r="G26" s="3">
-        <v>3348800</v>
+        <v>3249700</v>
       </c>
       <c r="H26" s="3">
-        <v>5608100</v>
+        <v>5442200</v>
       </c>
       <c r="I26" s="3">
-        <v>2816500</v>
+        <v>2733100</v>
       </c>
       <c r="J26" s="3">
-        <v>2737500</v>
+        <v>2656500</v>
       </c>
       <c r="K26" s="3">
         <v>2486300</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3785200</v>
+        <v>3673200</v>
       </c>
       <c r="E27" s="3">
-        <v>2647000</v>
+        <v>2568700</v>
       </c>
       <c r="F27" s="3">
-        <v>3262100</v>
+        <v>3165600</v>
       </c>
       <c r="G27" s="3">
-        <v>3348800</v>
+        <v>3249700</v>
       </c>
       <c r="H27" s="3">
-        <v>5608100</v>
+        <v>5442200</v>
       </c>
       <c r="I27" s="3">
-        <v>2816500</v>
+        <v>2733100</v>
       </c>
       <c r="J27" s="3">
-        <v>2737500</v>
+        <v>2656500</v>
       </c>
       <c r="K27" s="3">
         <v>2486300</v>
@@ -1476,7 +1476,7 @@
         <v>8</v>
       </c>
       <c r="E29" s="3">
-        <v>109100</v>
+        <v>105900</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -1485,7 +1485,7 @@
         <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>-1364900</v>
+        <v>-1324500</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-341200</v>
+        <v>-331100</v>
       </c>
       <c r="E32" s="3">
-        <v>-248400</v>
+        <v>-241000</v>
       </c>
       <c r="F32" s="3">
-        <v>-289400</v>
+        <v>-280800</v>
       </c>
       <c r="G32" s="3">
-        <v>-524600</v>
+        <v>-509100</v>
       </c>
       <c r="H32" s="3">
-        <v>-253000</v>
+        <v>-245500</v>
       </c>
       <c r="I32" s="3">
-        <v>-290200</v>
+        <v>-281600</v>
       </c>
       <c r="J32" s="3">
-        <v>-36400</v>
+        <v>-35300</v>
       </c>
       <c r="K32" s="3">
         <v>-84000</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3785200</v>
+        <v>3673200</v>
       </c>
       <c r="E33" s="3">
-        <v>2756100</v>
+        <v>2674600</v>
       </c>
       <c r="F33" s="3">
-        <v>3262100</v>
+        <v>3165600</v>
       </c>
       <c r="G33" s="3">
-        <v>3348800</v>
+        <v>3249700</v>
       </c>
       <c r="H33" s="3">
-        <v>4243200</v>
+        <v>4117700</v>
       </c>
       <c r="I33" s="3">
-        <v>2816500</v>
+        <v>2733100</v>
       </c>
       <c r="J33" s="3">
-        <v>2737500</v>
+        <v>2656500</v>
       </c>
       <c r="K33" s="3">
         <v>2486300</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3785200</v>
+        <v>3673200</v>
       </c>
       <c r="E35" s="3">
-        <v>2756100</v>
+        <v>2674600</v>
       </c>
       <c r="F35" s="3">
-        <v>3262100</v>
+        <v>3165600</v>
       </c>
       <c r="G35" s="3">
-        <v>3348800</v>
+        <v>3249700</v>
       </c>
       <c r="H35" s="3">
-        <v>4243200</v>
+        <v>4117700</v>
       </c>
       <c r="I35" s="3">
-        <v>2816500</v>
+        <v>2733100</v>
       </c>
       <c r="J35" s="3">
-        <v>2737500</v>
+        <v>2656500</v>
       </c>
       <c r="K35" s="3">
         <v>2486300</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>648400</v>
+        <v>629200</v>
       </c>
       <c r="E41" s="3">
-        <v>440300</v>
+        <v>427200</v>
       </c>
       <c r="F41" s="3">
-        <v>49500</v>
+        <v>48100</v>
       </c>
       <c r="G41" s="3">
-        <v>205800</v>
+        <v>199700</v>
       </c>
       <c r="H41" s="3">
-        <v>54200</v>
+        <v>52600</v>
       </c>
       <c r="I41" s="3">
-        <v>136200</v>
+        <v>132200</v>
       </c>
       <c r="J41" s="3">
-        <v>118400</v>
+        <v>114900</v>
       </c>
       <c r="K41" s="3">
         <v>40800</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>831000</v>
+        <v>806400</v>
       </c>
       <c r="E43" s="3">
-        <v>881300</v>
+        <v>855200</v>
       </c>
       <c r="F43" s="3">
-        <v>938600</v>
+        <v>910800</v>
       </c>
       <c r="G43" s="3">
-        <v>904500</v>
+        <v>877800</v>
       </c>
       <c r="H43" s="3">
-        <v>761400</v>
+        <v>738800</v>
       </c>
       <c r="I43" s="3">
-        <v>677000</v>
+        <v>657000</v>
       </c>
       <c r="J43" s="3">
-        <v>679400</v>
+        <v>659300</v>
       </c>
       <c r="K43" s="3">
         <v>728500</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>455700</v>
+        <v>442300</v>
       </c>
       <c r="E44" s="3">
-        <v>451100</v>
+        <v>437800</v>
       </c>
       <c r="F44" s="3">
-        <v>472800</v>
+        <v>458800</v>
       </c>
       <c r="G44" s="3">
-        <v>431000</v>
+        <v>418200</v>
       </c>
       <c r="H44" s="3">
-        <v>328100</v>
+        <v>318400</v>
       </c>
       <c r="I44" s="3">
-        <v>274700</v>
+        <v>266600</v>
       </c>
       <c r="J44" s="3">
-        <v>274700</v>
+        <v>266600</v>
       </c>
       <c r="K44" s="3">
         <v>263000</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>715700</v>
+        <v>694500</v>
       </c>
       <c r="E45" s="3">
-        <v>627500</v>
+        <v>608900</v>
       </c>
       <c r="F45" s="3">
-        <v>728900</v>
+        <v>707300</v>
       </c>
       <c r="G45" s="3">
-        <v>569500</v>
+        <v>552600</v>
       </c>
       <c r="H45" s="3">
-        <v>550900</v>
+        <v>534600</v>
       </c>
       <c r="I45" s="3">
-        <v>542400</v>
+        <v>526400</v>
       </c>
       <c r="J45" s="3">
-        <v>593500</v>
+        <v>575900</v>
       </c>
       <c r="K45" s="3">
         <v>660200</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2650900</v>
+        <v>2572400</v>
       </c>
       <c r="E46" s="3">
-        <v>2400200</v>
+        <v>2329200</v>
       </c>
       <c r="F46" s="3">
-        <v>2189700</v>
+        <v>2124900</v>
       </c>
       <c r="G46" s="3">
-        <v>2110800</v>
+        <v>2048300</v>
       </c>
       <c r="H46" s="3">
-        <v>1694500</v>
+        <v>1644400</v>
       </c>
       <c r="I46" s="3">
-        <v>1630300</v>
+        <v>1582100</v>
       </c>
       <c r="J46" s="3">
-        <v>1665900</v>
+        <v>1616600</v>
       </c>
       <c r="K46" s="3">
         <v>1564600</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>116800</v>
+        <v>113400</v>
       </c>
       <c r="E47" s="3">
-        <v>92900</v>
+        <v>90100</v>
       </c>
       <c r="F47" s="3">
-        <v>89000</v>
+        <v>86300</v>
       </c>
       <c r="G47" s="3">
+        <v>72100</v>
+      </c>
+      <c r="H47" s="3">
         <v>74300</v>
       </c>
-      <c r="H47" s="3">
-        <v>76600</v>
-      </c>
       <c r="I47" s="3">
-        <v>78100</v>
+        <v>75800</v>
       </c>
       <c r="J47" s="3">
-        <v>164800</v>
+        <v>159900</v>
       </c>
       <c r="K47" s="3">
         <v>156200</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>32205800</v>
+        <v>31253000</v>
       </c>
       <c r="E48" s="3">
-        <v>31340000</v>
+        <v>30412800</v>
       </c>
       <c r="F48" s="3">
-        <v>31096200</v>
+        <v>30176300</v>
       </c>
       <c r="G48" s="3">
-        <v>29226900</v>
+        <v>28362200</v>
       </c>
       <c r="H48" s="3">
-        <v>26453700</v>
+        <v>25671200</v>
       </c>
       <c r="I48" s="3">
-        <v>26117900</v>
+        <v>25345300</v>
       </c>
       <c r="J48" s="3">
-        <v>25242800</v>
+        <v>24496100</v>
       </c>
       <c r="K48" s="3">
         <v>22384900</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>161700</v>
+        <v>156900</v>
       </c>
       <c r="E49" s="3">
-        <v>166400</v>
+        <v>161400</v>
       </c>
       <c r="F49" s="3">
-        <v>177200</v>
+        <v>171900</v>
       </c>
       <c r="G49" s="3">
-        <v>56500</v>
+        <v>54800</v>
       </c>
       <c r="H49" s="3">
-        <v>48000</v>
+        <v>46600</v>
       </c>
       <c r="I49" s="3">
-        <v>51800</v>
+        <v>50300</v>
       </c>
       <c r="J49" s="3">
-        <v>54900</v>
+        <v>53300</v>
       </c>
       <c r="K49" s="3">
         <v>48700</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2421100</v>
+        <v>2349400</v>
       </c>
       <c r="E52" s="3">
-        <v>667700</v>
+        <v>648000</v>
       </c>
       <c r="F52" s="3">
-        <v>325700</v>
+        <v>316100</v>
       </c>
       <c r="G52" s="3">
-        <v>420900</v>
+        <v>408500</v>
       </c>
       <c r="H52" s="3">
-        <v>842600</v>
+        <v>817700</v>
       </c>
       <c r="I52" s="3">
-        <v>794600</v>
+        <v>771100</v>
       </c>
       <c r="J52" s="3">
-        <v>1037600</v>
+        <v>1006900</v>
       </c>
       <c r="K52" s="3">
         <v>721500</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>37556300</v>
+        <v>36445200</v>
       </c>
       <c r="E54" s="3">
-        <v>34667100</v>
+        <v>33641500</v>
       </c>
       <c r="F54" s="3">
-        <v>33877900</v>
+        <v>32875700</v>
       </c>
       <c r="G54" s="3">
-        <v>31889300</v>
+        <v>30945900</v>
       </c>
       <c r="H54" s="3">
-        <v>29115400</v>
+        <v>28254100</v>
       </c>
       <c r="I54" s="3">
-        <v>28672900</v>
+        <v>27824600</v>
       </c>
       <c r="J54" s="3">
-        <v>28166000</v>
+        <v>27332800</v>
       </c>
       <c r="K54" s="3">
         <v>24875900</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>698700</v>
+        <v>678000</v>
       </c>
       <c r="E57" s="3">
-        <v>603500</v>
+        <v>585700</v>
       </c>
       <c r="F57" s="3">
-        <v>670100</v>
+        <v>650200</v>
       </c>
       <c r="G57" s="3">
-        <v>759800</v>
+        <v>737300</v>
       </c>
       <c r="H57" s="3">
-        <v>1457700</v>
+        <v>1414600</v>
       </c>
       <c r="I57" s="3">
-        <v>1174600</v>
+        <v>1139800</v>
       </c>
       <c r="J57" s="3">
-        <v>1202400</v>
+        <v>1166800</v>
       </c>
       <c r="K57" s="3">
         <v>1300800</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>393100</v>
+        <v>381400</v>
       </c>
       <c r="E58" s="3">
-        <v>704100</v>
+        <v>683300</v>
       </c>
       <c r="F58" s="3">
-        <v>1493300</v>
+        <v>1449200</v>
       </c>
       <c r="G58" s="3">
-        <v>916100</v>
+        <v>889000</v>
       </c>
       <c r="H58" s="3">
-        <v>1609400</v>
+        <v>1561800</v>
       </c>
       <c r="I58" s="3">
-        <v>1152100</v>
+        <v>1118000</v>
       </c>
       <c r="J58" s="3">
-        <v>1115700</v>
+        <v>1082700</v>
       </c>
       <c r="K58" s="3">
         <v>427100</v>
@@ -2482,19 +2482,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1322300</v>
+        <v>1283200</v>
       </c>
       <c r="E59" s="3">
-        <v>1225600</v>
+        <v>1189400</v>
       </c>
       <c r="F59" s="3">
-        <v>1153700</v>
+        <v>1119500</v>
       </c>
       <c r="G59" s="3">
-        <v>1032200</v>
+        <v>1001600</v>
       </c>
       <c r="H59" s="3">
-        <v>14700</v>
+        <v>14300</v>
       </c>
       <c r="I59" s="3">
         <v>800</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2414100</v>
+        <v>2342700</v>
       </c>
       <c r="E60" s="3">
-        <v>2533300</v>
+        <v>2458300</v>
       </c>
       <c r="F60" s="3">
-        <v>3317100</v>
+        <v>3218900</v>
       </c>
       <c r="G60" s="3">
-        <v>2708100</v>
+        <v>2628000</v>
       </c>
       <c r="H60" s="3">
-        <v>3081800</v>
+        <v>2990700</v>
       </c>
       <c r="I60" s="3">
-        <v>2327400</v>
+        <v>2258600</v>
       </c>
       <c r="J60" s="3">
-        <v>2319700</v>
+        <v>2251100</v>
       </c>
       <c r="K60" s="3">
         <v>1727900</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9267200</v>
+        <v>8993100</v>
       </c>
       <c r="E61" s="3">
-        <v>9281900</v>
+        <v>9007300</v>
       </c>
       <c r="F61" s="3">
-        <v>9181300</v>
+        <v>8909700</v>
       </c>
       <c r="G61" s="3">
-        <v>8809100</v>
+        <v>8548500</v>
       </c>
       <c r="H61" s="3">
-        <v>6768800</v>
+        <v>6568500</v>
       </c>
       <c r="I61" s="3">
-        <v>7310400</v>
+        <v>7094100</v>
       </c>
       <c r="J61" s="3">
-        <v>6952100</v>
+        <v>6746500</v>
       </c>
       <c r="K61" s="3">
         <v>6145400</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8276800</v>
+        <v>8031900</v>
       </c>
       <c r="E62" s="3">
-        <v>7647000</v>
+        <v>7420700</v>
       </c>
       <c r="F62" s="3">
-        <v>7420300</v>
+        <v>7200700</v>
       </c>
       <c r="G62" s="3">
-        <v>6722300</v>
+        <v>6523500</v>
       </c>
       <c r="H62" s="3">
-        <v>6377200</v>
+        <v>6188600</v>
       </c>
       <c r="I62" s="3">
-        <v>7551800</v>
+        <v>7328400</v>
       </c>
       <c r="J62" s="3">
-        <v>7326600</v>
+        <v>7109900</v>
       </c>
       <c r="K62" s="3">
         <v>6428000</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19958100</v>
+        <v>19367700</v>
       </c>
       <c r="E66" s="3">
-        <v>19462100</v>
+        <v>18886400</v>
       </c>
       <c r="F66" s="3">
-        <v>19918600</v>
+        <v>19329400</v>
       </c>
       <c r="G66" s="3">
-        <v>18239600</v>
+        <v>17700000</v>
       </c>
       <c r="H66" s="3">
-        <v>16227900</v>
+        <v>15747800</v>
       </c>
       <c r="I66" s="3">
-        <v>17189600</v>
+        <v>16681100</v>
       </c>
       <c r="J66" s="3">
-        <v>16598500</v>
+        <v>16107400</v>
       </c>
       <c r="K66" s="3">
         <v>14301300</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>16048300</v>
+        <v>15573600</v>
       </c>
       <c r="E72" s="3">
-        <v>14825800</v>
+        <v>14387200</v>
       </c>
       <c r="F72" s="3">
-        <v>13644300</v>
+        <v>13240700</v>
       </c>
       <c r="G72" s="3">
-        <v>12862000</v>
+        <v>12481500</v>
       </c>
       <c r="H72" s="3">
-        <v>12059700</v>
+        <v>11702900</v>
       </c>
       <c r="I72" s="3">
-        <v>10246000</v>
+        <v>9942900</v>
       </c>
       <c r="J72" s="3">
-        <v>9777900</v>
+        <v>9488600</v>
       </c>
       <c r="K72" s="3">
         <v>9216500</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>17598200</v>
+        <v>17077600</v>
       </c>
       <c r="E76" s="3">
-        <v>15205000</v>
+        <v>14755100</v>
       </c>
       <c r="F76" s="3">
-        <v>13959200</v>
+        <v>13546300</v>
       </c>
       <c r="G76" s="3">
-        <v>13649700</v>
+        <v>13245900</v>
       </c>
       <c r="H76" s="3">
-        <v>12887600</v>
+        <v>12506300</v>
       </c>
       <c r="I76" s="3">
-        <v>11483200</v>
+        <v>11143500</v>
       </c>
       <c r="J76" s="3">
-        <v>11567600</v>
+        <v>11225400</v>
       </c>
       <c r="K76" s="3">
         <v>10574600</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3785200</v>
+        <v>3673200</v>
       </c>
       <c r="E81" s="3">
-        <v>2756100</v>
+        <v>2674600</v>
       </c>
       <c r="F81" s="3">
-        <v>3262100</v>
+        <v>3165600</v>
       </c>
       <c r="G81" s="3">
-        <v>3348800</v>
+        <v>3249700</v>
       </c>
       <c r="H81" s="3">
-        <v>4243200</v>
+        <v>4117700</v>
       </c>
       <c r="I81" s="3">
-        <v>2816500</v>
+        <v>2733100</v>
       </c>
       <c r="J81" s="3">
-        <v>2737500</v>
+        <v>2656500</v>
       </c>
       <c r="K81" s="3">
         <v>2486300</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1236500</v>
+        <v>1199900</v>
       </c>
       <c r="E83" s="3">
-        <v>1229500</v>
+        <v>1193100</v>
       </c>
       <c r="F83" s="3">
-        <v>1208600</v>
+        <v>1172800</v>
       </c>
       <c r="G83" s="3">
-        <v>1028300</v>
+        <v>997900</v>
       </c>
       <c r="H83" s="3">
-        <v>991200</v>
+        <v>961900</v>
       </c>
       <c r="I83" s="3">
-        <v>947800</v>
+        <v>919800</v>
       </c>
       <c r="J83" s="3">
-        <v>896000</v>
+        <v>869500</v>
       </c>
       <c r="K83" s="3">
         <v>824300</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5393800</v>
+        <v>5234200</v>
       </c>
       <c r="E89" s="3">
-        <v>4770200</v>
+        <v>4629100</v>
       </c>
       <c r="F89" s="3">
-        <v>4582900</v>
+        <v>4447300</v>
       </c>
       <c r="G89" s="3">
-        <v>4579100</v>
+        <v>4443600</v>
       </c>
       <c r="H89" s="3">
-        <v>4268000</v>
+        <v>4141700</v>
       </c>
       <c r="I89" s="3">
-        <v>4025000</v>
+        <v>3906000</v>
       </c>
       <c r="J89" s="3">
-        <v>3977100</v>
+        <v>3859400</v>
       </c>
       <c r="K89" s="3">
         <v>3439300</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2236900</v>
+        <v>-2170700</v>
       </c>
       <c r="E91" s="3">
-        <v>-2215200</v>
+        <v>-2149700</v>
       </c>
       <c r="F91" s="3">
-        <v>-2990500</v>
+        <v>-2902100</v>
       </c>
       <c r="G91" s="3">
-        <v>-2732100</v>
+        <v>-2651300</v>
       </c>
       <c r="H91" s="3">
-        <v>-2068200</v>
+        <v>-2007000</v>
       </c>
       <c r="I91" s="3">
-        <v>-2085300</v>
+        <v>-2023600</v>
       </c>
       <c r="J91" s="3">
-        <v>-2093800</v>
+        <v>-2031800</v>
       </c>
       <c r="K91" s="3">
         <v>-1803300</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2223000</v>
+        <v>-2157200</v>
       </c>
       <c r="E94" s="3">
-        <v>-2279500</v>
+        <v>-2212000</v>
       </c>
       <c r="F94" s="3">
-        <v>-3242000</v>
+        <v>-3146100</v>
       </c>
       <c r="G94" s="3">
-        <v>-2633800</v>
+        <v>-2555900</v>
       </c>
       <c r="H94" s="3">
-        <v>-2118500</v>
+        <v>-2055900</v>
       </c>
       <c r="I94" s="3">
-        <v>-2075200</v>
+        <v>-2013800</v>
       </c>
       <c r="J94" s="3">
-        <v>-2187400</v>
+        <v>-2122700</v>
       </c>
       <c r="K94" s="3">
         <v>-1708300</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1346300</v>
+        <v>-1306500</v>
       </c>
       <c r="E96" s="3">
-        <v>-1264300</v>
+        <v>-1226900</v>
       </c>
       <c r="F96" s="3">
-        <v>-1194700</v>
+        <v>-1159300</v>
       </c>
       <c r="G96" s="3">
-        <v>-1031400</v>
+        <v>-1000900</v>
       </c>
       <c r="H96" s="3">
-        <v>-958700</v>
+        <v>-930300</v>
       </c>
       <c r="I96" s="3">
-        <v>-896800</v>
+        <v>-870200</v>
       </c>
       <c r="J96" s="3">
-        <v>-770700</v>
+        <v>-747900</v>
       </c>
       <c r="K96" s="3">
         <v>-642200</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2984400</v>
+        <v>-2896100</v>
       </c>
       <c r="E100" s="3">
-        <v>-2094500</v>
+        <v>-2032600</v>
       </c>
       <c r="F100" s="3">
-        <v>-1472400</v>
+        <v>-1428900</v>
       </c>
       <c r="G100" s="3">
-        <v>-1785800</v>
+        <v>-1733000</v>
       </c>
       <c r="H100" s="3">
-        <v>-2240000</v>
+        <v>-2173700</v>
       </c>
       <c r="I100" s="3">
-        <v>-1964600</v>
+        <v>-1906400</v>
       </c>
       <c r="J100" s="3">
-        <v>-1720000</v>
+        <v>-1669200</v>
       </c>
       <c r="K100" s="3">
         <v>-1860600</v>
@@ -3974,10 +3974,10 @@
         <v>-1500</v>
       </c>
       <c r="I101" s="3">
-        <v>11600</v>
+        <v>11300</v>
       </c>
       <c r="J101" s="3">
-        <v>8500</v>
+        <v>8300</v>
       </c>
       <c r="K101" s="3">
         <v>2400</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>186500</v>
+        <v>181000</v>
       </c>
       <c r="E102" s="3">
-        <v>396200</v>
+        <v>384400</v>
       </c>
       <c r="F102" s="3">
-        <v>-132300</v>
+        <v>-128400</v>
       </c>
       <c r="G102" s="3">
-        <v>159400</v>
+        <v>154700</v>
       </c>
       <c r="H102" s="3">
-        <v>-92100</v>
+        <v>-89400</v>
       </c>
       <c r="I102" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="J102" s="3">
-        <v>78100</v>
+        <v>75800</v>
       </c>
       <c r="K102" s="3">
         <v>-127200</v>

--- a/AAII_Financials/Yearly/CNI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CNI_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>CNI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10870200</v>
+        <v>12372100</v>
       </c>
       <c r="E8" s="3">
-        <v>10376100</v>
+        <v>10470100</v>
       </c>
       <c r="F8" s="3">
-        <v>11200600</v>
+        <v>9994200</v>
       </c>
       <c r="G8" s="3">
-        <v>10753100</v>
+        <v>10788300</v>
       </c>
       <c r="H8" s="3">
-        <v>9792000</v>
+        <v>10357200</v>
       </c>
       <c r="I8" s="3">
-        <v>9038100</v>
+        <v>9431500</v>
       </c>
       <c r="J8" s="3">
+        <v>8705400</v>
+      </c>
+      <c r="K8" s="3">
         <v>9469100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9525800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8140800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7382600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6935600</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2699300</v>
+        <v>3405600</v>
       </c>
       <c r="E9" s="3">
-        <v>2480800</v>
+        <v>2600000</v>
       </c>
       <c r="F9" s="3">
-        <v>2931400</v>
+        <v>2389500</v>
       </c>
       <c r="G9" s="3">
-        <v>2780400</v>
+        <v>2823500</v>
       </c>
       <c r="H9" s="3">
-        <v>2350900</v>
+        <v>2678100</v>
       </c>
       <c r="I9" s="3">
-        <v>1984500</v>
+        <v>2264400</v>
       </c>
       <c r="J9" s="3">
+        <v>1911500</v>
+      </c>
+      <c r="K9" s="3">
         <v>2263100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2703700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2286400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2063000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1945200</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8170900</v>
+        <v>8966500</v>
       </c>
       <c r="E10" s="3">
-        <v>7895300</v>
+        <v>7870100</v>
       </c>
       <c r="F10" s="3">
-        <v>8269200</v>
+        <v>7604700</v>
       </c>
       <c r="G10" s="3">
-        <v>7972600</v>
+        <v>7964800</v>
       </c>
       <c r="H10" s="3">
-        <v>7441000</v>
+        <v>7679100</v>
       </c>
       <c r="I10" s="3">
-        <v>7053600</v>
+        <v>7167100</v>
       </c>
       <c r="J10" s="3">
+        <v>6793900</v>
+      </c>
+      <c r="K10" s="3">
         <v>7206000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6822100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5854500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5319600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4990400</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -889,9 +902,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,17 +944,20 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-602200</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-580000</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -955,8 +974,8 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -967,48 +986,54 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1199900</v>
+        <v>1250400</v>
       </c>
       <c r="E15" s="3">
-        <v>1193100</v>
+        <v>1155700</v>
       </c>
       <c r="F15" s="3">
-        <v>1172800</v>
+        <v>1149200</v>
       </c>
       <c r="G15" s="3">
-        <v>997900</v>
+        <v>1129700</v>
       </c>
       <c r="H15" s="3">
-        <v>961900</v>
+        <v>961200</v>
       </c>
       <c r="I15" s="3">
-        <v>919800</v>
+        <v>926400</v>
       </c>
       <c r="J15" s="3">
+        <v>885900</v>
+      </c>
+      <c r="K15" s="3">
         <v>869500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>824300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>754400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>687700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>679100</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5988100</v>
+        <v>7425300</v>
       </c>
       <c r="E17" s="3">
-        <v>6789300</v>
+        <v>5767700</v>
       </c>
       <c r="F17" s="3">
-        <v>7001000</v>
+        <v>6539400</v>
       </c>
       <c r="G17" s="3">
-        <v>6628600</v>
+        <v>6743300</v>
       </c>
       <c r="H17" s="3">
-        <v>5855200</v>
+        <v>6384600</v>
       </c>
       <c r="I17" s="3">
-        <v>5259800</v>
+        <v>5639700</v>
       </c>
       <c r="J17" s="3">
+        <v>5066200</v>
+      </c>
+      <c r="K17" s="3">
         <v>5515100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5895700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5159300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4640100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4403500</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4882100</v>
+        <v>4946800</v>
       </c>
       <c r="E18" s="3">
-        <v>3586900</v>
+        <v>4702400</v>
       </c>
       <c r="F18" s="3">
-        <v>4199600</v>
+        <v>3454800</v>
       </c>
       <c r="G18" s="3">
-        <v>4124500</v>
+        <v>4045000</v>
       </c>
       <c r="H18" s="3">
-        <v>3936800</v>
+        <v>3972600</v>
       </c>
       <c r="I18" s="3">
-        <v>3778300</v>
+        <v>3791800</v>
       </c>
       <c r="J18" s="3">
+        <v>3639200</v>
+      </c>
+      <c r="K18" s="3">
         <v>3954000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3630100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2981500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2742400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2532100</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,203 +1148,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>331100</v>
+        <v>340600</v>
       </c>
       <c r="E20" s="3">
-        <v>241000</v>
+        <v>318900</v>
       </c>
       <c r="F20" s="3">
-        <v>280800</v>
+        <v>232200</v>
       </c>
       <c r="G20" s="3">
-        <v>509100</v>
+        <v>270500</v>
       </c>
       <c r="H20" s="3">
-        <v>245500</v>
+        <v>490300</v>
       </c>
       <c r="I20" s="3">
-        <v>281600</v>
+        <v>236500</v>
       </c>
       <c r="J20" s="3">
+        <v>271200</v>
+      </c>
+      <c r="K20" s="3">
         <v>35300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>84000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>56200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>234400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>308100</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6394700</v>
+        <v>6540000</v>
       </c>
       <c r="E21" s="3">
-        <v>5002700</v>
+        <v>6179000</v>
       </c>
       <c r="F21" s="3">
-        <v>5635200</v>
+        <v>4838100</v>
       </c>
       <c r="G21" s="3">
-        <v>5616100</v>
+        <v>5447000</v>
       </c>
       <c r="H21" s="3">
-        <v>5129400</v>
+        <v>5425800</v>
       </c>
       <c r="I21" s="3">
-        <v>4965600</v>
+        <v>4956300</v>
       </c>
       <c r="J21" s="3">
+        <v>4797900</v>
+      </c>
+      <c r="K21" s="3">
         <v>4845500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4535300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3790800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3665900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3522500</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>458000</v>
+        <v>396300</v>
       </c>
       <c r="E22" s="3">
-        <v>416000</v>
+        <v>441200</v>
       </c>
       <c r="F22" s="3">
-        <v>404000</v>
+        <v>400700</v>
       </c>
       <c r="G22" s="3">
-        <v>367200</v>
+        <v>389100</v>
       </c>
       <c r="H22" s="3">
-        <v>361200</v>
+        <v>353700</v>
       </c>
       <c r="I22" s="3">
-        <v>360400</v>
+        <v>347900</v>
       </c>
       <c r="J22" s="3">
+        <v>347100</v>
+      </c>
+      <c r="K22" s="3">
         <v>329600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>291300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>274800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>254500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>262000</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4755200</v>
+        <v>4891100</v>
       </c>
       <c r="E23" s="3">
-        <v>3411900</v>
+        <v>4580200</v>
       </c>
       <c r="F23" s="3">
-        <v>4076400</v>
+        <v>3286300</v>
       </c>
       <c r="G23" s="3">
-        <v>4266400</v>
+        <v>3926400</v>
       </c>
       <c r="H23" s="3">
-        <v>3821100</v>
+        <v>4109300</v>
       </c>
       <c r="I23" s="3">
-        <v>3699500</v>
+        <v>3680500</v>
       </c>
       <c r="J23" s="3">
+        <v>3563300</v>
+      </c>
+      <c r="K23" s="3">
         <v>3659700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3422800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2762900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2722300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2578200</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1082000</v>
+        <v>1189700</v>
       </c>
       <c r="E24" s="3">
-        <v>843200</v>
+        <v>1042200</v>
       </c>
       <c r="F24" s="3">
-        <v>910800</v>
+        <v>812200</v>
       </c>
       <c r="G24" s="3">
-        <v>1016700</v>
+        <v>877300</v>
       </c>
       <c r="H24" s="3">
-        <v>-1621100</v>
+        <v>979200</v>
       </c>
       <c r="I24" s="3">
-        <v>966400</v>
+        <v>-1561400</v>
       </c>
       <c r="J24" s="3">
+        <v>930800</v>
+      </c>
+      <c r="K24" s="3">
         <v>1003100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>936600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>752100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>727800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>690600</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3673200</v>
+        <v>3701400</v>
       </c>
       <c r="E26" s="3">
-        <v>2568700</v>
+        <v>3538000</v>
       </c>
       <c r="F26" s="3">
-        <v>3165600</v>
+        <v>2474100</v>
       </c>
       <c r="G26" s="3">
-        <v>3249700</v>
+        <v>3049100</v>
       </c>
       <c r="H26" s="3">
-        <v>5442200</v>
+        <v>3130100</v>
       </c>
       <c r="I26" s="3">
-        <v>2733100</v>
+        <v>5241900</v>
       </c>
       <c r="J26" s="3">
+        <v>2632500</v>
+      </c>
+      <c r="K26" s="3">
         <v>2656500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2486300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2010800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1994500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1887500</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3673200</v>
+        <v>3701400</v>
       </c>
       <c r="E27" s="3">
-        <v>2568700</v>
+        <v>3538000</v>
       </c>
       <c r="F27" s="3">
-        <v>3165600</v>
+        <v>2474100</v>
       </c>
       <c r="G27" s="3">
-        <v>3249700</v>
+        <v>3049100</v>
       </c>
       <c r="H27" s="3">
-        <v>5442200</v>
+        <v>3130100</v>
       </c>
       <c r="I27" s="3">
-        <v>2733100</v>
+        <v>5241900</v>
       </c>
       <c r="J27" s="3">
+        <v>2632500</v>
+      </c>
+      <c r="K27" s="3">
         <v>2656500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2486300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2010800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1994500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1887500</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,29 +1523,32 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>105900</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F29" s="3">
+        <v>102000</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>-1324500</v>
-      </c>
-      <c r="I29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-1275800</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1505,9 +1565,12 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-331100</v>
+        <v>-340600</v>
       </c>
       <c r="E32" s="3">
-        <v>-241000</v>
+        <v>-318900</v>
       </c>
       <c r="F32" s="3">
-        <v>-280800</v>
+        <v>-232200</v>
       </c>
       <c r="G32" s="3">
-        <v>-509100</v>
+        <v>-270500</v>
       </c>
       <c r="H32" s="3">
-        <v>-245500</v>
+        <v>-490300</v>
       </c>
       <c r="I32" s="3">
-        <v>-281600</v>
+        <v>-236500</v>
       </c>
       <c r="J32" s="3">
+        <v>-271200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-35300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-84000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-56200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-234400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-308100</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3673200</v>
+        <v>3701400</v>
       </c>
       <c r="E33" s="3">
-        <v>2674600</v>
+        <v>3538000</v>
       </c>
       <c r="F33" s="3">
-        <v>3165600</v>
+        <v>2576100</v>
       </c>
       <c r="G33" s="3">
-        <v>3249700</v>
+        <v>3049100</v>
       </c>
       <c r="H33" s="3">
-        <v>4117700</v>
+        <v>3130100</v>
       </c>
       <c r="I33" s="3">
-        <v>2733100</v>
+        <v>3966100</v>
       </c>
       <c r="J33" s="3">
+        <v>2632500</v>
+      </c>
+      <c r="K33" s="3">
         <v>2656500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2486300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2010800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1994500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1887500</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3673200</v>
+        <v>3701400</v>
       </c>
       <c r="E35" s="3">
-        <v>2674600</v>
+        <v>3538000</v>
       </c>
       <c r="F35" s="3">
-        <v>3165600</v>
+        <v>2576100</v>
       </c>
       <c r="G35" s="3">
-        <v>3249700</v>
+        <v>3049100</v>
       </c>
       <c r="H35" s="3">
-        <v>4117700</v>
+        <v>3130100</v>
       </c>
       <c r="I35" s="3">
-        <v>2733100</v>
+        <v>3966100</v>
       </c>
       <c r="J35" s="3">
+        <v>2632500</v>
+      </c>
+      <c r="K35" s="3">
         <v>2656500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2486300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2010800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1994500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1887500</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,47 +1903,51 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>629200</v>
+        <v>237200</v>
       </c>
       <c r="E41" s="3">
-        <v>427200</v>
+        <v>606100</v>
       </c>
       <c r="F41" s="3">
-        <v>48100</v>
+        <v>411500</v>
       </c>
       <c r="G41" s="3">
-        <v>199700</v>
+        <v>46300</v>
       </c>
       <c r="H41" s="3">
-        <v>52600</v>
+        <v>192400</v>
       </c>
       <c r="I41" s="3">
-        <v>132200</v>
+        <v>50600</v>
       </c>
       <c r="J41" s="3">
+        <v>127300</v>
+      </c>
+      <c r="K41" s="3">
         <v>114900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>40800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>164700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>115400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>77600</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1895,282 +1984,306 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>806400</v>
+        <v>1024800</v>
       </c>
       <c r="E43" s="3">
-        <v>855200</v>
+        <v>776700</v>
       </c>
       <c r="F43" s="3">
-        <v>910800</v>
+        <v>823700</v>
       </c>
       <c r="G43" s="3">
-        <v>877800</v>
+        <v>877300</v>
       </c>
       <c r="H43" s="3">
-        <v>738800</v>
+        <v>845400</v>
       </c>
       <c r="I43" s="3">
-        <v>657000</v>
+        <v>711600</v>
       </c>
       <c r="J43" s="3">
+        <v>632800</v>
+      </c>
+      <c r="K43" s="3">
         <v>659300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>728500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>627400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>618400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>629900</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>442300</v>
+        <v>500500</v>
       </c>
       <c r="E44" s="3">
-        <v>437800</v>
+        <v>426000</v>
       </c>
       <c r="F44" s="3">
-        <v>458800</v>
+        <v>421600</v>
       </c>
       <c r="G44" s="3">
-        <v>418200</v>
+        <v>441900</v>
       </c>
       <c r="H44" s="3">
-        <v>318400</v>
+        <v>402800</v>
       </c>
       <c r="I44" s="3">
+        <v>306600</v>
+      </c>
+      <c r="J44" s="3">
+        <v>256700</v>
+      </c>
+      <c r="K44" s="3">
         <v>266600</v>
       </c>
-      <c r="J44" s="3">
-        <v>266600</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>263000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>210900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>171200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>154400</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>694500</v>
+        <v>564100</v>
       </c>
       <c r="E45" s="3">
-        <v>608900</v>
+        <v>669000</v>
       </c>
       <c r="F45" s="3">
-        <v>707300</v>
+        <v>586500</v>
       </c>
       <c r="G45" s="3">
-        <v>552600</v>
+        <v>681300</v>
       </c>
       <c r="H45" s="3">
-        <v>534600</v>
+        <v>532300</v>
       </c>
       <c r="I45" s="3">
-        <v>526400</v>
+        <v>514900</v>
       </c>
       <c r="J45" s="3">
+        <v>507000</v>
+      </c>
+      <c r="K45" s="3">
         <v>575900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>660200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>518900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>486000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>557700</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2572400</v>
+        <v>2326600</v>
       </c>
       <c r="E46" s="3">
-        <v>2329200</v>
+        <v>2477800</v>
       </c>
       <c r="F46" s="3">
-        <v>2124900</v>
+        <v>2243400</v>
       </c>
       <c r="G46" s="3">
-        <v>2048300</v>
+        <v>2046700</v>
       </c>
       <c r="H46" s="3">
-        <v>1644400</v>
+        <v>1972900</v>
       </c>
       <c r="I46" s="3">
-        <v>1582100</v>
+        <v>1583900</v>
       </c>
       <c r="J46" s="3">
+        <v>1523800</v>
+      </c>
+      <c r="K46" s="3">
         <v>1616600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1564600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1521900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1390900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1419700</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>113400</v>
+        <v>86100</v>
       </c>
       <c r="E47" s="3">
-        <v>90100</v>
+        <v>109200</v>
       </c>
       <c r="F47" s="3">
-        <v>86300</v>
+        <v>86800</v>
       </c>
       <c r="G47" s="3">
-        <v>72100</v>
+        <v>83200</v>
       </c>
       <c r="H47" s="3">
-        <v>74300</v>
+        <v>69400</v>
       </c>
       <c r="I47" s="3">
-        <v>75800</v>
+        <v>71600</v>
       </c>
       <c r="J47" s="3">
+        <v>73000</v>
+      </c>
+      <c r="K47" s="3">
         <v>159900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>156200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>136300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>87100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>99100</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>31253000</v>
+        <v>31826700</v>
       </c>
       <c r="E48" s="3">
-        <v>30412800</v>
+        <v>30102600</v>
       </c>
       <c r="F48" s="3">
-        <v>30176300</v>
+        <v>29293300</v>
       </c>
       <c r="G48" s="3">
-        <v>28362200</v>
+        <v>29065500</v>
       </c>
       <c r="H48" s="3">
-        <v>25671200</v>
+        <v>27318200</v>
       </c>
       <c r="I48" s="3">
-        <v>25345300</v>
+        <v>24726200</v>
       </c>
       <c r="J48" s="3">
+        <v>24412300</v>
+      </c>
+      <c r="K48" s="3">
         <v>24496100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>22384900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>20190100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>18263700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>18373800</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>156900</v>
+        <v>149700</v>
       </c>
       <c r="E49" s="3">
-        <v>161400</v>
+        <v>151200</v>
       </c>
       <c r="F49" s="3">
-        <v>171900</v>
+        <v>155500</v>
       </c>
       <c r="G49" s="3">
-        <v>54800</v>
+        <v>165600</v>
       </c>
       <c r="H49" s="3">
-        <v>46600</v>
+        <v>52800</v>
       </c>
       <c r="I49" s="3">
-        <v>50300</v>
+        <v>44800</v>
       </c>
       <c r="J49" s="3">
+        <v>48500</v>
+      </c>
+      <c r="K49" s="3">
         <v>53300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>48700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>45400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>42400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>41500</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2349400</v>
+        <v>2250700</v>
       </c>
       <c r="E52" s="3">
-        <v>648000</v>
+        <v>2263000</v>
       </c>
       <c r="F52" s="3">
-        <v>316100</v>
+        <v>624100</v>
       </c>
       <c r="G52" s="3">
-        <v>408500</v>
+        <v>304500</v>
       </c>
       <c r="H52" s="3">
-        <v>817700</v>
+        <v>393400</v>
       </c>
       <c r="I52" s="3">
-        <v>771100</v>
+        <v>787600</v>
       </c>
       <c r="J52" s="3">
+        <v>742700</v>
+      </c>
+      <c r="K52" s="3">
         <v>1006900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>721500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2614300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>55800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>59900</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>36445200</v>
+        <v>36639800</v>
       </c>
       <c r="E54" s="3">
-        <v>33641500</v>
+        <v>35103700</v>
       </c>
       <c r="F54" s="3">
-        <v>32875700</v>
+        <v>32403100</v>
       </c>
       <c r="G54" s="3">
-        <v>30945900</v>
+        <v>31665500</v>
       </c>
       <c r="H54" s="3">
-        <v>28254100</v>
+        <v>29806800</v>
       </c>
       <c r="I54" s="3">
-        <v>27824600</v>
+        <v>27214000</v>
       </c>
       <c r="J54" s="3">
+        <v>26800400</v>
+      </c>
+      <c r="K54" s="3">
         <v>27332800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>24875900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>23220100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>19839900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>19994000</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>678000</v>
+        <v>690000</v>
       </c>
       <c r="E57" s="3">
-        <v>585700</v>
+        <v>653100</v>
       </c>
       <c r="F57" s="3">
-        <v>650200</v>
+        <v>564100</v>
       </c>
       <c r="G57" s="3">
-        <v>737300</v>
+        <v>626300</v>
       </c>
       <c r="H57" s="3">
-        <v>1414600</v>
+        <v>710200</v>
       </c>
       <c r="I57" s="3">
-        <v>1139800</v>
+        <v>1362500</v>
       </c>
       <c r="J57" s="3">
+        <v>1097800</v>
+      </c>
+      <c r="K57" s="3">
         <v>1166800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1300800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1451100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>287300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>341900</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>381400</v>
+        <v>764400</v>
       </c>
       <c r="E58" s="3">
-        <v>683300</v>
+        <v>367400</v>
       </c>
       <c r="F58" s="3">
-        <v>1449200</v>
+        <v>658100</v>
       </c>
       <c r="G58" s="3">
-        <v>889000</v>
+        <v>1395800</v>
       </c>
       <c r="H58" s="3">
-        <v>1561800</v>
+        <v>856300</v>
       </c>
       <c r="I58" s="3">
-        <v>1118000</v>
+        <v>1504300</v>
       </c>
       <c r="J58" s="3">
+        <v>1076900</v>
+      </c>
+      <c r="K58" s="3">
         <v>1082700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>427100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>786000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>429400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>103700</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1283200</v>
+        <v>1324200</v>
       </c>
       <c r="E59" s="3">
-        <v>1189400</v>
+        <v>1236000</v>
       </c>
       <c r="F59" s="3">
-        <v>1119500</v>
+        <v>1145600</v>
       </c>
       <c r="G59" s="3">
-        <v>1001600</v>
+        <v>1078300</v>
       </c>
       <c r="H59" s="3">
-        <v>14300</v>
+        <v>964800</v>
       </c>
       <c r="I59" s="3">
-        <v>800</v>
+        <v>13700</v>
       </c>
       <c r="J59" s="3">
+        <v>700</v>
+      </c>
+      <c r="K59" s="3">
         <v>1500</v>
       </c>
-      <c r="K59" s="3" t="s">
+      <c r="L59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>822900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>922800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>871900</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2342700</v>
+        <v>2778600</v>
       </c>
       <c r="E60" s="3">
-        <v>2458300</v>
+        <v>2256400</v>
       </c>
       <c r="F60" s="3">
-        <v>3218900</v>
+        <v>2367800</v>
       </c>
       <c r="G60" s="3">
-        <v>2628000</v>
+        <v>3100400</v>
       </c>
       <c r="H60" s="3">
-        <v>2990700</v>
+        <v>2531300</v>
       </c>
       <c r="I60" s="3">
-        <v>2258600</v>
+        <v>2880600</v>
       </c>
       <c r="J60" s="3">
+        <v>2175400</v>
+      </c>
+      <c r="K60" s="3">
         <v>2251100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1727900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1923000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1639500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1317500</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8993100</v>
+        <v>10394100</v>
       </c>
       <c r="E61" s="3">
-        <v>9007300</v>
+        <v>8662000</v>
       </c>
       <c r="F61" s="3">
-        <v>8909700</v>
+        <v>8675700</v>
       </c>
       <c r="G61" s="3">
-        <v>8548500</v>
+        <v>8581700</v>
       </c>
       <c r="H61" s="3">
-        <v>6568500</v>
+        <v>8233900</v>
       </c>
       <c r="I61" s="3">
-        <v>7094100</v>
+        <v>6326700</v>
       </c>
       <c r="J61" s="3">
+        <v>6833000</v>
+      </c>
+      <c r="K61" s="3">
         <v>6746500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6145400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5249400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4705600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4948200</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8031900</v>
+        <v>8001700</v>
       </c>
       <c r="E62" s="3">
-        <v>7420700</v>
+        <v>7736300</v>
       </c>
       <c r="F62" s="3">
-        <v>7200700</v>
+        <v>7147600</v>
       </c>
       <c r="G62" s="3">
-        <v>6523500</v>
+        <v>6935700</v>
       </c>
       <c r="H62" s="3">
-        <v>6188600</v>
+        <v>6283300</v>
       </c>
       <c r="I62" s="3">
-        <v>7328400</v>
+        <v>5960800</v>
       </c>
       <c r="J62" s="3">
+        <v>7058600</v>
+      </c>
+      <c r="K62" s="3">
         <v>7109900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6428000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6886000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5295100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5523600</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19367700</v>
+        <v>21174400</v>
       </c>
       <c r="E66" s="3">
-        <v>18886400</v>
+        <v>18654700</v>
       </c>
       <c r="F66" s="3">
-        <v>19329400</v>
+        <v>18191200</v>
       </c>
       <c r="G66" s="3">
-        <v>17700000</v>
+        <v>18617900</v>
       </c>
       <c r="H66" s="3">
-        <v>15747800</v>
+        <v>17048500</v>
       </c>
       <c r="I66" s="3">
-        <v>16681100</v>
+        <v>15168100</v>
       </c>
       <c r="J66" s="3">
+        <v>16067100</v>
+      </c>
+      <c r="K66" s="3">
         <v>16107400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14301300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13248600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11640200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11789300</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15573600</v>
+        <v>14123800</v>
       </c>
       <c r="E72" s="3">
-        <v>14387200</v>
+        <v>15000300</v>
       </c>
       <c r="F72" s="3">
-        <v>13240700</v>
+        <v>13857600</v>
       </c>
       <c r="G72" s="3">
-        <v>12481500</v>
+        <v>12753300</v>
       </c>
       <c r="H72" s="3">
-        <v>11702900</v>
+        <v>12022100</v>
       </c>
       <c r="I72" s="3">
-        <v>9942900</v>
+        <v>11272100</v>
       </c>
       <c r="J72" s="3">
+        <v>9576900</v>
+      </c>
+      <c r="K72" s="3">
         <v>9488600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9216500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8304800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>7566400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>7204500</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>17077600</v>
+        <v>15465300</v>
       </c>
       <c r="E76" s="3">
-        <v>14755100</v>
+        <v>16448900</v>
       </c>
       <c r="F76" s="3">
-        <v>13546300</v>
+        <v>14212000</v>
       </c>
       <c r="G76" s="3">
-        <v>13245900</v>
+        <v>13047600</v>
       </c>
       <c r="H76" s="3">
-        <v>12506300</v>
+        <v>12758300</v>
       </c>
       <c r="I76" s="3">
-        <v>11143500</v>
+        <v>12046000</v>
       </c>
       <c r="J76" s="3">
+        <v>10733300</v>
+      </c>
+      <c r="K76" s="3">
         <v>11225400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10574600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9971500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8199700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8204700</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3673200</v>
+        <v>3701400</v>
       </c>
       <c r="E81" s="3">
-        <v>2674600</v>
+        <v>3538000</v>
       </c>
       <c r="F81" s="3">
-        <v>3165600</v>
+        <v>2576100</v>
       </c>
       <c r="G81" s="3">
-        <v>3249700</v>
+        <v>3049100</v>
       </c>
       <c r="H81" s="3">
-        <v>4117700</v>
+        <v>3130100</v>
       </c>
       <c r="I81" s="3">
-        <v>2733100</v>
+        <v>3966100</v>
       </c>
       <c r="J81" s="3">
+        <v>2632500</v>
+      </c>
+      <c r="K81" s="3">
         <v>2656500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2486300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2010800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1994500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1887500</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1199900</v>
+        <v>1250400</v>
       </c>
       <c r="E83" s="3">
-        <v>1193100</v>
+        <v>1155700</v>
       </c>
       <c r="F83" s="3">
-        <v>1172800</v>
+        <v>1149200</v>
       </c>
       <c r="G83" s="3">
-        <v>997900</v>
+        <v>1129700</v>
       </c>
       <c r="H83" s="3">
-        <v>961900</v>
+        <v>961200</v>
       </c>
       <c r="I83" s="3">
-        <v>919800</v>
+        <v>926400</v>
       </c>
       <c r="J83" s="3">
+        <v>885900</v>
+      </c>
+      <c r="K83" s="3">
         <v>869500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>824300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>754400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>687700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>679100</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5234200</v>
+        <v>4821700</v>
       </c>
       <c r="E89" s="3">
-        <v>4629100</v>
+        <v>5041600</v>
       </c>
       <c r="F89" s="3">
-        <v>4447300</v>
+        <v>4458700</v>
       </c>
       <c r="G89" s="3">
-        <v>4443600</v>
+        <v>4283600</v>
       </c>
       <c r="H89" s="3">
-        <v>4141700</v>
+        <v>4280000</v>
       </c>
       <c r="I89" s="3">
-        <v>3906000</v>
+        <v>3989300</v>
       </c>
       <c r="J89" s="3">
+        <v>3762200</v>
+      </c>
+      <c r="K89" s="3">
         <v>3859400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3439300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2731300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2277300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2286300</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2170700</v>
+        <v>-1988900</v>
       </c>
       <c r="E91" s="3">
-        <v>-2149700</v>
+        <v>-2090800</v>
       </c>
       <c r="F91" s="3">
-        <v>-2902100</v>
+        <v>-2070600</v>
       </c>
       <c r="G91" s="3">
-        <v>-2651300</v>
+        <v>-2795200</v>
       </c>
       <c r="H91" s="3">
-        <v>-2007000</v>
+        <v>-2553700</v>
       </c>
       <c r="I91" s="3">
-        <v>-2023600</v>
+        <v>-1933200</v>
       </c>
       <c r="J91" s="3">
+        <v>-1949100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2031800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1803300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1518900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1288200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1248400</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2157200</v>
+        <v>-1815300</v>
       </c>
       <c r="E94" s="3">
-        <v>-2212000</v>
+        <v>-2077800</v>
       </c>
       <c r="F94" s="3">
-        <v>-3146100</v>
+        <v>-2130600</v>
       </c>
       <c r="G94" s="3">
-        <v>-2555900</v>
+        <v>-3030300</v>
       </c>
       <c r="H94" s="3">
-        <v>-2055900</v>
+        <v>-2461800</v>
       </c>
       <c r="I94" s="3">
-        <v>-2013800</v>
+        <v>-1980200</v>
       </c>
       <c r="J94" s="3">
+        <v>-1939700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2122700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1708300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1425700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1057500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1328300</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1306500</v>
+        <v>-1449300</v>
       </c>
       <c r="E96" s="3">
-        <v>-1226900</v>
+        <v>-1258400</v>
       </c>
       <c r="F96" s="3">
-        <v>-1159300</v>
+        <v>-1181700</v>
       </c>
       <c r="G96" s="3">
-        <v>-1000900</v>
+        <v>-1116700</v>
       </c>
       <c r="H96" s="3">
-        <v>-930300</v>
+        <v>-964100</v>
       </c>
       <c r="I96" s="3">
-        <v>-870200</v>
+        <v>-896100</v>
       </c>
       <c r="J96" s="3">
+        <v>-838200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-747900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-642200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-557300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-485200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-449400</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2896100</v>
+        <v>-3375300</v>
       </c>
       <c r="E100" s="3">
-        <v>-2032600</v>
+        <v>-2789500</v>
       </c>
       <c r="F100" s="3">
-        <v>-1428900</v>
+        <v>-1957800</v>
       </c>
       <c r="G100" s="3">
-        <v>-1733000</v>
+        <v>-1376300</v>
       </c>
       <c r="H100" s="3">
-        <v>-2173700</v>
+        <v>-1669200</v>
       </c>
       <c r="I100" s="3">
-        <v>-1906400</v>
+        <v>-2093700</v>
       </c>
       <c r="J100" s="3">
+        <v>-1836300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1669200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1860600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1274800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1177300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1267600</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
       <c r="F101" s="3">
-        <v>-800</v>
+        <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="H101" s="3">
-        <v>-1500</v>
+        <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>11300</v>
+        <v>-1400</v>
       </c>
       <c r="J101" s="3">
+        <v>10800</v>
+      </c>
+      <c r="K101" s="3">
         <v>8300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>14600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>10800</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>181000</v>
+        <v>-366700</v>
       </c>
       <c r="E102" s="3">
-        <v>384400</v>
+        <v>174300</v>
       </c>
       <c r="F102" s="3">
-        <v>-128400</v>
+        <v>370300</v>
       </c>
       <c r="G102" s="3">
-        <v>154700</v>
+        <v>-123700</v>
       </c>
       <c r="H102" s="3">
-        <v>-89400</v>
+        <v>149000</v>
       </c>
       <c r="I102" s="3">
-        <v>-3000</v>
+        <v>-86100</v>
       </c>
       <c r="J102" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="K102" s="3">
         <v>75800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-127200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>45400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>40200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-298800</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CNI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CNI_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12372100</v>
+        <v>12671800</v>
       </c>
       <c r="E8" s="3">
-        <v>10470100</v>
+        <v>10723700</v>
       </c>
       <c r="F8" s="3">
-        <v>9994200</v>
+        <v>10236300</v>
       </c>
       <c r="G8" s="3">
-        <v>10788300</v>
+        <v>11049600</v>
       </c>
       <c r="H8" s="3">
-        <v>10357200</v>
+        <v>10608100</v>
       </c>
       <c r="I8" s="3">
-        <v>9431500</v>
+        <v>9660000</v>
       </c>
       <c r="J8" s="3">
-        <v>8705400</v>
+        <v>8916300</v>
       </c>
       <c r="K8" s="3">
         <v>9469100</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3405600</v>
+        <v>3488100</v>
       </c>
       <c r="E9" s="3">
-        <v>2600000</v>
+        <v>2663000</v>
       </c>
       <c r="F9" s="3">
-        <v>2389500</v>
+        <v>2447400</v>
       </c>
       <c r="G9" s="3">
-        <v>2823500</v>
+        <v>2891800</v>
       </c>
       <c r="H9" s="3">
-        <v>2678100</v>
+        <v>2743000</v>
       </c>
       <c r="I9" s="3">
-        <v>2264400</v>
+        <v>2319300</v>
       </c>
       <c r="J9" s="3">
-        <v>1911500</v>
+        <v>1957800</v>
       </c>
       <c r="K9" s="3">
         <v>2263100</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8966500</v>
+        <v>9183700</v>
       </c>
       <c r="E10" s="3">
-        <v>7870100</v>
+        <v>8060700</v>
       </c>
       <c r="F10" s="3">
-        <v>7604700</v>
+        <v>7788900</v>
       </c>
       <c r="G10" s="3">
-        <v>7964800</v>
+        <v>8157800</v>
       </c>
       <c r="H10" s="3">
-        <v>7679100</v>
+        <v>7865200</v>
       </c>
       <c r="I10" s="3">
-        <v>7167100</v>
+        <v>7340700</v>
       </c>
       <c r="J10" s="3">
-        <v>6793900</v>
+        <v>6958500</v>
       </c>
       <c r="K10" s="3">
         <v>7206000</v>
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>-580000</v>
+        <v>-594100</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1250400</v>
+        <v>1280700</v>
       </c>
       <c r="E15" s="3">
-        <v>1155700</v>
+        <v>1183700</v>
       </c>
       <c r="F15" s="3">
-        <v>1149200</v>
+        <v>1177000</v>
       </c>
       <c r="G15" s="3">
-        <v>1129700</v>
+        <v>1157000</v>
       </c>
       <c r="H15" s="3">
-        <v>961200</v>
+        <v>984400</v>
       </c>
       <c r="I15" s="3">
-        <v>926400</v>
+        <v>948900</v>
       </c>
       <c r="J15" s="3">
-        <v>885900</v>
+        <v>907400</v>
       </c>
       <c r="K15" s="3">
         <v>869500</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7425300</v>
+        <v>7605200</v>
       </c>
       <c r="E17" s="3">
-        <v>5767700</v>
+        <v>5907400</v>
       </c>
       <c r="F17" s="3">
-        <v>6539400</v>
+        <v>6697800</v>
       </c>
       <c r="G17" s="3">
-        <v>6743300</v>
+        <v>6906700</v>
       </c>
       <c r="H17" s="3">
-        <v>6384600</v>
+        <v>6539300</v>
       </c>
       <c r="I17" s="3">
-        <v>5639700</v>
+        <v>5776300</v>
       </c>
       <c r="J17" s="3">
-        <v>5066200</v>
+        <v>5188900</v>
       </c>
       <c r="K17" s="3">
         <v>5515100</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4946800</v>
+        <v>5066700</v>
       </c>
       <c r="E18" s="3">
-        <v>4702400</v>
+        <v>4816300</v>
       </c>
       <c r="F18" s="3">
-        <v>3454800</v>
+        <v>3538500</v>
       </c>
       <c r="G18" s="3">
-        <v>4045000</v>
+        <v>4143000</v>
       </c>
       <c r="H18" s="3">
-        <v>3972600</v>
+        <v>4068900</v>
       </c>
       <c r="I18" s="3">
-        <v>3791800</v>
+        <v>3883700</v>
       </c>
       <c r="J18" s="3">
-        <v>3639200</v>
+        <v>3727400</v>
       </c>
       <c r="K18" s="3">
         <v>3954000</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>340600</v>
+        <v>348900</v>
       </c>
       <c r="E20" s="3">
-        <v>318900</v>
+        <v>326700</v>
       </c>
       <c r="F20" s="3">
-        <v>232200</v>
+        <v>237800</v>
       </c>
       <c r="G20" s="3">
-        <v>270500</v>
+        <v>277000</v>
       </c>
       <c r="H20" s="3">
-        <v>490300</v>
+        <v>502200</v>
       </c>
       <c r="I20" s="3">
-        <v>236500</v>
+        <v>242200</v>
       </c>
       <c r="J20" s="3">
-        <v>271200</v>
+        <v>277800</v>
       </c>
       <c r="K20" s="3">
         <v>35300</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6540000</v>
+        <v>6701000</v>
       </c>
       <c r="E21" s="3">
-        <v>6179000</v>
+        <v>6331000</v>
       </c>
       <c r="F21" s="3">
-        <v>4838100</v>
+        <v>4957600</v>
       </c>
       <c r="G21" s="3">
-        <v>5447000</v>
+        <v>5581200</v>
       </c>
       <c r="H21" s="3">
-        <v>5425800</v>
+        <v>5559100</v>
       </c>
       <c r="I21" s="3">
-        <v>4956300</v>
+        <v>5078300</v>
       </c>
       <c r="J21" s="3">
-        <v>4797900</v>
+        <v>4915900</v>
       </c>
       <c r="K21" s="3">
         <v>4845500</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>396300</v>
+        <v>405900</v>
       </c>
       <c r="E22" s="3">
-        <v>441200</v>
+        <v>451900</v>
       </c>
       <c r="F22" s="3">
-        <v>400700</v>
+        <v>410400</v>
       </c>
       <c r="G22" s="3">
-        <v>389100</v>
+        <v>398500</v>
       </c>
       <c r="H22" s="3">
-        <v>353700</v>
+        <v>362200</v>
       </c>
       <c r="I22" s="3">
-        <v>347900</v>
+        <v>356300</v>
       </c>
       <c r="J22" s="3">
-        <v>347100</v>
+        <v>355600</v>
       </c>
       <c r="K22" s="3">
         <v>329600</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4891100</v>
+        <v>5009600</v>
       </c>
       <c r="E23" s="3">
-        <v>4580200</v>
+        <v>4691100</v>
       </c>
       <c r="F23" s="3">
-        <v>3286300</v>
+        <v>3365900</v>
       </c>
       <c r="G23" s="3">
-        <v>3926400</v>
+        <v>4021500</v>
       </c>
       <c r="H23" s="3">
-        <v>4109300</v>
+        <v>4208900</v>
       </c>
       <c r="I23" s="3">
-        <v>3680500</v>
+        <v>3769600</v>
       </c>
       <c r="J23" s="3">
-        <v>3563300</v>
+        <v>3649600</v>
       </c>
       <c r="K23" s="3">
         <v>3659700</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1189700</v>
+        <v>1218500</v>
       </c>
       <c r="E24" s="3">
-        <v>1042200</v>
+        <v>1067400</v>
       </c>
       <c r="F24" s="3">
-        <v>812200</v>
+        <v>831900</v>
       </c>
       <c r="G24" s="3">
-        <v>877300</v>
+        <v>898500</v>
       </c>
       <c r="H24" s="3">
-        <v>979200</v>
+        <v>1003000</v>
       </c>
       <c r="I24" s="3">
-        <v>-1561400</v>
+        <v>-1599300</v>
       </c>
       <c r="J24" s="3">
-        <v>930800</v>
+        <v>953300</v>
       </c>
       <c r="K24" s="3">
         <v>1003100</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3701400</v>
+        <v>3791100</v>
       </c>
       <c r="E26" s="3">
-        <v>3538000</v>
+        <v>3623700</v>
       </c>
       <c r="F26" s="3">
-        <v>2474100</v>
+        <v>2534100</v>
       </c>
       <c r="G26" s="3">
-        <v>3049100</v>
+        <v>3123000</v>
       </c>
       <c r="H26" s="3">
-        <v>3130100</v>
+        <v>3205900</v>
       </c>
       <c r="I26" s="3">
-        <v>5241900</v>
+        <v>5368900</v>
       </c>
       <c r="J26" s="3">
-        <v>2632500</v>
+        <v>2696300</v>
       </c>
       <c r="K26" s="3">
         <v>2656500</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3701400</v>
+        <v>3791100</v>
       </c>
       <c r="E27" s="3">
-        <v>3538000</v>
+        <v>3623700</v>
       </c>
       <c r="F27" s="3">
-        <v>2474100</v>
+        <v>2534100</v>
       </c>
       <c r="G27" s="3">
-        <v>3049100</v>
+        <v>3123000</v>
       </c>
       <c r="H27" s="3">
-        <v>3130100</v>
+        <v>3205900</v>
       </c>
       <c r="I27" s="3">
-        <v>5241900</v>
+        <v>5368900</v>
       </c>
       <c r="J27" s="3">
-        <v>2632500</v>
+        <v>2696300</v>
       </c>
       <c r="K27" s="3">
         <v>2656500</v>
@@ -1539,7 +1539,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="3">
-        <v>102000</v>
+        <v>104400</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1548,7 +1548,7 @@
         <v>8</v>
       </c>
       <c r="I29" s="3">
-        <v>-1275800</v>
+        <v>-1306700</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-340600</v>
+        <v>-348900</v>
       </c>
       <c r="E32" s="3">
-        <v>-318900</v>
+        <v>-326700</v>
       </c>
       <c r="F32" s="3">
-        <v>-232200</v>
+        <v>-237800</v>
       </c>
       <c r="G32" s="3">
-        <v>-270500</v>
+        <v>-277000</v>
       </c>
       <c r="H32" s="3">
-        <v>-490300</v>
+        <v>-502200</v>
       </c>
       <c r="I32" s="3">
-        <v>-236500</v>
+        <v>-242200</v>
       </c>
       <c r="J32" s="3">
-        <v>-271200</v>
+        <v>-277800</v>
       </c>
       <c r="K32" s="3">
         <v>-35300</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3701400</v>
+        <v>3791100</v>
       </c>
       <c r="E33" s="3">
-        <v>3538000</v>
+        <v>3623700</v>
       </c>
       <c r="F33" s="3">
-        <v>2576100</v>
+        <v>2638500</v>
       </c>
       <c r="G33" s="3">
-        <v>3049100</v>
+        <v>3123000</v>
       </c>
       <c r="H33" s="3">
-        <v>3130100</v>
+        <v>3205900</v>
       </c>
       <c r="I33" s="3">
-        <v>3966100</v>
+        <v>4062200</v>
       </c>
       <c r="J33" s="3">
-        <v>2632500</v>
+        <v>2696300</v>
       </c>
       <c r="K33" s="3">
         <v>2656500</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3701400</v>
+        <v>3791100</v>
       </c>
       <c r="E35" s="3">
-        <v>3538000</v>
+        <v>3623700</v>
       </c>
       <c r="F35" s="3">
-        <v>2576100</v>
+        <v>2638500</v>
       </c>
       <c r="G35" s="3">
-        <v>3049100</v>
+        <v>3123000</v>
       </c>
       <c r="H35" s="3">
-        <v>3130100</v>
+        <v>3205900</v>
       </c>
       <c r="I35" s="3">
-        <v>3966100</v>
+        <v>4062200</v>
       </c>
       <c r="J35" s="3">
-        <v>2632500</v>
+        <v>2696300</v>
       </c>
       <c r="K35" s="3">
         <v>2656500</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>237200</v>
+        <v>243000</v>
       </c>
       <c r="E41" s="3">
-        <v>606100</v>
+        <v>620700</v>
       </c>
       <c r="F41" s="3">
-        <v>411500</v>
+        <v>421500</v>
       </c>
       <c r="G41" s="3">
-        <v>46300</v>
+        <v>47400</v>
       </c>
       <c r="H41" s="3">
-        <v>192400</v>
+        <v>197000</v>
       </c>
       <c r="I41" s="3">
-        <v>50600</v>
+        <v>51900</v>
       </c>
       <c r="J41" s="3">
-        <v>127300</v>
+        <v>130400</v>
       </c>
       <c r="K41" s="3">
         <v>114900</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1024800</v>
+        <v>1049600</v>
       </c>
       <c r="E43" s="3">
-        <v>776700</v>
+        <v>795600</v>
       </c>
       <c r="F43" s="3">
-        <v>823700</v>
+        <v>843700</v>
       </c>
       <c r="G43" s="3">
-        <v>877300</v>
+        <v>898500</v>
       </c>
       <c r="H43" s="3">
-        <v>845400</v>
+        <v>865900</v>
       </c>
       <c r="I43" s="3">
-        <v>711600</v>
+        <v>728900</v>
       </c>
       <c r="J43" s="3">
-        <v>632800</v>
+        <v>648100</v>
       </c>
       <c r="K43" s="3">
         <v>659300</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>500500</v>
+        <v>512600</v>
       </c>
       <c r="E44" s="3">
-        <v>426000</v>
+        <v>436300</v>
       </c>
       <c r="F44" s="3">
-        <v>421600</v>
+        <v>431900</v>
       </c>
       <c r="G44" s="3">
-        <v>441900</v>
+        <v>452600</v>
       </c>
       <c r="H44" s="3">
-        <v>402800</v>
+        <v>412600</v>
       </c>
       <c r="I44" s="3">
-        <v>306600</v>
+        <v>314100</v>
       </c>
       <c r="J44" s="3">
-        <v>256700</v>
+        <v>263000</v>
       </c>
       <c r="K44" s="3">
         <v>266600</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>564100</v>
+        <v>577800</v>
       </c>
       <c r="E45" s="3">
-        <v>669000</v>
+        <v>685200</v>
       </c>
       <c r="F45" s="3">
-        <v>586500</v>
+        <v>600700</v>
       </c>
       <c r="G45" s="3">
-        <v>681300</v>
+        <v>697800</v>
       </c>
       <c r="H45" s="3">
-        <v>532300</v>
+        <v>545200</v>
       </c>
       <c r="I45" s="3">
-        <v>514900</v>
+        <v>527400</v>
       </c>
       <c r="J45" s="3">
-        <v>507000</v>
+        <v>519300</v>
       </c>
       <c r="K45" s="3">
         <v>575900</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2326600</v>
+        <v>2383000</v>
       </c>
       <c r="E46" s="3">
-        <v>2477800</v>
+        <v>2537800</v>
       </c>
       <c r="F46" s="3">
-        <v>2243400</v>
+        <v>2297800</v>
       </c>
       <c r="G46" s="3">
-        <v>2046700</v>
+        <v>2096300</v>
       </c>
       <c r="H46" s="3">
-        <v>1972900</v>
+        <v>2020700</v>
       </c>
       <c r="I46" s="3">
-        <v>1583900</v>
+        <v>1622200</v>
       </c>
       <c r="J46" s="3">
-        <v>1523800</v>
+        <v>1560700</v>
       </c>
       <c r="K46" s="3">
         <v>1616600</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>86100</v>
+        <v>88100</v>
       </c>
       <c r="E47" s="3">
-        <v>109200</v>
+        <v>111900</v>
       </c>
       <c r="F47" s="3">
-        <v>86800</v>
+        <v>88900</v>
       </c>
       <c r="G47" s="3">
-        <v>83200</v>
+        <v>85200</v>
       </c>
       <c r="H47" s="3">
-        <v>69400</v>
+        <v>71100</v>
       </c>
       <c r="I47" s="3">
-        <v>71600</v>
+        <v>73300</v>
       </c>
       <c r="J47" s="3">
-        <v>73000</v>
+        <v>74800</v>
       </c>
       <c r="K47" s="3">
         <v>159900</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>31826700</v>
+        <v>32597700</v>
       </c>
       <c r="E48" s="3">
-        <v>30102600</v>
+        <v>30831800</v>
       </c>
       <c r="F48" s="3">
-        <v>29293300</v>
+        <v>30002900</v>
       </c>
       <c r="G48" s="3">
-        <v>29065500</v>
+        <v>29769600</v>
       </c>
       <c r="H48" s="3">
-        <v>27318200</v>
+        <v>27980000</v>
       </c>
       <c r="I48" s="3">
-        <v>24726200</v>
+        <v>25325200</v>
       </c>
       <c r="J48" s="3">
-        <v>24412300</v>
+        <v>25003700</v>
       </c>
       <c r="K48" s="3">
         <v>24496100</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>149700</v>
+        <v>153300</v>
       </c>
       <c r="E49" s="3">
-        <v>151200</v>
+        <v>154800</v>
       </c>
       <c r="F49" s="3">
-        <v>155500</v>
+        <v>159300</v>
       </c>
       <c r="G49" s="3">
-        <v>165600</v>
+        <v>169600</v>
       </c>
       <c r="H49" s="3">
-        <v>52800</v>
+        <v>54100</v>
       </c>
       <c r="I49" s="3">
-        <v>44800</v>
+        <v>45900</v>
       </c>
       <c r="J49" s="3">
-        <v>48500</v>
+        <v>49600</v>
       </c>
       <c r="K49" s="3">
         <v>53300</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2250700</v>
+        <v>2305200</v>
       </c>
       <c r="E52" s="3">
-        <v>2263000</v>
+        <v>2317800</v>
       </c>
       <c r="F52" s="3">
-        <v>624100</v>
+        <v>639300</v>
       </c>
       <c r="G52" s="3">
-        <v>304500</v>
+        <v>311900</v>
       </c>
       <c r="H52" s="3">
-        <v>393400</v>
+        <v>403000</v>
       </c>
       <c r="I52" s="3">
-        <v>787600</v>
+        <v>806700</v>
       </c>
       <c r="J52" s="3">
-        <v>742700</v>
+        <v>760700</v>
       </c>
       <c r="K52" s="3">
         <v>1006900</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>36639800</v>
+        <v>37527400</v>
       </c>
       <c r="E54" s="3">
-        <v>35103700</v>
+        <v>35954000</v>
       </c>
       <c r="F54" s="3">
-        <v>32403100</v>
+        <v>33188100</v>
       </c>
       <c r="G54" s="3">
-        <v>31665500</v>
+        <v>32432600</v>
       </c>
       <c r="H54" s="3">
-        <v>29806800</v>
+        <v>30528900</v>
       </c>
       <c r="I54" s="3">
-        <v>27214000</v>
+        <v>27873300</v>
       </c>
       <c r="J54" s="3">
-        <v>26800400</v>
+        <v>27449600</v>
       </c>
       <c r="K54" s="3">
         <v>27332800</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>690000</v>
+        <v>706700</v>
       </c>
       <c r="E57" s="3">
-        <v>653100</v>
+        <v>668900</v>
       </c>
       <c r="F57" s="3">
-        <v>564100</v>
+        <v>577800</v>
       </c>
       <c r="G57" s="3">
-        <v>626300</v>
+        <v>641500</v>
       </c>
       <c r="H57" s="3">
-        <v>710200</v>
+        <v>727400</v>
       </c>
       <c r="I57" s="3">
-        <v>1362500</v>
+        <v>1395600</v>
       </c>
       <c r="J57" s="3">
-        <v>1097800</v>
+        <v>1124400</v>
       </c>
       <c r="K57" s="3">
         <v>1166800</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>764400</v>
+        <v>783000</v>
       </c>
       <c r="E58" s="3">
-        <v>367400</v>
+        <v>376300</v>
       </c>
       <c r="F58" s="3">
-        <v>658100</v>
+        <v>674100</v>
       </c>
       <c r="G58" s="3">
-        <v>1395800</v>
+        <v>1429600</v>
       </c>
       <c r="H58" s="3">
-        <v>856300</v>
+        <v>877000</v>
       </c>
       <c r="I58" s="3">
-        <v>1504300</v>
+        <v>1540700</v>
       </c>
       <c r="J58" s="3">
-        <v>1076900</v>
+        <v>1103000</v>
       </c>
       <c r="K58" s="3">
         <v>1082700</v>
@@ -2618,22 +2618,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1324200</v>
+        <v>1356300</v>
       </c>
       <c r="E59" s="3">
-        <v>1236000</v>
+        <v>1265900</v>
       </c>
       <c r="F59" s="3">
-        <v>1145600</v>
+        <v>1173300</v>
       </c>
       <c r="G59" s="3">
-        <v>1078300</v>
+        <v>1104400</v>
       </c>
       <c r="H59" s="3">
-        <v>964800</v>
+        <v>988100</v>
       </c>
       <c r="I59" s="3">
-        <v>13700</v>
+        <v>14100</v>
       </c>
       <c r="J59" s="3">
         <v>700</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2778600</v>
+        <v>2845900</v>
       </c>
       <c r="E60" s="3">
-        <v>2256400</v>
+        <v>2311100</v>
       </c>
       <c r="F60" s="3">
-        <v>2367800</v>
+        <v>2425200</v>
       </c>
       <c r="G60" s="3">
-        <v>3100400</v>
+        <v>3175600</v>
       </c>
       <c r="H60" s="3">
-        <v>2531300</v>
+        <v>2592600</v>
       </c>
       <c r="I60" s="3">
-        <v>2880600</v>
+        <v>2950400</v>
       </c>
       <c r="J60" s="3">
-        <v>2175400</v>
+        <v>2228100</v>
       </c>
       <c r="K60" s="3">
         <v>2251100</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10394100</v>
+        <v>10645900</v>
       </c>
       <c r="E61" s="3">
-        <v>8662000</v>
+        <v>8871800</v>
       </c>
       <c r="F61" s="3">
-        <v>8675700</v>
+        <v>8885900</v>
       </c>
       <c r="G61" s="3">
-        <v>8581700</v>
+        <v>8789600</v>
       </c>
       <c r="H61" s="3">
-        <v>8233900</v>
+        <v>8433300</v>
       </c>
       <c r="I61" s="3">
-        <v>6326700</v>
+        <v>6480000</v>
       </c>
       <c r="J61" s="3">
-        <v>6833000</v>
+        <v>6998500</v>
       </c>
       <c r="K61" s="3">
         <v>6746500</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8001700</v>
+        <v>8195500</v>
       </c>
       <c r="E62" s="3">
-        <v>7736300</v>
+        <v>7923700</v>
       </c>
       <c r="F62" s="3">
-        <v>7147600</v>
+        <v>7320700</v>
       </c>
       <c r="G62" s="3">
-        <v>6935700</v>
+        <v>7103700</v>
       </c>
       <c r="H62" s="3">
-        <v>6283300</v>
+        <v>6435500</v>
       </c>
       <c r="I62" s="3">
-        <v>5960800</v>
+        <v>6105200</v>
       </c>
       <c r="J62" s="3">
-        <v>7058600</v>
+        <v>7229600</v>
       </c>
       <c r="K62" s="3">
         <v>7109900</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>21174400</v>
+        <v>21687400</v>
       </c>
       <c r="E66" s="3">
-        <v>18654700</v>
+        <v>19106600</v>
       </c>
       <c r="F66" s="3">
-        <v>18191200</v>
+        <v>18631800</v>
       </c>
       <c r="G66" s="3">
-        <v>18617900</v>
+        <v>19068900</v>
       </c>
       <c r="H66" s="3">
-        <v>17048500</v>
+        <v>17461500</v>
       </c>
       <c r="I66" s="3">
-        <v>15168100</v>
+        <v>15535500</v>
       </c>
       <c r="J66" s="3">
-        <v>16067100</v>
+        <v>16456300</v>
       </c>
       <c r="K66" s="3">
         <v>16107400</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>14123800</v>
+        <v>14465900</v>
       </c>
       <c r="E72" s="3">
-        <v>15000300</v>
+        <v>15363700</v>
       </c>
       <c r="F72" s="3">
-        <v>13857600</v>
+        <v>14193300</v>
       </c>
       <c r="G72" s="3">
-        <v>12753300</v>
+        <v>13062200</v>
       </c>
       <c r="H72" s="3">
-        <v>12022100</v>
+        <v>12313300</v>
       </c>
       <c r="I72" s="3">
-        <v>11272100</v>
+        <v>11545200</v>
       </c>
       <c r="J72" s="3">
-        <v>9576900</v>
+        <v>9808900</v>
       </c>
       <c r="K72" s="3">
         <v>9488600</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15465300</v>
+        <v>15840000</v>
       </c>
       <c r="E76" s="3">
-        <v>16448900</v>
+        <v>16847400</v>
       </c>
       <c r="F76" s="3">
-        <v>14212000</v>
+        <v>14556300</v>
       </c>
       <c r="G76" s="3">
-        <v>13047600</v>
+        <v>13363700</v>
       </c>
       <c r="H76" s="3">
-        <v>12758300</v>
+        <v>13067400</v>
       </c>
       <c r="I76" s="3">
-        <v>12046000</v>
+        <v>12337800</v>
       </c>
       <c r="J76" s="3">
-        <v>10733300</v>
+        <v>10993300</v>
       </c>
       <c r="K76" s="3">
         <v>11225400</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3701400</v>
+        <v>3791100</v>
       </c>
       <c r="E81" s="3">
-        <v>3538000</v>
+        <v>3623700</v>
       </c>
       <c r="F81" s="3">
-        <v>2576100</v>
+        <v>2638500</v>
       </c>
       <c r="G81" s="3">
-        <v>3049100</v>
+        <v>3123000</v>
       </c>
       <c r="H81" s="3">
-        <v>3130100</v>
+        <v>3205900</v>
       </c>
       <c r="I81" s="3">
-        <v>3966100</v>
+        <v>4062200</v>
       </c>
       <c r="J81" s="3">
-        <v>2632500</v>
+        <v>2696300</v>
       </c>
       <c r="K81" s="3">
         <v>2656500</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1250400</v>
+        <v>1280700</v>
       </c>
       <c r="E83" s="3">
-        <v>1155700</v>
+        <v>1183700</v>
       </c>
       <c r="F83" s="3">
-        <v>1149200</v>
+        <v>1177000</v>
       </c>
       <c r="G83" s="3">
-        <v>1129700</v>
+        <v>1157000</v>
       </c>
       <c r="H83" s="3">
-        <v>961200</v>
+        <v>984400</v>
       </c>
       <c r="I83" s="3">
-        <v>926400</v>
+        <v>948900</v>
       </c>
       <c r="J83" s="3">
-        <v>885900</v>
+        <v>907400</v>
       </c>
       <c r="K83" s="3">
         <v>869500</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4821700</v>
+        <v>4938500</v>
       </c>
       <c r="E89" s="3">
-        <v>5041600</v>
+        <v>5163700</v>
       </c>
       <c r="F89" s="3">
-        <v>4458700</v>
+        <v>4566700</v>
       </c>
       <c r="G89" s="3">
-        <v>4283600</v>
+        <v>4387400</v>
       </c>
       <c r="H89" s="3">
-        <v>4280000</v>
+        <v>4383700</v>
       </c>
       <c r="I89" s="3">
-        <v>3989300</v>
+        <v>4085900</v>
       </c>
       <c r="J89" s="3">
-        <v>3762200</v>
+        <v>3853300</v>
       </c>
       <c r="K89" s="3">
         <v>3859400</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1988900</v>
+        <v>-2037000</v>
       </c>
       <c r="E91" s="3">
-        <v>-2090800</v>
+        <v>-2141500</v>
       </c>
       <c r="F91" s="3">
-        <v>-2070600</v>
+        <v>-2120700</v>
       </c>
       <c r="G91" s="3">
-        <v>-2795200</v>
+        <v>-2863000</v>
       </c>
       <c r="H91" s="3">
-        <v>-2553700</v>
+        <v>-2615600</v>
       </c>
       <c r="I91" s="3">
-        <v>-1933200</v>
+        <v>-1980000</v>
       </c>
       <c r="J91" s="3">
-        <v>-1949100</v>
+        <v>-1996300</v>
       </c>
       <c r="K91" s="3">
         <v>-2031800</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1815300</v>
+        <v>-1859300</v>
       </c>
       <c r="E94" s="3">
-        <v>-2077800</v>
+        <v>-2128100</v>
       </c>
       <c r="F94" s="3">
-        <v>-2130600</v>
+        <v>-2182200</v>
       </c>
       <c r="G94" s="3">
-        <v>-3030300</v>
+        <v>-3103700</v>
       </c>
       <c r="H94" s="3">
-        <v>-2461800</v>
+        <v>-2521500</v>
       </c>
       <c r="I94" s="3">
-        <v>-1980200</v>
+        <v>-2028100</v>
       </c>
       <c r="J94" s="3">
-        <v>-1939700</v>
+        <v>-1986700</v>
       </c>
       <c r="K94" s="3">
         <v>-2122700</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1449300</v>
+        <v>-1484400</v>
       </c>
       <c r="E96" s="3">
-        <v>-1258400</v>
+        <v>-1288900</v>
       </c>
       <c r="F96" s="3">
-        <v>-1181700</v>
+        <v>-1210400</v>
       </c>
       <c r="G96" s="3">
-        <v>-1116700</v>
+        <v>-1143700</v>
       </c>
       <c r="H96" s="3">
-        <v>-964100</v>
+        <v>-987400</v>
       </c>
       <c r="I96" s="3">
-        <v>-896100</v>
+        <v>-917800</v>
       </c>
       <c r="J96" s="3">
-        <v>-838200</v>
+        <v>-858500</v>
       </c>
       <c r="K96" s="3">
         <v>-747900</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3375300</v>
+        <v>-3457000</v>
       </c>
       <c r="E100" s="3">
-        <v>-2789500</v>
+        <v>-2857000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1957800</v>
+        <v>-2005200</v>
       </c>
       <c r="G100" s="3">
-        <v>-1376300</v>
+        <v>-1409600</v>
       </c>
       <c r="H100" s="3">
-        <v>-1669200</v>
+        <v>-1709600</v>
       </c>
       <c r="I100" s="3">
-        <v>-2093700</v>
+        <v>-2144400</v>
       </c>
       <c r="J100" s="3">
-        <v>-1836300</v>
+        <v>-1880700</v>
       </c>
       <c r="K100" s="3">
         <v>-1669200</v>
@@ -4222,10 +4222,10 @@
         <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="J101" s="3">
-        <v>10800</v>
+        <v>11100</v>
       </c>
       <c r="K101" s="3">
         <v>8300</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-366700</v>
+        <v>-375600</v>
       </c>
       <c r="E102" s="3">
-        <v>174300</v>
+        <v>178500</v>
       </c>
       <c r="F102" s="3">
-        <v>370300</v>
+        <v>379300</v>
       </c>
       <c r="G102" s="3">
-        <v>-123700</v>
+        <v>-126700</v>
       </c>
       <c r="H102" s="3">
-        <v>149000</v>
+        <v>152600</v>
       </c>
       <c r="I102" s="3">
-        <v>-86100</v>
+        <v>-88100</v>
       </c>
       <c r="J102" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="K102" s="3">
         <v>75800</v>

--- a/AAII_Financials/Yearly/CNI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CNI_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12671800</v>
+        <v>12665300</v>
       </c>
       <c r="E8" s="3">
-        <v>10723700</v>
+        <v>10718200</v>
       </c>
       <c r="F8" s="3">
-        <v>10236300</v>
+        <v>10231000</v>
       </c>
       <c r="G8" s="3">
-        <v>11049600</v>
+        <v>11044000</v>
       </c>
       <c r="H8" s="3">
-        <v>10608100</v>
+        <v>10602700</v>
       </c>
       <c r="I8" s="3">
-        <v>9660000</v>
+        <v>9655000</v>
       </c>
       <c r="J8" s="3">
-        <v>8916300</v>
+        <v>8911700</v>
       </c>
       <c r="K8" s="3">
         <v>9469100</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3488100</v>
+        <v>3486400</v>
       </c>
       <c r="E9" s="3">
-        <v>2663000</v>
+        <v>2661600</v>
       </c>
       <c r="F9" s="3">
-        <v>2447400</v>
+        <v>2446100</v>
       </c>
       <c r="G9" s="3">
-        <v>2891800</v>
+        <v>2890400</v>
       </c>
       <c r="H9" s="3">
-        <v>2743000</v>
+        <v>2741600</v>
       </c>
       <c r="I9" s="3">
-        <v>2319300</v>
+        <v>2318100</v>
       </c>
       <c r="J9" s="3">
-        <v>1957800</v>
+        <v>1956800</v>
       </c>
       <c r="K9" s="3">
         <v>2263100</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9183700</v>
+        <v>9179000</v>
       </c>
       <c r="E10" s="3">
-        <v>8060700</v>
+        <v>8056600</v>
       </c>
       <c r="F10" s="3">
-        <v>7788900</v>
+        <v>7784900</v>
       </c>
       <c r="G10" s="3">
-        <v>8157800</v>
+        <v>8153600</v>
       </c>
       <c r="H10" s="3">
-        <v>7865200</v>
+        <v>7861100</v>
       </c>
       <c r="I10" s="3">
-        <v>7340700</v>
+        <v>7337000</v>
       </c>
       <c r="J10" s="3">
-        <v>6958500</v>
+        <v>6954900</v>
       </c>
       <c r="K10" s="3">
         <v>7206000</v>
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>-594100</v>
+        <v>-593800</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1280700</v>
+        <v>1280100</v>
       </c>
       <c r="E15" s="3">
-        <v>1183700</v>
+        <v>1183100</v>
       </c>
       <c r="F15" s="3">
-        <v>1177000</v>
+        <v>1176400</v>
       </c>
       <c r="G15" s="3">
-        <v>1157000</v>
+        <v>1156400</v>
       </c>
       <c r="H15" s="3">
-        <v>984400</v>
+        <v>983900</v>
       </c>
       <c r="I15" s="3">
-        <v>948900</v>
+        <v>948400</v>
       </c>
       <c r="J15" s="3">
-        <v>907400</v>
+        <v>906900</v>
       </c>
       <c r="K15" s="3">
         <v>869500</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7605200</v>
+        <v>7601300</v>
       </c>
       <c r="E17" s="3">
-        <v>5907400</v>
+        <v>5904400</v>
       </c>
       <c r="F17" s="3">
-        <v>6697800</v>
+        <v>6694300</v>
       </c>
       <c r="G17" s="3">
-        <v>6906700</v>
+        <v>6903100</v>
       </c>
       <c r="H17" s="3">
-        <v>6539300</v>
+        <v>6535900</v>
       </c>
       <c r="I17" s="3">
-        <v>5776300</v>
+        <v>5773300</v>
       </c>
       <c r="J17" s="3">
-        <v>5188900</v>
+        <v>5186200</v>
       </c>
       <c r="K17" s="3">
         <v>5515100</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5066700</v>
+        <v>5064100</v>
       </c>
       <c r="E18" s="3">
-        <v>4816300</v>
+        <v>4813800</v>
       </c>
       <c r="F18" s="3">
-        <v>3538500</v>
+        <v>3536700</v>
       </c>
       <c r="G18" s="3">
-        <v>4143000</v>
+        <v>4140800</v>
       </c>
       <c r="H18" s="3">
-        <v>4068900</v>
+        <v>4066800</v>
       </c>
       <c r="I18" s="3">
-        <v>3883700</v>
+        <v>3881700</v>
       </c>
       <c r="J18" s="3">
-        <v>3727400</v>
+        <v>3725500</v>
       </c>
       <c r="K18" s="3">
         <v>3954000</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>348900</v>
+        <v>348700</v>
       </c>
       <c r="E20" s="3">
-        <v>326700</v>
+        <v>326500</v>
       </c>
       <c r="F20" s="3">
-        <v>237800</v>
+        <v>237700</v>
       </c>
       <c r="G20" s="3">
-        <v>277000</v>
+        <v>276900</v>
       </c>
       <c r="H20" s="3">
-        <v>502200</v>
+        <v>502000</v>
       </c>
       <c r="I20" s="3">
-        <v>242200</v>
+        <v>242100</v>
       </c>
       <c r="J20" s="3">
-        <v>277800</v>
+        <v>277600</v>
       </c>
       <c r="K20" s="3">
         <v>35300</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6701000</v>
+        <v>6692900</v>
       </c>
       <c r="E21" s="3">
-        <v>6331000</v>
+        <v>6323400</v>
       </c>
       <c r="F21" s="3">
-        <v>4957600</v>
+        <v>4950800</v>
       </c>
       <c r="G21" s="3">
-        <v>5581200</v>
+        <v>5574200</v>
       </c>
       <c r="H21" s="3">
-        <v>5559100</v>
+        <v>5552700</v>
       </c>
       <c r="I21" s="3">
-        <v>5078300</v>
+        <v>5072200</v>
       </c>
       <c r="J21" s="3">
-        <v>4915900</v>
+        <v>4910100</v>
       </c>
       <c r="K21" s="3">
         <v>4845500</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>405900</v>
+        <v>405700</v>
       </c>
       <c r="E22" s="3">
-        <v>451900</v>
+        <v>451600</v>
       </c>
       <c r="F22" s="3">
-        <v>410400</v>
+        <v>410200</v>
       </c>
       <c r="G22" s="3">
-        <v>398500</v>
+        <v>398300</v>
       </c>
       <c r="H22" s="3">
-        <v>362200</v>
+        <v>362000</v>
       </c>
       <c r="I22" s="3">
-        <v>356300</v>
+        <v>356100</v>
       </c>
       <c r="J22" s="3">
-        <v>355600</v>
+        <v>355400</v>
       </c>
       <c r="K22" s="3">
         <v>329600</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5009600</v>
+        <v>5007100</v>
       </c>
       <c r="E23" s="3">
-        <v>4691100</v>
+        <v>4688700</v>
       </c>
       <c r="F23" s="3">
-        <v>3365900</v>
+        <v>3364200</v>
       </c>
       <c r="G23" s="3">
-        <v>4021500</v>
+        <v>4019400</v>
       </c>
       <c r="H23" s="3">
-        <v>4208900</v>
+        <v>4206700</v>
       </c>
       <c r="I23" s="3">
-        <v>3769600</v>
+        <v>3767700</v>
       </c>
       <c r="J23" s="3">
-        <v>3649600</v>
+        <v>3647800</v>
       </c>
       <c r="K23" s="3">
         <v>3659700</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1218500</v>
+        <v>1217900</v>
       </c>
       <c r="E24" s="3">
-        <v>1067400</v>
+        <v>1066900</v>
       </c>
       <c r="F24" s="3">
-        <v>831900</v>
+        <v>831400</v>
       </c>
       <c r="G24" s="3">
-        <v>898500</v>
+        <v>898100</v>
       </c>
       <c r="H24" s="3">
-        <v>1003000</v>
+        <v>1002400</v>
       </c>
       <c r="I24" s="3">
-        <v>-1599300</v>
+        <v>-1598400</v>
       </c>
       <c r="J24" s="3">
-        <v>953300</v>
+        <v>952800</v>
       </c>
       <c r="K24" s="3">
         <v>1003100</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3791100</v>
+        <v>3789200</v>
       </c>
       <c r="E26" s="3">
-        <v>3623700</v>
+        <v>3621800</v>
       </c>
       <c r="F26" s="3">
-        <v>2534100</v>
+        <v>2532800</v>
       </c>
       <c r="G26" s="3">
-        <v>3123000</v>
+        <v>3121400</v>
       </c>
       <c r="H26" s="3">
-        <v>3205900</v>
+        <v>3204300</v>
       </c>
       <c r="I26" s="3">
-        <v>5368900</v>
+        <v>5366100</v>
       </c>
       <c r="J26" s="3">
-        <v>2696300</v>
+        <v>2694900</v>
       </c>
       <c r="K26" s="3">
         <v>2656500</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3791100</v>
+        <v>3789200</v>
       </c>
       <c r="E27" s="3">
-        <v>3623700</v>
+        <v>3621800</v>
       </c>
       <c r="F27" s="3">
-        <v>2534100</v>
+        <v>2532800</v>
       </c>
       <c r="G27" s="3">
-        <v>3123000</v>
+        <v>3121400</v>
       </c>
       <c r="H27" s="3">
-        <v>3205900</v>
+        <v>3204300</v>
       </c>
       <c r="I27" s="3">
-        <v>5368900</v>
+        <v>5366100</v>
       </c>
       <c r="J27" s="3">
-        <v>2696300</v>
+        <v>2694900</v>
       </c>
       <c r="K27" s="3">
         <v>2656500</v>
@@ -1548,7 +1548,7 @@
         <v>8</v>
       </c>
       <c r="I29" s="3">
-        <v>-1306700</v>
+        <v>-1306000</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-348900</v>
+        <v>-348700</v>
       </c>
       <c r="E32" s="3">
-        <v>-326700</v>
+        <v>-326500</v>
       </c>
       <c r="F32" s="3">
-        <v>-237800</v>
+        <v>-237700</v>
       </c>
       <c r="G32" s="3">
-        <v>-277000</v>
+        <v>-276900</v>
       </c>
       <c r="H32" s="3">
-        <v>-502200</v>
+        <v>-502000</v>
       </c>
       <c r="I32" s="3">
-        <v>-242200</v>
+        <v>-242100</v>
       </c>
       <c r="J32" s="3">
-        <v>-277800</v>
+        <v>-277600</v>
       </c>
       <c r="K32" s="3">
         <v>-35300</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3791100</v>
+        <v>3789200</v>
       </c>
       <c r="E33" s="3">
-        <v>3623700</v>
+        <v>3621800</v>
       </c>
       <c r="F33" s="3">
-        <v>2638500</v>
+        <v>2637200</v>
       </c>
       <c r="G33" s="3">
-        <v>3123000</v>
+        <v>3121400</v>
       </c>
       <c r="H33" s="3">
-        <v>3205900</v>
+        <v>3204300</v>
       </c>
       <c r="I33" s="3">
-        <v>4062200</v>
+        <v>4060100</v>
       </c>
       <c r="J33" s="3">
-        <v>2696300</v>
+        <v>2694900</v>
       </c>
       <c r="K33" s="3">
         <v>2656500</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3791100</v>
+        <v>3789200</v>
       </c>
       <c r="E35" s="3">
-        <v>3623700</v>
+        <v>3621800</v>
       </c>
       <c r="F35" s="3">
-        <v>2638500</v>
+        <v>2637200</v>
       </c>
       <c r="G35" s="3">
-        <v>3123000</v>
+        <v>3121400</v>
       </c>
       <c r="H35" s="3">
-        <v>3205900</v>
+        <v>3204300</v>
       </c>
       <c r="I35" s="3">
-        <v>4062200</v>
+        <v>4060100</v>
       </c>
       <c r="J35" s="3">
-        <v>2696300</v>
+        <v>2694900</v>
       </c>
       <c r="K35" s="3">
         <v>2656500</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>243000</v>
+        <v>242800</v>
       </c>
       <c r="E41" s="3">
-        <v>620700</v>
+        <v>620400</v>
       </c>
       <c r="F41" s="3">
-        <v>421500</v>
+        <v>421300</v>
       </c>
       <c r="G41" s="3">
         <v>47400</v>
       </c>
       <c r="H41" s="3">
-        <v>197000</v>
+        <v>196900</v>
       </c>
       <c r="I41" s="3">
-        <v>51900</v>
+        <v>51800</v>
       </c>
       <c r="J41" s="3">
-        <v>130400</v>
+        <v>130300</v>
       </c>
       <c r="K41" s="3">
         <v>114900</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1049600</v>
+        <v>1049100</v>
       </c>
       <c r="E43" s="3">
-        <v>795600</v>
+        <v>795100</v>
       </c>
       <c r="F43" s="3">
-        <v>843700</v>
+        <v>843300</v>
       </c>
       <c r="G43" s="3">
-        <v>898500</v>
+        <v>898100</v>
       </c>
       <c r="H43" s="3">
-        <v>865900</v>
+        <v>865500</v>
       </c>
       <c r="I43" s="3">
-        <v>728900</v>
+        <v>728500</v>
       </c>
       <c r="J43" s="3">
-        <v>648100</v>
+        <v>647800</v>
       </c>
       <c r="K43" s="3">
         <v>659300</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>512600</v>
+        <v>512300</v>
       </c>
       <c r="E44" s="3">
-        <v>436300</v>
+        <v>436100</v>
       </c>
       <c r="F44" s="3">
-        <v>431900</v>
+        <v>431600</v>
       </c>
       <c r="G44" s="3">
-        <v>452600</v>
+        <v>452400</v>
       </c>
       <c r="H44" s="3">
-        <v>412600</v>
+        <v>412400</v>
       </c>
       <c r="I44" s="3">
-        <v>314100</v>
+        <v>313900</v>
       </c>
       <c r="J44" s="3">
-        <v>263000</v>
+        <v>262800</v>
       </c>
       <c r="K44" s="3">
         <v>266600</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>577800</v>
+        <v>577500</v>
       </c>
       <c r="E45" s="3">
-        <v>685200</v>
+        <v>684800</v>
       </c>
       <c r="F45" s="3">
-        <v>600700</v>
+        <v>600400</v>
       </c>
       <c r="G45" s="3">
-        <v>697800</v>
+        <v>697400</v>
       </c>
       <c r="H45" s="3">
-        <v>545200</v>
+        <v>544900</v>
       </c>
       <c r="I45" s="3">
-        <v>527400</v>
+        <v>527100</v>
       </c>
       <c r="J45" s="3">
-        <v>519300</v>
+        <v>519000</v>
       </c>
       <c r="K45" s="3">
         <v>575900</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2383000</v>
+        <v>2381700</v>
       </c>
       <c r="E46" s="3">
-        <v>2537800</v>
+        <v>2536500</v>
       </c>
       <c r="F46" s="3">
-        <v>2297800</v>
+        <v>2296600</v>
       </c>
       <c r="G46" s="3">
-        <v>2096300</v>
+        <v>2095200</v>
       </c>
       <c r="H46" s="3">
-        <v>2020700</v>
+        <v>2019700</v>
       </c>
       <c r="I46" s="3">
-        <v>1622200</v>
+        <v>1621400</v>
       </c>
       <c r="J46" s="3">
-        <v>1560700</v>
+        <v>1559900</v>
       </c>
       <c r="K46" s="3">
         <v>1616600</v>
@@ -2165,13 +2165,13 @@
         <v>88100</v>
       </c>
       <c r="E47" s="3">
-        <v>111900</v>
+        <v>111800</v>
       </c>
       <c r="F47" s="3">
-        <v>88900</v>
+        <v>88800</v>
       </c>
       <c r="G47" s="3">
-        <v>85200</v>
+        <v>85100</v>
       </c>
       <c r="H47" s="3">
         <v>71100</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>32597700</v>
+        <v>32581000</v>
       </c>
       <c r="E48" s="3">
-        <v>30831800</v>
+        <v>30816000</v>
       </c>
       <c r="F48" s="3">
-        <v>30002900</v>
+        <v>29987500</v>
       </c>
       <c r="G48" s="3">
-        <v>29769600</v>
+        <v>29754300</v>
       </c>
       <c r="H48" s="3">
-        <v>27980000</v>
+        <v>27965600</v>
       </c>
       <c r="I48" s="3">
-        <v>25325200</v>
+        <v>25312200</v>
       </c>
       <c r="J48" s="3">
-        <v>25003700</v>
+        <v>24990900</v>
       </c>
       <c r="K48" s="3">
         <v>24496100</v>
@@ -2249,16 +2249,16 @@
         <v>153300</v>
       </c>
       <c r="E49" s="3">
-        <v>154800</v>
+        <v>154700</v>
       </c>
       <c r="F49" s="3">
-        <v>159300</v>
+        <v>159200</v>
       </c>
       <c r="G49" s="3">
-        <v>169600</v>
+        <v>169500</v>
       </c>
       <c r="H49" s="3">
-        <v>54100</v>
+        <v>54000</v>
       </c>
       <c r="I49" s="3">
         <v>45900</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2305200</v>
+        <v>2304000</v>
       </c>
       <c r="E52" s="3">
-        <v>2317800</v>
+        <v>2316600</v>
       </c>
       <c r="F52" s="3">
-        <v>639300</v>
+        <v>638900</v>
       </c>
       <c r="G52" s="3">
-        <v>311900</v>
+        <v>311700</v>
       </c>
       <c r="H52" s="3">
-        <v>403000</v>
+        <v>402800</v>
       </c>
       <c r="I52" s="3">
-        <v>806700</v>
+        <v>806300</v>
       </c>
       <c r="J52" s="3">
-        <v>760700</v>
+        <v>760300</v>
       </c>
       <c r="K52" s="3">
         <v>1006900</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>37527400</v>
+        <v>37508100</v>
       </c>
       <c r="E54" s="3">
-        <v>35954000</v>
+        <v>35935600</v>
       </c>
       <c r="F54" s="3">
-        <v>33188100</v>
+        <v>33171100</v>
       </c>
       <c r="G54" s="3">
-        <v>32432600</v>
+        <v>32415900</v>
       </c>
       <c r="H54" s="3">
-        <v>30528900</v>
+        <v>30513200</v>
       </c>
       <c r="I54" s="3">
-        <v>27873300</v>
+        <v>27859000</v>
       </c>
       <c r="J54" s="3">
-        <v>27449600</v>
+        <v>27435500</v>
       </c>
       <c r="K54" s="3">
         <v>27332800</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>706700</v>
+        <v>706300</v>
       </c>
       <c r="E57" s="3">
-        <v>668900</v>
+        <v>668500</v>
       </c>
       <c r="F57" s="3">
-        <v>577800</v>
+        <v>577500</v>
       </c>
       <c r="G57" s="3">
-        <v>641500</v>
+        <v>641200</v>
       </c>
       <c r="H57" s="3">
-        <v>727400</v>
+        <v>727000</v>
       </c>
       <c r="I57" s="3">
-        <v>1395600</v>
+        <v>1394800</v>
       </c>
       <c r="J57" s="3">
-        <v>1124400</v>
+        <v>1123900</v>
       </c>
       <c r="K57" s="3">
         <v>1166800</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>783000</v>
+        <v>782600</v>
       </c>
       <c r="E58" s="3">
-        <v>376300</v>
+        <v>376100</v>
       </c>
       <c r="F58" s="3">
-        <v>674100</v>
+        <v>673700</v>
       </c>
       <c r="G58" s="3">
-        <v>1429600</v>
+        <v>1428900</v>
       </c>
       <c r="H58" s="3">
-        <v>877000</v>
+        <v>876600</v>
       </c>
       <c r="I58" s="3">
-        <v>1540700</v>
+        <v>1539900</v>
       </c>
       <c r="J58" s="3">
-        <v>1103000</v>
+        <v>1102400</v>
       </c>
       <c r="K58" s="3">
         <v>1082700</v>
@@ -2618,19 +2618,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1356300</v>
+        <v>1355600</v>
       </c>
       <c r="E59" s="3">
-        <v>1265900</v>
+        <v>1265300</v>
       </c>
       <c r="F59" s="3">
-        <v>1173300</v>
+        <v>1172700</v>
       </c>
       <c r="G59" s="3">
-        <v>1104400</v>
+        <v>1103900</v>
       </c>
       <c r="H59" s="3">
-        <v>988100</v>
+        <v>987600</v>
       </c>
       <c r="I59" s="3">
         <v>14100</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2845900</v>
+        <v>2844500</v>
       </c>
       <c r="E60" s="3">
-        <v>2311100</v>
+        <v>2309900</v>
       </c>
       <c r="F60" s="3">
-        <v>2425200</v>
+        <v>2423900</v>
       </c>
       <c r="G60" s="3">
-        <v>3175600</v>
+        <v>3173900</v>
       </c>
       <c r="H60" s="3">
-        <v>2592600</v>
+        <v>2591300</v>
       </c>
       <c r="I60" s="3">
-        <v>2950400</v>
+        <v>2948900</v>
       </c>
       <c r="J60" s="3">
-        <v>2228100</v>
+        <v>2227000</v>
       </c>
       <c r="K60" s="3">
         <v>2251100</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10645900</v>
+        <v>10640500</v>
       </c>
       <c r="E61" s="3">
-        <v>8871800</v>
+        <v>8867300</v>
       </c>
       <c r="F61" s="3">
-        <v>8885900</v>
+        <v>8881400</v>
       </c>
       <c r="G61" s="3">
-        <v>8789600</v>
+        <v>8785100</v>
       </c>
       <c r="H61" s="3">
-        <v>8433300</v>
+        <v>8429000</v>
       </c>
       <c r="I61" s="3">
-        <v>6480000</v>
+        <v>6476700</v>
       </c>
       <c r="J61" s="3">
-        <v>6998500</v>
+        <v>6994900</v>
       </c>
       <c r="K61" s="3">
         <v>6746500</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8195500</v>
+        <v>8191300</v>
       </c>
       <c r="E62" s="3">
-        <v>7923700</v>
+        <v>7919600</v>
       </c>
       <c r="F62" s="3">
-        <v>7320700</v>
+        <v>7317000</v>
       </c>
       <c r="G62" s="3">
-        <v>7103700</v>
+        <v>7100100</v>
       </c>
       <c r="H62" s="3">
-        <v>6435500</v>
+        <v>6432200</v>
       </c>
       <c r="I62" s="3">
-        <v>6105200</v>
+        <v>6102000</v>
       </c>
       <c r="J62" s="3">
-        <v>7229600</v>
+        <v>7225900</v>
       </c>
       <c r="K62" s="3">
         <v>7109900</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>21687400</v>
+        <v>21676300</v>
       </c>
       <c r="E66" s="3">
-        <v>19106600</v>
+        <v>19096800</v>
       </c>
       <c r="F66" s="3">
-        <v>18631800</v>
+        <v>18622300</v>
       </c>
       <c r="G66" s="3">
-        <v>19068900</v>
+        <v>19059100</v>
       </c>
       <c r="H66" s="3">
-        <v>17461500</v>
+        <v>17452500</v>
       </c>
       <c r="I66" s="3">
-        <v>15535500</v>
+        <v>15527600</v>
       </c>
       <c r="J66" s="3">
-        <v>16456300</v>
+        <v>16447800</v>
       </c>
       <c r="K66" s="3">
         <v>16107400</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>14465900</v>
+        <v>14458500</v>
       </c>
       <c r="E72" s="3">
-        <v>15363700</v>
+        <v>15355800</v>
       </c>
       <c r="F72" s="3">
-        <v>14193300</v>
+        <v>14186000</v>
       </c>
       <c r="G72" s="3">
-        <v>13062200</v>
+        <v>13055500</v>
       </c>
       <c r="H72" s="3">
-        <v>12313300</v>
+        <v>12307000</v>
       </c>
       <c r="I72" s="3">
-        <v>11545200</v>
+        <v>11539300</v>
       </c>
       <c r="J72" s="3">
-        <v>9808900</v>
+        <v>9803800</v>
       </c>
       <c r="K72" s="3">
         <v>9488600</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15840000</v>
+        <v>15831900</v>
       </c>
       <c r="E76" s="3">
-        <v>16847400</v>
+        <v>16838700</v>
       </c>
       <c r="F76" s="3">
-        <v>14556300</v>
+        <v>14548800</v>
       </c>
       <c r="G76" s="3">
-        <v>13363700</v>
+        <v>13356800</v>
       </c>
       <c r="H76" s="3">
-        <v>13067400</v>
+        <v>13060700</v>
       </c>
       <c r="I76" s="3">
-        <v>12337800</v>
+        <v>12331400</v>
       </c>
       <c r="J76" s="3">
-        <v>10993300</v>
+        <v>10987700</v>
       </c>
       <c r="K76" s="3">
         <v>11225400</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3791100</v>
+        <v>3789200</v>
       </c>
       <c r="E81" s="3">
-        <v>3623700</v>
+        <v>3621800</v>
       </c>
       <c r="F81" s="3">
-        <v>2638500</v>
+        <v>2637200</v>
       </c>
       <c r="G81" s="3">
-        <v>3123000</v>
+        <v>3121400</v>
       </c>
       <c r="H81" s="3">
-        <v>3205900</v>
+        <v>3204300</v>
       </c>
       <c r="I81" s="3">
-        <v>4062200</v>
+        <v>4060100</v>
       </c>
       <c r="J81" s="3">
-        <v>2696300</v>
+        <v>2694900</v>
       </c>
       <c r="K81" s="3">
         <v>2656500</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1280700</v>
+        <v>1280100</v>
       </c>
       <c r="E83" s="3">
-        <v>1183700</v>
+        <v>1183100</v>
       </c>
       <c r="F83" s="3">
-        <v>1177000</v>
+        <v>1176400</v>
       </c>
       <c r="G83" s="3">
-        <v>1157000</v>
+        <v>1156400</v>
       </c>
       <c r="H83" s="3">
-        <v>984400</v>
+        <v>983900</v>
       </c>
       <c r="I83" s="3">
-        <v>948900</v>
+        <v>948400</v>
       </c>
       <c r="J83" s="3">
-        <v>907400</v>
+        <v>906900</v>
       </c>
       <c r="K83" s="3">
         <v>869500</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4938500</v>
+        <v>4936000</v>
       </c>
       <c r="E89" s="3">
-        <v>5163700</v>
+        <v>5161000</v>
       </c>
       <c r="F89" s="3">
-        <v>4566700</v>
+        <v>4564300</v>
       </c>
       <c r="G89" s="3">
-        <v>4387400</v>
+        <v>4385200</v>
       </c>
       <c r="H89" s="3">
-        <v>4383700</v>
+        <v>4381500</v>
       </c>
       <c r="I89" s="3">
-        <v>4085900</v>
+        <v>4083800</v>
       </c>
       <c r="J89" s="3">
-        <v>3853300</v>
+        <v>3851400</v>
       </c>
       <c r="K89" s="3">
         <v>3859400</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2037000</v>
+        <v>-2036000</v>
       </c>
       <c r="E91" s="3">
-        <v>-2141500</v>
+        <v>-2140400</v>
       </c>
       <c r="F91" s="3">
-        <v>-2120700</v>
+        <v>-2119700</v>
       </c>
       <c r="G91" s="3">
-        <v>-2863000</v>
+        <v>-2861500</v>
       </c>
       <c r="H91" s="3">
-        <v>-2615600</v>
+        <v>-2614200</v>
       </c>
       <c r="I91" s="3">
-        <v>-1980000</v>
+        <v>-1979000</v>
       </c>
       <c r="J91" s="3">
-        <v>-1996300</v>
+        <v>-1995300</v>
       </c>
       <c r="K91" s="3">
         <v>-2031800</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1859300</v>
+        <v>-1858300</v>
       </c>
       <c r="E94" s="3">
-        <v>-2128100</v>
+        <v>-2127100</v>
       </c>
       <c r="F94" s="3">
-        <v>-2182200</v>
+        <v>-2181100</v>
       </c>
       <c r="G94" s="3">
-        <v>-3103700</v>
+        <v>-3102100</v>
       </c>
       <c r="H94" s="3">
-        <v>-2521500</v>
+        <v>-2520200</v>
       </c>
       <c r="I94" s="3">
-        <v>-2028100</v>
+        <v>-2027100</v>
       </c>
       <c r="J94" s="3">
-        <v>-1986700</v>
+        <v>-1985600</v>
       </c>
       <c r="K94" s="3">
         <v>-2122700</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1484400</v>
+        <v>-1483700</v>
       </c>
       <c r="E96" s="3">
-        <v>-1288900</v>
+        <v>-1288200</v>
       </c>
       <c r="F96" s="3">
-        <v>-1210400</v>
+        <v>-1209700</v>
       </c>
       <c r="G96" s="3">
-        <v>-1143700</v>
+        <v>-1143100</v>
       </c>
       <c r="H96" s="3">
-        <v>-987400</v>
+        <v>-986900</v>
       </c>
       <c r="I96" s="3">
-        <v>-917800</v>
+        <v>-917300</v>
       </c>
       <c r="J96" s="3">
-        <v>-858500</v>
+        <v>-858100</v>
       </c>
       <c r="K96" s="3">
         <v>-747900</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3457000</v>
+        <v>-3455300</v>
       </c>
       <c r="E100" s="3">
-        <v>-2857000</v>
+        <v>-2855600</v>
       </c>
       <c r="F100" s="3">
-        <v>-2005200</v>
+        <v>-2004200</v>
       </c>
       <c r="G100" s="3">
-        <v>-1409600</v>
+        <v>-1408900</v>
       </c>
       <c r="H100" s="3">
-        <v>-1709600</v>
+        <v>-1708800</v>
       </c>
       <c r="I100" s="3">
-        <v>-2144400</v>
+        <v>-2143300</v>
       </c>
       <c r="J100" s="3">
-        <v>-1880700</v>
+        <v>-1879800</v>
       </c>
       <c r="K100" s="3">
         <v>-1669200</v>
@@ -4249,19 +4249,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-375600</v>
+        <v>-375400</v>
       </c>
       <c r="E102" s="3">
-        <v>178500</v>
+        <v>178400</v>
       </c>
       <c r="F102" s="3">
-        <v>379300</v>
+        <v>379100</v>
       </c>
       <c r="G102" s="3">
-        <v>-126700</v>
+        <v>-126600</v>
       </c>
       <c r="H102" s="3">
-        <v>152600</v>
+        <v>152500</v>
       </c>
       <c r="I102" s="3">
         <v>-88100</v>

--- a/AAII_Financials/Yearly/CNI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CNI_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12665300</v>
+        <v>12437000</v>
       </c>
       <c r="E8" s="3">
-        <v>10718200</v>
+        <v>10524900</v>
       </c>
       <c r="F8" s="3">
-        <v>10231000</v>
+        <v>10046600</v>
       </c>
       <c r="G8" s="3">
-        <v>11044000</v>
+        <v>10844800</v>
       </c>
       <c r="H8" s="3">
-        <v>10602700</v>
+        <v>10411500</v>
       </c>
       <c r="I8" s="3">
-        <v>9655000</v>
+        <v>9480900</v>
       </c>
       <c r="J8" s="3">
-        <v>8911700</v>
+        <v>8751000</v>
       </c>
       <c r="K8" s="3">
         <v>9469100</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3486400</v>
+        <v>3423500</v>
       </c>
       <c r="E9" s="3">
-        <v>2661600</v>
+        <v>2613600</v>
       </c>
       <c r="F9" s="3">
-        <v>2446100</v>
+        <v>2402000</v>
       </c>
       <c r="G9" s="3">
-        <v>2890400</v>
+        <v>2838200</v>
       </c>
       <c r="H9" s="3">
-        <v>2741600</v>
+        <v>2692100</v>
       </c>
       <c r="I9" s="3">
-        <v>2318100</v>
+        <v>2276300</v>
       </c>
       <c r="J9" s="3">
-        <v>1956800</v>
+        <v>1921500</v>
       </c>
       <c r="K9" s="3">
         <v>2263100</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9179000</v>
+        <v>9013500</v>
       </c>
       <c r="E10" s="3">
-        <v>8056600</v>
+        <v>7911300</v>
       </c>
       <c r="F10" s="3">
-        <v>7784900</v>
+        <v>7644500</v>
       </c>
       <c r="G10" s="3">
-        <v>8153600</v>
+        <v>8006600</v>
       </c>
       <c r="H10" s="3">
-        <v>7861100</v>
+        <v>7719400</v>
       </c>
       <c r="I10" s="3">
-        <v>7337000</v>
+        <v>7204700</v>
       </c>
       <c r="J10" s="3">
-        <v>6954900</v>
+        <v>6829500</v>
       </c>
       <c r="K10" s="3">
         <v>7206000</v>
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>-593800</v>
+        <v>-583100</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1280100</v>
+        <v>1257000</v>
       </c>
       <c r="E15" s="3">
-        <v>1183100</v>
+        <v>1161800</v>
       </c>
       <c r="F15" s="3">
-        <v>1176400</v>
+        <v>1155200</v>
       </c>
       <c r="G15" s="3">
-        <v>1156400</v>
+        <v>1135600</v>
       </c>
       <c r="H15" s="3">
-        <v>983900</v>
+        <v>966200</v>
       </c>
       <c r="I15" s="3">
-        <v>948400</v>
+        <v>931300</v>
       </c>
       <c r="J15" s="3">
-        <v>906900</v>
+        <v>890600</v>
       </c>
       <c r="K15" s="3">
         <v>869500</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7601300</v>
+        <v>7464200</v>
       </c>
       <c r="E17" s="3">
-        <v>5904400</v>
+        <v>5797900</v>
       </c>
       <c r="F17" s="3">
-        <v>6694300</v>
+        <v>6573600</v>
       </c>
       <c r="G17" s="3">
-        <v>6903100</v>
+        <v>6778600</v>
       </c>
       <c r="H17" s="3">
-        <v>6535900</v>
+        <v>6418000</v>
       </c>
       <c r="I17" s="3">
-        <v>5773300</v>
+        <v>5669200</v>
       </c>
       <c r="J17" s="3">
-        <v>5186200</v>
+        <v>5092700</v>
       </c>
       <c r="K17" s="3">
         <v>5515100</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5064100</v>
+        <v>4972700</v>
       </c>
       <c r="E18" s="3">
-        <v>4813800</v>
+        <v>4727000</v>
       </c>
       <c r="F18" s="3">
-        <v>3536700</v>
+        <v>3472900</v>
       </c>
       <c r="G18" s="3">
-        <v>4140800</v>
+        <v>4066200</v>
       </c>
       <c r="H18" s="3">
-        <v>4066800</v>
+        <v>3993500</v>
       </c>
       <c r="I18" s="3">
-        <v>3881700</v>
+        <v>3811700</v>
       </c>
       <c r="J18" s="3">
-        <v>3725500</v>
+        <v>3658300</v>
       </c>
       <c r="K18" s="3">
         <v>3954000</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>348700</v>
+        <v>342400</v>
       </c>
       <c r="E20" s="3">
-        <v>326500</v>
+        <v>320600</v>
       </c>
       <c r="F20" s="3">
+        <v>233400</v>
+      </c>
+      <c r="G20" s="3">
+        <v>271900</v>
+      </c>
+      <c r="H20" s="3">
+        <v>492900</v>
+      </c>
+      <c r="I20" s="3">
         <v>237700</v>
       </c>
-      <c r="G20" s="3">
-        <v>276900</v>
-      </c>
-      <c r="H20" s="3">
-        <v>502000</v>
-      </c>
-      <c r="I20" s="3">
-        <v>242100</v>
-      </c>
       <c r="J20" s="3">
-        <v>277600</v>
+        <v>272600</v>
       </c>
       <c r="K20" s="3">
         <v>35300</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6692900</v>
+        <v>6579200</v>
       </c>
       <c r="E21" s="3">
-        <v>6323400</v>
+        <v>6215900</v>
       </c>
       <c r="F21" s="3">
-        <v>4950800</v>
+        <v>4868000</v>
       </c>
       <c r="G21" s="3">
-        <v>5574200</v>
+        <v>5480000</v>
       </c>
       <c r="H21" s="3">
-        <v>5552700</v>
+        <v>5458000</v>
       </c>
       <c r="I21" s="3">
-        <v>5072200</v>
+        <v>4986000</v>
       </c>
       <c r="J21" s="3">
-        <v>4910100</v>
+        <v>4826500</v>
       </c>
       <c r="K21" s="3">
         <v>4845500</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>405700</v>
+        <v>398400</v>
       </c>
       <c r="E22" s="3">
-        <v>451600</v>
+        <v>443500</v>
       </c>
       <c r="F22" s="3">
-        <v>410200</v>
+        <v>402800</v>
       </c>
       <c r="G22" s="3">
-        <v>398300</v>
+        <v>391100</v>
       </c>
       <c r="H22" s="3">
-        <v>362000</v>
+        <v>355500</v>
       </c>
       <c r="I22" s="3">
-        <v>356100</v>
+        <v>349700</v>
       </c>
       <c r="J22" s="3">
-        <v>355400</v>
+        <v>349000</v>
       </c>
       <c r="K22" s="3">
         <v>329600</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5007100</v>
+        <v>4916800</v>
       </c>
       <c r="E23" s="3">
-        <v>4688700</v>
+        <v>4604200</v>
       </c>
       <c r="F23" s="3">
-        <v>3364200</v>
+        <v>3303500</v>
       </c>
       <c r="G23" s="3">
-        <v>4019400</v>
+        <v>3946900</v>
       </c>
       <c r="H23" s="3">
-        <v>4206700</v>
+        <v>4130900</v>
       </c>
       <c r="I23" s="3">
-        <v>3767700</v>
+        <v>3699800</v>
       </c>
       <c r="J23" s="3">
-        <v>3647800</v>
+        <v>3582000</v>
       </c>
       <c r="K23" s="3">
         <v>3659700</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1217900</v>
+        <v>1195900</v>
       </c>
       <c r="E24" s="3">
-        <v>1066900</v>
+        <v>1047600</v>
       </c>
       <c r="F24" s="3">
-        <v>831400</v>
+        <v>816400</v>
       </c>
       <c r="G24" s="3">
-        <v>898100</v>
+        <v>881900</v>
       </c>
       <c r="H24" s="3">
-        <v>1002400</v>
+        <v>984400</v>
       </c>
       <c r="I24" s="3">
-        <v>-1598400</v>
+        <v>-1569600</v>
       </c>
       <c r="J24" s="3">
-        <v>952800</v>
+        <v>935700</v>
       </c>
       <c r="K24" s="3">
         <v>1003100</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3789200</v>
+        <v>3720800</v>
       </c>
       <c r="E26" s="3">
-        <v>3621800</v>
+        <v>3556500</v>
       </c>
       <c r="F26" s="3">
-        <v>2532800</v>
+        <v>2487100</v>
       </c>
       <c r="G26" s="3">
-        <v>3121400</v>
+        <v>3065100</v>
       </c>
       <c r="H26" s="3">
-        <v>3204300</v>
+        <v>3146500</v>
       </c>
       <c r="I26" s="3">
-        <v>5366100</v>
+        <v>5269400</v>
       </c>
       <c r="J26" s="3">
-        <v>2694900</v>
+        <v>2646300</v>
       </c>
       <c r="K26" s="3">
         <v>2656500</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3789200</v>
+        <v>3720800</v>
       </c>
       <c r="E27" s="3">
-        <v>3621800</v>
+        <v>3556500</v>
       </c>
       <c r="F27" s="3">
-        <v>2532800</v>
+        <v>2487100</v>
       </c>
       <c r="G27" s="3">
-        <v>3121400</v>
+        <v>3065100</v>
       </c>
       <c r="H27" s="3">
-        <v>3204300</v>
+        <v>3146500</v>
       </c>
       <c r="I27" s="3">
-        <v>5366100</v>
+        <v>5269400</v>
       </c>
       <c r="J27" s="3">
-        <v>2694900</v>
+        <v>2646300</v>
       </c>
       <c r="K27" s="3">
         <v>2656500</v>
@@ -1539,7 +1539,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="3">
-        <v>104400</v>
+        <v>102500</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1548,7 +1548,7 @@
         <v>8</v>
       </c>
       <c r="I29" s="3">
-        <v>-1306000</v>
+        <v>-1282400</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-348700</v>
+        <v>-342400</v>
       </c>
       <c r="E32" s="3">
-        <v>-326500</v>
+        <v>-320600</v>
       </c>
       <c r="F32" s="3">
+        <v>-233400</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-271900</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-492900</v>
+      </c>
+      <c r="I32" s="3">
         <v>-237700</v>
       </c>
-      <c r="G32" s="3">
-        <v>-276900</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-502000</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-242100</v>
-      </c>
       <c r="J32" s="3">
-        <v>-277600</v>
+        <v>-272600</v>
       </c>
       <c r="K32" s="3">
         <v>-35300</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3789200</v>
+        <v>3720800</v>
       </c>
       <c r="E33" s="3">
-        <v>3621800</v>
+        <v>3556500</v>
       </c>
       <c r="F33" s="3">
-        <v>2637200</v>
+        <v>2589600</v>
       </c>
       <c r="G33" s="3">
-        <v>3121400</v>
+        <v>3065100</v>
       </c>
       <c r="H33" s="3">
-        <v>3204300</v>
+        <v>3146500</v>
       </c>
       <c r="I33" s="3">
-        <v>4060100</v>
+        <v>3986900</v>
       </c>
       <c r="J33" s="3">
-        <v>2694900</v>
+        <v>2646300</v>
       </c>
       <c r="K33" s="3">
         <v>2656500</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3789200</v>
+        <v>3720800</v>
       </c>
       <c r="E35" s="3">
-        <v>3621800</v>
+        <v>3556500</v>
       </c>
       <c r="F35" s="3">
-        <v>2637200</v>
+        <v>2589600</v>
       </c>
       <c r="G35" s="3">
-        <v>3121400</v>
+        <v>3065100</v>
       </c>
       <c r="H35" s="3">
-        <v>3204300</v>
+        <v>3146500</v>
       </c>
       <c r="I35" s="3">
-        <v>4060100</v>
+        <v>3986900</v>
       </c>
       <c r="J35" s="3">
-        <v>2694900</v>
+        <v>2646300</v>
       </c>
       <c r="K35" s="3">
         <v>2656500</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>242800</v>
+        <v>238500</v>
       </c>
       <c r="E41" s="3">
-        <v>620400</v>
+        <v>609200</v>
       </c>
       <c r="F41" s="3">
-        <v>421300</v>
+        <v>413700</v>
       </c>
       <c r="G41" s="3">
-        <v>47400</v>
+        <v>46500</v>
       </c>
       <c r="H41" s="3">
-        <v>196900</v>
+        <v>193400</v>
       </c>
       <c r="I41" s="3">
-        <v>51800</v>
+        <v>50900</v>
       </c>
       <c r="J41" s="3">
-        <v>130300</v>
+        <v>128000</v>
       </c>
       <c r="K41" s="3">
         <v>114900</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1049100</v>
+        <v>1030200</v>
       </c>
       <c r="E43" s="3">
-        <v>795100</v>
+        <v>780800</v>
       </c>
       <c r="F43" s="3">
-        <v>843300</v>
+        <v>828100</v>
       </c>
       <c r="G43" s="3">
-        <v>898100</v>
+        <v>881900</v>
       </c>
       <c r="H43" s="3">
-        <v>865500</v>
+        <v>849900</v>
       </c>
       <c r="I43" s="3">
-        <v>728500</v>
+        <v>715400</v>
       </c>
       <c r="J43" s="3">
-        <v>647800</v>
+        <v>636100</v>
       </c>
       <c r="K43" s="3">
         <v>659300</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>512300</v>
+        <v>503100</v>
       </c>
       <c r="E44" s="3">
-        <v>436100</v>
+        <v>428200</v>
       </c>
       <c r="F44" s="3">
-        <v>431600</v>
+        <v>423800</v>
       </c>
       <c r="G44" s="3">
-        <v>452400</v>
+        <v>444200</v>
       </c>
       <c r="H44" s="3">
-        <v>412400</v>
+        <v>404900</v>
       </c>
       <c r="I44" s="3">
-        <v>313900</v>
+        <v>308300</v>
       </c>
       <c r="J44" s="3">
-        <v>262800</v>
+        <v>258100</v>
       </c>
       <c r="K44" s="3">
         <v>266600</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>577500</v>
+        <v>567100</v>
       </c>
       <c r="E45" s="3">
+        <v>672500</v>
+      </c>
+      <c r="F45" s="3">
+        <v>589600</v>
+      </c>
+      <c r="G45" s="3">
         <v>684800</v>
       </c>
-      <c r="F45" s="3">
-        <v>600400</v>
-      </c>
-      <c r="G45" s="3">
-        <v>697400</v>
-      </c>
       <c r="H45" s="3">
-        <v>544900</v>
+        <v>535100</v>
       </c>
       <c r="I45" s="3">
-        <v>527100</v>
+        <v>517600</v>
       </c>
       <c r="J45" s="3">
-        <v>519000</v>
+        <v>509600</v>
       </c>
       <c r="K45" s="3">
         <v>575900</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2381700</v>
+        <v>2338800</v>
       </c>
       <c r="E46" s="3">
-        <v>2536500</v>
+        <v>2490700</v>
       </c>
       <c r="F46" s="3">
-        <v>2296600</v>
+        <v>2255200</v>
       </c>
       <c r="G46" s="3">
-        <v>2095200</v>
+        <v>2057400</v>
       </c>
       <c r="H46" s="3">
-        <v>2019700</v>
+        <v>1983300</v>
       </c>
       <c r="I46" s="3">
-        <v>1621400</v>
+        <v>1592200</v>
       </c>
       <c r="J46" s="3">
-        <v>1559900</v>
+        <v>1531800</v>
       </c>
       <c r="K46" s="3">
         <v>1616600</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>88100</v>
+        <v>86500</v>
       </c>
       <c r="E47" s="3">
-        <v>111800</v>
+        <v>109800</v>
       </c>
       <c r="F47" s="3">
-        <v>88800</v>
+        <v>87200</v>
       </c>
       <c r="G47" s="3">
-        <v>85100</v>
+        <v>83600</v>
       </c>
       <c r="H47" s="3">
-        <v>71100</v>
+        <v>69800</v>
       </c>
       <c r="I47" s="3">
-        <v>73300</v>
+        <v>72000</v>
       </c>
       <c r="J47" s="3">
-        <v>74800</v>
+        <v>73400</v>
       </c>
       <c r="K47" s="3">
         <v>159900</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>32581000</v>
+        <v>31993500</v>
       </c>
       <c r="E48" s="3">
-        <v>30816000</v>
+        <v>30260300</v>
       </c>
       <c r="F48" s="3">
-        <v>29987500</v>
+        <v>29446800</v>
       </c>
       <c r="G48" s="3">
-        <v>29754300</v>
+        <v>29217800</v>
       </c>
       <c r="H48" s="3">
-        <v>27965600</v>
+        <v>27461300</v>
       </c>
       <c r="I48" s="3">
-        <v>25312200</v>
+        <v>24855700</v>
       </c>
       <c r="J48" s="3">
-        <v>24990900</v>
+        <v>24540200</v>
       </c>
       <c r="K48" s="3">
         <v>24496100</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>153300</v>
+        <v>150500</v>
       </c>
       <c r="E49" s="3">
-        <v>154700</v>
+        <v>151900</v>
       </c>
       <c r="F49" s="3">
-        <v>159200</v>
+        <v>156300</v>
       </c>
       <c r="G49" s="3">
-        <v>169500</v>
+        <v>166500</v>
       </c>
       <c r="H49" s="3">
-        <v>54000</v>
+        <v>53100</v>
       </c>
       <c r="I49" s="3">
-        <v>45900</v>
+        <v>45100</v>
       </c>
       <c r="J49" s="3">
-        <v>49600</v>
+        <v>48700</v>
       </c>
       <c r="K49" s="3">
         <v>53300</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2304000</v>
+        <v>2262500</v>
       </c>
       <c r="E52" s="3">
-        <v>2316600</v>
+        <v>2274800</v>
       </c>
       <c r="F52" s="3">
-        <v>638900</v>
+        <v>627400</v>
       </c>
       <c r="G52" s="3">
-        <v>311700</v>
+        <v>306100</v>
       </c>
       <c r="H52" s="3">
-        <v>402800</v>
+        <v>395500</v>
       </c>
       <c r="I52" s="3">
-        <v>806300</v>
+        <v>791700</v>
       </c>
       <c r="J52" s="3">
-        <v>760300</v>
+        <v>746600</v>
       </c>
       <c r="K52" s="3">
         <v>1006900</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>37508100</v>
+        <v>36831800</v>
       </c>
       <c r="E54" s="3">
-        <v>35935600</v>
+        <v>35287600</v>
       </c>
       <c r="F54" s="3">
-        <v>33171100</v>
+        <v>32573000</v>
       </c>
       <c r="G54" s="3">
-        <v>32415900</v>
+        <v>31831400</v>
       </c>
       <c r="H54" s="3">
-        <v>30513200</v>
+        <v>29963000</v>
       </c>
       <c r="I54" s="3">
-        <v>27859000</v>
+        <v>27356700</v>
       </c>
       <c r="J54" s="3">
-        <v>27435500</v>
+        <v>26940800</v>
       </c>
       <c r="K54" s="3">
         <v>27332800</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>706300</v>
+        <v>693600</v>
       </c>
       <c r="E57" s="3">
-        <v>668500</v>
+        <v>656500</v>
       </c>
       <c r="F57" s="3">
-        <v>577500</v>
+        <v>567100</v>
       </c>
       <c r="G57" s="3">
-        <v>641200</v>
+        <v>629600</v>
       </c>
       <c r="H57" s="3">
-        <v>727000</v>
+        <v>713900</v>
       </c>
       <c r="I57" s="3">
-        <v>1394800</v>
+        <v>1369700</v>
       </c>
       <c r="J57" s="3">
-        <v>1123900</v>
+        <v>1103600</v>
       </c>
       <c r="K57" s="3">
         <v>1166800</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>782600</v>
+        <v>768400</v>
       </c>
       <c r="E58" s="3">
-        <v>376100</v>
+        <v>369300</v>
       </c>
       <c r="F58" s="3">
-        <v>673700</v>
+        <v>661600</v>
       </c>
       <c r="G58" s="3">
-        <v>1428900</v>
+        <v>1403100</v>
       </c>
       <c r="H58" s="3">
-        <v>876600</v>
+        <v>860800</v>
       </c>
       <c r="I58" s="3">
-        <v>1539900</v>
+        <v>1512200</v>
       </c>
       <c r="J58" s="3">
-        <v>1102400</v>
+        <v>1082500</v>
       </c>
       <c r="K58" s="3">
         <v>1082700</v>
@@ -2618,22 +2618,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1355600</v>
+        <v>1331200</v>
       </c>
       <c r="E59" s="3">
-        <v>1265300</v>
+        <v>1242500</v>
       </c>
       <c r="F59" s="3">
-        <v>1172700</v>
+        <v>1151600</v>
       </c>
       <c r="G59" s="3">
-        <v>1103900</v>
+        <v>1084000</v>
       </c>
       <c r="H59" s="3">
-        <v>987600</v>
+        <v>969800</v>
       </c>
       <c r="I59" s="3">
-        <v>14100</v>
+        <v>13800</v>
       </c>
       <c r="J59" s="3">
         <v>700</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2844500</v>
+        <v>2793200</v>
       </c>
       <c r="E60" s="3">
-        <v>2309900</v>
+        <v>2268300</v>
       </c>
       <c r="F60" s="3">
-        <v>2423900</v>
+        <v>2380200</v>
       </c>
       <c r="G60" s="3">
-        <v>3173900</v>
+        <v>3116700</v>
       </c>
       <c r="H60" s="3">
-        <v>2591300</v>
+        <v>2544500</v>
       </c>
       <c r="I60" s="3">
-        <v>2948900</v>
+        <v>2895700</v>
       </c>
       <c r="J60" s="3">
-        <v>2227000</v>
+        <v>2186800</v>
       </c>
       <c r="K60" s="3">
         <v>2251100</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10640500</v>
+        <v>10448600</v>
       </c>
       <c r="E61" s="3">
-        <v>8867300</v>
+        <v>8707400</v>
       </c>
       <c r="F61" s="3">
-        <v>8881400</v>
+        <v>8721200</v>
       </c>
       <c r="G61" s="3">
-        <v>8785100</v>
+        <v>8626700</v>
       </c>
       <c r="H61" s="3">
-        <v>8429000</v>
+        <v>8277000</v>
       </c>
       <c r="I61" s="3">
-        <v>6476700</v>
+        <v>6359900</v>
       </c>
       <c r="J61" s="3">
-        <v>6994900</v>
+        <v>6868800</v>
       </c>
       <c r="K61" s="3">
         <v>6746500</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8191300</v>
+        <v>8043600</v>
       </c>
       <c r="E62" s="3">
-        <v>7919600</v>
+        <v>7776800</v>
       </c>
       <c r="F62" s="3">
-        <v>7317000</v>
+        <v>7185000</v>
       </c>
       <c r="G62" s="3">
-        <v>7100100</v>
+        <v>6972000</v>
       </c>
       <c r="H62" s="3">
-        <v>6432200</v>
+        <v>6316300</v>
       </c>
       <c r="I62" s="3">
-        <v>6102000</v>
+        <v>5992000</v>
       </c>
       <c r="J62" s="3">
-        <v>7225900</v>
+        <v>7095600</v>
       </c>
       <c r="K62" s="3">
         <v>7109900</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>21676300</v>
+        <v>21285400</v>
       </c>
       <c r="E66" s="3">
-        <v>19096800</v>
+        <v>18752500</v>
       </c>
       <c r="F66" s="3">
-        <v>18622300</v>
+        <v>18286500</v>
       </c>
       <c r="G66" s="3">
-        <v>19059100</v>
+        <v>18715400</v>
       </c>
       <c r="H66" s="3">
-        <v>17452500</v>
+        <v>17137800</v>
       </c>
       <c r="I66" s="3">
-        <v>15527600</v>
+        <v>15247600</v>
       </c>
       <c r="J66" s="3">
-        <v>16447800</v>
+        <v>16151300</v>
       </c>
       <c r="K66" s="3">
         <v>16107400</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>14458500</v>
+        <v>14197800</v>
       </c>
       <c r="E72" s="3">
-        <v>15355800</v>
+        <v>15078900</v>
       </c>
       <c r="F72" s="3">
-        <v>14186000</v>
+        <v>13930200</v>
       </c>
       <c r="G72" s="3">
-        <v>13055500</v>
+        <v>12820100</v>
       </c>
       <c r="H72" s="3">
-        <v>12307000</v>
+        <v>12085100</v>
       </c>
       <c r="I72" s="3">
-        <v>11539300</v>
+        <v>11331200</v>
       </c>
       <c r="J72" s="3">
-        <v>9803800</v>
+        <v>9627100</v>
       </c>
       <c r="K72" s="3">
         <v>9488600</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15831900</v>
+        <v>15546400</v>
       </c>
       <c r="E76" s="3">
-        <v>16838700</v>
+        <v>16535100</v>
       </c>
       <c r="F76" s="3">
-        <v>14548800</v>
+        <v>14286500</v>
       </c>
       <c r="G76" s="3">
-        <v>13356800</v>
+        <v>13116000</v>
       </c>
       <c r="H76" s="3">
-        <v>13060700</v>
+        <v>12825200</v>
       </c>
       <c r="I76" s="3">
-        <v>12331400</v>
+        <v>12109100</v>
       </c>
       <c r="J76" s="3">
-        <v>10987700</v>
+        <v>10789600</v>
       </c>
       <c r="K76" s="3">
         <v>11225400</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3789200</v>
+        <v>3720800</v>
       </c>
       <c r="E81" s="3">
-        <v>3621800</v>
+        <v>3556500</v>
       </c>
       <c r="F81" s="3">
-        <v>2637200</v>
+        <v>2589600</v>
       </c>
       <c r="G81" s="3">
-        <v>3121400</v>
+        <v>3065100</v>
       </c>
       <c r="H81" s="3">
-        <v>3204300</v>
+        <v>3146500</v>
       </c>
       <c r="I81" s="3">
-        <v>4060100</v>
+        <v>3986900</v>
       </c>
       <c r="J81" s="3">
-        <v>2694900</v>
+        <v>2646300</v>
       </c>
       <c r="K81" s="3">
         <v>2656500</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1280100</v>
+        <v>1257000</v>
       </c>
       <c r="E83" s="3">
-        <v>1183100</v>
+        <v>1161800</v>
       </c>
       <c r="F83" s="3">
-        <v>1176400</v>
+        <v>1155200</v>
       </c>
       <c r="G83" s="3">
-        <v>1156400</v>
+        <v>1135600</v>
       </c>
       <c r="H83" s="3">
-        <v>983900</v>
+        <v>966200</v>
       </c>
       <c r="I83" s="3">
-        <v>948400</v>
+        <v>931300</v>
       </c>
       <c r="J83" s="3">
-        <v>906900</v>
+        <v>890600</v>
       </c>
       <c r="K83" s="3">
         <v>869500</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4936000</v>
+        <v>4847000</v>
       </c>
       <c r="E89" s="3">
-        <v>5161000</v>
+        <v>5068000</v>
       </c>
       <c r="F89" s="3">
-        <v>4564300</v>
+        <v>4482000</v>
       </c>
       <c r="G89" s="3">
-        <v>4385200</v>
+        <v>4306100</v>
       </c>
       <c r="H89" s="3">
-        <v>4381500</v>
+        <v>4302400</v>
       </c>
       <c r="I89" s="3">
-        <v>4083800</v>
+        <v>4010200</v>
       </c>
       <c r="J89" s="3">
-        <v>3851400</v>
+        <v>3781900</v>
       </c>
       <c r="K89" s="3">
         <v>3859400</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2036000</v>
+        <v>-1999300</v>
       </c>
       <c r="E91" s="3">
-        <v>-2140400</v>
+        <v>-2101800</v>
       </c>
       <c r="F91" s="3">
-        <v>-2119700</v>
+        <v>-2081400</v>
       </c>
       <c r="G91" s="3">
-        <v>-2861500</v>
+        <v>-2809900</v>
       </c>
       <c r="H91" s="3">
-        <v>-2614200</v>
+        <v>-2567100</v>
       </c>
       <c r="I91" s="3">
-        <v>-1979000</v>
+        <v>-1943300</v>
       </c>
       <c r="J91" s="3">
-        <v>-1995300</v>
+        <v>-1959300</v>
       </c>
       <c r="K91" s="3">
         <v>-2031800</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1858300</v>
+        <v>-1824800</v>
       </c>
       <c r="E94" s="3">
-        <v>-2127100</v>
+        <v>-2088700</v>
       </c>
       <c r="F94" s="3">
-        <v>-2181100</v>
+        <v>-2141800</v>
       </c>
       <c r="G94" s="3">
-        <v>-3102100</v>
+        <v>-3046200</v>
       </c>
       <c r="H94" s="3">
-        <v>-2520200</v>
+        <v>-2474700</v>
       </c>
       <c r="I94" s="3">
-        <v>-2027100</v>
+        <v>-1990600</v>
       </c>
       <c r="J94" s="3">
-        <v>-1985600</v>
+        <v>-1949800</v>
       </c>
       <c r="K94" s="3">
         <v>-2122700</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1483700</v>
+        <v>-1456900</v>
       </c>
       <c r="E96" s="3">
-        <v>-1288200</v>
+        <v>-1265000</v>
       </c>
       <c r="F96" s="3">
-        <v>-1209700</v>
+        <v>-1187900</v>
       </c>
       <c r="G96" s="3">
-        <v>-1143100</v>
+        <v>-1122500</v>
       </c>
       <c r="H96" s="3">
-        <v>-986900</v>
+        <v>-969100</v>
       </c>
       <c r="I96" s="3">
-        <v>-917300</v>
+        <v>-900800</v>
       </c>
       <c r="J96" s="3">
-        <v>-858100</v>
+        <v>-842600</v>
       </c>
       <c r="K96" s="3">
         <v>-747900</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3455300</v>
+        <v>-3393000</v>
       </c>
       <c r="E100" s="3">
-        <v>-2855600</v>
+        <v>-2804100</v>
       </c>
       <c r="F100" s="3">
-        <v>-2004200</v>
+        <v>-1968000</v>
       </c>
       <c r="G100" s="3">
-        <v>-1408900</v>
+        <v>-1383500</v>
       </c>
       <c r="H100" s="3">
-        <v>-1708800</v>
+        <v>-1677900</v>
       </c>
       <c r="I100" s="3">
-        <v>-2143300</v>
+        <v>-2104700</v>
       </c>
       <c r="J100" s="3">
-        <v>-1879800</v>
+        <v>-1845900</v>
       </c>
       <c r="K100" s="3">
         <v>-1669200</v>
@@ -4225,7 +4225,7 @@
         <v>-1500</v>
       </c>
       <c r="J101" s="3">
-        <v>11100</v>
+        <v>10900</v>
       </c>
       <c r="K101" s="3">
         <v>8300</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-375400</v>
+        <v>-368600</v>
       </c>
       <c r="E102" s="3">
-        <v>178400</v>
+        <v>175200</v>
       </c>
       <c r="F102" s="3">
-        <v>379100</v>
+        <v>372200</v>
       </c>
       <c r="G102" s="3">
-        <v>-126600</v>
+        <v>-124300</v>
       </c>
       <c r="H102" s="3">
-        <v>152500</v>
+        <v>149800</v>
       </c>
       <c r="I102" s="3">
-        <v>-88100</v>
+        <v>-86500</v>
       </c>
       <c r="J102" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="K102" s="3">
         <v>75800</v>
